--- a/Bases_de_Dados_(2022-2023)/Slovenia PrvaLiga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Slovenia PrvaLiga_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="173">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -394,6 +394,15 @@
     <t>['25', '49', '90+4']</t>
   </si>
   <si>
+    <t>['9', '27']</t>
+  </si>
+  <si>
+    <t>['73']</t>
+  </si>
+  <si>
+    <t>['24']</t>
+  </si>
+  <si>
     <t>['67']</t>
   </si>
   <si>
@@ -505,9 +514,6 @@
     <t>['16']</t>
   </si>
   <si>
-    <t>['24']</t>
-  </si>
-  <si>
     <t>['10']</t>
   </si>
   <si>
@@ -521,6 +527,12 @@
   </si>
   <si>
     <t>['44', '59', '73']</t>
+  </si>
+  <si>
+    <t>['12']</t>
+  </si>
+  <si>
+    <t>['29']</t>
   </si>
 </sst>
 </file>
@@ -882,7 +894,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK74"/>
+  <dimension ref="A1:BK77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1126,7 +1138,7 @@
         <v>75</v>
       </c>
       <c r="P2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1213,7 +1225,7 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AT2">
         <v>0.57</v>
@@ -1508,7 +1520,7 @@
         <v>76</v>
       </c>
       <c r="P4" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="Q4">
         <v>7</v>
@@ -1980,7 +1992,7 @@
         <v>0.86</v>
       </c>
       <c r="AT6">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2081,7 +2093,7 @@
         <v>79</v>
       </c>
       <c r="P7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="Q7">
         <v>10</v>
@@ -2272,7 +2284,7 @@
         <v>80</v>
       </c>
       <c r="P8" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="Q8">
         <v>10</v>
@@ -2744,7 +2756,7 @@
         <v>1.71</v>
       </c>
       <c r="AT10">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -2845,7 +2857,7 @@
         <v>82</v>
       </c>
       <c r="P11" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="Q11">
         <v>9</v>
@@ -2932,10 +2944,10 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AT11">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -3036,7 +3048,7 @@
         <v>76</v>
       </c>
       <c r="P12" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="Q12">
         <v>10</v>
@@ -3508,7 +3520,7 @@
         <v>3</v>
       </c>
       <c r="AT14">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU14">
         <v>1.29</v>
@@ -3609,7 +3621,7 @@
         <v>85</v>
       </c>
       <c r="P15" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="Q15">
         <v>1</v>
@@ -3696,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="AS15">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AT15">
         <v>1.63</v>
@@ -3800,7 +3812,7 @@
         <v>86</v>
       </c>
       <c r="P16" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="Q16">
         <v>4</v>
@@ -4182,7 +4194,7 @@
         <v>76</v>
       </c>
       <c r="P18" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="Q18">
         <v>5</v>
@@ -4272,7 +4284,7 @@
         <v>1.71</v>
       </c>
       <c r="AT18">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU18">
         <v>2.35</v>
@@ -4373,7 +4385,7 @@
         <v>88</v>
       </c>
       <c r="P19" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="Q19">
         <v>5</v>
@@ -4564,7 +4576,7 @@
         <v>76</v>
       </c>
       <c r="P20" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="Q20">
         <v>6</v>
@@ -4755,7 +4767,7 @@
         <v>89</v>
       </c>
       <c r="P21" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="Q21">
         <v>12</v>
@@ -4845,7 +4857,7 @@
         <v>0.86</v>
       </c>
       <c r="AT21">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AU21">
         <v>1.98</v>
@@ -5036,7 +5048,7 @@
         <v>2.5</v>
       </c>
       <c r="AT22">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU22">
         <v>2.42</v>
@@ -5137,7 +5149,7 @@
         <v>91</v>
       </c>
       <c r="P23" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="Q23">
         <v>4</v>
@@ -5224,7 +5236,7 @@
         <v>0.5</v>
       </c>
       <c r="AS23">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AT23">
         <v>0.57</v>
@@ -5415,7 +5427,7 @@
         <v>3</v>
       </c>
       <c r="AS24">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AT24">
         <v>0.75</v>
@@ -5519,7 +5531,7 @@
         <v>93</v>
       </c>
       <c r="P25" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="Q25">
         <v>6</v>
@@ -6092,7 +6104,7 @@
         <v>76</v>
       </c>
       <c r="P28" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="Q28">
         <v>6</v>
@@ -6283,7 +6295,7 @@
         <v>76</v>
       </c>
       <c r="P29" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="Q29">
         <v>6</v>
@@ -6370,7 +6382,7 @@
         <v>3</v>
       </c>
       <c r="AS29">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AT29">
         <v>1.86</v>
@@ -6474,7 +6486,7 @@
         <v>95</v>
       </c>
       <c r="P30" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="Q30">
         <v>4</v>
@@ -6755,7 +6767,7 @@
         <v>0.86</v>
       </c>
       <c r="AT31">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU31">
         <v>2.14</v>
@@ -6856,7 +6868,7 @@
         <v>76</v>
       </c>
       <c r="P32" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="Q32">
         <v>5</v>
@@ -6946,7 +6958,7 @@
         <v>0.88</v>
       </c>
       <c r="AT32">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU32">
         <v>1.31</v>
@@ -7429,7 +7441,7 @@
         <v>76</v>
       </c>
       <c r="P35" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="Q35">
         <v>6</v>
@@ -7519,7 +7531,7 @@
         <v>1.63</v>
       </c>
       <c r="AT35">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AU35">
         <v>2.15</v>
@@ -7620,7 +7632,7 @@
         <v>76</v>
       </c>
       <c r="P36" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="Q36">
         <v>9</v>
@@ -7707,7 +7719,7 @@
         <v>0</v>
       </c>
       <c r="AS36">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AT36">
         <v>1.63</v>
@@ -8002,7 +8014,7 @@
         <v>76</v>
       </c>
       <c r="P38" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="Q38">
         <v>3</v>
@@ -8089,7 +8101,7 @@
         <v>0.75</v>
       </c>
       <c r="AS38">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AT38">
         <v>0.86</v>
@@ -8193,7 +8205,7 @@
         <v>98</v>
       </c>
       <c r="P39" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="Q39">
         <v>4</v>
@@ -8384,7 +8396,7 @@
         <v>99</v>
       </c>
       <c r="P40" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -8474,7 +8486,7 @@
         <v>3</v>
       </c>
       <c r="AT40">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU40">
         <v>1.7</v>
@@ -8575,7 +8587,7 @@
         <v>100</v>
       </c>
       <c r="P41" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="Q41">
         <v>2</v>
@@ -8665,7 +8677,7 @@
         <v>0.86</v>
       </c>
       <c r="AT41">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU41">
         <v>1.32</v>
@@ -8957,7 +8969,7 @@
         <v>102</v>
       </c>
       <c r="P43" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="Q43">
         <v>7</v>
@@ -9148,7 +9160,7 @@
         <v>103</v>
       </c>
       <c r="P44" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="Q44">
         <v>6</v>
@@ -9339,7 +9351,7 @@
         <v>76</v>
       </c>
       <c r="P45" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="Q45">
         <v>4</v>
@@ -9530,7 +9542,7 @@
         <v>104</v>
       </c>
       <c r="P46" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="Q46">
         <v>5</v>
@@ -9617,10 +9629,10 @@
         <v>2</v>
       </c>
       <c r="AS46">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AT46">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AU46">
         <v>2.35</v>
@@ -9721,7 +9733,7 @@
         <v>76</v>
       </c>
       <c r="P47" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="Q47">
         <v>4</v>
@@ -9811,7 +9823,7 @@
         <v>0.88</v>
       </c>
       <c r="AT47">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AU47">
         <v>1.48</v>
@@ -9912,7 +9924,7 @@
         <v>105</v>
       </c>
       <c r="P48" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="Q48">
         <v>1</v>
@@ -9999,7 +10011,7 @@
         <v>2.25</v>
       </c>
       <c r="AS48">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AT48">
         <v>1.86</v>
@@ -10294,7 +10306,7 @@
         <v>76</v>
       </c>
       <c r="P50" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="Q50">
         <v>5</v>
@@ -10485,7 +10497,7 @@
         <v>107</v>
       </c>
       <c r="P51" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="Q51">
         <v>5</v>
@@ -10575,7 +10587,7 @@
         <v>2.5</v>
       </c>
       <c r="AT51">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU51">
         <v>2.33</v>
@@ -10676,7 +10688,7 @@
         <v>108</v>
       </c>
       <c r="P52" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="Q52">
         <v>4</v>
@@ -11145,10 +11157,10 @@
         <v>0.8</v>
       </c>
       <c r="AS54">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AT54">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU54">
         <v>1.84</v>
@@ -11249,7 +11261,7 @@
         <v>111</v>
       </c>
       <c r="P55" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="Q55">
         <v>5</v>
@@ -11440,7 +11452,7 @@
         <v>112</v>
       </c>
       <c r="P56" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="Q56">
         <v>1</v>
@@ -11721,7 +11733,7 @@
         <v>0.88</v>
       </c>
       <c r="AT57">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU57">
         <v>1.62</v>
@@ -11822,7 +11834,7 @@
         <v>76</v>
       </c>
       <c r="P58" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="Q58">
         <v>3</v>
@@ -11912,7 +11924,7 @@
         <v>0.71</v>
       </c>
       <c r="AT58">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AU58">
         <v>1.99</v>
@@ -12204,7 +12216,7 @@
         <v>115</v>
       </c>
       <c r="P60" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="Q60">
         <v>5</v>
@@ -12291,7 +12303,7 @@
         <v>1.2</v>
       </c>
       <c r="AS60">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AT60">
         <v>0.86</v>
@@ -12395,7 +12407,7 @@
         <v>116</v>
       </c>
       <c r="P61" t="s">
-        <v>163</v>
+        <v>128</v>
       </c>
       <c r="Q61">
         <v>10</v>
@@ -12867,7 +12879,7 @@
         <v>1.63</v>
       </c>
       <c r="AT63">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU63">
         <v>1.84</v>
@@ -12968,7 +12980,7 @@
         <v>118</v>
       </c>
       <c r="P64" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q64">
         <v>9</v>
@@ -13055,7 +13067,7 @@
         <v>0.67</v>
       </c>
       <c r="AS64">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AT64">
         <v>0.63</v>
@@ -13437,7 +13449,7 @@
         <v>1</v>
       </c>
       <c r="AS66">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AT66">
         <v>0.75</v>
@@ -13541,7 +13553,7 @@
         <v>76</v>
       </c>
       <c r="P67" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q67">
         <v>4</v>
@@ -13631,7 +13643,7 @@
         <v>0.71</v>
       </c>
       <c r="AT67">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU67">
         <v>1.89</v>
@@ -13732,7 +13744,7 @@
         <v>76</v>
       </c>
       <c r="P68" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q68">
         <v>4</v>
@@ -14305,7 +14317,7 @@
         <v>122</v>
       </c>
       <c r="P71" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q71">
         <v>4</v>
@@ -14395,7 +14407,7 @@
         <v>0.86</v>
       </c>
       <c r="AT71">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AU71">
         <v>1.35</v>
@@ -14687,7 +14699,7 @@
         <v>124</v>
       </c>
       <c r="P73" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="Q73">
         <v>6</v>
@@ -14878,7 +14890,7 @@
         <v>125</v>
       </c>
       <c r="P74" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q74">
         <v>7</v>
@@ -15020,6 +15032,579 @@
       </c>
       <c r="BK74">
         <v>19</v>
+      </c>
+    </row>
+    <row r="75" spans="1:63">
+      <c r="A75" s="1">
+        <v>74</v>
+      </c>
+      <c r="B75">
+        <v>2529640</v>
+      </c>
+      <c r="C75" t="s">
+        <v>63</v>
+      </c>
+      <c r="D75" t="s">
+        <v>64</v>
+      </c>
+      <c r="E75" s="2">
+        <v>44864.45833333334</v>
+      </c>
+      <c r="F75">
+        <v>15</v>
+      </c>
+      <c r="G75" t="s">
+        <v>68</v>
+      </c>
+      <c r="H75" t="s">
+        <v>65</v>
+      </c>
+      <c r="I75">
+        <v>2</v>
+      </c>
+      <c r="J75">
+        <v>1</v>
+      </c>
+      <c r="K75">
+        <v>3</v>
+      </c>
+      <c r="L75">
+        <v>2</v>
+      </c>
+      <c r="M75">
+        <v>1</v>
+      </c>
+      <c r="N75">
+        <v>3</v>
+      </c>
+      <c r="O75" t="s">
+        <v>126</v>
+      </c>
+      <c r="P75" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q75">
+        <v>3</v>
+      </c>
+      <c r="R75">
+        <v>5</v>
+      </c>
+      <c r="S75">
+        <v>8</v>
+      </c>
+      <c r="T75">
+        <v>2.4</v>
+      </c>
+      <c r="U75">
+        <v>2.1</v>
+      </c>
+      <c r="V75">
+        <v>4.2</v>
+      </c>
+      <c r="W75">
+        <v>1.36</v>
+      </c>
+      <c r="X75">
+        <v>3</v>
+      </c>
+      <c r="Y75">
+        <v>2.75</v>
+      </c>
+      <c r="Z75">
+        <v>1.4</v>
+      </c>
+      <c r="AA75">
+        <v>6.5</v>
+      </c>
+      <c r="AB75">
+        <v>1.1</v>
+      </c>
+      <c r="AC75">
+        <v>2</v>
+      </c>
+      <c r="AD75">
+        <v>3.05</v>
+      </c>
+      <c r="AE75">
+        <v>3.4</v>
+      </c>
+      <c r="AF75">
+        <v>1.06</v>
+      </c>
+      <c r="AG75">
+        <v>8</v>
+      </c>
+      <c r="AH75">
+        <v>1.33</v>
+      </c>
+      <c r="AI75">
+        <v>3.25</v>
+      </c>
+      <c r="AJ75">
+        <v>1.87</v>
+      </c>
+      <c r="AK75">
+        <v>1.86</v>
+      </c>
+      <c r="AL75">
+        <v>1.8</v>
+      </c>
+      <c r="AM75">
+        <v>1.91</v>
+      </c>
+      <c r="AN75">
+        <v>1.22</v>
+      </c>
+      <c r="AO75">
+        <v>1.3</v>
+      </c>
+      <c r="AP75">
+        <v>1.85</v>
+      </c>
+      <c r="AQ75">
+        <v>3</v>
+      </c>
+      <c r="AR75">
+        <v>1.86</v>
+      </c>
+      <c r="AS75">
+        <v>3</v>
+      </c>
+      <c r="AT75">
+        <v>1.63</v>
+      </c>
+      <c r="AU75">
+        <v>1.89</v>
+      </c>
+      <c r="AV75">
+        <v>2.09</v>
+      </c>
+      <c r="AW75">
+        <v>3.98</v>
+      </c>
+      <c r="AX75">
+        <v>1.41</v>
+      </c>
+      <c r="AY75">
+        <v>6</v>
+      </c>
+      <c r="AZ75">
+        <v>3.2</v>
+      </c>
+      <c r="BA75">
+        <v>1.22</v>
+      </c>
+      <c r="BB75">
+        <v>1.36</v>
+      </c>
+      <c r="BC75">
+        <v>1.72</v>
+      </c>
+      <c r="BD75">
+        <v>2.14</v>
+      </c>
+      <c r="BE75">
+        <v>2.75</v>
+      </c>
+      <c r="BF75">
+        <v>5</v>
+      </c>
+      <c r="BG75">
+        <v>7</v>
+      </c>
+      <c r="BH75">
+        <v>7</v>
+      </c>
+      <c r="BI75">
+        <v>5</v>
+      </c>
+      <c r="BJ75">
+        <v>12</v>
+      </c>
+      <c r="BK75">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="76" spans="1:63">
+      <c r="A76" s="1">
+        <v>75</v>
+      </c>
+      <c r="B76">
+        <v>2529637</v>
+      </c>
+      <c r="C76" t="s">
+        <v>63</v>
+      </c>
+      <c r="D76" t="s">
+        <v>64</v>
+      </c>
+      <c r="E76" s="2">
+        <v>44867.53125</v>
+      </c>
+      <c r="F76">
+        <v>15</v>
+      </c>
+      <c r="G76" t="s">
+        <v>73</v>
+      </c>
+      <c r="H76" t="s">
+        <v>72</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>1</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>1</v>
+      </c>
+      <c r="O76" t="s">
+        <v>127</v>
+      </c>
+      <c r="P76" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q76">
+        <v>6</v>
+      </c>
+      <c r="R76">
+        <v>3</v>
+      </c>
+      <c r="S76">
+        <v>9</v>
+      </c>
+      <c r="T76">
+        <v>2.52</v>
+      </c>
+      <c r="U76">
+        <v>2.2</v>
+      </c>
+      <c r="V76">
+        <v>4.1</v>
+      </c>
+      <c r="W76">
+        <v>1.4</v>
+      </c>
+      <c r="X76">
+        <v>2.75</v>
+      </c>
+      <c r="Y76">
+        <v>3</v>
+      </c>
+      <c r="Z76">
+        <v>1.36</v>
+      </c>
+      <c r="AA76">
+        <v>8</v>
+      </c>
+      <c r="AB76">
+        <v>1.08</v>
+      </c>
+      <c r="AC76">
+        <v>1.85</v>
+      </c>
+      <c r="AD76">
+        <v>3.6</v>
+      </c>
+      <c r="AE76">
+        <v>3.68</v>
+      </c>
+      <c r="AF76">
+        <v>1.05</v>
+      </c>
+      <c r="AG76">
+        <v>8</v>
+      </c>
+      <c r="AH76">
+        <v>1.3</v>
+      </c>
+      <c r="AI76">
+        <v>3.2</v>
+      </c>
+      <c r="AJ76">
+        <v>1.9</v>
+      </c>
+      <c r="AK76">
+        <v>1.8</v>
+      </c>
+      <c r="AL76">
+        <v>1.79</v>
+      </c>
+      <c r="AM76">
+        <v>1.98</v>
+      </c>
+      <c r="AN76">
+        <v>1.29</v>
+      </c>
+      <c r="AO76">
+        <v>1.31</v>
+      </c>
+      <c r="AP76">
+        <v>1.75</v>
+      </c>
+      <c r="AQ76">
+        <v>1.86</v>
+      </c>
+      <c r="AR76">
+        <v>0.71</v>
+      </c>
+      <c r="AS76">
+        <v>2</v>
+      </c>
+      <c r="AT76">
+        <v>0.63</v>
+      </c>
+      <c r="AU76">
+        <v>2.18</v>
+      </c>
+      <c r="AV76">
+        <v>1.58</v>
+      </c>
+      <c r="AW76">
+        <v>3.76</v>
+      </c>
+      <c r="AX76">
+        <v>1.52</v>
+      </c>
+      <c r="AY76">
+        <v>5.75</v>
+      </c>
+      <c r="AZ76">
+        <v>2.8</v>
+      </c>
+      <c r="BA76">
+        <v>1.22</v>
+      </c>
+      <c r="BB76">
+        <v>1.36</v>
+      </c>
+      <c r="BC76">
+        <v>1.72</v>
+      </c>
+      <c r="BD76">
+        <v>2.13</v>
+      </c>
+      <c r="BE76">
+        <v>2.7</v>
+      </c>
+      <c r="BF76">
+        <v>4</v>
+      </c>
+      <c r="BG76">
+        <v>4</v>
+      </c>
+      <c r="BH76">
+        <v>5</v>
+      </c>
+      <c r="BI76">
+        <v>4</v>
+      </c>
+      <c r="BJ76">
+        <v>9</v>
+      </c>
+      <c r="BK76">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="1:63">
+      <c r="A77" s="1">
+        <v>76</v>
+      </c>
+      <c r="B77">
+        <v>2529642</v>
+      </c>
+      <c r="C77" t="s">
+        <v>63</v>
+      </c>
+      <c r="D77" t="s">
+        <v>64</v>
+      </c>
+      <c r="E77" s="2">
+        <v>44869.67708333334</v>
+      </c>
+      <c r="F77">
+        <v>16</v>
+      </c>
+      <c r="G77" t="s">
+        <v>65</v>
+      </c>
+      <c r="H77" t="s">
+        <v>66</v>
+      </c>
+      <c r="I77">
+        <v>1</v>
+      </c>
+      <c r="J77">
+        <v>1</v>
+      </c>
+      <c r="K77">
+        <v>2</v>
+      </c>
+      <c r="L77">
+        <v>1</v>
+      </c>
+      <c r="M77">
+        <v>1</v>
+      </c>
+      <c r="N77">
+        <v>2</v>
+      </c>
+      <c r="O77" t="s">
+        <v>128</v>
+      </c>
+      <c r="P77" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q77">
+        <v>3</v>
+      </c>
+      <c r="R77">
+        <v>1</v>
+      </c>
+      <c r="S77">
+        <v>4</v>
+      </c>
+      <c r="T77">
+        <v>2.47</v>
+      </c>
+      <c r="U77">
+        <v>2.17</v>
+      </c>
+      <c r="V77">
+        <v>4.28</v>
+      </c>
+      <c r="W77">
+        <v>1.36</v>
+      </c>
+      <c r="X77">
+        <v>3</v>
+      </c>
+      <c r="Y77">
+        <v>2.62</v>
+      </c>
+      <c r="Z77">
+        <v>1.44</v>
+      </c>
+      <c r="AA77">
+        <v>6.5</v>
+      </c>
+      <c r="AB77">
+        <v>1.1</v>
+      </c>
+      <c r="AC77">
+        <v>1.91</v>
+      </c>
+      <c r="AD77">
+        <v>3.5</v>
+      </c>
+      <c r="AE77">
+        <v>3.6</v>
+      </c>
+      <c r="AF77">
+        <v>1.06</v>
+      </c>
+      <c r="AG77">
+        <v>8</v>
+      </c>
+      <c r="AH77">
+        <v>1.3</v>
+      </c>
+      <c r="AI77">
+        <v>3.4</v>
+      </c>
+      <c r="AJ77">
+        <v>1.8</v>
+      </c>
+      <c r="AK77">
+        <v>1.9</v>
+      </c>
+      <c r="AL77">
+        <v>1.69</v>
+      </c>
+      <c r="AM77">
+        <v>2.11</v>
+      </c>
+      <c r="AN77">
+        <v>1.23</v>
+      </c>
+      <c r="AO77">
+        <v>1.24</v>
+      </c>
+      <c r="AP77">
+        <v>1.78</v>
+      </c>
+      <c r="AQ77">
+        <v>1.86</v>
+      </c>
+      <c r="AR77">
+        <v>1.14</v>
+      </c>
+      <c r="AS77">
+        <v>1.75</v>
+      </c>
+      <c r="AT77">
+        <v>1.13</v>
+      </c>
+      <c r="AU77">
+        <v>1.81</v>
+      </c>
+      <c r="AV77">
+        <v>1.42</v>
+      </c>
+      <c r="AW77">
+        <v>3.23</v>
+      </c>
+      <c r="AX77">
+        <v>1.36</v>
+      </c>
+      <c r="AY77">
+        <v>6.5</v>
+      </c>
+      <c r="AZ77">
+        <v>3.6</v>
+      </c>
+      <c r="BA77">
+        <v>1.19</v>
+      </c>
+      <c r="BB77">
+        <v>1.37</v>
+      </c>
+      <c r="BC77">
+        <v>1.64</v>
+      </c>
+      <c r="BD77">
+        <v>2.01</v>
+      </c>
+      <c r="BE77">
+        <v>2.55</v>
+      </c>
+      <c r="BF77">
+        <v>4</v>
+      </c>
+      <c r="BG77">
+        <v>4</v>
+      </c>
+      <c r="BH77">
+        <v>9</v>
+      </c>
+      <c r="BI77">
+        <v>9</v>
+      </c>
+      <c r="BJ77">
+        <v>13</v>
+      </c>
+      <c r="BK77">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Slovenia PrvaLiga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Slovenia PrvaLiga_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="184">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -403,6 +403,18 @@
     <t>['24']</t>
   </si>
   <si>
+    <t>['74', '89']</t>
+  </si>
+  <si>
+    <t>['15', '32', '43', '74', '89']</t>
+  </si>
+  <si>
+    <t>['60']</t>
+  </si>
+  <si>
+    <t>['9', '58']</t>
+  </si>
+  <si>
     <t>['67']</t>
   </si>
   <si>
@@ -533,6 +545,27 @@
   </si>
   <si>
     <t>['29']</t>
+  </si>
+  <si>
+    <t>['22', '80']</t>
+  </si>
+  <si>
+    <t>['18']</t>
+  </si>
+  <si>
+    <t>['31']</t>
+  </si>
+  <si>
+    <t>['45+4']</t>
+  </si>
+  <si>
+    <t>['61']</t>
+  </si>
+  <si>
+    <t>['48', '69', '88']</t>
+  </si>
+  <si>
+    <t>['1', '12', '24', '66']</t>
   </si>
 </sst>
 </file>
@@ -894,7 +927,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK77"/>
+  <dimension ref="A1:BK86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1138,7 +1171,7 @@
         <v>75</v>
       </c>
       <c r="P2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1228,7 +1261,7 @@
         <v>1.75</v>
       </c>
       <c r="AT2">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1416,10 +1449,10 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AT3">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -1520,7 +1553,7 @@
         <v>76</v>
       </c>
       <c r="P4" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="Q4">
         <v>7</v>
@@ -1607,10 +1640,10 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AT4">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -1801,7 +1834,7 @@
         <v>3</v>
       </c>
       <c r="AT5">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -1989,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AT6">
         <v>0.63</v>
@@ -2093,7 +2126,7 @@
         <v>79</v>
       </c>
       <c r="P7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="Q7">
         <v>10</v>
@@ -2180,10 +2213,10 @@
         <v>1</v>
       </c>
       <c r="AS7">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AT7">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -2284,7 +2317,7 @@
         <v>80</v>
       </c>
       <c r="P8" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="Q8">
         <v>10</v>
@@ -2371,10 +2404,10 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AT8">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU8">
         <v>1.17</v>
@@ -2562,10 +2595,10 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AT9">
-        <v>1.86</v>
+        <v>2.11</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -2753,10 +2786,10 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AT10">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -2857,7 +2890,7 @@
         <v>82</v>
       </c>
       <c r="P11" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="Q11">
         <v>9</v>
@@ -2944,7 +2977,7 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AT11">
         <v>1.13</v>
@@ -3048,7 +3081,7 @@
         <v>76</v>
       </c>
       <c r="P12" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="Q12">
         <v>10</v>
@@ -3135,10 +3168,10 @@
         <v>3</v>
       </c>
       <c r="AS12">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AT12">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AU12">
         <v>2.09</v>
@@ -3326,10 +3359,10 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AT13">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AU13">
         <v>1.49</v>
@@ -3621,7 +3654,7 @@
         <v>85</v>
       </c>
       <c r="P15" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="Q15">
         <v>1</v>
@@ -3711,7 +3744,7 @@
         <v>1.75</v>
       </c>
       <c r="AT15">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AU15">
         <v>2.44</v>
@@ -3812,7 +3845,7 @@
         <v>86</v>
       </c>
       <c r="P16" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="Q16">
         <v>4</v>
@@ -3899,10 +3932,10 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AT16">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AU16">
         <v>0</v>
@@ -4090,10 +4123,10 @@
         <v>1</v>
       </c>
       <c r="AS17">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AT17">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AU17">
         <v>1.43</v>
@@ -4194,7 +4227,7 @@
         <v>76</v>
       </c>
       <c r="P18" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="Q18">
         <v>5</v>
@@ -4281,7 +4314,7 @@
         <v>0</v>
       </c>
       <c r="AS18">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AT18">
         <v>1.13</v>
@@ -4385,7 +4418,7 @@
         <v>88</v>
       </c>
       <c r="P19" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="Q19">
         <v>5</v>
@@ -4472,10 +4505,10 @@
         <v>0.5</v>
       </c>
       <c r="AS19">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AT19">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AU19">
         <v>1.47</v>
@@ -4576,7 +4609,7 @@
         <v>76</v>
       </c>
       <c r="P20" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="Q20">
         <v>6</v>
@@ -4663,10 +4696,10 @@
         <v>3</v>
       </c>
       <c r="AS20">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AT20">
-        <v>1.86</v>
+        <v>2.11</v>
       </c>
       <c r="AU20">
         <v>2.1</v>
@@ -4767,7 +4800,7 @@
         <v>89</v>
       </c>
       <c r="P21" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="Q21">
         <v>12</v>
@@ -4854,10 +4887,10 @@
         <v>0</v>
       </c>
       <c r="AS21">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AT21">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AU21">
         <v>1.98</v>
@@ -5045,7 +5078,7 @@
         <v>0</v>
       </c>
       <c r="AS22">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AT22">
         <v>0.63</v>
@@ -5149,7 +5182,7 @@
         <v>91</v>
       </c>
       <c r="P23" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="Q23">
         <v>4</v>
@@ -5236,10 +5269,10 @@
         <v>0.5</v>
       </c>
       <c r="AS23">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AT23">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AU23">
         <v>3.08</v>
@@ -5430,7 +5463,7 @@
         <v>1.75</v>
       </c>
       <c r="AT24">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AU24">
         <v>2.1</v>
@@ -5531,7 +5564,7 @@
         <v>93</v>
       </c>
       <c r="P25" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="Q25">
         <v>6</v>
@@ -5618,10 +5651,10 @@
         <v>0</v>
       </c>
       <c r="AS25">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AT25">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AU25">
         <v>2.01</v>
@@ -5812,7 +5845,7 @@
         <v>3</v>
       </c>
       <c r="AT26">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU26">
         <v>1.28</v>
@@ -6000,10 +6033,10 @@
         <v>0.67</v>
       </c>
       <c r="AS27">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AT27">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AU27">
         <v>1.35</v>
@@ -6104,7 +6137,7 @@
         <v>76</v>
       </c>
       <c r="P28" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="Q28">
         <v>6</v>
@@ -6191,10 +6224,10 @@
         <v>0.67</v>
       </c>
       <c r="AS28">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AT28">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AU28">
         <v>2.01</v>
@@ -6295,7 +6328,7 @@
         <v>76</v>
       </c>
       <c r="P29" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="Q29">
         <v>6</v>
@@ -6385,7 +6418,7 @@
         <v>1.75</v>
       </c>
       <c r="AT29">
-        <v>1.86</v>
+        <v>2.11</v>
       </c>
       <c r="AU29">
         <v>2.15</v>
@@ -6486,7 +6519,7 @@
         <v>95</v>
       </c>
       <c r="P30" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="Q30">
         <v>4</v>
@@ -6573,10 +6606,10 @@
         <v>0.67</v>
       </c>
       <c r="AS30">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AT30">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AU30">
         <v>1.86</v>
@@ -6764,7 +6797,7 @@
         <v>1.5</v>
       </c>
       <c r="AS31">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AT31">
         <v>1.13</v>
@@ -6868,7 +6901,7 @@
         <v>76</v>
       </c>
       <c r="P32" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="Q32">
         <v>5</v>
@@ -6955,7 +6988,7 @@
         <v>0</v>
       </c>
       <c r="AS32">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AT32">
         <v>0.63</v>
@@ -7146,10 +7179,10 @@
         <v>0</v>
       </c>
       <c r="AS33">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AT33">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU33">
         <v>2.5</v>
@@ -7340,7 +7373,7 @@
         <v>3</v>
       </c>
       <c r="AT34">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AU34">
         <v>1.62</v>
@@ -7441,7 +7474,7 @@
         <v>76</v>
       </c>
       <c r="P35" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="Q35">
         <v>6</v>
@@ -7528,10 +7561,10 @@
         <v>1.5</v>
       </c>
       <c r="AS35">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AT35">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AU35">
         <v>2.15</v>
@@ -7632,7 +7665,7 @@
         <v>76</v>
       </c>
       <c r="P36" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="Q36">
         <v>9</v>
@@ -7719,10 +7752,10 @@
         <v>0</v>
       </c>
       <c r="AS36">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AT36">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AU36">
         <v>2.4</v>
@@ -7910,10 +7943,10 @@
         <v>1.25</v>
       </c>
       <c r="AS37">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AT37">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AU37">
         <v>2.15</v>
@@ -8014,7 +8047,7 @@
         <v>76</v>
       </c>
       <c r="P38" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="Q38">
         <v>3</v>
@@ -8104,7 +8137,7 @@
         <v>1.75</v>
       </c>
       <c r="AT38">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AU38">
         <v>2.06</v>
@@ -8205,7 +8238,7 @@
         <v>98</v>
       </c>
       <c r="P39" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="Q39">
         <v>4</v>
@@ -8292,10 +8325,10 @@
         <v>0.75</v>
       </c>
       <c r="AS39">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AT39">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AU39">
         <v>1.97</v>
@@ -8396,7 +8429,7 @@
         <v>99</v>
       </c>
       <c r="P40" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -8587,7 +8620,7 @@
         <v>100</v>
       </c>
       <c r="P41" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="Q41">
         <v>2</v>
@@ -8674,7 +8707,7 @@
         <v>0.75</v>
       </c>
       <c r="AS41">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AT41">
         <v>0.63</v>
@@ -8865,10 +8898,10 @@
         <v>1.5</v>
       </c>
       <c r="AS42">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AT42">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AU42">
         <v>1.93</v>
@@ -8969,7 +9002,7 @@
         <v>102</v>
       </c>
       <c r="P43" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="Q43">
         <v>7</v>
@@ -9056,10 +9089,10 @@
         <v>0</v>
       </c>
       <c r="AS43">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AT43">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU43">
         <v>1.37</v>
@@ -9160,7 +9193,7 @@
         <v>103</v>
       </c>
       <c r="P44" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="Q44">
         <v>6</v>
@@ -9247,10 +9280,10 @@
         <v>3</v>
       </c>
       <c r="AS44">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AT44">
-        <v>1.86</v>
+        <v>2.11</v>
       </c>
       <c r="AU44">
         <v>2.25</v>
@@ -9351,7 +9384,7 @@
         <v>76</v>
       </c>
       <c r="P45" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="Q45">
         <v>4</v>
@@ -9438,10 +9471,10 @@
         <v>1</v>
       </c>
       <c r="AS45">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AT45">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AU45">
         <v>1.94</v>
@@ -9542,7 +9575,7 @@
         <v>104</v>
       </c>
       <c r="P46" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="Q46">
         <v>5</v>
@@ -9629,10 +9662,10 @@
         <v>2</v>
       </c>
       <c r="AS46">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AT46">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AU46">
         <v>2.35</v>
@@ -9733,7 +9766,7 @@
         <v>76</v>
       </c>
       <c r="P47" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="Q47">
         <v>4</v>
@@ -9820,10 +9853,10 @@
         <v>1.5</v>
       </c>
       <c r="AS47">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AT47">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AU47">
         <v>1.48</v>
@@ -9924,7 +9957,7 @@
         <v>105</v>
       </c>
       <c r="P48" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="Q48">
         <v>1</v>
@@ -10011,10 +10044,10 @@
         <v>2.25</v>
       </c>
       <c r="AS48">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AT48">
-        <v>1.86</v>
+        <v>2.11</v>
       </c>
       <c r="AU48">
         <v>2.44</v>
@@ -10202,10 +10235,10 @@
         <v>0.75</v>
       </c>
       <c r="AS49">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AT49">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU49">
         <v>1.91</v>
@@ -10306,7 +10339,7 @@
         <v>76</v>
       </c>
       <c r="P50" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="Q50">
         <v>5</v>
@@ -10393,10 +10426,10 @@
         <v>1.5</v>
       </c>
       <c r="AS50">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AT50">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AU50">
         <v>1.33</v>
@@ -10497,7 +10530,7 @@
         <v>107</v>
       </c>
       <c r="P51" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="Q51">
         <v>5</v>
@@ -10584,7 +10617,7 @@
         <v>1</v>
       </c>
       <c r="AS51">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AT51">
         <v>1.13</v>
@@ -10688,7 +10721,7 @@
         <v>108</v>
       </c>
       <c r="P52" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="Q52">
         <v>4</v>
@@ -10775,10 +10808,10 @@
         <v>1.2</v>
       </c>
       <c r="AS52">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AT52">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AU52">
         <v>1.91</v>
@@ -10969,7 +11002,7 @@
         <v>3</v>
       </c>
       <c r="AT53">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AU53">
         <v>1.8</v>
@@ -11261,7 +11294,7 @@
         <v>111</v>
       </c>
       <c r="P55" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="Q55">
         <v>5</v>
@@ -11348,10 +11381,10 @@
         <v>1.8</v>
       </c>
       <c r="AS55">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AT55">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AU55">
         <v>2.09</v>
@@ -11452,7 +11485,7 @@
         <v>112</v>
       </c>
       <c r="P56" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="Q56">
         <v>1</v>
@@ -11539,10 +11572,10 @@
         <v>1.2</v>
       </c>
       <c r="AS56">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AT56">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AU56">
         <v>2.25</v>
@@ -11730,7 +11763,7 @@
         <v>0.8</v>
       </c>
       <c r="AS57">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AT57">
         <v>1.13</v>
@@ -11834,7 +11867,7 @@
         <v>76</v>
       </c>
       <c r="P58" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="Q58">
         <v>3</v>
@@ -11921,10 +11954,10 @@
         <v>1.8</v>
       </c>
       <c r="AS58">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AT58">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AU58">
         <v>1.99</v>
@@ -12112,10 +12145,10 @@
         <v>2.4</v>
       </c>
       <c r="AS59">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AT59">
-        <v>1.86</v>
+        <v>2.11</v>
       </c>
       <c r="AU59">
         <v>1.9</v>
@@ -12216,7 +12249,7 @@
         <v>115</v>
       </c>
       <c r="P60" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="Q60">
         <v>5</v>
@@ -12303,10 +12336,10 @@
         <v>1.2</v>
       </c>
       <c r="AS60">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AT60">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AU60">
         <v>2.17</v>
@@ -12494,10 +12527,10 @@
         <v>0.6</v>
       </c>
       <c r="AS61">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AT61">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU61">
         <v>1.16</v>
@@ -12685,10 +12718,10 @@
         <v>0.67</v>
       </c>
       <c r="AS62">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AT62">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AU62">
         <v>2.13</v>
@@ -12876,7 +12909,7 @@
         <v>0.67</v>
       </c>
       <c r="AS63">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AT63">
         <v>0.63</v>
@@ -12980,7 +13013,7 @@
         <v>118</v>
       </c>
       <c r="P64" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="Q64">
         <v>9</v>
@@ -13070,7 +13103,7 @@
         <v>1.75</v>
       </c>
       <c r="AT64">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU64">
         <v>1.77</v>
@@ -13261,7 +13294,7 @@
         <v>3</v>
       </c>
       <c r="AT65">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AU65">
         <v>1.79</v>
@@ -13449,10 +13482,10 @@
         <v>1</v>
       </c>
       <c r="AS66">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AT66">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AU66">
         <v>2.22</v>
@@ -13553,7 +13586,7 @@
         <v>76</v>
       </c>
       <c r="P67" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="Q67">
         <v>4</v>
@@ -13640,7 +13673,7 @@
         <v>0.83</v>
       </c>
       <c r="AS67">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AT67">
         <v>1.13</v>
@@ -13744,7 +13777,7 @@
         <v>76</v>
       </c>
       <c r="P68" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="Q68">
         <v>4</v>
@@ -13831,10 +13864,10 @@
         <v>1.17</v>
       </c>
       <c r="AS68">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AT68">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AU68">
         <v>1.66</v>
@@ -14022,10 +14055,10 @@
         <v>2</v>
       </c>
       <c r="AS69">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AT69">
-        <v>1.86</v>
+        <v>2.11</v>
       </c>
       <c r="AU69">
         <v>1.94</v>
@@ -14213,10 +14246,10 @@
         <v>1</v>
       </c>
       <c r="AS70">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AT70">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AU70">
         <v>1.97</v>
@@ -14317,7 +14350,7 @@
         <v>122</v>
       </c>
       <c r="P71" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="Q71">
         <v>4</v>
@@ -14404,10 +14437,10 @@
         <v>2</v>
       </c>
       <c r="AS71">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AT71">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AU71">
         <v>1.35</v>
@@ -14595,10 +14628,10 @@
         <v>0.71</v>
       </c>
       <c r="AS72">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AT72">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU72">
         <v>1.78</v>
@@ -14699,7 +14732,7 @@
         <v>124</v>
       </c>
       <c r="P73" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="Q73">
         <v>6</v>
@@ -14786,10 +14819,10 @@
         <v>0.86</v>
       </c>
       <c r="AS73">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AT73">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AU73">
         <v>1.65</v>
@@ -14890,7 +14923,7 @@
         <v>125</v>
       </c>
       <c r="P74" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="Q74">
         <v>7</v>
@@ -14977,10 +15010,10 @@
         <v>1.71</v>
       </c>
       <c r="AS74">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AT74">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AU74">
         <v>2.12</v>
@@ -15081,7 +15114,7 @@
         <v>126</v>
       </c>
       <c r="P75" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="Q75">
         <v>3</v>
@@ -15171,7 +15204,7 @@
         <v>3</v>
       </c>
       <c r="AT75">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AU75">
         <v>1.89</v>
@@ -15359,7 +15392,7 @@
         <v>0.71</v>
       </c>
       <c r="AS76">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AT76">
         <v>0.63</v>
@@ -15463,7 +15496,7 @@
         <v>128</v>
       </c>
       <c r="P77" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="Q77">
         <v>3</v>
@@ -15605,6 +15638,1725 @@
       </c>
       <c r="BK77">
         <v>13</v>
+      </c>
+    </row>
+    <row r="78" spans="1:63">
+      <c r="A78" s="1">
+        <v>77</v>
+      </c>
+      <c r="B78">
+        <v>2529643</v>
+      </c>
+      <c r="C78" t="s">
+        <v>63</v>
+      </c>
+      <c r="D78" t="s">
+        <v>64</v>
+      </c>
+      <c r="E78" s="2">
+        <v>44870.45833333334</v>
+      </c>
+      <c r="F78">
+        <v>16</v>
+      </c>
+      <c r="G78" t="s">
+        <v>69</v>
+      </c>
+      <c r="H78" t="s">
+        <v>74</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>1</v>
+      </c>
+      <c r="K78">
+        <v>1</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>2</v>
+      </c>
+      <c r="N78">
+        <v>2</v>
+      </c>
+      <c r="O78" t="s">
+        <v>76</v>
+      </c>
+      <c r="P78" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q78">
+        <v>7</v>
+      </c>
+      <c r="R78">
+        <v>3</v>
+      </c>
+      <c r="S78">
+        <v>10</v>
+      </c>
+      <c r="T78">
+        <v>4.44</v>
+      </c>
+      <c r="U78">
+        <v>2.18</v>
+      </c>
+      <c r="V78">
+        <v>2.41</v>
+      </c>
+      <c r="W78">
+        <v>1.34</v>
+      </c>
+      <c r="X78">
+        <v>2.93</v>
+      </c>
+      <c r="Y78">
+        <v>2.61</v>
+      </c>
+      <c r="Z78">
+        <v>1.42</v>
+      </c>
+      <c r="AA78">
+        <v>6.9</v>
+      </c>
+      <c r="AB78">
+        <v>1.08</v>
+      </c>
+      <c r="AC78">
+        <v>3.05</v>
+      </c>
+      <c r="AD78">
+        <v>3.1</v>
+      </c>
+      <c r="AE78">
+        <v>2.11</v>
+      </c>
+      <c r="AF78">
+        <v>1.06</v>
+      </c>
+      <c r="AG78">
+        <v>8</v>
+      </c>
+      <c r="AH78">
+        <v>1.28</v>
+      </c>
+      <c r="AI78">
+        <v>3.5</v>
+      </c>
+      <c r="AJ78">
+        <v>1.93</v>
+      </c>
+      <c r="AK78">
+        <v>1.88</v>
+      </c>
+      <c r="AL78">
+        <v>1.74</v>
+      </c>
+      <c r="AM78">
+        <v>2.05</v>
+      </c>
+      <c r="AN78">
+        <v>1.68</v>
+      </c>
+      <c r="AO78">
+        <v>1.23</v>
+      </c>
+      <c r="AP78">
+        <v>1.2</v>
+      </c>
+      <c r="AQ78">
+        <v>0.86</v>
+      </c>
+      <c r="AR78">
+        <v>0.86</v>
+      </c>
+      <c r="AS78">
+        <v>0.75</v>
+      </c>
+      <c r="AT78">
+        <v>1.13</v>
+      </c>
+      <c r="AU78">
+        <v>1.86</v>
+      </c>
+      <c r="AV78">
+        <v>1.68</v>
+      </c>
+      <c r="AW78">
+        <v>3.54</v>
+      </c>
+      <c r="AX78">
+        <v>3.15</v>
+      </c>
+      <c r="AY78">
+        <v>6.5</v>
+      </c>
+      <c r="AZ78">
+        <v>1.43</v>
+      </c>
+      <c r="BA78">
+        <v>1.2</v>
+      </c>
+      <c r="BB78">
+        <v>1.38</v>
+      </c>
+      <c r="BC78">
+        <v>1.68</v>
+      </c>
+      <c r="BD78">
+        <v>2.08</v>
+      </c>
+      <c r="BE78">
+        <v>2.71</v>
+      </c>
+      <c r="BF78">
+        <v>2</v>
+      </c>
+      <c r="BG78">
+        <v>5</v>
+      </c>
+      <c r="BH78">
+        <v>1</v>
+      </c>
+      <c r="BI78">
+        <v>3</v>
+      </c>
+      <c r="BJ78">
+        <v>3</v>
+      </c>
+      <c r="BK78">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79" spans="1:63">
+      <c r="A79" s="1">
+        <v>78</v>
+      </c>
+      <c r="B79">
+        <v>2529641</v>
+      </c>
+      <c r="C79" t="s">
+        <v>63</v>
+      </c>
+      <c r="D79" t="s">
+        <v>64</v>
+      </c>
+      <c r="E79" s="2">
+        <v>44870.5625</v>
+      </c>
+      <c r="F79">
+        <v>16</v>
+      </c>
+      <c r="G79" t="s">
+        <v>70</v>
+      </c>
+      <c r="H79" t="s">
+        <v>68</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>1</v>
+      </c>
+      <c r="K79">
+        <v>1</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>1</v>
+      </c>
+      <c r="N79">
+        <v>1</v>
+      </c>
+      <c r="O79" t="s">
+        <v>76</v>
+      </c>
+      <c r="P79" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q79">
+        <v>5</v>
+      </c>
+      <c r="R79">
+        <v>9</v>
+      </c>
+      <c r="S79">
+        <v>14</v>
+      </c>
+      <c r="T79">
+        <v>4.28</v>
+      </c>
+      <c r="U79">
+        <v>2.19</v>
+      </c>
+      <c r="V79">
+        <v>2.44</v>
+      </c>
+      <c r="W79">
+        <v>1.33</v>
+      </c>
+      <c r="X79">
+        <v>2.98</v>
+      </c>
+      <c r="Y79">
+        <v>2.58</v>
+      </c>
+      <c r="Z79">
+        <v>1.43</v>
+      </c>
+      <c r="AA79">
+        <v>6.9</v>
+      </c>
+      <c r="AB79">
+        <v>1.08</v>
+      </c>
+      <c r="AC79">
+        <v>3.75</v>
+      </c>
+      <c r="AD79">
+        <v>3.25</v>
+      </c>
+      <c r="AE79">
+        <v>1.84</v>
+      </c>
+      <c r="AF79">
+        <v>1.05</v>
+      </c>
+      <c r="AG79">
+        <v>9</v>
+      </c>
+      <c r="AH79">
+        <v>1.29</v>
+      </c>
+      <c r="AI79">
+        <v>3.5</v>
+      </c>
+      <c r="AJ79">
+        <v>1.88</v>
+      </c>
+      <c r="AK79">
+        <v>1.93</v>
+      </c>
+      <c r="AL79">
+        <v>1.67</v>
+      </c>
+      <c r="AM79">
+        <v>2.15</v>
+      </c>
+      <c r="AN79">
+        <v>1.8</v>
+      </c>
+      <c r="AO79">
+        <v>1.23</v>
+      </c>
+      <c r="AP79">
+        <v>1.23</v>
+      </c>
+      <c r="AQ79">
+        <v>0.86</v>
+      </c>
+      <c r="AR79">
+        <v>1.86</v>
+      </c>
+      <c r="AS79">
+        <v>0.75</v>
+      </c>
+      <c r="AT79">
+        <v>2.11</v>
+      </c>
+      <c r="AU79">
+        <v>1.39</v>
+      </c>
+      <c r="AV79">
+        <v>1.75</v>
+      </c>
+      <c r="AW79">
+        <v>3.14</v>
+      </c>
+      <c r="AX79">
+        <v>2.75</v>
+      </c>
+      <c r="AY79">
+        <v>5.75</v>
+      </c>
+      <c r="AZ79">
+        <v>1.57</v>
+      </c>
+      <c r="BA79">
+        <v>1.23</v>
+      </c>
+      <c r="BB79">
+        <v>1.39</v>
+      </c>
+      <c r="BC79">
+        <v>1.75</v>
+      </c>
+      <c r="BD79">
+        <v>2.18</v>
+      </c>
+      <c r="BE79">
+        <v>2.8</v>
+      </c>
+      <c r="BF79">
+        <v>9</v>
+      </c>
+      <c r="BG79">
+        <v>6</v>
+      </c>
+      <c r="BH79">
+        <v>5</v>
+      </c>
+      <c r="BI79">
+        <v>7</v>
+      </c>
+      <c r="BJ79">
+        <v>14</v>
+      </c>
+      <c r="BK79">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="80" spans="1:63">
+      <c r="A80" s="1">
+        <v>79</v>
+      </c>
+      <c r="B80">
+        <v>2529645</v>
+      </c>
+      <c r="C80" t="s">
+        <v>63</v>
+      </c>
+      <c r="D80" t="s">
+        <v>64</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44871.375</v>
+      </c>
+      <c r="F80">
+        <v>16</v>
+      </c>
+      <c r="G80" t="s">
+        <v>72</v>
+      </c>
+      <c r="H80" t="s">
+        <v>71</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>1</v>
+      </c>
+      <c r="K80">
+        <v>1</v>
+      </c>
+      <c r="L80">
+        <v>2</v>
+      </c>
+      <c r="M80">
+        <v>1</v>
+      </c>
+      <c r="N80">
+        <v>3</v>
+      </c>
+      <c r="O80" t="s">
+        <v>129</v>
+      </c>
+      <c r="P80" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q80">
+        <v>4</v>
+      </c>
+      <c r="R80">
+        <v>5</v>
+      </c>
+      <c r="S80">
+        <v>9</v>
+      </c>
+      <c r="T80">
+        <v>2.55</v>
+      </c>
+      <c r="U80">
+        <v>2.12</v>
+      </c>
+      <c r="V80">
+        <v>5.04</v>
+      </c>
+      <c r="W80">
+        <v>1.47</v>
+      </c>
+      <c r="X80">
+        <v>2.66</v>
+      </c>
+      <c r="Y80">
+        <v>3.38</v>
+      </c>
+      <c r="Z80">
+        <v>1.31</v>
+      </c>
+      <c r="AA80">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AB80">
+        <v>1.05</v>
+      </c>
+      <c r="AC80">
+        <v>1.84</v>
+      </c>
+      <c r="AD80">
+        <v>3.28</v>
+      </c>
+      <c r="AE80">
+        <v>3.77</v>
+      </c>
+      <c r="AF80">
+        <v>1.08</v>
+      </c>
+      <c r="AG80">
+        <v>7</v>
+      </c>
+      <c r="AH80">
+        <v>1.36</v>
+      </c>
+      <c r="AI80">
+        <v>3</v>
+      </c>
+      <c r="AJ80">
+        <v>2.15</v>
+      </c>
+      <c r="AK80">
+        <v>1.62</v>
+      </c>
+      <c r="AL80">
+        <v>1.95</v>
+      </c>
+      <c r="AM80">
+        <v>1.81</v>
+      </c>
+      <c r="AN80">
+        <v>1.2</v>
+      </c>
+      <c r="AO80">
+        <v>1.25</v>
+      </c>
+      <c r="AP80">
+        <v>1.65</v>
+      </c>
+      <c r="AQ80">
+        <v>1.71</v>
+      </c>
+      <c r="AR80">
+        <v>0.57</v>
+      </c>
+      <c r="AS80">
+        <v>1.78</v>
+      </c>
+      <c r="AT80">
+        <v>0.5</v>
+      </c>
+      <c r="AU80">
+        <v>1.82</v>
+      </c>
+      <c r="AV80">
+        <v>1.79</v>
+      </c>
+      <c r="AW80">
+        <v>3.61</v>
+      </c>
+      <c r="AX80">
+        <v>1.38</v>
+      </c>
+      <c r="AY80">
+        <v>6.5</v>
+      </c>
+      <c r="AZ80">
+        <v>3.5</v>
+      </c>
+      <c r="BA80">
+        <v>1.35</v>
+      </c>
+      <c r="BB80">
+        <v>1.65</v>
+      </c>
+      <c r="BC80">
+        <v>2.04</v>
+      </c>
+      <c r="BD80">
+        <v>2.64</v>
+      </c>
+      <c r="BE80">
+        <v>3.5</v>
+      </c>
+      <c r="BF80">
+        <v>8</v>
+      </c>
+      <c r="BG80">
+        <v>8</v>
+      </c>
+      <c r="BH80">
+        <v>4</v>
+      </c>
+      <c r="BI80">
+        <v>2</v>
+      </c>
+      <c r="BJ80">
+        <v>12</v>
+      </c>
+      <c r="BK80">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81" spans="1:63">
+      <c r="A81" s="1">
+        <v>80</v>
+      </c>
+      <c r="B81">
+        <v>2529644</v>
+      </c>
+      <c r="C81" t="s">
+        <v>63</v>
+      </c>
+      <c r="D81" t="s">
+        <v>64</v>
+      </c>
+      <c r="E81" s="2">
+        <v>44871.45833333334</v>
+      </c>
+      <c r="F81">
+        <v>16</v>
+      </c>
+      <c r="G81" t="s">
+        <v>67</v>
+      </c>
+      <c r="H81" t="s">
+        <v>73</v>
+      </c>
+      <c r="I81">
+        <v>3</v>
+      </c>
+      <c r="J81">
+        <v>1</v>
+      </c>
+      <c r="K81">
+        <v>4</v>
+      </c>
+      <c r="L81">
+        <v>5</v>
+      </c>
+      <c r="M81">
+        <v>1</v>
+      </c>
+      <c r="N81">
+        <v>6</v>
+      </c>
+      <c r="O81" t="s">
+        <v>130</v>
+      </c>
+      <c r="P81" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q81">
+        <v>8</v>
+      </c>
+      <c r="R81">
+        <v>3</v>
+      </c>
+      <c r="S81">
+        <v>11</v>
+      </c>
+      <c r="T81">
+        <v>2.87</v>
+      </c>
+      <c r="U81">
+        <v>2.35</v>
+      </c>
+      <c r="V81">
+        <v>3.48</v>
+      </c>
+      <c r="W81">
+        <v>1.37</v>
+      </c>
+      <c r="X81">
+        <v>2.7</v>
+      </c>
+      <c r="Y81">
+        <v>2.57</v>
+      </c>
+      <c r="Z81">
+        <v>1.5</v>
+      </c>
+      <c r="AA81">
+        <v>5.5</v>
+      </c>
+      <c r="AB81">
+        <v>1.12</v>
+      </c>
+      <c r="AC81">
+        <v>2.14</v>
+      </c>
+      <c r="AD81">
+        <v>3.09</v>
+      </c>
+      <c r="AE81">
+        <v>3.09</v>
+      </c>
+      <c r="AF81">
+        <v>1</v>
+      </c>
+      <c r="AG81">
+        <v>10.5</v>
+      </c>
+      <c r="AH81">
+        <v>1.19</v>
+      </c>
+      <c r="AI81">
+        <v>4</v>
+      </c>
+      <c r="AJ81">
+        <v>1.75</v>
+      </c>
+      <c r="AK81">
+        <v>1.95</v>
+      </c>
+      <c r="AL81">
+        <v>1.57</v>
+      </c>
+      <c r="AM81">
+        <v>2.36</v>
+      </c>
+      <c r="AN81">
+        <v>1.39</v>
+      </c>
+      <c r="AO81">
+        <v>1.29</v>
+      </c>
+      <c r="AP81">
+        <v>1.63</v>
+      </c>
+      <c r="AQ81">
+        <v>0.71</v>
+      </c>
+      <c r="AR81">
+        <v>1.43</v>
+      </c>
+      <c r="AS81">
+        <v>1</v>
+      </c>
+      <c r="AT81">
+        <v>1.25</v>
+      </c>
+      <c r="AU81">
+        <v>1.75</v>
+      </c>
+      <c r="AV81">
+        <v>1.67</v>
+      </c>
+      <c r="AW81">
+        <v>3.42</v>
+      </c>
+      <c r="AX81">
+        <v>1.76</v>
+      </c>
+      <c r="AY81">
+        <v>5.75</v>
+      </c>
+      <c r="AZ81">
+        <v>2.3</v>
+      </c>
+      <c r="BA81">
+        <v>1.19</v>
+      </c>
+      <c r="BB81">
+        <v>1.37</v>
+      </c>
+      <c r="BC81">
+        <v>1.65</v>
+      </c>
+      <c r="BD81">
+        <v>2.02</v>
+      </c>
+      <c r="BE81">
+        <v>2.6</v>
+      </c>
+      <c r="BF81">
+        <v>13</v>
+      </c>
+      <c r="BG81">
+        <v>5</v>
+      </c>
+      <c r="BH81">
+        <v>6</v>
+      </c>
+      <c r="BI81">
+        <v>5</v>
+      </c>
+      <c r="BJ81">
+        <v>19</v>
+      </c>
+      <c r="BK81">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82" spans="1:63">
+      <c r="A82" s="1">
+        <v>81</v>
+      </c>
+      <c r="B82">
+        <v>2529646</v>
+      </c>
+      <c r="C82" t="s">
+        <v>63</v>
+      </c>
+      <c r="D82" t="s">
+        <v>64</v>
+      </c>
+      <c r="E82" s="2">
+        <v>44877.375</v>
+      </c>
+      <c r="F82">
+        <v>17</v>
+      </c>
+      <c r="G82" t="s">
+        <v>72</v>
+      </c>
+      <c r="H82" t="s">
+        <v>70</v>
+      </c>
+      <c r="I82">
+        <v>1</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+      <c r="K82">
+        <v>1</v>
+      </c>
+      <c r="L82">
+        <v>1</v>
+      </c>
+      <c r="M82">
+        <v>1</v>
+      </c>
+      <c r="N82">
+        <v>2</v>
+      </c>
+      <c r="O82" t="s">
+        <v>128</v>
+      </c>
+      <c r="P82" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q82">
+        <v>7</v>
+      </c>
+      <c r="R82">
+        <v>2</v>
+      </c>
+      <c r="S82">
+        <v>9</v>
+      </c>
+      <c r="T82">
+        <v>2.83</v>
+      </c>
+      <c r="U82">
+        <v>2.17</v>
+      </c>
+      <c r="V82">
+        <v>4.05</v>
+      </c>
+      <c r="W82">
+        <v>1.42</v>
+      </c>
+      <c r="X82">
+        <v>2.84</v>
+      </c>
+      <c r="Y82">
+        <v>3.11</v>
+      </c>
+      <c r="Z82">
+        <v>1.36</v>
+      </c>
+      <c r="AA82">
+        <v>7.6</v>
+      </c>
+      <c r="AB82">
+        <v>1.07</v>
+      </c>
+      <c r="AC82">
+        <v>1.94</v>
+      </c>
+      <c r="AD82">
+        <v>3.42</v>
+      </c>
+      <c r="AE82">
+        <v>3.6</v>
+      </c>
+      <c r="AF82">
+        <v>1.06</v>
+      </c>
+      <c r="AG82">
+        <v>8</v>
+      </c>
+      <c r="AH82">
+        <v>1.33</v>
+      </c>
+      <c r="AI82">
+        <v>3.25</v>
+      </c>
+      <c r="AJ82">
+        <v>1.97</v>
+      </c>
+      <c r="AK82">
+        <v>1.82</v>
+      </c>
+      <c r="AL82">
+        <v>1.82</v>
+      </c>
+      <c r="AM82">
+        <v>1.96</v>
+      </c>
+      <c r="AN82">
+        <v>1.25</v>
+      </c>
+      <c r="AO82">
+        <v>1.25</v>
+      </c>
+      <c r="AP82">
+        <v>1.55</v>
+      </c>
+      <c r="AQ82">
+        <v>1.88</v>
+      </c>
+      <c r="AR82">
+        <v>0.75</v>
+      </c>
+      <c r="AS82">
+        <v>1.78</v>
+      </c>
+      <c r="AT82">
+        <v>0.78</v>
+      </c>
+      <c r="AU82">
+        <v>1.85</v>
+      </c>
+      <c r="AV82">
+        <v>1.47</v>
+      </c>
+      <c r="AW82">
+        <v>3.32</v>
+      </c>
+      <c r="AX82">
+        <v>1.62</v>
+      </c>
+      <c r="AY82">
+        <v>5.75</v>
+      </c>
+      <c r="AZ82">
+        <v>2.6</v>
+      </c>
+      <c r="BA82">
+        <v>1.26</v>
+      </c>
+      <c r="BB82">
+        <v>1.43</v>
+      </c>
+      <c r="BC82">
+        <v>1.76</v>
+      </c>
+      <c r="BD82">
+        <v>2.28</v>
+      </c>
+      <c r="BE82">
+        <v>3</v>
+      </c>
+      <c r="BF82">
+        <v>6</v>
+      </c>
+      <c r="BG82">
+        <v>5</v>
+      </c>
+      <c r="BH82">
+        <v>9</v>
+      </c>
+      <c r="BI82">
+        <v>8</v>
+      </c>
+      <c r="BJ82">
+        <v>15</v>
+      </c>
+      <c r="BK82">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="83" spans="1:63">
+      <c r="A83" s="1">
+        <v>82</v>
+      </c>
+      <c r="B83">
+        <v>2529650</v>
+      </c>
+      <c r="C83" t="s">
+        <v>63</v>
+      </c>
+      <c r="D83" t="s">
+        <v>64</v>
+      </c>
+      <c r="E83" s="2">
+        <v>44877.5625</v>
+      </c>
+      <c r="F83">
+        <v>17</v>
+      </c>
+      <c r="G83" t="s">
+        <v>66</v>
+      </c>
+      <c r="H83" t="s">
+        <v>68</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>0</v>
+      </c>
+      <c r="K83">
+        <v>0</v>
+      </c>
+      <c r="L83">
+        <v>0</v>
+      </c>
+      <c r="M83">
+        <v>3</v>
+      </c>
+      <c r="N83">
+        <v>3</v>
+      </c>
+      <c r="O83" t="s">
+        <v>76</v>
+      </c>
+      <c r="P83" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q83">
+        <v>0</v>
+      </c>
+      <c r="R83">
+        <v>9</v>
+      </c>
+      <c r="S83">
+        <v>9</v>
+      </c>
+      <c r="T83">
+        <v>3.43</v>
+      </c>
+      <c r="U83">
+        <v>2.28</v>
+      </c>
+      <c r="V83">
+        <v>3.02</v>
+      </c>
+      <c r="W83">
+        <v>1.35</v>
+      </c>
+      <c r="X83">
+        <v>3.17</v>
+      </c>
+      <c r="Y83">
+        <v>2.74</v>
+      </c>
+      <c r="Z83">
+        <v>1.45</v>
+      </c>
+      <c r="AA83">
+        <v>6</v>
+      </c>
+      <c r="AB83">
+        <v>1.11</v>
+      </c>
+      <c r="AC83">
+        <v>2.79</v>
+      </c>
+      <c r="AD83">
+        <v>3.42</v>
+      </c>
+      <c r="AE83">
+        <v>2.3</v>
+      </c>
+      <c r="AF83">
+        <v>1.01</v>
+      </c>
+      <c r="AG83">
+        <v>10</v>
+      </c>
+      <c r="AH83">
+        <v>1.22</v>
+      </c>
+      <c r="AI83">
+        <v>3.65</v>
+      </c>
+      <c r="AJ83">
+        <v>1.78</v>
+      </c>
+      <c r="AK83">
+        <v>2.02</v>
+      </c>
+      <c r="AL83">
+        <v>1.66</v>
+      </c>
+      <c r="AM83">
+        <v>2.18</v>
+      </c>
+      <c r="AN83">
+        <v>1.59</v>
+      </c>
+      <c r="AO83">
+        <v>1.27</v>
+      </c>
+      <c r="AP83">
+        <v>1.43</v>
+      </c>
+      <c r="AQ83">
+        <v>1.63</v>
+      </c>
+      <c r="AR83">
+        <v>2</v>
+      </c>
+      <c r="AS83">
+        <v>1.44</v>
+      </c>
+      <c r="AT83">
+        <v>2.11</v>
+      </c>
+      <c r="AU83">
+        <v>1.8</v>
+      </c>
+      <c r="AV83">
+        <v>1.75</v>
+      </c>
+      <c r="AW83">
+        <v>3.55</v>
+      </c>
+      <c r="AX83">
+        <v>2.4</v>
+      </c>
+      <c r="AY83">
+        <v>5.75</v>
+      </c>
+      <c r="AZ83">
+        <v>1.71</v>
+      </c>
+      <c r="BA83">
+        <v>1.29</v>
+      </c>
+      <c r="BB83">
+        <v>1.53</v>
+      </c>
+      <c r="BC83">
+        <v>1.86</v>
+      </c>
+      <c r="BD83">
+        <v>2.4</v>
+      </c>
+      <c r="BE83">
+        <v>3.1</v>
+      </c>
+      <c r="BF83">
+        <v>4</v>
+      </c>
+      <c r="BG83">
+        <v>7</v>
+      </c>
+      <c r="BH83">
+        <v>2</v>
+      </c>
+      <c r="BI83">
+        <v>14</v>
+      </c>
+      <c r="BJ83">
+        <v>6</v>
+      </c>
+      <c r="BK83">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="84" spans="1:63">
+      <c r="A84" s="1">
+        <v>83</v>
+      </c>
+      <c r="B84">
+        <v>2529647</v>
+      </c>
+      <c r="C84" t="s">
+        <v>63</v>
+      </c>
+      <c r="D84" t="s">
+        <v>64</v>
+      </c>
+      <c r="E84" s="2">
+        <v>44878.375</v>
+      </c>
+      <c r="F84">
+        <v>17</v>
+      </c>
+      <c r="G84" t="s">
+        <v>71</v>
+      </c>
+      <c r="H84" t="s">
+        <v>67</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>3</v>
+      </c>
+      <c r="K84">
+        <v>3</v>
+      </c>
+      <c r="L84">
+        <v>0</v>
+      </c>
+      <c r="M84">
+        <v>4</v>
+      </c>
+      <c r="N84">
+        <v>4</v>
+      </c>
+      <c r="O84" t="s">
+        <v>76</v>
+      </c>
+      <c r="P84" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q84">
+        <v>1</v>
+      </c>
+      <c r="R84">
+        <v>4</v>
+      </c>
+      <c r="S84">
+        <v>5</v>
+      </c>
+      <c r="T84">
+        <v>4.2</v>
+      </c>
+      <c r="U84">
+        <v>2.15</v>
+      </c>
+      <c r="V84">
+        <v>2.4</v>
+      </c>
+      <c r="W84">
+        <v>1.36</v>
+      </c>
+      <c r="X84">
+        <v>3</v>
+      </c>
+      <c r="Y84">
+        <v>2.62</v>
+      </c>
+      <c r="Z84">
+        <v>1.44</v>
+      </c>
+      <c r="AA84">
+        <v>6.5</v>
+      </c>
+      <c r="AB84">
+        <v>1.1</v>
+      </c>
+      <c r="AC84">
+        <v>4</v>
+      </c>
+      <c r="AD84">
+        <v>3.3</v>
+      </c>
+      <c r="AE84">
+        <v>1.83</v>
+      </c>
+      <c r="AF84">
+        <v>1.06</v>
+      </c>
+      <c r="AG84">
+        <v>8</v>
+      </c>
+      <c r="AH84">
+        <v>1.3</v>
+      </c>
+      <c r="AI84">
+        <v>3.4</v>
+      </c>
+      <c r="AJ84">
+        <v>1.98</v>
+      </c>
+      <c r="AK84">
+        <v>1.83</v>
+      </c>
+      <c r="AL84">
+        <v>1.8</v>
+      </c>
+      <c r="AM84">
+        <v>1.91</v>
+      </c>
+      <c r="AN84">
+        <v>1.85</v>
+      </c>
+      <c r="AO84">
+        <v>1.3</v>
+      </c>
+      <c r="AP84">
+        <v>1.22</v>
+      </c>
+      <c r="AQ84">
+        <v>0.88</v>
+      </c>
+      <c r="AR84">
+        <v>1.63</v>
+      </c>
+      <c r="AS84">
+        <v>0.78</v>
+      </c>
+      <c r="AT84">
+        <v>1.78</v>
+      </c>
+      <c r="AU84">
+        <v>1.71</v>
+      </c>
+      <c r="AV84">
+        <v>1.74</v>
+      </c>
+      <c r="AW84">
+        <v>3.45</v>
+      </c>
+      <c r="AX84">
+        <v>3.3</v>
+      </c>
+      <c r="AY84">
+        <v>6.5</v>
+      </c>
+      <c r="AZ84">
+        <v>1.4</v>
+      </c>
+      <c r="BA84">
+        <v>1.29</v>
+      </c>
+      <c r="BB84">
+        <v>1.52</v>
+      </c>
+      <c r="BC84">
+        <v>1.86</v>
+      </c>
+      <c r="BD84">
+        <v>2.45</v>
+      </c>
+      <c r="BE84">
+        <v>3.2</v>
+      </c>
+      <c r="BF84">
+        <v>2</v>
+      </c>
+      <c r="BG84">
+        <v>9</v>
+      </c>
+      <c r="BH84">
+        <v>4</v>
+      </c>
+      <c r="BI84">
+        <v>6</v>
+      </c>
+      <c r="BJ84">
+        <v>6</v>
+      </c>
+      <c r="BK84">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="85" spans="1:63">
+      <c r="A85" s="1">
+        <v>84</v>
+      </c>
+      <c r="B85">
+        <v>2529649</v>
+      </c>
+      <c r="C85" t="s">
+        <v>63</v>
+      </c>
+      <c r="D85" t="s">
+        <v>64</v>
+      </c>
+      <c r="E85" s="2">
+        <v>44878.45833333334</v>
+      </c>
+      <c r="F85">
+        <v>17</v>
+      </c>
+      <c r="G85" t="s">
+        <v>74</v>
+      </c>
+      <c r="H85" t="s">
+        <v>65</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>1</v>
+      </c>
+      <c r="K85">
+        <v>1</v>
+      </c>
+      <c r="L85">
+        <v>1</v>
+      </c>
+      <c r="M85">
+        <v>1</v>
+      </c>
+      <c r="N85">
+        <v>2</v>
+      </c>
+      <c r="O85" t="s">
+        <v>131</v>
+      </c>
+      <c r="P85" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q85">
+        <v>8</v>
+      </c>
+      <c r="R85">
+        <v>1</v>
+      </c>
+      <c r="S85">
+        <v>9</v>
+      </c>
+      <c r="T85">
+        <v>2.75</v>
+      </c>
+      <c r="U85">
+        <v>2.05</v>
+      </c>
+      <c r="V85">
+        <v>3.75</v>
+      </c>
+      <c r="W85">
+        <v>1.4</v>
+      </c>
+      <c r="X85">
+        <v>2.75</v>
+      </c>
+      <c r="Y85">
+        <v>2.75</v>
+      </c>
+      <c r="Z85">
+        <v>1.4</v>
+      </c>
+      <c r="AA85">
+        <v>6.5</v>
+      </c>
+      <c r="AB85">
+        <v>1.1</v>
+      </c>
+      <c r="AC85">
+        <v>1.97</v>
+      </c>
+      <c r="AD85">
+        <v>3.35</v>
+      </c>
+      <c r="AE85">
+        <v>3.35</v>
+      </c>
+      <c r="AF85">
+        <v>1.06</v>
+      </c>
+      <c r="AG85">
+        <v>8</v>
+      </c>
+      <c r="AH85">
+        <v>1.33</v>
+      </c>
+      <c r="AI85">
+        <v>3.25</v>
+      </c>
+      <c r="AJ85">
+        <v>1.81</v>
+      </c>
+      <c r="AK85">
+        <v>1.81</v>
+      </c>
+      <c r="AL85">
+        <v>1.8</v>
+      </c>
+      <c r="AM85">
+        <v>1.91</v>
+      </c>
+      <c r="AN85">
+        <v>1.25</v>
+      </c>
+      <c r="AO85">
+        <v>1.25</v>
+      </c>
+      <c r="AP85">
+        <v>1.6</v>
+      </c>
+      <c r="AQ85">
+        <v>2.5</v>
+      </c>
+      <c r="AR85">
+        <v>1.63</v>
+      </c>
+      <c r="AS85">
+        <v>2.33</v>
+      </c>
+      <c r="AT85">
+        <v>1.56</v>
+      </c>
+      <c r="AU85">
+        <v>2.03</v>
+      </c>
+      <c r="AV85">
+        <v>2.05</v>
+      </c>
+      <c r="AW85">
+        <v>4.08</v>
+      </c>
+      <c r="AX85">
+        <v>1.48</v>
+      </c>
+      <c r="AY85">
+        <v>6.25</v>
+      </c>
+      <c r="AZ85">
+        <v>2.95</v>
+      </c>
+      <c r="BA85">
+        <v>1.2</v>
+      </c>
+      <c r="BB85">
+        <v>1.38</v>
+      </c>
+      <c r="BC85">
+        <v>1.6</v>
+      </c>
+      <c r="BD85">
+        <v>2.05</v>
+      </c>
+      <c r="BE85">
+        <v>2.57</v>
+      </c>
+      <c r="BF85">
+        <v>4</v>
+      </c>
+      <c r="BG85">
+        <v>4</v>
+      </c>
+      <c r="BH85">
+        <v>8</v>
+      </c>
+      <c r="BI85">
+        <v>5</v>
+      </c>
+      <c r="BJ85">
+        <v>12</v>
+      </c>
+      <c r="BK85">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="86" spans="1:63">
+      <c r="A86" s="1">
+        <v>85</v>
+      </c>
+      <c r="B86">
+        <v>2529648</v>
+      </c>
+      <c r="C86" t="s">
+        <v>63</v>
+      </c>
+      <c r="D86" t="s">
+        <v>64</v>
+      </c>
+      <c r="E86" s="2">
+        <v>44878.5625</v>
+      </c>
+      <c r="F86">
+        <v>17</v>
+      </c>
+      <c r="G86" t="s">
+        <v>73</v>
+      </c>
+      <c r="H86" t="s">
+        <v>69</v>
+      </c>
+      <c r="I86">
+        <v>1</v>
+      </c>
+      <c r="J86">
+        <v>0</v>
+      </c>
+      <c r="K86">
+        <v>1</v>
+      </c>
+      <c r="L86">
+        <v>2</v>
+      </c>
+      <c r="M86">
+        <v>0</v>
+      </c>
+      <c r="N86">
+        <v>2</v>
+      </c>
+      <c r="O86" t="s">
+        <v>132</v>
+      </c>
+      <c r="P86" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q86">
+        <v>5</v>
+      </c>
+      <c r="R86">
+        <v>0</v>
+      </c>
+      <c r="S86">
+        <v>5</v>
+      </c>
+      <c r="T86">
+        <v>2.15</v>
+      </c>
+      <c r="U86">
+        <v>2.25</v>
+      </c>
+      <c r="V86">
+        <v>4.75</v>
+      </c>
+      <c r="W86">
+        <v>1.33</v>
+      </c>
+      <c r="X86">
+        <v>3.25</v>
+      </c>
+      <c r="Y86">
+        <v>2.5</v>
+      </c>
+      <c r="Z86">
+        <v>1.5</v>
+      </c>
+      <c r="AA86">
+        <v>5.5</v>
+      </c>
+      <c r="AB86">
+        <v>1.12</v>
+      </c>
+      <c r="AC86">
+        <v>1.66</v>
+      </c>
+      <c r="AD86">
+        <v>3.76</v>
+      </c>
+      <c r="AE86">
+        <v>4.6</v>
+      </c>
+      <c r="AF86">
+        <v>1.05</v>
+      </c>
+      <c r="AG86">
+        <v>9</v>
+      </c>
+      <c r="AH86">
+        <v>1.25</v>
+      </c>
+      <c r="AI86">
+        <v>3.75</v>
+      </c>
+      <c r="AJ86">
+        <v>1.94</v>
+      </c>
+      <c r="AK86">
+        <v>1.74</v>
+      </c>
+      <c r="AL86">
+        <v>1.8</v>
+      </c>
+      <c r="AM86">
+        <v>1.91</v>
+      </c>
+      <c r="AN86">
+        <v>1.12</v>
+      </c>
+      <c r="AO86">
+        <v>1.2</v>
+      </c>
+      <c r="AP86">
+        <v>2.2</v>
+      </c>
+      <c r="AQ86">
+        <v>2</v>
+      </c>
+      <c r="AR86">
+        <v>0.63</v>
+      </c>
+      <c r="AS86">
+        <v>2.11</v>
+      </c>
+      <c r="AT86">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AU86">
+        <v>2.05</v>
+      </c>
+      <c r="AV86">
+        <v>1.29</v>
+      </c>
+      <c r="AW86">
+        <v>3.34</v>
+      </c>
+      <c r="AX86">
+        <v>1.25</v>
+      </c>
+      <c r="AY86">
+        <v>7.25</v>
+      </c>
+      <c r="AZ86">
+        <v>4.6</v>
+      </c>
+      <c r="BA86">
+        <v>1.18</v>
+      </c>
+      <c r="BB86">
+        <v>1.35</v>
+      </c>
+      <c r="BC86">
+        <v>1.55</v>
+      </c>
+      <c r="BD86">
+        <v>1.95</v>
+      </c>
+      <c r="BE86">
+        <v>2.45</v>
+      </c>
+      <c r="BF86">
+        <v>7</v>
+      </c>
+      <c r="BG86">
+        <v>4</v>
+      </c>
+      <c r="BH86">
+        <v>11</v>
+      </c>
+      <c r="BI86">
+        <v>5</v>
+      </c>
+      <c r="BJ86">
+        <v>18</v>
+      </c>
+      <c r="BK86">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Slovenia PrvaLiga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Slovenia PrvaLiga_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK88"/>
+  <dimension ref="A1:BK91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AT2" t="n">
         <v>0.5600000000000001</v>
@@ -1106,7 +1106,7 @@
         <v>1.44</v>
       </c>
       <c r="AT3" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1509,10 +1509,10 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>3</v>
+        <v>2.78</v>
       </c>
       <c r="AT5" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -1915,10 +1915,10 @@
         <v>1</v>
       </c>
       <c r="AS7" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AT7" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>2.11</v>
       </c>
       <c r="AT11" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -3336,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>3</v>
+        <v>2.78</v>
       </c>
       <c r="AT14" t="n">
         <v>0.5600000000000001</v>
@@ -3542,7 +3542,7 @@
         <v>2.33</v>
       </c>
       <c r="AT15" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AT16" t="n">
         <v>1.78</v>
@@ -3948,7 +3948,7 @@
         <v>0.78</v>
       </c>
       <c r="AT17" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AU17" t="n">
         <v>1.43</v>
@@ -4151,7 +4151,7 @@
         <v>1.78</v>
       </c>
       <c r="AT18" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AU18" t="n">
         <v>2.35</v>
@@ -4351,10 +4351,10 @@
         <v>0.5</v>
       </c>
       <c r="AS19" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AT19" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU19" t="n">
         <v>1.47</v>
@@ -5366,7 +5366,7 @@
         <v>3</v>
       </c>
       <c r="AS24" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AT24" t="n">
         <v>0.78</v>
@@ -5772,7 +5772,7 @@
         <v>0</v>
       </c>
       <c r="AS26" t="n">
-        <v>3</v>
+        <v>2.78</v>
       </c>
       <c r="AT26" t="n">
         <v>0.5600000000000001</v>
@@ -5975,7 +5975,7 @@
         <v>0.67</v>
       </c>
       <c r="AS27" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AT27" t="n">
         <v>0.5600000000000001</v>
@@ -6181,7 +6181,7 @@
         <v>1.78</v>
       </c>
       <c r="AT28" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU28" t="n">
         <v>2.01</v>
@@ -6381,7 +6381,7 @@
         <v>3</v>
       </c>
       <c r="AS29" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AT29" t="n">
         <v>2.11</v>
@@ -6587,7 +6587,7 @@
         <v>1.22</v>
       </c>
       <c r="AT30" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AU30" t="n">
         <v>1.86</v>
@@ -6790,7 +6790,7 @@
         <v>0.78</v>
       </c>
       <c r="AT31" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AU31" t="n">
         <v>2.14</v>
@@ -7396,7 +7396,7 @@
         <v>2</v>
       </c>
       <c r="AS34" t="n">
-        <v>3</v>
+        <v>2.78</v>
       </c>
       <c r="AT34" t="n">
         <v>0.78</v>
@@ -8008,7 +8008,7 @@
         <v>0.78</v>
       </c>
       <c r="AT37" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU37" t="n">
         <v>2.15</v>
@@ -8208,10 +8208,10 @@
         <v>0.75</v>
       </c>
       <c r="AS38" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AT38" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AU38" t="n">
         <v>2.06</v>
@@ -8614,10 +8614,10 @@
         <v>1.33</v>
       </c>
       <c r="AS40" t="n">
-        <v>3</v>
+        <v>2.78</v>
       </c>
       <c r="AT40" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AU40" t="n">
         <v>1.7</v>
@@ -8817,7 +8817,7 @@
         <v>0.75</v>
       </c>
       <c r="AS41" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AT41" t="n">
         <v>0.5600000000000001</v>
@@ -10644,7 +10644,7 @@
         <v>1.5</v>
       </c>
       <c r="AS50" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AT50" t="n">
         <v>1.78</v>
@@ -10850,7 +10850,7 @@
         <v>2.33</v>
       </c>
       <c r="AT51" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AU51" t="n">
         <v>2.33</v>
@@ -11053,7 +11053,7 @@
         <v>1.44</v>
       </c>
       <c r="AT52" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU52" t="n">
         <v>1.91</v>
@@ -11253,7 +11253,7 @@
         <v>0.8</v>
       </c>
       <c r="AS53" t="n">
-        <v>3</v>
+        <v>2.78</v>
       </c>
       <c r="AT53" t="n">
         <v>0.5600000000000001</v>
@@ -11456,7 +11456,7 @@
         <v>0.8</v>
       </c>
       <c r="AS54" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AT54" t="n">
         <v>0.5600000000000001</v>
@@ -12068,7 +12068,7 @@
         <v>0.78</v>
       </c>
       <c r="AT57" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AU57" t="n">
         <v>1.62</v>
@@ -12677,7 +12677,7 @@
         <v>2.11</v>
       </c>
       <c r="AT60" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AU60" t="n">
         <v>2.17</v>
@@ -12877,7 +12877,7 @@
         <v>0.6</v>
       </c>
       <c r="AS61" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AT61" t="n">
         <v>0.5600000000000001</v>
@@ -13486,7 +13486,7 @@
         <v>0.67</v>
       </c>
       <c r="AS64" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AT64" t="n">
         <v>0.5600000000000001</v>
@@ -13689,7 +13689,7 @@
         <v>2</v>
       </c>
       <c r="AS65" t="n">
-        <v>3</v>
+        <v>2.78</v>
       </c>
       <c r="AT65" t="n">
         <v>1.78</v>
@@ -14098,7 +14098,7 @@
         <v>1.22</v>
       </c>
       <c r="AT67" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AU67" t="n">
         <v>1.89</v>
@@ -14301,7 +14301,7 @@
         <v>0.78</v>
       </c>
       <c r="AT68" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU68" t="n">
         <v>1.66</v>
@@ -14707,7 +14707,7 @@
         <v>1.78</v>
       </c>
       <c r="AT70" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AU70" t="n">
         <v>1.97</v>
@@ -14907,7 +14907,7 @@
         <v>2</v>
       </c>
       <c r="AS71" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AT71" t="n">
         <v>1.56</v>
@@ -15719,7 +15719,7 @@
         <v>1.86</v>
       </c>
       <c r="AS75" t="n">
-        <v>3</v>
+        <v>2.78</v>
       </c>
       <c r="AT75" t="n">
         <v>1.56</v>
@@ -16125,10 +16125,10 @@
         <v>1.14</v>
       </c>
       <c r="AS77" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AT77" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AU77" t="n">
         <v>1.81</v>
@@ -16331,7 +16331,7 @@
         <v>0.78</v>
       </c>
       <c r="AT78" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AU78" t="n">
         <v>1.86</v>
@@ -16531,7 +16531,7 @@
         <v>1.86</v>
       </c>
       <c r="AS79" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AT79" t="n">
         <v>2.11</v>
@@ -16940,7 +16940,7 @@
         <v>1.22</v>
       </c>
       <c r="AT81" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU81" t="n">
         <v>1.75</v>
@@ -18413,6 +18413,615 @@
       </c>
       <c r="BK88" t="n">
         <v>19</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B89" t="n">
+        <v>2529651</v>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Slovenia PrvaLiga</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E89" s="2" t="n">
+        <v>44895.41666666666</v>
+      </c>
+      <c r="F89" t="n">
+        <v>18</v>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>Radomlje</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>Domžale</t>
+        </is>
+      </c>
+      <c r="I89" t="n">
+        <v>0</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
+      <c r="K89" t="n">
+        <v>0</v>
+      </c>
+      <c r="L89" t="n">
+        <v>0</v>
+      </c>
+      <c r="M89" t="n">
+        <v>2</v>
+      </c>
+      <c r="N89" t="n">
+        <v>2</v>
+      </c>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P89" t="inlineStr">
+        <is>
+          <t>['50', '84']</t>
+        </is>
+      </c>
+      <c r="Q89" t="n">
+        <v>5</v>
+      </c>
+      <c r="R89" t="n">
+        <v>12</v>
+      </c>
+      <c r="S89" t="n">
+        <v>17</v>
+      </c>
+      <c r="T89" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="U89" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V89" t="n">
+        <v>3</v>
+      </c>
+      <c r="W89" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X89" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y89" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="Z89" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA89" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB89" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC89" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AD89" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE89" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AF89" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG89" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH89" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AI89" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AJ89" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AK89" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AL89" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM89" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AN89" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AO89" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP89" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AQ89" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AR89" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AS89" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AT89" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AU89" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AV89" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AW89" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="AX89" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AY89" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AZ89" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BA89" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BB89" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BC89" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BD89" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="BE89" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF89" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG89" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH89" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI89" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ89" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK89" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B90" t="n">
+        <v>2529653</v>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Slovenia PrvaLiga</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E90" s="2" t="n">
+        <v>44895.58333333334</v>
+      </c>
+      <c r="F90" t="n">
+        <v>18</v>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>Koper</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>Mura</t>
+        </is>
+      </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
+      <c r="K90" t="n">
+        <v>0</v>
+      </c>
+      <c r="L90" t="n">
+        <v>0</v>
+      </c>
+      <c r="M90" t="n">
+        <v>0</v>
+      </c>
+      <c r="N90" t="n">
+        <v>0</v>
+      </c>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P90" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q90" t="n">
+        <v>6</v>
+      </c>
+      <c r="R90" t="n">
+        <v>4</v>
+      </c>
+      <c r="S90" t="n">
+        <v>10</v>
+      </c>
+      <c r="T90" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="U90" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="V90" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="W90" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X90" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y90" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="Z90" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA90" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB90" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC90" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AD90" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE90" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AF90" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG90" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH90" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI90" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ90" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AK90" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL90" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM90" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN90" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AO90" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP90" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AQ90" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AR90" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AS90" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AT90" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AU90" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AV90" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AW90" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="AX90" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AY90" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AZ90" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="BA90" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BB90" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BC90" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BD90" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="BE90" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="BF90" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG90" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH90" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI90" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ90" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK90" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B91" t="n">
+        <v>2529652</v>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Slovenia PrvaLiga</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E91" s="2" t="n">
+        <v>44896.58333333334</v>
+      </c>
+      <c r="F91" t="n">
+        <v>18</v>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>Olimpija</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>Celje</t>
+        </is>
+      </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
+      <c r="K91" t="n">
+        <v>0</v>
+      </c>
+      <c r="L91" t="n">
+        <v>0</v>
+      </c>
+      <c r="M91" t="n">
+        <v>0</v>
+      </c>
+      <c r="N91" t="n">
+        <v>0</v>
+      </c>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P91" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q91" t="n">
+        <v>6</v>
+      </c>
+      <c r="R91" t="n">
+        <v>6</v>
+      </c>
+      <c r="S91" t="n">
+        <v>12</v>
+      </c>
+      <c r="T91" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="U91" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="V91" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="W91" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X91" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="Y91" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="Z91" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA91" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AB91" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC91" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AD91" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="AE91" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="AF91" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG91" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AH91" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AI91" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="AJ91" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AK91" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AL91" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AM91" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AN91" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AO91" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP91" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AQ91" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR91" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AS91" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="AT91" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AU91" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AV91" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AW91" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="AX91" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AY91" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AZ91" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="BA91" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BB91" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BC91" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="BD91" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BE91" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BF91" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG91" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH91" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI91" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ91" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK91" t="n">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Slovenia PrvaLiga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Slovenia PrvaLiga_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK91"/>
+  <dimension ref="A1:BK93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1306,10 +1306,10 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1712,10 +1712,10 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AT6" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AT8" t="n">
         <v>0.5600000000000001</v>
@@ -2930,10 +2930,10 @@
         <v>3</v>
       </c>
       <c r="AS12" t="n">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AT12" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU12" t="n">
         <v>2.09</v>
@@ -3339,7 +3339,7 @@
         <v>2.78</v>
       </c>
       <c r="AT14" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AU14" t="n">
         <v>1.29</v>
@@ -4554,7 +4554,7 @@
         <v>3</v>
       </c>
       <c r="AS20" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AT20" t="n">
         <v>2.11</v>
@@ -4757,7 +4757,7 @@
         <v>0</v>
       </c>
       <c r="AS21" t="n">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AT21" t="n">
         <v>1.56</v>
@@ -4963,7 +4963,7 @@
         <v>2.33</v>
       </c>
       <c r="AT22" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AU22" t="n">
         <v>2.42</v>
@@ -5369,7 +5369,7 @@
         <v>1.67</v>
       </c>
       <c r="AT24" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU24" t="n">
         <v>2.1</v>
@@ -6584,7 +6584,7 @@
         <v>0.67</v>
       </c>
       <c r="AS30" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AT30" t="n">
         <v>1.11</v>
@@ -6787,7 +6787,7 @@
         <v>1.5</v>
       </c>
       <c r="AS31" t="n">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AT31" t="n">
         <v>1.33</v>
@@ -6993,7 +6993,7 @@
         <v>0.78</v>
       </c>
       <c r="AT32" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AU32" t="n">
         <v>1.31</v>
@@ -7399,7 +7399,7 @@
         <v>2.78</v>
       </c>
       <c r="AT34" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU34" t="n">
         <v>1.62</v>
@@ -8005,7 +8005,7 @@
         <v>1.25</v>
       </c>
       <c r="AS37" t="n">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AT37" t="n">
         <v>1.22</v>
@@ -8411,7 +8411,7 @@
         <v>0.75</v>
       </c>
       <c r="AS39" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AT39" t="n">
         <v>0.5600000000000001</v>
@@ -8820,7 +8820,7 @@
         <v>0.67</v>
       </c>
       <c r="AT41" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AU41" t="n">
         <v>1.32</v>
@@ -9023,7 +9023,7 @@
         <v>1.44</v>
       </c>
       <c r="AT42" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU42" t="n">
         <v>1.93</v>
@@ -11459,7 +11459,7 @@
         <v>1.67</v>
       </c>
       <c r="AT54" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AU54" t="n">
         <v>1.84</v>
@@ -11659,7 +11659,7 @@
         <v>1.8</v>
       </c>
       <c r="AS55" t="n">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AT55" t="n">
         <v>1.78</v>
@@ -11865,7 +11865,7 @@
         <v>2.33</v>
       </c>
       <c r="AT56" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU56" t="n">
         <v>2.25</v>
@@ -12268,7 +12268,7 @@
         <v>1.8</v>
       </c>
       <c r="AS58" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AT58" t="n">
         <v>1.56</v>
@@ -13286,7 +13286,7 @@
         <v>1.44</v>
       </c>
       <c r="AT63" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AU63" t="n">
         <v>1.84</v>
@@ -13895,7 +13895,7 @@
         <v>2.11</v>
       </c>
       <c r="AT66" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU66" t="n">
         <v>2.22</v>
@@ -14095,7 +14095,7 @@
         <v>0.83</v>
       </c>
       <c r="AS67" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AT67" t="n">
         <v>1.33</v>
@@ -14501,7 +14501,7 @@
         <v>2</v>
       </c>
       <c r="AS69" t="n">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AT69" t="n">
         <v>2.11</v>
@@ -15316,7 +15316,7 @@
         <v>0.78</v>
       </c>
       <c r="AT73" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU73" t="n">
         <v>1.65</v>
@@ -15925,7 +15925,7 @@
         <v>2.11</v>
       </c>
       <c r="AT76" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AU76" t="n">
         <v>2.18</v>
@@ -16328,7 +16328,7 @@
         <v>0.86</v>
       </c>
       <c r="AS78" t="n">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AT78" t="n">
         <v>1.11</v>
@@ -16937,7 +16937,7 @@
         <v>1.43</v>
       </c>
       <c r="AS81" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AT81" t="n">
         <v>1.22</v>
@@ -17143,7 +17143,7 @@
         <v>1.78</v>
       </c>
       <c r="AT82" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU82" t="n">
         <v>1.85</v>
@@ -18155,7 +18155,7 @@
         <v>0.5</v>
       </c>
       <c r="AS87" t="n">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AT87" t="n">
         <v>0.5600000000000001</v>
@@ -18358,10 +18358,10 @@
         <v>0.63</v>
       </c>
       <c r="AS88" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AT88" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AU88" t="n">
         <v>1.86</v>
@@ -19022,6 +19022,412 @@
       </c>
       <c r="BK91" t="n">
         <v>12</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B92" t="n">
+        <v>2529657</v>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Slovenia PrvaLiga</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E92" s="2" t="n">
+        <v>44901.41666666666</v>
+      </c>
+      <c r="F92" t="n">
+        <v>19</v>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>Gorica</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>Bravo</t>
+        </is>
+      </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
+      <c r="K92" t="n">
+        <v>0</v>
+      </c>
+      <c r="L92" t="n">
+        <v>0</v>
+      </c>
+      <c r="M92" t="n">
+        <v>0</v>
+      </c>
+      <c r="N92" t="n">
+        <v>0</v>
+      </c>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P92" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q92" t="n">
+        <v>5</v>
+      </c>
+      <c r="R92" t="n">
+        <v>5</v>
+      </c>
+      <c r="S92" t="n">
+        <v>10</v>
+      </c>
+      <c r="T92" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="U92" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="V92" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="W92" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="X92" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="Y92" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="Z92" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA92" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AB92" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC92" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AD92" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="AE92" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="AF92" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG92" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH92" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI92" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ92" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AK92" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AL92" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AM92" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AN92" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AO92" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AP92" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AQ92" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AR92" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AS92" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AT92" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AU92" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AV92" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AW92" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="AX92" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="AY92" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AZ92" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BA92" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BB92" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BC92" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="BD92" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="BE92" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BF92" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG92" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH92" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI92" t="n">
+        <v>10</v>
+      </c>
+      <c r="BJ92" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK92" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B93" t="n">
+        <v>2529656</v>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Slovenia PrvaLiga</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E93" s="2" t="n">
+        <v>44901.58333333334</v>
+      </c>
+      <c r="F93" t="n">
+        <v>19</v>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>Maribor</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>Radomlje</t>
+        </is>
+      </c>
+      <c r="I93" t="n">
+        <v>4</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
+      <c r="K93" t="n">
+        <v>4</v>
+      </c>
+      <c r="L93" t="n">
+        <v>7</v>
+      </c>
+      <c r="M93" t="n">
+        <v>0</v>
+      </c>
+      <c r="N93" t="n">
+        <v>7</v>
+      </c>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>['6', '10', '22', '45', '49', '65', '80']</t>
+        </is>
+      </c>
+      <c r="P93" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q93" t="n">
+        <v>7</v>
+      </c>
+      <c r="R93" t="n">
+        <v>4</v>
+      </c>
+      <c r="S93" t="n">
+        <v>11</v>
+      </c>
+      <c r="T93" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="U93" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="V93" t="n">
+        <v>6.03</v>
+      </c>
+      <c r="W93" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X93" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Y93" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="Z93" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA93" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AB93" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC93" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AD93" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AE93" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AF93" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG93" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH93" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI93" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ93" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK93" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL93" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AM93" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AN93" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AO93" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AP93" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AQ93" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AR93" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AS93" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AT93" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AU93" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AV93" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AW93" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="AX93" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AY93" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="AZ93" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="BA93" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BB93" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BC93" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="BD93" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="BE93" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="BF93" t="n">
+        <v>11</v>
+      </c>
+      <c r="BG93" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH93" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI93" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ93" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK93" t="n">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Slovenia PrvaLiga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Slovenia PrvaLiga_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK93"/>
+  <dimension ref="A1:BK95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,10 +900,10 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1103,10 +1103,10 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT3" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1918,7 +1918,7 @@
         <v>0.67</v>
       </c>
       <c r="AT7" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -3133,10 +3133,10 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT13" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU13" t="n">
         <v>1.49</v>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT16" t="n">
         <v>1.78</v>
@@ -3948,7 +3948,7 @@
         <v>0.78</v>
       </c>
       <c r="AT17" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU17" t="n">
         <v>1.43</v>
@@ -5166,7 +5166,7 @@
         <v>2.11</v>
       </c>
       <c r="AT23" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU23" t="n">
         <v>3.08</v>
@@ -5366,7 +5366,7 @@
         <v>3</v>
       </c>
       <c r="AS24" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT24" t="n">
         <v>0.7</v>
@@ -5569,7 +5569,7 @@
         <v>0</v>
       </c>
       <c r="AS25" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT25" t="n">
         <v>1.78</v>
@@ -5978,7 +5978,7 @@
         <v>0.67</v>
       </c>
       <c r="AT27" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU27" t="n">
         <v>1.35</v>
@@ -6381,7 +6381,7 @@
         <v>3</v>
       </c>
       <c r="AS29" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT29" t="n">
         <v>2.11</v>
@@ -6587,7 +6587,7 @@
         <v>1.4</v>
       </c>
       <c r="AT30" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU30" t="n">
         <v>1.86</v>
@@ -7599,7 +7599,7 @@
         <v>1.5</v>
       </c>
       <c r="AS35" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT35" t="n">
         <v>1.56</v>
@@ -8208,10 +8208,10 @@
         <v>0.75</v>
       </c>
       <c r="AS38" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT38" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU38" t="n">
         <v>2.06</v>
@@ -8414,7 +8414,7 @@
         <v>1.4</v>
       </c>
       <c r="AT39" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU39" t="n">
         <v>1.97</v>
@@ -9020,7 +9020,7 @@
         <v>1.5</v>
       </c>
       <c r="AS42" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT42" t="n">
         <v>0.7</v>
@@ -11050,7 +11050,7 @@
         <v>1.2</v>
       </c>
       <c r="AS52" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT52" t="n">
         <v>1.22</v>
@@ -11256,7 +11256,7 @@
         <v>2.78</v>
       </c>
       <c r="AT53" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU53" t="n">
         <v>1.8</v>
@@ -11456,7 +11456,7 @@
         <v>0.8</v>
       </c>
       <c r="AS54" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT54" t="n">
         <v>0.6</v>
@@ -12677,7 +12677,7 @@
         <v>2.11</v>
       </c>
       <c r="AT60" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU60" t="n">
         <v>2.17</v>
@@ -13083,7 +13083,7 @@
         <v>2.33</v>
       </c>
       <c r="AT62" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU62" t="n">
         <v>2.13</v>
@@ -13283,7 +13283,7 @@
         <v>0.67</v>
       </c>
       <c r="AS63" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT63" t="n">
         <v>0.6</v>
@@ -13486,7 +13486,7 @@
         <v>0.67</v>
       </c>
       <c r="AS64" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT64" t="n">
         <v>0.5600000000000001</v>
@@ -14707,7 +14707,7 @@
         <v>1.78</v>
       </c>
       <c r="AT70" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU70" t="n">
         <v>1.97</v>
@@ -15110,7 +15110,7 @@
         <v>0.71</v>
       </c>
       <c r="AS72" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT72" t="n">
         <v>0.5600000000000001</v>
@@ -16125,7 +16125,7 @@
         <v>1.14</v>
       </c>
       <c r="AS77" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT77" t="n">
         <v>1.33</v>
@@ -16331,7 +16331,7 @@
         <v>0.8</v>
       </c>
       <c r="AT78" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU78" t="n">
         <v>1.86</v>
@@ -16737,7 +16737,7 @@
         <v>1.78</v>
       </c>
       <c r="AT80" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU80" t="n">
         <v>1.82</v>
@@ -17343,7 +17343,7 @@
         <v>2</v>
       </c>
       <c r="AS83" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT83" t="n">
         <v>2.11</v>
@@ -18158,7 +18158,7 @@
         <v>0.8</v>
       </c>
       <c r="AT87" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU87" t="n">
         <v>1.74</v>
@@ -18764,7 +18764,7 @@
         <v>1.25</v>
       </c>
       <c r="AS90" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT90" t="n">
         <v>1.22</v>
@@ -18970,7 +18970,7 @@
         <v>2.78</v>
       </c>
       <c r="AT91" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU91" t="n">
         <v>1.85</v>
@@ -19212,19 +19212,19 @@
         <v>6</v>
       </c>
       <c r="BG92" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="BH92" t="n">
         <v>2</v>
       </c>
       <c r="BI92" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BJ92" t="n">
         <v>8</v>
       </c>
       <c r="BK92" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="93">
@@ -19412,22 +19412,428 @@
         <v>2.71</v>
       </c>
       <c r="BF93" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="BG93" t="n">
         <v>5</v>
       </c>
       <c r="BH93" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI93" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ93" t="n">
+        <v>5</v>
+      </c>
+      <c r="BK93" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B94" t="n">
+        <v>2529658</v>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Slovenia PrvaLiga</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E94" s="2" t="n">
+        <v>44902.45833333334</v>
+      </c>
+      <c r="F94" t="n">
+        <v>19</v>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>Koper</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>Tabor Sežana</t>
+        </is>
+      </c>
+      <c r="I94" t="n">
+        <v>2</v>
+      </c>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
+      <c r="K94" t="n">
+        <v>2</v>
+      </c>
+      <c r="L94" t="n">
+        <v>5</v>
+      </c>
+      <c r="M94" t="n">
+        <v>1</v>
+      </c>
+      <c r="N94" t="n">
         <v>6</v>
       </c>
-      <c r="BI93" t="n">
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>['5', '34', '52', '79', '81']</t>
+        </is>
+      </c>
+      <c r="P94" t="inlineStr">
+        <is>
+          <t>['90+1']</t>
+        </is>
+      </c>
+      <c r="Q94" t="n">
+        <v>8</v>
+      </c>
+      <c r="R94" t="n">
+        <v>1</v>
+      </c>
+      <c r="S94" t="n">
+        <v>9</v>
+      </c>
+      <c r="T94" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="U94" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V94" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="W94" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X94" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y94" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="Z94" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA94" t="n">
         <v>6</v>
       </c>
-      <c r="BJ93" t="n">
-        <v>17</v>
-      </c>
-      <c r="BK93" t="n">
+      <c r="AB94" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC94" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AD94" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE94" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AF94" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG94" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH94" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI94" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AJ94" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AK94" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AL94" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM94" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN94" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AO94" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP94" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AQ94" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AR94" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AS94" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AT94" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AU94" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AV94" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AW94" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AX94" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AY94" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AZ94" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="BA94" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BB94" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BC94" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BD94" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BE94" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BF94" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG94" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH94" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI94" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ94" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK94" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B95" t="n">
+        <v>2529660</v>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Slovenia PrvaLiga</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E95" s="2" t="n">
+        <v>44902.5625</v>
+      </c>
+      <c r="F95" t="n">
+        <v>19</v>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>Domžale</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>Celje</t>
+        </is>
+      </c>
+      <c r="I95" t="n">
+        <v>0</v>
+      </c>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
+      <c r="K95" t="n">
+        <v>0</v>
+      </c>
+      <c r="L95" t="n">
+        <v>2</v>
+      </c>
+      <c r="M95" t="n">
+        <v>1</v>
+      </c>
+      <c r="N95" t="n">
+        <v>3</v>
+      </c>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>['64', '90+4']</t>
+        </is>
+      </c>
+      <c r="P95" t="inlineStr">
+        <is>
+          <t>['62']</t>
+        </is>
+      </c>
+      <c r="Q95" t="n">
+        <v>5</v>
+      </c>
+      <c r="R95" t="n">
+        <v>4</v>
+      </c>
+      <c r="S95" t="n">
+        <v>9</v>
+      </c>
+      <c r="T95" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U95" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V95" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="W95" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X95" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y95" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z95" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA95" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB95" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC95" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="AD95" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AE95" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AF95" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG95" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH95" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI95" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ95" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AK95" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AL95" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AM95" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN95" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AO95" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP95" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AQ95" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AR95" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AS95" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AT95" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU95" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AV95" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AW95" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="AX95" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AY95" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ95" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BA95" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BB95" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BC95" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="BD95" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="BE95" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="BF95" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG95" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH95" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI95" t="n">
         <v>11</v>
+      </c>
+      <c r="BJ95" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK95" t="n">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Slovenia PrvaLiga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Slovenia PrvaLiga_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK95"/>
+  <dimension ref="A1:BK97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1509,10 +1509,10 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>2.78</v>
+        <v>2.6</v>
       </c>
       <c r="AT5" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -2524,10 +2524,10 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AT10" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -3336,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>2.78</v>
+        <v>2.6</v>
       </c>
       <c r="AT14" t="n">
         <v>0.6</v>
@@ -3542,7 +3542,7 @@
         <v>2.33</v>
       </c>
       <c r="AT15" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -4148,7 +4148,7 @@
         <v>0</v>
       </c>
       <c r="AS18" t="n">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AT18" t="n">
         <v>1.33</v>
@@ -4354,7 +4354,7 @@
         <v>0.67</v>
       </c>
       <c r="AT19" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AU19" t="n">
         <v>1.47</v>
@@ -4760,7 +4760,7 @@
         <v>0.8</v>
       </c>
       <c r="AT21" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AU21" t="n">
         <v>1.98</v>
@@ -5772,7 +5772,7 @@
         <v>0</v>
       </c>
       <c r="AS26" t="n">
-        <v>2.78</v>
+        <v>2.6</v>
       </c>
       <c r="AT26" t="n">
         <v>0.5600000000000001</v>
@@ -6178,10 +6178,10 @@
         <v>0.67</v>
       </c>
       <c r="AS28" t="n">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AT28" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AU28" t="n">
         <v>2.01</v>
@@ -7396,7 +7396,7 @@
         <v>2</v>
       </c>
       <c r="AS34" t="n">
-        <v>2.78</v>
+        <v>2.6</v>
       </c>
       <c r="AT34" t="n">
         <v>0.7</v>
@@ -7602,7 +7602,7 @@
         <v>1.6</v>
       </c>
       <c r="AT35" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AU35" t="n">
         <v>2.15</v>
@@ -8008,7 +8008,7 @@
         <v>0.8</v>
       </c>
       <c r="AT37" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AU37" t="n">
         <v>2.15</v>
@@ -8614,7 +8614,7 @@
         <v>1.33</v>
       </c>
       <c r="AS40" t="n">
-        <v>2.78</v>
+        <v>2.6</v>
       </c>
       <c r="AT40" t="n">
         <v>1.33</v>
@@ -9629,7 +9629,7 @@
         <v>1</v>
       </c>
       <c r="AS45" t="n">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AT45" t="n">
         <v>1.78</v>
@@ -9835,7 +9835,7 @@
         <v>2.11</v>
       </c>
       <c r="AT46" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AU46" t="n">
         <v>2.35</v>
@@ -10038,7 +10038,7 @@
         <v>0.78</v>
       </c>
       <c r="AT47" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AU47" t="n">
         <v>1.48</v>
@@ -10441,7 +10441,7 @@
         <v>0.75</v>
       </c>
       <c r="AS49" t="n">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AT49" t="n">
         <v>0.5600000000000001</v>
@@ -11053,7 +11053,7 @@
         <v>1.6</v>
       </c>
       <c r="AT52" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AU52" t="n">
         <v>1.91</v>
@@ -11253,7 +11253,7 @@
         <v>0.8</v>
       </c>
       <c r="AS53" t="n">
-        <v>2.78</v>
+        <v>2.6</v>
       </c>
       <c r="AT53" t="n">
         <v>0.5</v>
@@ -12271,7 +12271,7 @@
         <v>1.4</v>
       </c>
       <c r="AT58" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AU58" t="n">
         <v>1.99</v>
@@ -12471,7 +12471,7 @@
         <v>2.4</v>
       </c>
       <c r="AS59" t="n">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AT59" t="n">
         <v>2.11</v>
@@ -13689,7 +13689,7 @@
         <v>2</v>
       </c>
       <c r="AS65" t="n">
-        <v>2.78</v>
+        <v>2.6</v>
       </c>
       <c r="AT65" t="n">
         <v>1.78</v>
@@ -14301,7 +14301,7 @@
         <v>0.78</v>
       </c>
       <c r="AT68" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AU68" t="n">
         <v>1.66</v>
@@ -14704,7 +14704,7 @@
         <v>1</v>
       </c>
       <c r="AS70" t="n">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AT70" t="n">
         <v>1</v>
@@ -14910,7 +14910,7 @@
         <v>0.67</v>
       </c>
       <c r="AT71" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AU71" t="n">
         <v>1.35</v>
@@ -15719,10 +15719,10 @@
         <v>1.86</v>
       </c>
       <c r="AS75" t="n">
-        <v>2.78</v>
+        <v>2.6</v>
       </c>
       <c r="AT75" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AU75" t="n">
         <v>1.89</v>
@@ -16734,7 +16734,7 @@
         <v>0.57</v>
       </c>
       <c r="AS80" t="n">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AT80" t="n">
         <v>0.5</v>
@@ -16940,7 +16940,7 @@
         <v>1.4</v>
       </c>
       <c r="AT81" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AU81" t="n">
         <v>1.75</v>
@@ -17140,7 +17140,7 @@
         <v>0.75</v>
       </c>
       <c r="AS82" t="n">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AT82" t="n">
         <v>0.7</v>
@@ -17752,7 +17752,7 @@
         <v>2.33</v>
       </c>
       <c r="AT85" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AU85" t="n">
         <v>2.03</v>
@@ -18767,7 +18767,7 @@
         <v>1.8</v>
       </c>
       <c r="AT90" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AU90" t="n">
         <v>1.79</v>
@@ -18967,7 +18967,7 @@
         <v>1.13</v>
       </c>
       <c r="AS91" t="n">
-        <v>2.78</v>
+        <v>2.6</v>
       </c>
       <c r="AT91" t="n">
         <v>1</v>
@@ -19834,6 +19834,412 @@
       </c>
       <c r="BK95" t="n">
         <v>16</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B96" t="n">
+        <v>2529659</v>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Slovenia PrvaLiga</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E96" s="2" t="n">
+        <v>44903.5625</v>
+      </c>
+      <c r="F96" t="n">
+        <v>19</v>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>Olimpija</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>Mura</t>
+        </is>
+      </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
+      <c r="K96" t="n">
+        <v>0</v>
+      </c>
+      <c r="L96" t="n">
+        <v>0</v>
+      </c>
+      <c r="M96" t="n">
+        <v>0</v>
+      </c>
+      <c r="N96" t="n">
+        <v>0</v>
+      </c>
+      <c r="O96" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P96" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q96" t="n">
+        <v>7</v>
+      </c>
+      <c r="R96" t="n">
+        <v>2</v>
+      </c>
+      <c r="S96" t="n">
+        <v>9</v>
+      </c>
+      <c r="T96" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U96" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="V96" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="W96" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="X96" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Y96" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Z96" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA96" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AB96" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC96" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AD96" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE96" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AF96" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG96" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="AH96" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI96" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ96" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AK96" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AL96" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AM96" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="AN96" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AO96" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP96" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AQ96" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="AR96" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AS96" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AT96" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AU96" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AV96" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AW96" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="AX96" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AY96" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AZ96" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="BA96" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB96" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BC96" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="BD96" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="BE96" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF96" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG96" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH96" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI96" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ96" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK96" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B97" t="n">
+        <v>2529664</v>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Slovenia PrvaLiga</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E97" s="2" t="n">
+        <v>44905.375</v>
+      </c>
+      <c r="F97" t="n">
+        <v>20</v>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>Bravo</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>Koper</t>
+        </is>
+      </c>
+      <c r="I97" t="n">
+        <v>0</v>
+      </c>
+      <c r="J97" t="n">
+        <v>1</v>
+      </c>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="n">
+        <v>0</v>
+      </c>
+      <c r="M97" t="n">
+        <v>1</v>
+      </c>
+      <c r="N97" t="n">
+        <v>1</v>
+      </c>
+      <c r="O97" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P97" t="inlineStr">
+        <is>
+          <t>['43']</t>
+        </is>
+      </c>
+      <c r="Q97" t="n">
+        <v>5</v>
+      </c>
+      <c r="R97" t="n">
+        <v>5</v>
+      </c>
+      <c r="S97" t="n">
+        <v>10</v>
+      </c>
+      <c r="T97" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="U97" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V97" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="W97" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X97" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="Y97" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="Z97" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA97" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB97" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC97" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="AD97" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="AE97" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AF97" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG97" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH97" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI97" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="AJ97" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AK97" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AL97" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AM97" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AN97" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AO97" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP97" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AQ97" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AR97" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AS97" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AT97" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AU97" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AV97" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AW97" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AX97" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AY97" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AZ97" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BA97" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BB97" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BC97" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BD97" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BE97" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BF97" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG97" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH97" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI97" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ97" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK97" t="n">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Slovenia PrvaLiga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Slovenia PrvaLiga_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK97"/>
+  <dimension ref="A1:BK101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1106,7 +1106,7 @@
         <v>1.6</v>
       </c>
       <c r="AT3" t="n">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AT4" t="n">
         <v>0.7</v>
@@ -1915,10 +1915,10 @@
         <v>1</v>
       </c>
       <c r="AS7" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AT7" t="n">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2118,10 +2118,10 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU8" t="n">
         <v>1.17</v>
@@ -2321,10 +2321,10 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AT9" t="n">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2727,10 +2727,10 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AT11" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>1</v>
       </c>
       <c r="AS17" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AT17" t="n">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AU17" t="n">
         <v>1.43</v>
@@ -4151,7 +4151,7 @@
         <v>1.6</v>
       </c>
       <c r="AT18" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AU18" t="n">
         <v>2.35</v>
@@ -4351,7 +4351,7 @@
         <v>0.5</v>
       </c>
       <c r="AS19" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AT19" t="n">
         <v>1.2</v>
@@ -4554,10 +4554,10 @@
         <v>3</v>
       </c>
       <c r="AS20" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AT20" t="n">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AU20" t="n">
         <v>2.1</v>
@@ -5163,7 +5163,7 @@
         <v>0.5</v>
       </c>
       <c r="AS23" t="n">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AT23" t="n">
         <v>0.5</v>
@@ -5775,7 +5775,7 @@
         <v>2.6</v>
       </c>
       <c r="AT26" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU26" t="n">
         <v>1.28</v>
@@ -5975,7 +5975,7 @@
         <v>0.67</v>
       </c>
       <c r="AS27" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AT27" t="n">
         <v>0.5</v>
@@ -6384,7 +6384,7 @@
         <v>1.8</v>
       </c>
       <c r="AT29" t="n">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AU29" t="n">
         <v>2.15</v>
@@ -6584,10 +6584,10 @@
         <v>0.67</v>
       </c>
       <c r="AS30" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AT30" t="n">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AU30" t="n">
         <v>1.86</v>
@@ -6790,7 +6790,7 @@
         <v>0.8</v>
       </c>
       <c r="AT31" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AU31" t="n">
         <v>2.14</v>
@@ -6990,7 +6990,7 @@
         <v>0</v>
       </c>
       <c r="AS32" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AT32" t="n">
         <v>0.6</v>
@@ -7196,7 +7196,7 @@
         <v>2.33</v>
       </c>
       <c r="AT33" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU33" t="n">
         <v>2.5</v>
@@ -7802,7 +7802,7 @@
         <v>0</v>
       </c>
       <c r="AS36" t="n">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AT36" t="n">
         <v>1.78</v>
@@ -8211,7 +8211,7 @@
         <v>1.8</v>
       </c>
       <c r="AT38" t="n">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AU38" t="n">
         <v>2.06</v>
@@ -8411,7 +8411,7 @@
         <v>0.75</v>
       </c>
       <c r="AS39" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AT39" t="n">
         <v>0.5</v>
@@ -8617,7 +8617,7 @@
         <v>2.6</v>
       </c>
       <c r="AT40" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AU40" t="n">
         <v>1.7</v>
@@ -8817,7 +8817,7 @@
         <v>0.75</v>
       </c>
       <c r="AS41" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AT41" t="n">
         <v>0.6</v>
@@ -9223,10 +9223,10 @@
         <v>0</v>
       </c>
       <c r="AS43" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AT43" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU43" t="n">
         <v>1.37</v>
@@ -9429,7 +9429,7 @@
         <v>2.33</v>
       </c>
       <c r="AT44" t="n">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AU44" t="n">
         <v>2.25</v>
@@ -9832,7 +9832,7 @@
         <v>2</v>
       </c>
       <c r="AS46" t="n">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AT46" t="n">
         <v>1.7</v>
@@ -10035,7 +10035,7 @@
         <v>1.5</v>
       </c>
       <c r="AS47" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AT47" t="n">
         <v>1.7</v>
@@ -10238,10 +10238,10 @@
         <v>2.25</v>
       </c>
       <c r="AS48" t="n">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AT48" t="n">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AU48" t="n">
         <v>2.44</v>
@@ -10444,7 +10444,7 @@
         <v>1.6</v>
       </c>
       <c r="AT49" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU49" t="n">
         <v>1.91</v>
@@ -10644,7 +10644,7 @@
         <v>1.5</v>
       </c>
       <c r="AS50" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AT50" t="n">
         <v>1.78</v>
@@ -10850,7 +10850,7 @@
         <v>2.33</v>
       </c>
       <c r="AT51" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AU51" t="n">
         <v>2.33</v>
@@ -12065,10 +12065,10 @@
         <v>0.8</v>
       </c>
       <c r="AS57" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AT57" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AU57" t="n">
         <v>1.62</v>
@@ -12268,7 +12268,7 @@
         <v>1.8</v>
       </c>
       <c r="AS58" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AT58" t="n">
         <v>1.7</v>
@@ -12474,7 +12474,7 @@
         <v>1.6</v>
       </c>
       <c r="AT59" t="n">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AU59" t="n">
         <v>1.9</v>
@@ -12674,10 +12674,10 @@
         <v>1.2</v>
       </c>
       <c r="AS60" t="n">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AT60" t="n">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AU60" t="n">
         <v>2.17</v>
@@ -12877,10 +12877,10 @@
         <v>0.6</v>
       </c>
       <c r="AS61" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AT61" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU61" t="n">
         <v>1.16</v>
@@ -13489,7 +13489,7 @@
         <v>1.8</v>
       </c>
       <c r="AT64" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU64" t="n">
         <v>1.77</v>
@@ -13892,7 +13892,7 @@
         <v>1</v>
       </c>
       <c r="AS66" t="n">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AT66" t="n">
         <v>0.7</v>
@@ -14095,10 +14095,10 @@
         <v>0.83</v>
       </c>
       <c r="AS67" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AT67" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AU67" t="n">
         <v>1.89</v>
@@ -14298,7 +14298,7 @@
         <v>1.17</v>
       </c>
       <c r="AS68" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AT68" t="n">
         <v>1.2</v>
@@ -14504,7 +14504,7 @@
         <v>0.8</v>
       </c>
       <c r="AT69" t="n">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AU69" t="n">
         <v>1.94</v>
@@ -14707,7 +14707,7 @@
         <v>1.6</v>
       </c>
       <c r="AT70" t="n">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AU70" t="n">
         <v>1.97</v>
@@ -14907,7 +14907,7 @@
         <v>2</v>
       </c>
       <c r="AS71" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AT71" t="n">
         <v>1.7</v>
@@ -15113,7 +15113,7 @@
         <v>1.6</v>
       </c>
       <c r="AT72" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU72" t="n">
         <v>1.78</v>
@@ -15313,7 +15313,7 @@
         <v>0.86</v>
       </c>
       <c r="AS73" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AT73" t="n">
         <v>0.7</v>
@@ -15922,7 +15922,7 @@
         <v>0.71</v>
       </c>
       <c r="AS76" t="n">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AT76" t="n">
         <v>0.6</v>
@@ -16128,7 +16128,7 @@
         <v>1.8</v>
       </c>
       <c r="AT77" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AU77" t="n">
         <v>1.81</v>
@@ -16331,7 +16331,7 @@
         <v>0.8</v>
       </c>
       <c r="AT78" t="n">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AU78" t="n">
         <v>1.86</v>
@@ -16531,10 +16531,10 @@
         <v>1.86</v>
       </c>
       <c r="AS79" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AT79" t="n">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AU79" t="n">
         <v>1.39</v>
@@ -16937,7 +16937,7 @@
         <v>1.43</v>
       </c>
       <c r="AS81" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AT81" t="n">
         <v>1.2</v>
@@ -17346,7 +17346,7 @@
         <v>1.6</v>
       </c>
       <c r="AT83" t="n">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AU83" t="n">
         <v>1.8</v>
@@ -17546,7 +17546,7 @@
         <v>1.63</v>
       </c>
       <c r="AS84" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AT84" t="n">
         <v>1.78</v>
@@ -17952,10 +17952,10 @@
         <v>0.63</v>
       </c>
       <c r="AS86" t="n">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AT86" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU86" t="n">
         <v>2.05</v>
@@ -18358,7 +18358,7 @@
         <v>0.63</v>
       </c>
       <c r="AS88" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AT88" t="n">
         <v>0.6</v>
@@ -18561,10 +18561,10 @@
         <v>1.13</v>
       </c>
       <c r="AS89" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AT89" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AU89" t="n">
         <v>1.48</v>
@@ -18970,7 +18970,7 @@
         <v>2.6</v>
       </c>
       <c r="AT91" t="n">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AU91" t="n">
         <v>1.85</v>
@@ -19373,7 +19373,7 @@
         <v>0.78</v>
       </c>
       <c r="AS93" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AT93" t="n">
         <v>0.7</v>
@@ -19782,7 +19782,7 @@
         <v>1.6</v>
       </c>
       <c r="AT95" t="n">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AU95" t="n">
         <v>1.7</v>
@@ -20240,6 +20240,818 @@
       </c>
       <c r="BK97" t="n">
         <v>13</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B98" t="n">
+        <v>2529663</v>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Slovenia PrvaLiga</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E98" s="2" t="n">
+        <v>44906.375</v>
+      </c>
+      <c r="F98" t="n">
+        <v>20</v>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>Tabor Sežana</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>Olimpija</t>
+        </is>
+      </c>
+      <c r="I98" t="n">
+        <v>0</v>
+      </c>
+      <c r="J98" t="n">
+        <v>2</v>
+      </c>
+      <c r="K98" t="n">
+        <v>2</v>
+      </c>
+      <c r="L98" t="n">
+        <v>0</v>
+      </c>
+      <c r="M98" t="n">
+        <v>8</v>
+      </c>
+      <c r="N98" t="n">
+        <v>8</v>
+      </c>
+      <c r="O98" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P98" t="inlineStr">
+        <is>
+          <t>['4', '16', '52', '67', '70', '74', '85', '90']</t>
+        </is>
+      </c>
+      <c r="Q98" t="n">
+        <v>1</v>
+      </c>
+      <c r="R98" t="n">
+        <v>8</v>
+      </c>
+      <c r="S98" t="n">
+        <v>9</v>
+      </c>
+      <c r="T98" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="U98" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V98" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="W98" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X98" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y98" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="Z98" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA98" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB98" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC98" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="AD98" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="AE98" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AF98" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG98" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH98" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI98" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AJ98" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AK98" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AL98" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM98" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN98" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AO98" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP98" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AQ98" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AR98" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AS98" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AT98" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AU98" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AV98" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AW98" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="AX98" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AY98" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AZ98" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BA98" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BB98" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BC98" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD98" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="BE98" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BF98" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG98" t="n">
+        <v>10</v>
+      </c>
+      <c r="BH98" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI98" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ98" t="n">
+        <v>3</v>
+      </c>
+      <c r="BK98" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B99" t="n">
+        <v>2529665</v>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Slovenia PrvaLiga</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E99" s="2" t="n">
+        <v>44906.45833333334</v>
+      </c>
+      <c r="F99" t="n">
+        <v>20</v>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>Maribor</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>Gorica</t>
+        </is>
+      </c>
+      <c r="I99" t="n">
+        <v>1</v>
+      </c>
+      <c r="J99" t="n">
+        <v>1</v>
+      </c>
+      <c r="K99" t="n">
+        <v>2</v>
+      </c>
+      <c r="L99" t="n">
+        <v>2</v>
+      </c>
+      <c r="M99" t="n">
+        <v>1</v>
+      </c>
+      <c r="N99" t="n">
+        <v>3</v>
+      </c>
+      <c r="O99" t="inlineStr">
+        <is>
+          <t>['25', '80']</t>
+        </is>
+      </c>
+      <c r="P99" t="inlineStr">
+        <is>
+          <t>['27']</t>
+        </is>
+      </c>
+      <c r="Q99" t="n">
+        <v>7</v>
+      </c>
+      <c r="R99" t="n">
+        <v>1</v>
+      </c>
+      <c r="S99" t="n">
+        <v>8</v>
+      </c>
+      <c r="T99" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="U99" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="V99" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="W99" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X99" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y99" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Z99" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AA99" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB99" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC99" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AD99" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="AE99" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="AF99" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG99" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH99" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI99" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ99" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AK99" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AL99" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AM99" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AN99" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AO99" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AP99" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="AQ99" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AR99" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AS99" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AT99" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AU99" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AV99" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AW99" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="AX99" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AY99" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ99" t="n">
+        <v>6.65</v>
+      </c>
+      <c r="BA99" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BB99" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BC99" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BD99" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="BE99" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BF99" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG99" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH99" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI99" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ99" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK99" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B100" t="n">
+        <v>2529661</v>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Slovenia PrvaLiga</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E100" s="2" t="n">
+        <v>44906.5625</v>
+      </c>
+      <c r="F100" t="n">
+        <v>20</v>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>Radomlje</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>Celje</t>
+        </is>
+      </c>
+      <c r="I100" t="n">
+        <v>0</v>
+      </c>
+      <c r="J100" t="n">
+        <v>1</v>
+      </c>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="n">
+        <v>0</v>
+      </c>
+      <c r="M100" t="n">
+        <v>3</v>
+      </c>
+      <c r="N100" t="n">
+        <v>3</v>
+      </c>
+      <c r="O100" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P100" t="inlineStr">
+        <is>
+          <t>['42', '55', '65']</t>
+        </is>
+      </c>
+      <c r="Q100" t="n">
+        <v>4</v>
+      </c>
+      <c r="R100" t="n">
+        <v>7</v>
+      </c>
+      <c r="S100" t="n">
+        <v>11</v>
+      </c>
+      <c r="T100" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="U100" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V100" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="W100" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X100" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y100" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="Z100" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA100" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB100" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC100" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="AD100" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="AE100" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AF100" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG100" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH100" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI100" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AJ100" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AK100" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AL100" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM100" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN100" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AO100" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP100" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AQ100" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AR100" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS100" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AT100" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AU100" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AV100" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AW100" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AX100" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="AY100" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ100" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BA100" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB100" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BC100" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BD100" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="BE100" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="BF100" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG100" t="n">
+        <v>10</v>
+      </c>
+      <c r="BH100" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI100" t="n">
+        <v>11</v>
+      </c>
+      <c r="BJ100" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK100" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B101" t="n">
+        <v>2529662</v>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Slovenia PrvaLiga</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E101" s="2" t="n">
+        <v>44907.5625</v>
+      </c>
+      <c r="F101" t="n">
+        <v>20</v>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>Mura</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>Domžale</t>
+        </is>
+      </c>
+      <c r="I101" t="n">
+        <v>0</v>
+      </c>
+      <c r="J101" t="n">
+        <v>1</v>
+      </c>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="n">
+        <v>0</v>
+      </c>
+      <c r="M101" t="n">
+        <v>1</v>
+      </c>
+      <c r="N101" t="n">
+        <v>1</v>
+      </c>
+      <c r="O101" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P101" t="inlineStr">
+        <is>
+          <t>['30']</t>
+        </is>
+      </c>
+      <c r="Q101" t="n">
+        <v>3</v>
+      </c>
+      <c r="R101" t="n">
+        <v>2</v>
+      </c>
+      <c r="S101" t="n">
+        <v>5</v>
+      </c>
+      <c r="T101" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="U101" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="V101" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="W101" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="X101" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="Y101" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="Z101" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AA101" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AB101" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC101" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD101" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE101" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="AF101" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG101" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH101" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI101" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AJ101" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AK101" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AL101" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AM101" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AN101" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AO101" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AP101" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AQ101" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AR101" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AS101" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AT101" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AU101" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AV101" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AW101" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AX101" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AY101" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AZ101" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="BA101" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BB101" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BC101" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BD101" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BE101" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="BF101" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG101" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH101" t="n">
+        <v>14</v>
+      </c>
+      <c r="BI101" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ101" t="n">
+        <v>19</v>
+      </c>
+      <c r="BK101" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Slovenia PrvaLiga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Slovenia PrvaLiga_20222023.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/Bases_de_Dados_(2022-2023)/Slovenia PrvaLiga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Slovenia PrvaLiga_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="202">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -430,6 +430,15 @@
     <t>['25', '80']</t>
   </si>
   <si>
+    <t>['50', '59']</t>
+  </si>
+  <si>
+    <t>['1', '49']</t>
+  </si>
+  <si>
+    <t>['90+3']</t>
+  </si>
+  <si>
     <t>['67']</t>
   </si>
   <si>
@@ -602,6 +611,15 @@
   </si>
   <si>
     <t>['30']</t>
+  </si>
+  <si>
+    <t>['70']</t>
+  </si>
+  <si>
+    <t>['64']</t>
+  </si>
+  <si>
+    <t>['6', '59', '68', '82']</t>
   </si>
 </sst>
 </file>
@@ -963,7 +981,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK101"/>
+  <dimension ref="A1:BK106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1207,7 +1225,7 @@
         <v>75</v>
       </c>
       <c r="P2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1294,10 +1312,10 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AT2">
-        <v>0.5</v>
+        <v>0.73</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1485,7 +1503,7 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AT3">
         <v>1.18</v>
@@ -1589,7 +1607,7 @@
         <v>76</v>
       </c>
       <c r="P4" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="Q4">
         <v>7</v>
@@ -1679,7 +1697,7 @@
         <v>1.55</v>
       </c>
       <c r="AT4">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -1867,10 +1885,10 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AT5">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -2058,10 +2076,10 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AT6">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2162,7 +2180,7 @@
         <v>79</v>
       </c>
       <c r="P7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="Q7">
         <v>10</v>
@@ -2353,7 +2371,7 @@
         <v>80</v>
       </c>
       <c r="P8" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="Q8">
         <v>10</v>
@@ -2926,7 +2944,7 @@
         <v>82</v>
       </c>
       <c r="P11" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="Q11">
         <v>9</v>
@@ -3117,7 +3135,7 @@
         <v>76</v>
       </c>
       <c r="P12" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="Q12">
         <v>10</v>
@@ -3204,10 +3222,10 @@
         <v>3</v>
       </c>
       <c r="AS12">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AT12">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AU12">
         <v>2.09</v>
@@ -3395,10 +3413,10 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AT13">
-        <v>0.5</v>
+        <v>0.73</v>
       </c>
       <c r="AU13">
         <v>1.49</v>
@@ -3586,10 +3604,10 @@
         <v>0</v>
       </c>
       <c r="AS14">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AT14">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU14">
         <v>1.29</v>
@@ -3690,7 +3708,7 @@
         <v>85</v>
       </c>
       <c r="P15" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="Q15">
         <v>4</v>
@@ -3777,10 +3795,10 @@
         <v>0</v>
       </c>
       <c r="AS15">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AT15">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU15">
         <v>0</v>
@@ -3881,7 +3899,7 @@
         <v>86</v>
       </c>
       <c r="P16" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="Q16">
         <v>1</v>
@@ -3968,10 +3986,10 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AT16">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AU16">
         <v>2.44</v>
@@ -4263,7 +4281,7 @@
         <v>76</v>
       </c>
       <c r="P18" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="Q18">
         <v>5</v>
@@ -4454,7 +4472,7 @@
         <v>88</v>
       </c>
       <c r="P19" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="Q19">
         <v>5</v>
@@ -4544,7 +4562,7 @@
         <v>0.6</v>
       </c>
       <c r="AT19">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU19">
         <v>1.47</v>
@@ -4645,7 +4663,7 @@
         <v>76</v>
       </c>
       <c r="P20" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="Q20">
         <v>6</v>
@@ -4836,7 +4854,7 @@
         <v>89</v>
       </c>
       <c r="P21" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="Q21">
         <v>12</v>
@@ -4923,7 +4941,7 @@
         <v>0</v>
       </c>
       <c r="AS21">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AT21">
         <v>1.7</v>
@@ -5114,10 +5132,10 @@
         <v>0</v>
       </c>
       <c r="AS22">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AT22">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU22">
         <v>2.42</v>
@@ -5218,7 +5236,7 @@
         <v>91</v>
       </c>
       <c r="P23" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="Q23">
         <v>4</v>
@@ -5308,7 +5326,7 @@
         <v>1.9</v>
       </c>
       <c r="AT23">
-        <v>0.5</v>
+        <v>0.73</v>
       </c>
       <c r="AU23">
         <v>3.08</v>
@@ -5496,10 +5514,10 @@
         <v>3</v>
       </c>
       <c r="AS24">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AT24">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AU24">
         <v>2.1</v>
@@ -5600,7 +5618,7 @@
         <v>93</v>
       </c>
       <c r="P25" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="Q25">
         <v>6</v>
@@ -5687,10 +5705,10 @@
         <v>0</v>
       </c>
       <c r="AS25">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AT25">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AU25">
         <v>2.01</v>
@@ -5878,7 +5896,7 @@
         <v>0</v>
       </c>
       <c r="AS26">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AT26">
         <v>0.5</v>
@@ -6072,7 +6090,7 @@
         <v>0.6</v>
       </c>
       <c r="AT27">
-        <v>0.5</v>
+        <v>0.73</v>
       </c>
       <c r="AU27">
         <v>1.35</v>
@@ -6173,7 +6191,7 @@
         <v>76</v>
       </c>
       <c r="P28" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="Q28">
         <v>6</v>
@@ -6263,7 +6281,7 @@
         <v>1.6</v>
       </c>
       <c r="AT28">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU28">
         <v>2.01</v>
@@ -6364,7 +6382,7 @@
         <v>76</v>
       </c>
       <c r="P29" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="Q29">
         <v>6</v>
@@ -6451,7 +6469,7 @@
         <v>3</v>
       </c>
       <c r="AS29">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AT29">
         <v>2.2</v>
@@ -6555,7 +6573,7 @@
         <v>95</v>
       </c>
       <c r="P30" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="Q30">
         <v>4</v>
@@ -6833,7 +6851,7 @@
         <v>1.5</v>
       </c>
       <c r="AS31">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AT31">
         <v>1.5</v>
@@ -6937,7 +6955,7 @@
         <v>76</v>
       </c>
       <c r="P32" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="Q32">
         <v>5</v>
@@ -7027,7 +7045,7 @@
         <v>0.7</v>
       </c>
       <c r="AT32">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU32">
         <v>1.31</v>
@@ -7215,7 +7233,7 @@
         <v>0</v>
       </c>
       <c r="AS33">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AT33">
         <v>0.5</v>
@@ -7406,10 +7424,10 @@
         <v>2</v>
       </c>
       <c r="AS34">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AT34">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AU34">
         <v>1.62</v>
@@ -7510,7 +7528,7 @@
         <v>76</v>
       </c>
       <c r="P35" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="Q35">
         <v>6</v>
@@ -7597,7 +7615,7 @@
         <v>1.5</v>
       </c>
       <c r="AS35">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AT35">
         <v>1.7</v>
@@ -7701,7 +7719,7 @@
         <v>76</v>
       </c>
       <c r="P36" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="Q36">
         <v>9</v>
@@ -7791,7 +7809,7 @@
         <v>1.9</v>
       </c>
       <c r="AT36">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AU36">
         <v>2.4</v>
@@ -7979,10 +7997,10 @@
         <v>1.25</v>
       </c>
       <c r="AS37">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AT37">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU37">
         <v>2.15</v>
@@ -8083,7 +8101,7 @@
         <v>76</v>
       </c>
       <c r="P38" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="Q38">
         <v>3</v>
@@ -8170,7 +8188,7 @@
         <v>0.75</v>
       </c>
       <c r="AS38">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AT38">
         <v>1.18</v>
@@ -8274,7 +8292,7 @@
         <v>98</v>
       </c>
       <c r="P39" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="Q39">
         <v>4</v>
@@ -8364,7 +8382,7 @@
         <v>1.55</v>
       </c>
       <c r="AT39">
-        <v>0.5</v>
+        <v>0.73</v>
       </c>
       <c r="AU39">
         <v>1.97</v>
@@ -8465,7 +8483,7 @@
         <v>99</v>
       </c>
       <c r="P40" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -8552,7 +8570,7 @@
         <v>1.33</v>
       </c>
       <c r="AS40">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AT40">
         <v>1.5</v>
@@ -8656,7 +8674,7 @@
         <v>100</v>
       </c>
       <c r="P41" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="Q41">
         <v>2</v>
@@ -8746,7 +8764,7 @@
         <v>0.6</v>
       </c>
       <c r="AT41">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU41">
         <v>1.32</v>
@@ -8934,10 +8952,10 @@
         <v>1.5</v>
       </c>
       <c r="AS42">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AT42">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AU42">
         <v>1.93</v>
@@ -9038,7 +9056,7 @@
         <v>102</v>
       </c>
       <c r="P43" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="Q43">
         <v>7</v>
@@ -9229,7 +9247,7 @@
         <v>103</v>
       </c>
       <c r="P44" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="Q44">
         <v>6</v>
@@ -9316,7 +9334,7 @@
         <v>3</v>
       </c>
       <c r="AS44">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AT44">
         <v>2.2</v>
@@ -9420,7 +9438,7 @@
         <v>76</v>
       </c>
       <c r="P45" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="Q45">
         <v>4</v>
@@ -9510,7 +9528,7 @@
         <v>1.6</v>
       </c>
       <c r="AT45">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AU45">
         <v>1.94</v>
@@ -9611,7 +9629,7 @@
         <v>104</v>
       </c>
       <c r="P46" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="Q46">
         <v>5</v>
@@ -9802,7 +9820,7 @@
         <v>76</v>
       </c>
       <c r="P47" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="Q47">
         <v>4</v>
@@ -9993,7 +10011,7 @@
         <v>105</v>
       </c>
       <c r="P48" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q48">
         <v>1</v>
@@ -10375,7 +10393,7 @@
         <v>76</v>
       </c>
       <c r="P50" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="Q50">
         <v>5</v>
@@ -10465,7 +10483,7 @@
         <v>0.6</v>
       </c>
       <c r="AT50">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AU50">
         <v>1.33</v>
@@ -10566,7 +10584,7 @@
         <v>107</v>
       </c>
       <c r="P51" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="Q51">
         <v>5</v>
@@ -10653,7 +10671,7 @@
         <v>1</v>
       </c>
       <c r="AS51">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AT51">
         <v>1.5</v>
@@ -10757,7 +10775,7 @@
         <v>108</v>
       </c>
       <c r="P52" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="Q52">
         <v>4</v>
@@ -10844,10 +10862,10 @@
         <v>1.2</v>
       </c>
       <c r="AS52">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AT52">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU52">
         <v>1.91</v>
@@ -11035,10 +11053,10 @@
         <v>0.8</v>
       </c>
       <c r="AS53">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AT53">
-        <v>0.5</v>
+        <v>0.73</v>
       </c>
       <c r="AU53">
         <v>1.8</v>
@@ -11226,10 +11244,10 @@
         <v>0.8</v>
       </c>
       <c r="AS54">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AT54">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU54">
         <v>1.84</v>
@@ -11330,7 +11348,7 @@
         <v>111</v>
       </c>
       <c r="P55" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="Q55">
         <v>5</v>
@@ -11417,10 +11435,10 @@
         <v>1.8</v>
       </c>
       <c r="AS55">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AT55">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AU55">
         <v>2.09</v>
@@ -11521,7 +11539,7 @@
         <v>112</v>
       </c>
       <c r="P56" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="Q56">
         <v>1</v>
@@ -11608,10 +11626,10 @@
         <v>1.2</v>
       </c>
       <c r="AS56">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AT56">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AU56">
         <v>2.25</v>
@@ -11903,7 +11921,7 @@
         <v>76</v>
       </c>
       <c r="P58" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="Q58">
         <v>3</v>
@@ -12285,7 +12303,7 @@
         <v>115</v>
       </c>
       <c r="P60" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="Q60">
         <v>5</v>
@@ -12754,10 +12772,10 @@
         <v>0.67</v>
       </c>
       <c r="AS62">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AT62">
-        <v>0.5</v>
+        <v>0.73</v>
       </c>
       <c r="AU62">
         <v>2.13</v>
@@ -12945,10 +12963,10 @@
         <v>0.67</v>
       </c>
       <c r="AS63">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AT63">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU63">
         <v>1.84</v>
@@ -13049,7 +13067,7 @@
         <v>118</v>
       </c>
       <c r="P64" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="Q64">
         <v>9</v>
@@ -13136,7 +13154,7 @@
         <v>0.67</v>
       </c>
       <c r="AS64">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AT64">
         <v>0.5</v>
@@ -13327,10 +13345,10 @@
         <v>2</v>
       </c>
       <c r="AS65">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AT65">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AU65">
         <v>1.79</v>
@@ -13521,7 +13539,7 @@
         <v>1.9</v>
       </c>
       <c r="AT66">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AU66">
         <v>2.22</v>
@@ -13622,7 +13640,7 @@
         <v>76</v>
       </c>
       <c r="P67" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q67">
         <v>4</v>
@@ -13813,7 +13831,7 @@
         <v>76</v>
       </c>
       <c r="P68" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="Q68">
         <v>4</v>
@@ -13903,7 +13921,7 @@
         <v>0.7</v>
       </c>
       <c r="AT68">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU68">
         <v>1.66</v>
@@ -14091,7 +14109,7 @@
         <v>2</v>
       </c>
       <c r="AS69">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AT69">
         <v>2.2</v>
@@ -14386,7 +14404,7 @@
         <v>122</v>
       </c>
       <c r="P71" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="Q71">
         <v>4</v>
@@ -14664,7 +14682,7 @@
         <v>0.71</v>
       </c>
       <c r="AS72">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AT72">
         <v>0.5</v>
@@ -14768,7 +14786,7 @@
         <v>124</v>
       </c>
       <c r="P73" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="Q73">
         <v>6</v>
@@ -14858,7 +14876,7 @@
         <v>0.7</v>
       </c>
       <c r="AT73">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AU73">
         <v>1.65</v>
@@ -14959,7 +14977,7 @@
         <v>125</v>
       </c>
       <c r="P74" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="Q74">
         <v>7</v>
@@ -15046,10 +15064,10 @@
         <v>1.71</v>
       </c>
       <c r="AS74">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AT74">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AU74">
         <v>2.12</v>
@@ -15150,7 +15168,7 @@
         <v>126</v>
       </c>
       <c r="P75" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="Q75">
         <v>3</v>
@@ -15237,7 +15255,7 @@
         <v>1.86</v>
       </c>
       <c r="AS75">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AT75">
         <v>1.7</v>
@@ -15431,7 +15449,7 @@
         <v>1.9</v>
       </c>
       <c r="AT76">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU76">
         <v>2.18</v>
@@ -15532,7 +15550,7 @@
         <v>128</v>
       </c>
       <c r="P77" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Q77">
         <v>3</v>
@@ -15619,7 +15637,7 @@
         <v>1.14</v>
       </c>
       <c r="AS77">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AT77">
         <v>1.5</v>
@@ -15723,7 +15741,7 @@
         <v>76</v>
       </c>
       <c r="P78" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="Q78">
         <v>7</v>
@@ -15810,7 +15828,7 @@
         <v>0.86</v>
       </c>
       <c r="AS78">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AT78">
         <v>1.18</v>
@@ -15914,7 +15932,7 @@
         <v>76</v>
       </c>
       <c r="P79" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q79">
         <v>5</v>
@@ -16105,7 +16123,7 @@
         <v>129</v>
       </c>
       <c r="P80" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q80">
         <v>4</v>
@@ -16195,7 +16213,7 @@
         <v>1.6</v>
       </c>
       <c r="AT80">
-        <v>0.5</v>
+        <v>0.73</v>
       </c>
       <c r="AU80">
         <v>1.82</v>
@@ -16296,7 +16314,7 @@
         <v>130</v>
       </c>
       <c r="P81" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="Q81">
         <v>8</v>
@@ -16386,7 +16404,7 @@
         <v>1.55</v>
       </c>
       <c r="AT81">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU81">
         <v>1.75</v>
@@ -16487,7 +16505,7 @@
         <v>128</v>
       </c>
       <c r="P82" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Q82">
         <v>7</v>
@@ -16577,7 +16595,7 @@
         <v>1.6</v>
       </c>
       <c r="AT82">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AU82">
         <v>1.85</v>
@@ -16678,7 +16696,7 @@
         <v>76</v>
       </c>
       <c r="P83" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q83">
         <v>0</v>
@@ -16765,7 +16783,7 @@
         <v>2</v>
       </c>
       <c r="AS83">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AT83">
         <v>2.2</v>
@@ -16869,7 +16887,7 @@
         <v>76</v>
       </c>
       <c r="P84" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Q84">
         <v>1</v>
@@ -16959,7 +16977,7 @@
         <v>0.7</v>
       </c>
       <c r="AT84">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AU84">
         <v>1.71</v>
@@ -17147,7 +17165,7 @@
         <v>1.63</v>
       </c>
       <c r="AS85">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AT85">
         <v>1.7</v>
@@ -17442,7 +17460,7 @@
         <v>89</v>
       </c>
       <c r="P87" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q87">
         <v>6</v>
@@ -17529,10 +17547,10 @@
         <v>0.5</v>
       </c>
       <c r="AS87">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AT87">
-        <v>0.5</v>
+        <v>0.73</v>
       </c>
       <c r="AU87">
         <v>1.74</v>
@@ -17723,7 +17741,7 @@
         <v>1.55</v>
       </c>
       <c r="AT88">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU88">
         <v>1.86</v>
@@ -17824,7 +17842,7 @@
         <v>76</v>
       </c>
       <c r="P89" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q89">
         <v>5</v>
@@ -18102,10 +18120,10 @@
         <v>1.25</v>
       </c>
       <c r="AS90">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AT90">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU90">
         <v>1.79</v>
@@ -18293,7 +18311,7 @@
         <v>1.13</v>
       </c>
       <c r="AS91">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AT91">
         <v>1.18</v>
@@ -18484,10 +18502,10 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS92">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AT92">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU92">
         <v>1.76</v>
@@ -18678,7 +18696,7 @@
         <v>1.55</v>
       </c>
       <c r="AT93">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AU93">
         <v>1.86</v>
@@ -18779,7 +18797,7 @@
         <v>135</v>
       </c>
       <c r="P94" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q94">
         <v>8</v>
@@ -18866,10 +18884,10 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS94">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AT94">
-        <v>0.5</v>
+        <v>0.73</v>
       </c>
       <c r="AU94">
         <v>1.8</v>
@@ -18970,7 +18988,7 @@
         <v>136</v>
       </c>
       <c r="P95" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="Q95">
         <v>5</v>
@@ -19057,7 +19075,7 @@
         <v>1.11</v>
       </c>
       <c r="AS95">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AT95">
         <v>1.18</v>
@@ -19248,10 +19266,10 @@
         <v>1.22</v>
       </c>
       <c r="AS96">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AT96">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU96">
         <v>1.81</v>
@@ -19543,7 +19561,7 @@
         <v>76</v>
       </c>
       <c r="P98" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q98">
         <v>1</v>
@@ -19734,7 +19752,7 @@
         <v>137</v>
       </c>
       <c r="P99" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q99">
         <v>7</v>
@@ -19925,7 +19943,7 @@
         <v>76</v>
       </c>
       <c r="P100" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q100">
         <v>4</v>
@@ -20116,7 +20134,7 @@
         <v>76</v>
       </c>
       <c r="P101" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q101">
         <v>3</v>
@@ -20258,6 +20276,961 @@
       </c>
       <c r="BK101">
         <v>7</v>
+      </c>
+    </row>
+    <row r="102" spans="1:63">
+      <c r="A102" s="1">
+        <v>101</v>
+      </c>
+      <c r="B102">
+        <v>2529668</v>
+      </c>
+      <c r="C102" t="s">
+        <v>63</v>
+      </c>
+      <c r="D102" t="s">
+        <v>64</v>
+      </c>
+      <c r="E102" s="2">
+        <v>44968.45833333334</v>
+      </c>
+      <c r="F102">
+        <v>21</v>
+      </c>
+      <c r="G102" t="s">
+        <v>68</v>
+      </c>
+      <c r="H102" t="s">
+        <v>72</v>
+      </c>
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+      <c r="L102">
+        <v>2</v>
+      </c>
+      <c r="M102">
+        <v>1</v>
+      </c>
+      <c r="N102">
+        <v>3</v>
+      </c>
+      <c r="O102" t="s">
+        <v>138</v>
+      </c>
+      <c r="P102" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q102">
+        <v>4</v>
+      </c>
+      <c r="R102">
+        <v>3</v>
+      </c>
+      <c r="S102">
+        <v>7</v>
+      </c>
+      <c r="T102">
+        <v>2.4</v>
+      </c>
+      <c r="U102">
+        <v>2.1</v>
+      </c>
+      <c r="V102">
+        <v>4.5</v>
+      </c>
+      <c r="W102">
+        <v>1.4</v>
+      </c>
+      <c r="X102">
+        <v>2.75</v>
+      </c>
+      <c r="Y102">
+        <v>2.75</v>
+      </c>
+      <c r="Z102">
+        <v>1.4</v>
+      </c>
+      <c r="AA102">
+        <v>8</v>
+      </c>
+      <c r="AB102">
+        <v>1.08</v>
+      </c>
+      <c r="AC102">
+        <v>1.73</v>
+      </c>
+      <c r="AD102">
+        <v>3.4</v>
+      </c>
+      <c r="AE102">
+        <v>4.33</v>
+      </c>
+      <c r="AF102">
+        <v>1.06</v>
+      </c>
+      <c r="AG102">
+        <v>8</v>
+      </c>
+      <c r="AH102">
+        <v>1.3</v>
+      </c>
+      <c r="AI102">
+        <v>3.3</v>
+      </c>
+      <c r="AJ102">
+        <v>2</v>
+      </c>
+      <c r="AK102">
+        <v>1.78</v>
+      </c>
+      <c r="AL102">
+        <v>1.83</v>
+      </c>
+      <c r="AM102">
+        <v>1.83</v>
+      </c>
+      <c r="AN102">
+        <v>1.15</v>
+      </c>
+      <c r="AO102">
+        <v>1.22</v>
+      </c>
+      <c r="AP102">
+        <v>2</v>
+      </c>
+      <c r="AQ102">
+        <v>2.6</v>
+      </c>
+      <c r="AR102">
+        <v>0.6</v>
+      </c>
+      <c r="AS102">
+        <v>2.64</v>
+      </c>
+      <c r="AT102">
+        <v>0.55</v>
+      </c>
+      <c r="AU102">
+        <v>1.84</v>
+      </c>
+      <c r="AV102">
+        <v>1.63</v>
+      </c>
+      <c r="AW102">
+        <v>3.47</v>
+      </c>
+      <c r="AX102">
+        <v>1.32</v>
+      </c>
+      <c r="AY102">
+        <v>6.5</v>
+      </c>
+      <c r="AZ102">
+        <v>3.95</v>
+      </c>
+      <c r="BA102">
+        <v>1.31</v>
+      </c>
+      <c r="BB102">
+        <v>1.57</v>
+      </c>
+      <c r="BC102">
+        <v>1.94</v>
+      </c>
+      <c r="BD102">
+        <v>2.43</v>
+      </c>
+      <c r="BE102">
+        <v>3.3</v>
+      </c>
+      <c r="BF102">
+        <v>6</v>
+      </c>
+      <c r="BG102">
+        <v>5</v>
+      </c>
+      <c r="BH102">
+        <v>4</v>
+      </c>
+      <c r="BI102">
+        <v>11</v>
+      </c>
+      <c r="BJ102">
+        <v>10</v>
+      </c>
+      <c r="BK102">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="103" spans="1:63">
+      <c r="A103" s="1">
+        <v>102</v>
+      </c>
+      <c r="B103">
+        <v>2529670</v>
+      </c>
+      <c r="C103" t="s">
+        <v>63</v>
+      </c>
+      <c r="D103" t="s">
+        <v>64</v>
+      </c>
+      <c r="E103" s="2">
+        <v>44968.5625</v>
+      </c>
+      <c r="F103">
+        <v>21</v>
+      </c>
+      <c r="G103" t="s">
+        <v>74</v>
+      </c>
+      <c r="H103" t="s">
+        <v>73</v>
+      </c>
+      <c r="I103">
+        <v>1</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>1</v>
+      </c>
+      <c r="L103">
+        <v>2</v>
+      </c>
+      <c r="M103">
+        <v>1</v>
+      </c>
+      <c r="N103">
+        <v>3</v>
+      </c>
+      <c r="O103" t="s">
+        <v>139</v>
+      </c>
+      <c r="P103" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q103">
+        <v>4</v>
+      </c>
+      <c r="R103">
+        <v>2</v>
+      </c>
+      <c r="S103">
+        <v>6</v>
+      </c>
+      <c r="T103">
+        <v>2.63</v>
+      </c>
+      <c r="U103">
+        <v>2.25</v>
+      </c>
+      <c r="V103">
+        <v>3.4</v>
+      </c>
+      <c r="W103">
+        <v>1.33</v>
+      </c>
+      <c r="X103">
+        <v>3.25</v>
+      </c>
+      <c r="Y103">
+        <v>2.5</v>
+      </c>
+      <c r="Z103">
+        <v>1.5</v>
+      </c>
+      <c r="AA103">
+        <v>6.5</v>
+      </c>
+      <c r="AB103">
+        <v>1.11</v>
+      </c>
+      <c r="AC103">
+        <v>2.1</v>
+      </c>
+      <c r="AD103">
+        <v>3.5</v>
+      </c>
+      <c r="AE103">
+        <v>2.9</v>
+      </c>
+      <c r="AF103">
+        <v>1.04</v>
+      </c>
+      <c r="AG103">
+        <v>10</v>
+      </c>
+      <c r="AH103">
+        <v>1.22</v>
+      </c>
+      <c r="AI103">
+        <v>4</v>
+      </c>
+      <c r="AJ103">
+        <v>1.67</v>
+      </c>
+      <c r="AK103">
+        <v>2.15</v>
+      </c>
+      <c r="AL103">
+        <v>1.62</v>
+      </c>
+      <c r="AM103">
+        <v>2.2</v>
+      </c>
+      <c r="AN103">
+        <v>1.3</v>
+      </c>
+      <c r="AO103">
+        <v>1.25</v>
+      </c>
+      <c r="AP103">
+        <v>1.57</v>
+      </c>
+      <c r="AQ103">
+        <v>2.33</v>
+      </c>
+      <c r="AR103">
+        <v>1.2</v>
+      </c>
+      <c r="AS103">
+        <v>2.4</v>
+      </c>
+      <c r="AT103">
+        <v>1.09</v>
+      </c>
+      <c r="AU103">
+        <v>1.98</v>
+      </c>
+      <c r="AV103">
+        <v>1.59</v>
+      </c>
+      <c r="AW103">
+        <v>3.57</v>
+      </c>
+      <c r="AX103">
+        <v>1.62</v>
+      </c>
+      <c r="AY103">
+        <v>8.5</v>
+      </c>
+      <c r="AZ103">
+        <v>2.94</v>
+      </c>
+      <c r="BA103">
+        <v>1.22</v>
+      </c>
+      <c r="BB103">
+        <v>1.38</v>
+      </c>
+      <c r="BC103">
+        <v>1.67</v>
+      </c>
+      <c r="BD103">
+        <v>2.12</v>
+      </c>
+      <c r="BE103">
+        <v>2.77</v>
+      </c>
+      <c r="BF103">
+        <v>6</v>
+      </c>
+      <c r="BG103">
+        <v>5</v>
+      </c>
+      <c r="BH103">
+        <v>2</v>
+      </c>
+      <c r="BI103">
+        <v>6</v>
+      </c>
+      <c r="BJ103">
+        <v>8</v>
+      </c>
+      <c r="BK103">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="104" spans="1:63">
+      <c r="A104" s="1">
+        <v>103</v>
+      </c>
+      <c r="B104">
+        <v>2529666</v>
+      </c>
+      <c r="C104" t="s">
+        <v>63</v>
+      </c>
+      <c r="D104" t="s">
+        <v>64</v>
+      </c>
+      <c r="E104" s="2">
+        <v>44969.375</v>
+      </c>
+      <c r="F104">
+        <v>21</v>
+      </c>
+      <c r="G104" t="s">
+        <v>69</v>
+      </c>
+      <c r="H104" t="s">
+        <v>70</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
+        <v>0</v>
+      </c>
+      <c r="L104">
+        <v>1</v>
+      </c>
+      <c r="M104">
+        <v>1</v>
+      </c>
+      <c r="N104">
+        <v>2</v>
+      </c>
+      <c r="O104" t="s">
+        <v>140</v>
+      </c>
+      <c r="P104" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q104">
+        <v>6</v>
+      </c>
+      <c r="R104">
+        <v>2</v>
+      </c>
+      <c r="S104">
+        <v>8</v>
+      </c>
+      <c r="T104">
+        <v>2.88</v>
+      </c>
+      <c r="U104">
+        <v>2.1</v>
+      </c>
+      <c r="V104">
+        <v>3.5</v>
+      </c>
+      <c r="W104">
+        <v>1.4</v>
+      </c>
+      <c r="X104">
+        <v>2.75</v>
+      </c>
+      <c r="Y104">
+        <v>3</v>
+      </c>
+      <c r="Z104">
+        <v>1.36</v>
+      </c>
+      <c r="AA104">
+        <v>8</v>
+      </c>
+      <c r="AB104">
+        <v>1.08</v>
+      </c>
+      <c r="AC104">
+        <v>2.26</v>
+      </c>
+      <c r="AD104">
+        <v>3.25</v>
+      </c>
+      <c r="AE104">
+        <v>2.86</v>
+      </c>
+      <c r="AF104">
+        <v>1.06</v>
+      </c>
+      <c r="AG104">
+        <v>8</v>
+      </c>
+      <c r="AH104">
+        <v>1.3</v>
+      </c>
+      <c r="AI104">
+        <v>3.3</v>
+      </c>
+      <c r="AJ104">
+        <v>1.94</v>
+      </c>
+      <c r="AK104">
+        <v>1.77</v>
+      </c>
+      <c r="AL104">
+        <v>1.8</v>
+      </c>
+      <c r="AM104">
+        <v>1.91</v>
+      </c>
+      <c r="AN104">
+        <v>1.3</v>
+      </c>
+      <c r="AO104">
+        <v>1.28</v>
+      </c>
+      <c r="AP104">
+        <v>1.5</v>
+      </c>
+      <c r="AQ104">
+        <v>0.8</v>
+      </c>
+      <c r="AR104">
+        <v>0.7</v>
+      </c>
+      <c r="AS104">
+        <v>0.82</v>
+      </c>
+      <c r="AT104">
+        <v>0.73</v>
+      </c>
+      <c r="AU104">
+        <v>1.76</v>
+      </c>
+      <c r="AV104">
+        <v>1.47</v>
+      </c>
+      <c r="AW104">
+        <v>3.23</v>
+      </c>
+      <c r="AX104">
+        <v>1.82</v>
+      </c>
+      <c r="AY104">
+        <v>7.9</v>
+      </c>
+      <c r="AZ104">
+        <v>2.5</v>
+      </c>
+      <c r="BA104">
+        <v>1.23</v>
+      </c>
+      <c r="BB104">
+        <v>1.42</v>
+      </c>
+      <c r="BC104">
+        <v>1.76</v>
+      </c>
+      <c r="BD104">
+        <v>2.18</v>
+      </c>
+      <c r="BE104">
+        <v>2.95</v>
+      </c>
+      <c r="BF104">
+        <v>3</v>
+      </c>
+      <c r="BG104">
+        <v>3</v>
+      </c>
+      <c r="BH104">
+        <v>8</v>
+      </c>
+      <c r="BI104">
+        <v>2</v>
+      </c>
+      <c r="BJ104">
+        <v>11</v>
+      </c>
+      <c r="BK104">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="105" spans="1:63">
+      <c r="A105" s="1">
+        <v>104</v>
+      </c>
+      <c r="B105">
+        <v>2529667</v>
+      </c>
+      <c r="C105" t="s">
+        <v>63</v>
+      </c>
+      <c r="D105" t="s">
+        <v>64</v>
+      </c>
+      <c r="E105" s="2">
+        <v>44969.45833333334</v>
+      </c>
+      <c r="F105">
+        <v>21</v>
+      </c>
+      <c r="G105" t="s">
+        <v>65</v>
+      </c>
+      <c r="H105" t="s">
+        <v>67</v>
+      </c>
+      <c r="I105">
+        <v>0</v>
+      </c>
+      <c r="J105">
+        <v>1</v>
+      </c>
+      <c r="K105">
+        <v>1</v>
+      </c>
+      <c r="L105">
+        <v>0</v>
+      </c>
+      <c r="M105">
+        <v>1</v>
+      </c>
+      <c r="N105">
+        <v>1</v>
+      </c>
+      <c r="O105" t="s">
+        <v>76</v>
+      </c>
+      <c r="P105" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q105">
+        <v>2</v>
+      </c>
+      <c r="R105">
+        <v>9</v>
+      </c>
+      <c r="S105">
+        <v>11</v>
+      </c>
+      <c r="T105">
+        <v>3.4</v>
+      </c>
+      <c r="U105">
+        <v>2.1</v>
+      </c>
+      <c r="V105">
+        <v>2.88</v>
+      </c>
+      <c r="W105">
+        <v>1.4</v>
+      </c>
+      <c r="X105">
+        <v>2.75</v>
+      </c>
+      <c r="Y105">
+        <v>2.75</v>
+      </c>
+      <c r="Z105">
+        <v>1.4</v>
+      </c>
+      <c r="AA105">
+        <v>8</v>
+      </c>
+      <c r="AB105">
+        <v>1.08</v>
+      </c>
+      <c r="AC105">
+        <v>2.89</v>
+      </c>
+      <c r="AD105">
+        <v>3.25</v>
+      </c>
+      <c r="AE105">
+        <v>2.24</v>
+      </c>
+      <c r="AF105">
+        <v>1.06</v>
+      </c>
+      <c r="AG105">
+        <v>8</v>
+      </c>
+      <c r="AH105">
+        <v>1.28</v>
+      </c>
+      <c r="AI105">
+        <v>3.5</v>
+      </c>
+      <c r="AJ105">
+        <v>1.85</v>
+      </c>
+      <c r="AK105">
+        <v>1.85</v>
+      </c>
+      <c r="AL105">
+        <v>1.73</v>
+      </c>
+      <c r="AM105">
+        <v>2</v>
+      </c>
+      <c r="AN105">
+        <v>1.36</v>
+      </c>
+      <c r="AO105">
+        <v>1.22</v>
+      </c>
+      <c r="AP105">
+        <v>1.5</v>
+      </c>
+      <c r="AQ105">
+        <v>1.8</v>
+      </c>
+      <c r="AR105">
+        <v>1.78</v>
+      </c>
+      <c r="AS105">
+        <v>1.64</v>
+      </c>
+      <c r="AT105">
+        <v>1.9</v>
+      </c>
+      <c r="AU105">
+        <v>1.8</v>
+      </c>
+      <c r="AV105">
+        <v>1.79</v>
+      </c>
+      <c r="AW105">
+        <v>3.59</v>
+      </c>
+      <c r="AX105">
+        <v>2.28</v>
+      </c>
+      <c r="AY105">
+        <v>7.5</v>
+      </c>
+      <c r="AZ105">
+        <v>1.9</v>
+      </c>
+      <c r="BA105">
+        <v>1.29</v>
+      </c>
+      <c r="BB105">
+        <v>1.52</v>
+      </c>
+      <c r="BC105">
+        <v>1.87</v>
+      </c>
+      <c r="BD105">
+        <v>2.32</v>
+      </c>
+      <c r="BE105">
+        <v>3.1</v>
+      </c>
+      <c r="BF105">
+        <v>7</v>
+      </c>
+      <c r="BG105">
+        <v>7</v>
+      </c>
+      <c r="BH105">
+        <v>6</v>
+      </c>
+      <c r="BI105">
+        <v>6</v>
+      </c>
+      <c r="BJ105">
+        <v>13</v>
+      </c>
+      <c r="BK105">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="106" spans="1:63">
+      <c r="A106" s="1">
+        <v>105</v>
+      </c>
+      <c r="B106">
+        <v>2529669</v>
+      </c>
+      <c r="C106" t="s">
+        <v>63</v>
+      </c>
+      <c r="D106" t="s">
+        <v>64</v>
+      </c>
+      <c r="E106" s="2">
+        <v>44969.5625</v>
+      </c>
+      <c r="F106">
+        <v>21</v>
+      </c>
+      <c r="G106" t="s">
+        <v>66</v>
+      </c>
+      <c r="H106" t="s">
+        <v>71</v>
+      </c>
+      <c r="I106">
+        <v>0</v>
+      </c>
+      <c r="J106">
+        <v>1</v>
+      </c>
+      <c r="K106">
+        <v>1</v>
+      </c>
+      <c r="L106">
+        <v>0</v>
+      </c>
+      <c r="M106">
+        <v>4</v>
+      </c>
+      <c r="N106">
+        <v>4</v>
+      </c>
+      <c r="O106" t="s">
+        <v>76</v>
+      </c>
+      <c r="P106" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q106">
+        <v>10</v>
+      </c>
+      <c r="R106">
+        <v>5</v>
+      </c>
+      <c r="S106">
+        <v>15</v>
+      </c>
+      <c r="T106">
+        <v>2.2</v>
+      </c>
+      <c r="U106">
+        <v>2.25</v>
+      </c>
+      <c r="V106">
+        <v>4.75</v>
+      </c>
+      <c r="W106">
+        <v>1.33</v>
+      </c>
+      <c r="X106">
+        <v>3.25</v>
+      </c>
+      <c r="Y106">
+        <v>2.63</v>
+      </c>
+      <c r="Z106">
+        <v>1.44</v>
+      </c>
+      <c r="AA106">
+        <v>6.5</v>
+      </c>
+      <c r="AB106">
+        <v>1.11</v>
+      </c>
+      <c r="AC106">
+        <v>1.59</v>
+      </c>
+      <c r="AD106">
+        <v>3.74</v>
+      </c>
+      <c r="AE106">
+        <v>5.25</v>
+      </c>
+      <c r="AF106">
+        <v>1.04</v>
+      </c>
+      <c r="AG106">
+        <v>10</v>
+      </c>
+      <c r="AH106">
+        <v>1.22</v>
+      </c>
+      <c r="AI106">
+        <v>4</v>
+      </c>
+      <c r="AJ106">
+        <v>1.72</v>
+      </c>
+      <c r="AK106">
+        <v>2.1</v>
+      </c>
+      <c r="AL106">
+        <v>1.8</v>
+      </c>
+      <c r="AM106">
+        <v>1.91</v>
+      </c>
+      <c r="AN106">
+        <v>1.12</v>
+      </c>
+      <c r="AO106">
+        <v>1.2</v>
+      </c>
+      <c r="AP106">
+        <v>2.15</v>
+      </c>
+      <c r="AQ106">
+        <v>1.6</v>
+      </c>
+      <c r="AR106">
+        <v>0.5</v>
+      </c>
+      <c r="AS106">
+        <v>1.45</v>
+      </c>
+      <c r="AT106">
+        <v>0.73</v>
+      </c>
+      <c r="AU106">
+        <v>1.7</v>
+      </c>
+      <c r="AV106">
+        <v>1.7</v>
+      </c>
+      <c r="AW106">
+        <v>3.4</v>
+      </c>
+      <c r="AX106">
+        <v>1.43</v>
+      </c>
+      <c r="AY106">
+        <v>6</v>
+      </c>
+      <c r="AZ106">
+        <v>3.25</v>
+      </c>
+      <c r="BA106">
+        <v>1.35</v>
+      </c>
+      <c r="BB106">
+        <v>1.63</v>
+      </c>
+      <c r="BC106">
+        <v>2.01</v>
+      </c>
+      <c r="BD106">
+        <v>2.5</v>
+      </c>
+      <c r="BE106">
+        <v>3.5</v>
+      </c>
+      <c r="BF106">
+        <v>8</v>
+      </c>
+      <c r="BG106">
+        <v>6</v>
+      </c>
+      <c r="BH106">
+        <v>2</v>
+      </c>
+      <c r="BI106">
+        <v>6</v>
+      </c>
+      <c r="BJ106">
+        <v>10</v>
+      </c>
+      <c r="BK106">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Slovenia PrvaLiga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Slovenia PrvaLiga_20222023.xlsx
@@ -21024,16 +21024,16 @@
         <v>3.1</v>
       </c>
       <c r="BF105">
+        <v>6</v>
+      </c>
+      <c r="BG105">
+        <v>8</v>
+      </c>
+      <c r="BH105">
         <v>7</v>
       </c>
-      <c r="BG105">
-        <v>7</v>
-      </c>
-      <c r="BH105">
-        <v>6</v>
-      </c>
       <c r="BI105">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BJ105">
         <v>13</v>
@@ -21215,22 +21215,22 @@
         <v>3.5</v>
       </c>
       <c r="BF106">
+        <v>6</v>
+      </c>
+      <c r="BG106">
+        <v>9</v>
+      </c>
+      <c r="BH106">
         <v>8</v>
-      </c>
-      <c r="BG106">
-        <v>6</v>
-      </c>
-      <c r="BH106">
-        <v>2</v>
       </c>
       <c r="BI106">
         <v>6</v>
       </c>
       <c r="BJ106">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="BK106">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Slovenia PrvaLiga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Slovenia PrvaLiga_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="210">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -439,6 +439,18 @@
     <t>['90+3']</t>
   </si>
   <si>
+    <t>['21', '88']</t>
+  </si>
+  <si>
+    <t>['45+2', '76']</t>
+  </si>
+  <si>
+    <t>['22', '42']</t>
+  </si>
+  <si>
+    <t>['51']</t>
+  </si>
+  <si>
     <t>['67']</t>
   </si>
   <si>
@@ -620,6 +632,18 @@
   </si>
   <si>
     <t>['6', '59', '68', '82']</t>
+  </si>
+  <si>
+    <t>['10', '61']</t>
+  </si>
+  <si>
+    <t>['15', '45+3']</t>
+  </si>
+  <si>
+    <t>['3', '62']</t>
+  </si>
+  <si>
+    <t>['42', '55']</t>
   </si>
 </sst>
 </file>
@@ -981,7 +1005,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK106"/>
+  <dimension ref="A1:BK112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1225,7 +1249,7 @@
         <v>75</v>
       </c>
       <c r="P2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1312,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AT2">
         <v>0.73</v>
@@ -1506,7 +1530,7 @@
         <v>1.45</v>
       </c>
       <c r="AT3">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -1607,7 +1631,7 @@
         <v>76</v>
       </c>
       <c r="P4" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="Q4">
         <v>7</v>
@@ -1694,10 +1718,10 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT4">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -1888,7 +1912,7 @@
         <v>2.64</v>
       </c>
       <c r="AT5">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -2076,7 +2100,7 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AT6">
         <v>0.55</v>
@@ -2180,7 +2204,7 @@
         <v>79</v>
       </c>
       <c r="P7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="Q7">
         <v>10</v>
@@ -2267,10 +2291,10 @@
         <v>1</v>
       </c>
       <c r="AS7">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AT7">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -2371,7 +2395,7 @@
         <v>80</v>
       </c>
       <c r="P8" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="Q8">
         <v>10</v>
@@ -2458,7 +2482,7 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT8">
         <v>0.5</v>
@@ -2649,10 +2673,10 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AT9">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -2840,10 +2864,10 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AT10">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -2944,7 +2968,7 @@
         <v>82</v>
       </c>
       <c r="P11" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="Q11">
         <v>9</v>
@@ -3034,7 +3058,7 @@
         <v>1.9</v>
       </c>
       <c r="AT11">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -3135,7 +3159,7 @@
         <v>76</v>
       </c>
       <c r="P12" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="Q12">
         <v>10</v>
@@ -3222,10 +3246,10 @@
         <v>3</v>
       </c>
       <c r="AS12">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AT12">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AU12">
         <v>2.09</v>
@@ -3708,7 +3732,7 @@
         <v>85</v>
       </c>
       <c r="P15" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="Q15">
         <v>4</v>
@@ -3798,7 +3822,7 @@
         <v>2.4</v>
       </c>
       <c r="AT15">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AU15">
         <v>0</v>
@@ -3899,7 +3923,7 @@
         <v>86</v>
       </c>
       <c r="P16" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="Q16">
         <v>1</v>
@@ -3986,7 +4010,7 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AT16">
         <v>1.9</v>
@@ -4177,10 +4201,10 @@
         <v>1</v>
       </c>
       <c r="AS17">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AT17">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AU17">
         <v>1.43</v>
@@ -4281,7 +4305,7 @@
         <v>76</v>
       </c>
       <c r="P18" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="Q18">
         <v>5</v>
@@ -4368,10 +4392,10 @@
         <v>0</v>
       </c>
       <c r="AS18">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AT18">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AU18">
         <v>2.35</v>
@@ -4472,7 +4496,7 @@
         <v>88</v>
       </c>
       <c r="P19" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="Q19">
         <v>5</v>
@@ -4559,10 +4583,10 @@
         <v>0.5</v>
       </c>
       <c r="AS19">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AT19">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AU19">
         <v>1.47</v>
@@ -4663,7 +4687,7 @@
         <v>76</v>
       </c>
       <c r="P20" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="Q20">
         <v>6</v>
@@ -4750,10 +4774,10 @@
         <v>3</v>
       </c>
       <c r="AS20">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT20">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AU20">
         <v>2.1</v>
@@ -4854,7 +4878,7 @@
         <v>89</v>
       </c>
       <c r="P21" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="Q21">
         <v>12</v>
@@ -4941,10 +4965,10 @@
         <v>0</v>
       </c>
       <c r="AS21">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AT21">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AU21">
         <v>1.98</v>
@@ -5236,7 +5260,7 @@
         <v>91</v>
       </c>
       <c r="P23" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="Q23">
         <v>4</v>
@@ -5514,10 +5538,10 @@
         <v>3</v>
       </c>
       <c r="AS24">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AT24">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AU24">
         <v>2.1</v>
@@ -5618,7 +5642,7 @@
         <v>93</v>
       </c>
       <c r="P25" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="Q25">
         <v>6</v>
@@ -6087,7 +6111,7 @@
         <v>0.67</v>
       </c>
       <c r="AS27">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AT27">
         <v>0.73</v>
@@ -6191,7 +6215,7 @@
         <v>76</v>
       </c>
       <c r="P28" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="Q28">
         <v>6</v>
@@ -6278,10 +6302,10 @@
         <v>0.67</v>
       </c>
       <c r="AS28">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AT28">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AU28">
         <v>2.01</v>
@@ -6382,7 +6406,7 @@
         <v>76</v>
       </c>
       <c r="P29" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="Q29">
         <v>6</v>
@@ -6469,10 +6493,10 @@
         <v>3</v>
       </c>
       <c r="AS29">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AT29">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AU29">
         <v>2.15</v>
@@ -6573,7 +6597,7 @@
         <v>95</v>
       </c>
       <c r="P30" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="Q30">
         <v>4</v>
@@ -6660,10 +6684,10 @@
         <v>0.67</v>
       </c>
       <c r="AS30">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT30">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AU30">
         <v>1.86</v>
@@ -6851,10 +6875,10 @@
         <v>1.5</v>
       </c>
       <c r="AS31">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AT31">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AU31">
         <v>2.14</v>
@@ -6955,7 +6979,7 @@
         <v>76</v>
       </c>
       <c r="P32" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="Q32">
         <v>5</v>
@@ -7042,7 +7066,7 @@
         <v>0</v>
       </c>
       <c r="AS32">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AT32">
         <v>0.55</v>
@@ -7427,7 +7451,7 @@
         <v>2.64</v>
       </c>
       <c r="AT34">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AU34">
         <v>1.62</v>
@@ -7528,7 +7552,7 @@
         <v>76</v>
       </c>
       <c r="P35" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="Q35">
         <v>6</v>
@@ -7618,7 +7642,7 @@
         <v>1.45</v>
       </c>
       <c r="AT35">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AU35">
         <v>2.15</v>
@@ -7719,7 +7743,7 @@
         <v>76</v>
       </c>
       <c r="P36" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="Q36">
         <v>9</v>
@@ -7997,10 +8021,10 @@
         <v>1.25</v>
       </c>
       <c r="AS37">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AT37">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AU37">
         <v>2.15</v>
@@ -8101,7 +8125,7 @@
         <v>76</v>
       </c>
       <c r="P38" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="Q38">
         <v>3</v>
@@ -8188,10 +8212,10 @@
         <v>0.75</v>
       </c>
       <c r="AS38">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AT38">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AU38">
         <v>2.06</v>
@@ -8292,7 +8316,7 @@
         <v>98</v>
       </c>
       <c r="P39" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="Q39">
         <v>4</v>
@@ -8379,7 +8403,7 @@
         <v>0.75</v>
       </c>
       <c r="AS39">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT39">
         <v>0.73</v>
@@ -8483,7 +8507,7 @@
         <v>99</v>
       </c>
       <c r="P40" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -8573,7 +8597,7 @@
         <v>2.64</v>
       </c>
       <c r="AT40">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AU40">
         <v>1.7</v>
@@ -8674,7 +8698,7 @@
         <v>100</v>
       </c>
       <c r="P41" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="Q41">
         <v>2</v>
@@ -8761,7 +8785,7 @@
         <v>0.75</v>
       </c>
       <c r="AS41">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AT41">
         <v>0.55</v>
@@ -8955,7 +8979,7 @@
         <v>1.45</v>
       </c>
       <c r="AT42">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AU42">
         <v>1.93</v>
@@ -9056,7 +9080,7 @@
         <v>102</v>
       </c>
       <c r="P43" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="Q43">
         <v>7</v>
@@ -9143,7 +9167,7 @@
         <v>0</v>
       </c>
       <c r="AS43">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AT43">
         <v>0.5</v>
@@ -9247,7 +9271,7 @@
         <v>103</v>
       </c>
       <c r="P44" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="Q44">
         <v>6</v>
@@ -9337,7 +9361,7 @@
         <v>2.4</v>
       </c>
       <c r="AT44">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AU44">
         <v>2.25</v>
@@ -9438,7 +9462,7 @@
         <v>76</v>
       </c>
       <c r="P45" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="Q45">
         <v>4</v>
@@ -9525,7 +9549,7 @@
         <v>1</v>
       </c>
       <c r="AS45">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AT45">
         <v>1.9</v>
@@ -9629,7 +9653,7 @@
         <v>104</v>
       </c>
       <c r="P46" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="Q46">
         <v>5</v>
@@ -9719,7 +9743,7 @@
         <v>1.9</v>
       </c>
       <c r="AT46">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AU46">
         <v>2.35</v>
@@ -9820,7 +9844,7 @@
         <v>76</v>
       </c>
       <c r="P47" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="Q47">
         <v>4</v>
@@ -9907,10 +9931,10 @@
         <v>1.5</v>
       </c>
       <c r="AS47">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AT47">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AU47">
         <v>1.48</v>
@@ -10011,7 +10035,7 @@
         <v>105</v>
       </c>
       <c r="P48" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="Q48">
         <v>1</v>
@@ -10101,7 +10125,7 @@
         <v>1.9</v>
       </c>
       <c r="AT48">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AU48">
         <v>2.44</v>
@@ -10289,7 +10313,7 @@
         <v>0.75</v>
       </c>
       <c r="AS49">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AT49">
         <v>0.5</v>
@@ -10393,7 +10417,7 @@
         <v>76</v>
       </c>
       <c r="P50" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="Q50">
         <v>5</v>
@@ -10480,7 +10504,7 @@
         <v>1.5</v>
       </c>
       <c r="AS50">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AT50">
         <v>1.9</v>
@@ -10584,7 +10608,7 @@
         <v>107</v>
       </c>
       <c r="P51" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="Q51">
         <v>5</v>
@@ -10674,7 +10698,7 @@
         <v>2.4</v>
       </c>
       <c r="AT51">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AU51">
         <v>2.33</v>
@@ -10775,7 +10799,7 @@
         <v>108</v>
       </c>
       <c r="P52" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="Q52">
         <v>4</v>
@@ -10865,7 +10889,7 @@
         <v>1.45</v>
       </c>
       <c r="AT52">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AU52">
         <v>1.91</v>
@@ -11244,7 +11268,7 @@
         <v>0.8</v>
       </c>
       <c r="AS54">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AT54">
         <v>0.55</v>
@@ -11348,7 +11372,7 @@
         <v>111</v>
       </c>
       <c r="P55" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="Q55">
         <v>5</v>
@@ -11435,7 +11459,7 @@
         <v>1.8</v>
       </c>
       <c r="AS55">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AT55">
         <v>1.9</v>
@@ -11539,7 +11563,7 @@
         <v>112</v>
       </c>
       <c r="P56" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="Q56">
         <v>1</v>
@@ -11629,7 +11653,7 @@
         <v>2.4</v>
       </c>
       <c r="AT56">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AU56">
         <v>2.25</v>
@@ -11817,10 +11841,10 @@
         <v>0.8</v>
       </c>
       <c r="AS57">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AT57">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AU57">
         <v>1.62</v>
@@ -11921,7 +11945,7 @@
         <v>76</v>
       </c>
       <c r="P58" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="Q58">
         <v>3</v>
@@ -12008,10 +12032,10 @@
         <v>1.8</v>
       </c>
       <c r="AS58">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT58">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AU58">
         <v>1.99</v>
@@ -12199,10 +12223,10 @@
         <v>2.4</v>
       </c>
       <c r="AS59">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AT59">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AU59">
         <v>1.9</v>
@@ -12303,7 +12327,7 @@
         <v>115</v>
       </c>
       <c r="P60" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="Q60">
         <v>5</v>
@@ -12393,7 +12417,7 @@
         <v>1.9</v>
       </c>
       <c r="AT60">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AU60">
         <v>2.17</v>
@@ -12581,7 +12605,7 @@
         <v>0.6</v>
       </c>
       <c r="AS61">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AT61">
         <v>0.5</v>
@@ -13067,7 +13091,7 @@
         <v>118</v>
       </c>
       <c r="P64" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="Q64">
         <v>9</v>
@@ -13154,7 +13178,7 @@
         <v>0.67</v>
       </c>
       <c r="AS64">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AT64">
         <v>0.5</v>
@@ -13539,7 +13563,7 @@
         <v>1.9</v>
       </c>
       <c r="AT66">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AU66">
         <v>2.22</v>
@@ -13640,7 +13664,7 @@
         <v>76</v>
       </c>
       <c r="P67" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="Q67">
         <v>4</v>
@@ -13727,10 +13751,10 @@
         <v>0.83</v>
       </c>
       <c r="AS67">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT67">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AU67">
         <v>1.89</v>
@@ -13831,7 +13855,7 @@
         <v>76</v>
       </c>
       <c r="P68" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="Q68">
         <v>4</v>
@@ -13918,10 +13942,10 @@
         <v>1.17</v>
       </c>
       <c r="AS68">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AT68">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AU68">
         <v>1.66</v>
@@ -14109,10 +14133,10 @@
         <v>2</v>
       </c>
       <c r="AS69">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AT69">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AU69">
         <v>1.94</v>
@@ -14300,10 +14324,10 @@
         <v>1</v>
       </c>
       <c r="AS70">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AT70">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AU70">
         <v>1.97</v>
@@ -14404,7 +14428,7 @@
         <v>122</v>
       </c>
       <c r="P71" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="Q71">
         <v>4</v>
@@ -14491,10 +14515,10 @@
         <v>2</v>
       </c>
       <c r="AS71">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AT71">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AU71">
         <v>1.35</v>
@@ -14786,7 +14810,7 @@
         <v>124</v>
       </c>
       <c r="P73" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="Q73">
         <v>6</v>
@@ -14873,10 +14897,10 @@
         <v>0.86</v>
       </c>
       <c r="AS73">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AT73">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AU73">
         <v>1.65</v>
@@ -14977,7 +15001,7 @@
         <v>125</v>
       </c>
       <c r="P74" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="Q74">
         <v>7</v>
@@ -15168,7 +15192,7 @@
         <v>126</v>
       </c>
       <c r="P75" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="Q75">
         <v>3</v>
@@ -15258,7 +15282,7 @@
         <v>2.64</v>
       </c>
       <c r="AT75">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AU75">
         <v>1.89</v>
@@ -15550,7 +15574,7 @@
         <v>128</v>
       </c>
       <c r="P77" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="Q77">
         <v>3</v>
@@ -15637,10 +15661,10 @@
         <v>1.14</v>
       </c>
       <c r="AS77">
+        <v>1.5</v>
+      </c>
+      <c r="AT77">
         <v>1.64</v>
-      </c>
-      <c r="AT77">
-        <v>1.5</v>
       </c>
       <c r="AU77">
         <v>1.81</v>
@@ -15741,7 +15765,7 @@
         <v>76</v>
       </c>
       <c r="P78" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="Q78">
         <v>7</v>
@@ -15828,10 +15852,10 @@
         <v>0.86</v>
       </c>
       <c r="AS78">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AT78">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AU78">
         <v>1.86</v>
@@ -15932,7 +15956,7 @@
         <v>76</v>
       </c>
       <c r="P79" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="Q79">
         <v>5</v>
@@ -16019,10 +16043,10 @@
         <v>1.86</v>
       </c>
       <c r="AS79">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AT79">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AU79">
         <v>1.39</v>
@@ -16123,7 +16147,7 @@
         <v>129</v>
       </c>
       <c r="P80" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="Q80">
         <v>4</v>
@@ -16210,7 +16234,7 @@
         <v>0.57</v>
       </c>
       <c r="AS80">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AT80">
         <v>0.73</v>
@@ -16314,7 +16338,7 @@
         <v>130</v>
       </c>
       <c r="P81" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="Q81">
         <v>8</v>
@@ -16401,10 +16425,10 @@
         <v>1.43</v>
       </c>
       <c r="AS81">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT81">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AU81">
         <v>1.75</v>
@@ -16505,7 +16529,7 @@
         <v>128</v>
       </c>
       <c r="P82" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="Q82">
         <v>7</v>
@@ -16592,10 +16616,10 @@
         <v>0.75</v>
       </c>
       <c r="AS82">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AT82">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AU82">
         <v>1.85</v>
@@ -16696,7 +16720,7 @@
         <v>76</v>
       </c>
       <c r="P83" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="Q83">
         <v>0</v>
@@ -16786,7 +16810,7 @@
         <v>1.45</v>
       </c>
       <c r="AT83">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AU83">
         <v>1.8</v>
@@ -16887,7 +16911,7 @@
         <v>76</v>
       </c>
       <c r="P84" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="Q84">
         <v>1</v>
@@ -16974,7 +16998,7 @@
         <v>1.63</v>
       </c>
       <c r="AS84">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AT84">
         <v>1.9</v>
@@ -17168,7 +17192,7 @@
         <v>2.4</v>
       </c>
       <c r="AT85">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AU85">
         <v>2.03</v>
@@ -17460,7 +17484,7 @@
         <v>89</v>
       </c>
       <c r="P87" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="Q87">
         <v>6</v>
@@ -17547,7 +17571,7 @@
         <v>0.5</v>
       </c>
       <c r="AS87">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AT87">
         <v>0.73</v>
@@ -17738,7 +17762,7 @@
         <v>0.63</v>
       </c>
       <c r="AS88">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT88">
         <v>0.55</v>
@@ -17842,7 +17866,7 @@
         <v>76</v>
       </c>
       <c r="P89" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="Q89">
         <v>5</v>
@@ -17929,10 +17953,10 @@
         <v>1.13</v>
       </c>
       <c r="AS89">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AT89">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AU89">
         <v>1.48</v>
@@ -18120,10 +18144,10 @@
         <v>1.25</v>
       </c>
       <c r="AS90">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AT90">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AU90">
         <v>1.79</v>
@@ -18314,7 +18338,7 @@
         <v>2.64</v>
       </c>
       <c r="AT91">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AU91">
         <v>1.85</v>
@@ -18502,7 +18526,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS92">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AT92">
         <v>0.55</v>
@@ -18693,10 +18717,10 @@
         <v>0.78</v>
       </c>
       <c r="AS93">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT93">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AU93">
         <v>1.86</v>
@@ -18797,7 +18821,7 @@
         <v>135</v>
       </c>
       <c r="P94" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="Q94">
         <v>8</v>
@@ -18884,7 +18908,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS94">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AT94">
         <v>0.73</v>
@@ -18988,7 +19012,7 @@
         <v>136</v>
       </c>
       <c r="P95" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="Q95">
         <v>5</v>
@@ -19078,7 +19102,7 @@
         <v>1.45</v>
       </c>
       <c r="AT95">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AU95">
         <v>1.7</v>
@@ -19269,7 +19293,7 @@
         <v>2.64</v>
       </c>
       <c r="AT96">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AU96">
         <v>1.81</v>
@@ -19457,10 +19481,10 @@
         <v>1.56</v>
       </c>
       <c r="AS97">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AT97">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AU97">
         <v>1.85</v>
@@ -19561,7 +19585,7 @@
         <v>76</v>
       </c>
       <c r="P98" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="Q98">
         <v>1</v>
@@ -19648,10 +19672,10 @@
         <v>2.11</v>
       </c>
       <c r="AS98">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AT98">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AU98">
         <v>1.63</v>
@@ -19752,7 +19776,7 @@
         <v>137</v>
       </c>
       <c r="P99" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="Q99">
         <v>7</v>
@@ -19839,7 +19863,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS99">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT99">
         <v>0.5</v>
@@ -19943,7 +19967,7 @@
         <v>76</v>
       </c>
       <c r="P100" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="Q100">
         <v>4</v>
@@ -20030,10 +20054,10 @@
         <v>1</v>
       </c>
       <c r="AS100">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AT100">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AU100">
         <v>1.54</v>
@@ -20134,7 +20158,7 @@
         <v>76</v>
       </c>
       <c r="P101" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="Q101">
         <v>3</v>
@@ -20224,7 +20248,7 @@
         <v>1.9</v>
       </c>
       <c r="AT101">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AU101">
         <v>2.05</v>
@@ -20325,7 +20349,7 @@
         <v>138</v>
       </c>
       <c r="P102" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="Q102">
         <v>4</v>
@@ -20606,7 +20630,7 @@
         <v>2.4</v>
       </c>
       <c r="AT103">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AU103">
         <v>1.98</v>
@@ -20707,7 +20731,7 @@
         <v>140</v>
       </c>
       <c r="P104" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="Q104">
         <v>6</v>
@@ -20794,10 +20818,10 @@
         <v>0.7</v>
       </c>
       <c r="AS104">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AT104">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AU104">
         <v>1.76</v>
@@ -20898,7 +20922,7 @@
         <v>76</v>
       </c>
       <c r="P105" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="Q105">
         <v>2</v>
@@ -20985,7 +21009,7 @@
         <v>1.78</v>
       </c>
       <c r="AS105">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AT105">
         <v>1.9</v>
@@ -21089,7 +21113,7 @@
         <v>76</v>
       </c>
       <c r="P106" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="Q106">
         <v>10</v>
@@ -21231,6 +21255,1152 @@
       </c>
       <c r="BK106">
         <v>15</v>
+      </c>
+    </row>
+    <row r="107" spans="1:63">
+      <c r="A107" s="1">
+        <v>106</v>
+      </c>
+      <c r="B107">
+        <v>2529672</v>
+      </c>
+      <c r="C107" t="s">
+        <v>63</v>
+      </c>
+      <c r="D107" t="s">
+        <v>64</v>
+      </c>
+      <c r="E107" s="2">
+        <v>44975.375</v>
+      </c>
+      <c r="F107">
+        <v>22</v>
+      </c>
+      <c r="G107" t="s">
+        <v>71</v>
+      </c>
+      <c r="H107" t="s">
+        <v>74</v>
+      </c>
+      <c r="I107">
+        <v>1</v>
+      </c>
+      <c r="J107">
+        <v>1</v>
+      </c>
+      <c r="K107">
+        <v>2</v>
+      </c>
+      <c r="L107">
+        <v>2</v>
+      </c>
+      <c r="M107">
+        <v>2</v>
+      </c>
+      <c r="N107">
+        <v>4</v>
+      </c>
+      <c r="O107" t="s">
+        <v>141</v>
+      </c>
+      <c r="P107" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q107">
+        <v>1</v>
+      </c>
+      <c r="R107">
+        <v>12</v>
+      </c>
+      <c r="S107">
+        <v>13</v>
+      </c>
+      <c r="T107">
+        <v>5</v>
+      </c>
+      <c r="U107">
+        <v>2.2</v>
+      </c>
+      <c r="V107">
+        <v>2.1</v>
+      </c>
+      <c r="W107">
+        <v>1.4</v>
+      </c>
+      <c r="X107">
+        <v>2.75</v>
+      </c>
+      <c r="Y107">
+        <v>2.75</v>
+      </c>
+      <c r="Z107">
+        <v>1.4</v>
+      </c>
+      <c r="AA107">
+        <v>6.5</v>
+      </c>
+      <c r="AB107">
+        <v>1.1</v>
+      </c>
+      <c r="AC107">
+        <v>4.54</v>
+      </c>
+      <c r="AD107">
+        <v>3.78</v>
+      </c>
+      <c r="AE107">
+        <v>1.75</v>
+      </c>
+      <c r="AF107">
+        <v>1.06</v>
+      </c>
+      <c r="AG107">
+        <v>8</v>
+      </c>
+      <c r="AH107">
+        <v>1.36</v>
+      </c>
+      <c r="AI107">
+        <v>3</v>
+      </c>
+      <c r="AJ107">
+        <v>1.92</v>
+      </c>
+      <c r="AK107">
+        <v>1.9</v>
+      </c>
+      <c r="AL107">
+        <v>1.85</v>
+      </c>
+      <c r="AM107">
+        <v>1.85</v>
+      </c>
+      <c r="AN107">
+        <v>2.2</v>
+      </c>
+      <c r="AO107">
+        <v>1.25</v>
+      </c>
+      <c r="AP107">
+        <v>1.14</v>
+      </c>
+      <c r="AQ107">
+        <v>0.7</v>
+      </c>
+      <c r="AR107">
+        <v>1.18</v>
+      </c>
+      <c r="AS107">
+        <v>0.73</v>
+      </c>
+      <c r="AT107">
+        <v>1.17</v>
+      </c>
+      <c r="AU107">
+        <v>1.53</v>
+      </c>
+      <c r="AV107">
+        <v>1.7</v>
+      </c>
+      <c r="AW107">
+        <v>3.23</v>
+      </c>
+      <c r="AX107">
+        <v>3.8</v>
+      </c>
+      <c r="AY107">
+        <v>6.5</v>
+      </c>
+      <c r="AZ107">
+        <v>1.33</v>
+      </c>
+      <c r="BA107">
+        <v>1.28</v>
+      </c>
+      <c r="BB107">
+        <v>1.53</v>
+      </c>
+      <c r="BC107">
+        <v>1.88</v>
+      </c>
+      <c r="BD107">
+        <v>2.35</v>
+      </c>
+      <c r="BE107">
+        <v>3.1</v>
+      </c>
+      <c r="BF107">
+        <v>9</v>
+      </c>
+      <c r="BG107">
+        <v>8</v>
+      </c>
+      <c r="BH107">
+        <v>2</v>
+      </c>
+      <c r="BI107">
+        <v>3</v>
+      </c>
+      <c r="BJ107">
+        <v>11</v>
+      </c>
+      <c r="BK107">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="108" spans="1:63">
+      <c r="A108" s="1">
+        <v>107</v>
+      </c>
+      <c r="B108">
+        <v>2529671</v>
+      </c>
+      <c r="C108" t="s">
+        <v>63</v>
+      </c>
+      <c r="D108" t="s">
+        <v>64</v>
+      </c>
+      <c r="E108" s="2">
+        <v>44975.45833333334</v>
+      </c>
+      <c r="F108">
+        <v>22</v>
+      </c>
+      <c r="G108" t="s">
+        <v>70</v>
+      </c>
+      <c r="H108" t="s">
+        <v>73</v>
+      </c>
+      <c r="I108">
+        <v>0</v>
+      </c>
+      <c r="J108">
+        <v>0</v>
+      </c>
+      <c r="K108">
+        <v>0</v>
+      </c>
+      <c r="L108">
+        <v>0</v>
+      </c>
+      <c r="M108">
+        <v>0</v>
+      </c>
+      <c r="N108">
+        <v>0</v>
+      </c>
+      <c r="O108" t="s">
+        <v>76</v>
+      </c>
+      <c r="P108" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q108">
+        <v>4</v>
+      </c>
+      <c r="R108">
+        <v>3</v>
+      </c>
+      <c r="S108">
+        <v>7</v>
+      </c>
+      <c r="T108">
+        <v>3.3</v>
+      </c>
+      <c r="U108">
+        <v>2.15</v>
+      </c>
+      <c r="V108">
+        <v>2.8</v>
+      </c>
+      <c r="W108">
+        <v>1.39</v>
+      </c>
+      <c r="X108">
+        <v>2.8</v>
+      </c>
+      <c r="Y108">
+        <v>2.75</v>
+      </c>
+      <c r="Z108">
+        <v>1.4</v>
+      </c>
+      <c r="AA108">
+        <v>6.5</v>
+      </c>
+      <c r="AB108">
+        <v>1.1</v>
+      </c>
+      <c r="AC108">
+        <v>2.98</v>
+      </c>
+      <c r="AD108">
+        <v>3.5</v>
+      </c>
+      <c r="AE108">
+        <v>2.3</v>
+      </c>
+      <c r="AF108">
+        <v>1.06</v>
+      </c>
+      <c r="AG108">
+        <v>8</v>
+      </c>
+      <c r="AH108">
+        <v>1.3</v>
+      </c>
+      <c r="AI108">
+        <v>3.3</v>
+      </c>
+      <c r="AJ108">
+        <v>1.92</v>
+      </c>
+      <c r="AK108">
+        <v>1.9</v>
+      </c>
+      <c r="AL108">
+        <v>1.7</v>
+      </c>
+      <c r="AM108">
+        <v>2.05</v>
+      </c>
+      <c r="AN108">
+        <v>1.6</v>
+      </c>
+      <c r="AO108">
+        <v>1.3</v>
+      </c>
+      <c r="AP108">
+        <v>1.36</v>
+      </c>
+      <c r="AQ108">
+        <v>0.6</v>
+      </c>
+      <c r="AR108">
+        <v>1.09</v>
+      </c>
+      <c r="AS108">
+        <v>0.64</v>
+      </c>
+      <c r="AT108">
+        <v>1.08</v>
+      </c>
+      <c r="AU108">
+        <v>1.47</v>
+      </c>
+      <c r="AV108">
+        <v>1.59</v>
+      </c>
+      <c r="AW108">
+        <v>3.06</v>
+      </c>
+      <c r="AX108">
+        <v>0</v>
+      </c>
+      <c r="AY108">
+        <v>0</v>
+      </c>
+      <c r="AZ108">
+        <v>0</v>
+      </c>
+      <c r="BA108">
+        <v>0</v>
+      </c>
+      <c r="BB108">
+        <v>0</v>
+      </c>
+      <c r="BC108">
+        <v>0</v>
+      </c>
+      <c r="BD108">
+        <v>0</v>
+      </c>
+      <c r="BE108">
+        <v>0</v>
+      </c>
+      <c r="BF108">
+        <v>3</v>
+      </c>
+      <c r="BG108">
+        <v>4</v>
+      </c>
+      <c r="BH108">
+        <v>5</v>
+      </c>
+      <c r="BI108">
+        <v>3</v>
+      </c>
+      <c r="BJ108">
+        <v>8</v>
+      </c>
+      <c r="BK108">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="109" spans="1:63">
+      <c r="A109" s="1">
+        <v>108</v>
+      </c>
+      <c r="B109">
+        <v>2529675</v>
+      </c>
+      <c r="C109" t="s">
+        <v>63</v>
+      </c>
+      <c r="D109" t="s">
+        <v>64</v>
+      </c>
+      <c r="E109" s="2">
+        <v>44975.5625</v>
+      </c>
+      <c r="F109">
+        <v>22</v>
+      </c>
+      <c r="G109" t="s">
+        <v>69</v>
+      </c>
+      <c r="H109" t="s">
+        <v>65</v>
+      </c>
+      <c r="I109">
+        <v>1</v>
+      </c>
+      <c r="J109">
+        <v>2</v>
+      </c>
+      <c r="K109">
+        <v>3</v>
+      </c>
+      <c r="L109">
+        <v>2</v>
+      </c>
+      <c r="M109">
+        <v>2</v>
+      </c>
+      <c r="N109">
+        <v>4</v>
+      </c>
+      <c r="O109" t="s">
+        <v>142</v>
+      </c>
+      <c r="P109" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q109">
+        <v>10</v>
+      </c>
+      <c r="R109">
+        <v>3</v>
+      </c>
+      <c r="S109">
+        <v>13</v>
+      </c>
+      <c r="T109">
+        <v>4</v>
+      </c>
+      <c r="U109">
+        <v>2.05</v>
+      </c>
+      <c r="V109">
+        <v>2.6</v>
+      </c>
+      <c r="W109">
+        <v>1.4</v>
+      </c>
+      <c r="X109">
+        <v>2.75</v>
+      </c>
+      <c r="Y109">
+        <v>2.75</v>
+      </c>
+      <c r="Z109">
+        <v>1.4</v>
+      </c>
+      <c r="AA109">
+        <v>7.5</v>
+      </c>
+      <c r="AB109">
+        <v>1.07</v>
+      </c>
+      <c r="AC109">
+        <v>4</v>
+      </c>
+      <c r="AD109">
+        <v>3.68</v>
+      </c>
+      <c r="AE109">
+        <v>1.87</v>
+      </c>
+      <c r="AF109">
+        <v>1.07</v>
+      </c>
+      <c r="AG109">
+        <v>7.5</v>
+      </c>
+      <c r="AH109">
+        <v>1.36</v>
+      </c>
+      <c r="AI109">
+        <v>3</v>
+      </c>
+      <c r="AJ109">
+        <v>1.98</v>
+      </c>
+      <c r="AK109">
+        <v>1.84</v>
+      </c>
+      <c r="AL109">
+        <v>1.85</v>
+      </c>
+      <c r="AM109">
+        <v>1.85</v>
+      </c>
+      <c r="AN109">
+        <v>1.75</v>
+      </c>
+      <c r="AO109">
+        <v>1.3</v>
+      </c>
+      <c r="AP109">
+        <v>1.25</v>
+      </c>
+      <c r="AQ109">
+        <v>0.82</v>
+      </c>
+      <c r="AR109">
+        <v>1.7</v>
+      </c>
+      <c r="AS109">
+        <v>0.83</v>
+      </c>
+      <c r="AT109">
+        <v>1.64</v>
+      </c>
+      <c r="AU109">
+        <v>1.7</v>
+      </c>
+      <c r="AV109">
+        <v>1.93</v>
+      </c>
+      <c r="AW109">
+        <v>3.63</v>
+      </c>
+      <c r="AX109">
+        <v>2.5</v>
+      </c>
+      <c r="AY109">
+        <v>6</v>
+      </c>
+      <c r="AZ109">
+        <v>1.62</v>
+      </c>
+      <c r="BA109">
+        <v>0</v>
+      </c>
+      <c r="BB109">
+        <v>1.4</v>
+      </c>
+      <c r="BC109">
+        <v>1.78</v>
+      </c>
+      <c r="BD109">
+        <v>2.21</v>
+      </c>
+      <c r="BE109">
+        <v>0</v>
+      </c>
+      <c r="BF109">
+        <v>7</v>
+      </c>
+      <c r="BG109">
+        <v>3</v>
+      </c>
+      <c r="BH109">
+        <v>9</v>
+      </c>
+      <c r="BI109">
+        <v>1</v>
+      </c>
+      <c r="BJ109">
+        <v>16</v>
+      </c>
+      <c r="BK109">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="110" spans="1:63">
+      <c r="A110" s="1">
+        <v>109</v>
+      </c>
+      <c r="B110">
+        <v>2529673</v>
+      </c>
+      <c r="C110" t="s">
+        <v>63</v>
+      </c>
+      <c r="D110" t="s">
+        <v>64</v>
+      </c>
+      <c r="E110" s="2">
+        <v>44976.375</v>
+      </c>
+      <c r="F110">
+        <v>22</v>
+      </c>
+      <c r="G110" t="s">
+        <v>72</v>
+      </c>
+      <c r="H110" t="s">
+        <v>66</v>
+      </c>
+      <c r="I110">
+        <v>0</v>
+      </c>
+      <c r="J110">
+        <v>1</v>
+      </c>
+      <c r="K110">
+        <v>1</v>
+      </c>
+      <c r="L110">
+        <v>0</v>
+      </c>
+      <c r="M110">
+        <v>2</v>
+      </c>
+      <c r="N110">
+        <v>2</v>
+      </c>
+      <c r="O110" t="s">
+        <v>76</v>
+      </c>
+      <c r="P110" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q110">
+        <v>4</v>
+      </c>
+      <c r="R110">
+        <v>3</v>
+      </c>
+      <c r="S110">
+        <v>7</v>
+      </c>
+      <c r="T110">
+        <v>2.9</v>
+      </c>
+      <c r="U110">
+        <v>1.95</v>
+      </c>
+      <c r="V110">
+        <v>3.9</v>
+      </c>
+      <c r="W110">
+        <v>1.45</v>
+      </c>
+      <c r="X110">
+        <v>2.63</v>
+      </c>
+      <c r="Y110">
+        <v>3.14</v>
+      </c>
+      <c r="Z110">
+        <v>1.33</v>
+      </c>
+      <c r="AA110">
+        <v>10</v>
+      </c>
+      <c r="AB110">
+        <v>1.06</v>
+      </c>
+      <c r="AC110">
+        <v>2.78</v>
+      </c>
+      <c r="AD110">
+        <v>3.3</v>
+      </c>
+      <c r="AE110">
+        <v>2.52</v>
+      </c>
+      <c r="AF110">
+        <v>1.07</v>
+      </c>
+      <c r="AG110">
+        <v>8.6</v>
+      </c>
+      <c r="AH110">
+        <v>1.4</v>
+      </c>
+      <c r="AI110">
+        <v>2.73</v>
+      </c>
+      <c r="AJ110">
+        <v>2.25</v>
+      </c>
+      <c r="AK110">
+        <v>1.53</v>
+      </c>
+      <c r="AL110">
+        <v>2</v>
+      </c>
+      <c r="AM110">
+        <v>1.73</v>
+      </c>
+      <c r="AN110">
+        <v>1.32</v>
+      </c>
+      <c r="AO110">
+        <v>1.3</v>
+      </c>
+      <c r="AP110">
+        <v>1.62</v>
+      </c>
+      <c r="AQ110">
+        <v>1.6</v>
+      </c>
+      <c r="AR110">
+        <v>1.5</v>
+      </c>
+      <c r="AS110">
+        <v>1.45</v>
+      </c>
+      <c r="AT110">
+        <v>1.64</v>
+      </c>
+      <c r="AU110">
+        <v>1.86</v>
+      </c>
+      <c r="AV110">
+        <v>1.46</v>
+      </c>
+      <c r="AW110">
+        <v>3.32</v>
+      </c>
+      <c r="AX110">
+        <v>1.57</v>
+      </c>
+      <c r="AY110">
+        <v>5.5</v>
+      </c>
+      <c r="AZ110">
+        <v>2.8</v>
+      </c>
+      <c r="BA110">
+        <v>1.31</v>
+      </c>
+      <c r="BB110">
+        <v>1.57</v>
+      </c>
+      <c r="BC110">
+        <v>1.93</v>
+      </c>
+      <c r="BD110">
+        <v>2.41</v>
+      </c>
+      <c r="BE110">
+        <v>3.3</v>
+      </c>
+      <c r="BF110">
+        <v>5</v>
+      </c>
+      <c r="BG110">
+        <v>3</v>
+      </c>
+      <c r="BH110">
+        <v>5</v>
+      </c>
+      <c r="BI110">
+        <v>1</v>
+      </c>
+      <c r="BJ110">
+        <v>10</v>
+      </c>
+      <c r="BK110">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="111" spans="1:63">
+      <c r="A111" s="1">
+        <v>110</v>
+      </c>
+      <c r="B111">
+        <v>2529674</v>
+      </c>
+      <c r="C111" t="s">
+        <v>63</v>
+      </c>
+      <c r="D111" t="s">
+        <v>64</v>
+      </c>
+      <c r="E111" s="2">
+        <v>44976.45833333334</v>
+      </c>
+      <c r="F111">
+        <v>22</v>
+      </c>
+      <c r="G111" t="s">
+        <v>67</v>
+      </c>
+      <c r="H111" t="s">
+        <v>68</v>
+      </c>
+      <c r="I111">
+        <v>2</v>
+      </c>
+      <c r="J111">
+        <v>0</v>
+      </c>
+      <c r="K111">
+        <v>2</v>
+      </c>
+      <c r="L111">
+        <v>2</v>
+      </c>
+      <c r="M111">
+        <v>0</v>
+      </c>
+      <c r="N111">
+        <v>2</v>
+      </c>
+      <c r="O111" t="s">
+        <v>143</v>
+      </c>
+      <c r="P111" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q111">
+        <v>3</v>
+      </c>
+      <c r="R111">
+        <v>4</v>
+      </c>
+      <c r="S111">
+        <v>7</v>
+      </c>
+      <c r="T111">
+        <v>2.8</v>
+      </c>
+      <c r="U111">
+        <v>2.1</v>
+      </c>
+      <c r="V111">
+        <v>3.6</v>
+      </c>
+      <c r="W111">
+        <v>1.4</v>
+      </c>
+      <c r="X111">
+        <v>2.75</v>
+      </c>
+      <c r="Y111">
+        <v>2.75</v>
+      </c>
+      <c r="Z111">
+        <v>1.4</v>
+      </c>
+      <c r="AA111">
+        <v>8</v>
+      </c>
+      <c r="AB111">
+        <v>1.08</v>
+      </c>
+      <c r="AC111">
+        <v>2.24</v>
+      </c>
+      <c r="AD111">
+        <v>3.32</v>
+      </c>
+      <c r="AE111">
+        <v>3.24</v>
+      </c>
+      <c r="AF111">
+        <v>1.05</v>
+      </c>
+      <c r="AG111">
+        <v>11.5</v>
+      </c>
+      <c r="AH111">
+        <v>1.28</v>
+      </c>
+      <c r="AI111">
+        <v>3.32</v>
+      </c>
+      <c r="AJ111">
+        <v>1.85</v>
+      </c>
+      <c r="AK111">
+        <v>1.8</v>
+      </c>
+      <c r="AL111">
+        <v>1.73</v>
+      </c>
+      <c r="AM111">
+        <v>2</v>
+      </c>
+      <c r="AN111">
+        <v>1.35</v>
+      </c>
+      <c r="AO111">
+        <v>1.27</v>
+      </c>
+      <c r="AP111">
+        <v>1.62</v>
+      </c>
+      <c r="AQ111">
+        <v>1.55</v>
+      </c>
+      <c r="AR111">
+        <v>2.2</v>
+      </c>
+      <c r="AS111">
+        <v>1.67</v>
+      </c>
+      <c r="AT111">
+        <v>2</v>
+      </c>
+      <c r="AU111">
+        <v>1.87</v>
+      </c>
+      <c r="AV111">
+        <v>1.88</v>
+      </c>
+      <c r="AW111">
+        <v>3.75</v>
+      </c>
+      <c r="AX111">
+        <v>1.6</v>
+      </c>
+      <c r="AY111">
+        <v>6</v>
+      </c>
+      <c r="AZ111">
+        <v>2.65</v>
+      </c>
+      <c r="BA111">
+        <v>1.27</v>
+      </c>
+      <c r="BB111">
+        <v>1.52</v>
+      </c>
+      <c r="BC111">
+        <v>1.86</v>
+      </c>
+      <c r="BD111">
+        <v>2.3</v>
+      </c>
+      <c r="BE111">
+        <v>3</v>
+      </c>
+      <c r="BF111">
+        <v>2</v>
+      </c>
+      <c r="BG111">
+        <v>2</v>
+      </c>
+      <c r="BH111">
+        <v>1</v>
+      </c>
+      <c r="BI111">
+        <v>4</v>
+      </c>
+      <c r="BJ111">
+        <v>3</v>
+      </c>
+      <c r="BK111">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="112" spans="1:63">
+      <c r="A112" s="1">
+        <v>111</v>
+      </c>
+      <c r="B112">
+        <v>2529676</v>
+      </c>
+      <c r="C112" t="s">
+        <v>63</v>
+      </c>
+      <c r="D112" t="s">
+        <v>64</v>
+      </c>
+      <c r="E112" s="2">
+        <v>44978.45833333334</v>
+      </c>
+      <c r="F112">
+        <v>23</v>
+      </c>
+      <c r="G112" t="s">
+        <v>65</v>
+      </c>
+      <c r="H112" t="s">
+        <v>70</v>
+      </c>
+      <c r="I112">
+        <v>0</v>
+      </c>
+      <c r="J112">
+        <v>1</v>
+      </c>
+      <c r="K112">
+        <v>1</v>
+      </c>
+      <c r="L112">
+        <v>1</v>
+      </c>
+      <c r="M112">
+        <v>2</v>
+      </c>
+      <c r="N112">
+        <v>3</v>
+      </c>
+      <c r="O112" t="s">
+        <v>144</v>
+      </c>
+      <c r="P112" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q112">
+        <v>6</v>
+      </c>
+      <c r="R112">
+        <v>2</v>
+      </c>
+      <c r="S112">
+        <v>8</v>
+      </c>
+      <c r="T112">
+        <v>2.05</v>
+      </c>
+      <c r="U112">
+        <v>2.3</v>
+      </c>
+      <c r="V112">
+        <v>5</v>
+      </c>
+      <c r="W112">
+        <v>1.3</v>
+      </c>
+      <c r="X112">
+        <v>3.4</v>
+      </c>
+      <c r="Y112">
+        <v>2.45</v>
+      </c>
+      <c r="Z112">
+        <v>1.47</v>
+      </c>
+      <c r="AA112">
+        <v>5</v>
+      </c>
+      <c r="AB112">
+        <v>1.14</v>
+      </c>
+      <c r="AC112">
+        <v>1.53</v>
+      </c>
+      <c r="AD112">
+        <v>4.16</v>
+      </c>
+      <c r="AE112">
+        <v>5.4</v>
+      </c>
+      <c r="AF112">
+        <v>1.04</v>
+      </c>
+      <c r="AG112">
+        <v>10</v>
+      </c>
+      <c r="AH112">
+        <v>1.22</v>
+      </c>
+      <c r="AI112">
+        <v>4</v>
+      </c>
+      <c r="AJ112">
+        <v>1.7</v>
+      </c>
+      <c r="AK112">
+        <v>2.03</v>
+      </c>
+      <c r="AL112">
+        <v>1.75</v>
+      </c>
+      <c r="AM112">
+        <v>2</v>
+      </c>
+      <c r="AN112">
+        <v>1.1</v>
+      </c>
+      <c r="AO112">
+        <v>1.17</v>
+      </c>
+      <c r="AP112">
+        <v>2.35</v>
+      </c>
+      <c r="AQ112">
+        <v>1.64</v>
+      </c>
+      <c r="AR112">
+        <v>0.73</v>
+      </c>
+      <c r="AS112">
+        <v>1.5</v>
+      </c>
+      <c r="AT112">
+        <v>0.92</v>
+      </c>
+      <c r="AU112">
+        <v>1.79</v>
+      </c>
+      <c r="AV112">
+        <v>1.4</v>
+      </c>
+      <c r="AW112">
+        <v>3.19</v>
+      </c>
+      <c r="AX112">
+        <v>1.23</v>
+      </c>
+      <c r="AY112">
+        <v>7.25</v>
+      </c>
+      <c r="AZ112">
+        <v>4.85</v>
+      </c>
+      <c r="BA112">
+        <v>1.2</v>
+      </c>
+      <c r="BB112">
+        <v>1.33</v>
+      </c>
+      <c r="BC112">
+        <v>1.65</v>
+      </c>
+      <c r="BD112">
+        <v>2.02</v>
+      </c>
+      <c r="BE112">
+        <v>2.62</v>
+      </c>
+      <c r="BF112">
+        <v>4</v>
+      </c>
+      <c r="BG112">
+        <v>4</v>
+      </c>
+      <c r="BH112">
+        <v>8</v>
+      </c>
+      <c r="BI112">
+        <v>3</v>
+      </c>
+      <c r="BJ112">
+        <v>12</v>
+      </c>
+      <c r="BK112">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Slovenia PrvaLiga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Slovenia PrvaLiga_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="212">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -451,6 +451,9 @@
     <t>['51']</t>
   </si>
   <si>
+    <t>['49', '68']</t>
+  </si>
+  <si>
     <t>['67']</t>
   </si>
   <si>
@@ -644,6 +647,9 @@
   </si>
   <si>
     <t>['42', '55']</t>
+  </si>
+  <si>
+    <t>['11', '41']</t>
   </si>
 </sst>
 </file>
@@ -1005,7 +1011,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK112"/>
+  <dimension ref="A1:BK113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1249,7 +1255,7 @@
         <v>75</v>
       </c>
       <c r="P2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1339,7 +1345,7 @@
         <v>1.5</v>
       </c>
       <c r="AT2">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1631,7 +1637,7 @@
         <v>76</v>
       </c>
       <c r="P4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q4">
         <v>7</v>
@@ -2204,7 +2210,7 @@
         <v>79</v>
       </c>
       <c r="P7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q7">
         <v>10</v>
@@ -2395,7 +2401,7 @@
         <v>80</v>
       </c>
       <c r="P8" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q8">
         <v>10</v>
@@ -2968,7 +2974,7 @@
         <v>82</v>
       </c>
       <c r="P11" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q11">
         <v>9</v>
@@ -3055,7 +3061,7 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AT11">
         <v>1.64</v>
@@ -3159,7 +3165,7 @@
         <v>76</v>
       </c>
       <c r="P12" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q12">
         <v>10</v>
@@ -3440,7 +3446,7 @@
         <v>1.45</v>
       </c>
       <c r="AT13">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU13">
         <v>1.49</v>
@@ -3732,7 +3738,7 @@
         <v>85</v>
       </c>
       <c r="P15" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q15">
         <v>4</v>
@@ -3923,7 +3929,7 @@
         <v>86</v>
       </c>
       <c r="P16" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q16">
         <v>1</v>
@@ -4305,7 +4311,7 @@
         <v>76</v>
       </c>
       <c r="P18" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q18">
         <v>5</v>
@@ -4496,7 +4502,7 @@
         <v>88</v>
       </c>
       <c r="P19" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q19">
         <v>5</v>
@@ -4687,7 +4693,7 @@
         <v>76</v>
       </c>
       <c r="P20" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q20">
         <v>6</v>
@@ -4878,7 +4884,7 @@
         <v>89</v>
       </c>
       <c r="P21" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q21">
         <v>12</v>
@@ -5260,7 +5266,7 @@
         <v>91</v>
       </c>
       <c r="P23" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q23">
         <v>4</v>
@@ -5347,10 +5353,10 @@
         <v>0.5</v>
       </c>
       <c r="AS23">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AT23">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU23">
         <v>3.08</v>
@@ -5642,7 +5648,7 @@
         <v>93</v>
       </c>
       <c r="P25" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q25">
         <v>6</v>
@@ -6114,7 +6120,7 @@
         <v>0.64</v>
       </c>
       <c r="AT27">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU27">
         <v>1.35</v>
@@ -6215,7 +6221,7 @@
         <v>76</v>
       </c>
       <c r="P28" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q28">
         <v>6</v>
@@ -6406,7 +6412,7 @@
         <v>76</v>
       </c>
       <c r="P29" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q29">
         <v>6</v>
@@ -6597,7 +6603,7 @@
         <v>95</v>
       </c>
       <c r="P30" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q30">
         <v>4</v>
@@ -6979,7 +6985,7 @@
         <v>76</v>
       </c>
       <c r="P32" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q32">
         <v>5</v>
@@ -7552,7 +7558,7 @@
         <v>76</v>
       </c>
       <c r="P35" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q35">
         <v>6</v>
@@ -7743,7 +7749,7 @@
         <v>76</v>
       </c>
       <c r="P36" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q36">
         <v>9</v>
@@ -7830,7 +7836,7 @@
         <v>0</v>
       </c>
       <c r="AS36">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AT36">
         <v>1.9</v>
@@ -8125,7 +8131,7 @@
         <v>76</v>
       </c>
       <c r="P38" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q38">
         <v>3</v>
@@ -8316,7 +8322,7 @@
         <v>98</v>
       </c>
       <c r="P39" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q39">
         <v>4</v>
@@ -8406,7 +8412,7 @@
         <v>1.67</v>
       </c>
       <c r="AT39">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU39">
         <v>1.97</v>
@@ -8507,7 +8513,7 @@
         <v>99</v>
       </c>
       <c r="P40" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -8698,7 +8704,7 @@
         <v>100</v>
       </c>
       <c r="P41" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q41">
         <v>2</v>
@@ -9080,7 +9086,7 @@
         <v>102</v>
       </c>
       <c r="P43" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q43">
         <v>7</v>
@@ -9271,7 +9277,7 @@
         <v>103</v>
       </c>
       <c r="P44" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q44">
         <v>6</v>
@@ -9462,7 +9468,7 @@
         <v>76</v>
       </c>
       <c r="P45" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q45">
         <v>4</v>
@@ -9653,7 +9659,7 @@
         <v>104</v>
       </c>
       <c r="P46" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q46">
         <v>5</v>
@@ -9740,7 +9746,7 @@
         <v>2</v>
       </c>
       <c r="AS46">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AT46">
         <v>1.64</v>
@@ -9844,7 +9850,7 @@
         <v>76</v>
       </c>
       <c r="P47" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q47">
         <v>4</v>
@@ -10035,7 +10041,7 @@
         <v>105</v>
       </c>
       <c r="P48" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q48">
         <v>1</v>
@@ -10122,7 +10128,7 @@
         <v>2.25</v>
       </c>
       <c r="AS48">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AT48">
         <v>2</v>
@@ -10417,7 +10423,7 @@
         <v>76</v>
       </c>
       <c r="P50" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q50">
         <v>5</v>
@@ -10608,7 +10614,7 @@
         <v>107</v>
       </c>
       <c r="P51" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q51">
         <v>5</v>
@@ -10799,7 +10805,7 @@
         <v>108</v>
       </c>
       <c r="P52" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q52">
         <v>4</v>
@@ -11080,7 +11086,7 @@
         <v>2.64</v>
       </c>
       <c r="AT53">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU53">
         <v>1.8</v>
@@ -11372,7 +11378,7 @@
         <v>111</v>
       </c>
       <c r="P55" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q55">
         <v>5</v>
@@ -11563,7 +11569,7 @@
         <v>112</v>
       </c>
       <c r="P56" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q56">
         <v>1</v>
@@ -11945,7 +11951,7 @@
         <v>76</v>
       </c>
       <c r="P58" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q58">
         <v>3</v>
@@ -12327,7 +12333,7 @@
         <v>115</v>
       </c>
       <c r="P60" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q60">
         <v>5</v>
@@ -12414,7 +12420,7 @@
         <v>1.2</v>
       </c>
       <c r="AS60">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AT60">
         <v>1.17</v>
@@ -12799,7 +12805,7 @@
         <v>2.4</v>
       </c>
       <c r="AT62">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU62">
         <v>2.13</v>
@@ -13091,7 +13097,7 @@
         <v>118</v>
       </c>
       <c r="P64" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q64">
         <v>9</v>
@@ -13560,7 +13566,7 @@
         <v>1</v>
       </c>
       <c r="AS66">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AT66">
         <v>0.92</v>
@@ -13664,7 +13670,7 @@
         <v>76</v>
       </c>
       <c r="P67" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q67">
         <v>4</v>
@@ -13855,7 +13861,7 @@
         <v>76</v>
       </c>
       <c r="P68" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q68">
         <v>4</v>
@@ -14428,7 +14434,7 @@
         <v>122</v>
       </c>
       <c r="P71" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q71">
         <v>4</v>
@@ -14810,7 +14816,7 @@
         <v>124</v>
       </c>
       <c r="P73" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q73">
         <v>6</v>
@@ -15001,7 +15007,7 @@
         <v>125</v>
       </c>
       <c r="P74" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q74">
         <v>7</v>
@@ -15192,7 +15198,7 @@
         <v>126</v>
       </c>
       <c r="P75" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q75">
         <v>3</v>
@@ -15470,7 +15476,7 @@
         <v>0.71</v>
       </c>
       <c r="AS76">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AT76">
         <v>0.55</v>
@@ -15574,7 +15580,7 @@
         <v>128</v>
       </c>
       <c r="P77" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q77">
         <v>3</v>
@@ -15765,7 +15771,7 @@
         <v>76</v>
       </c>
       <c r="P78" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q78">
         <v>7</v>
@@ -15956,7 +15962,7 @@
         <v>76</v>
       </c>
       <c r="P79" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q79">
         <v>5</v>
@@ -16147,7 +16153,7 @@
         <v>129</v>
       </c>
       <c r="P80" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q80">
         <v>4</v>
@@ -16237,7 +16243,7 @@
         <v>1.45</v>
       </c>
       <c r="AT80">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU80">
         <v>1.82</v>
@@ -16338,7 +16344,7 @@
         <v>130</v>
       </c>
       <c r="P81" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q81">
         <v>8</v>
@@ -16529,7 +16535,7 @@
         <v>128</v>
       </c>
       <c r="P82" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q82">
         <v>7</v>
@@ -16720,7 +16726,7 @@
         <v>76</v>
       </c>
       <c r="P83" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q83">
         <v>0</v>
@@ -16911,7 +16917,7 @@
         <v>76</v>
       </c>
       <c r="P84" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q84">
         <v>1</v>
@@ -17380,7 +17386,7 @@
         <v>0.63</v>
       </c>
       <c r="AS86">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AT86">
         <v>0.5</v>
@@ -17484,7 +17490,7 @@
         <v>89</v>
       </c>
       <c r="P87" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q87">
         <v>6</v>
@@ -17574,7 +17580,7 @@
         <v>0.83</v>
       </c>
       <c r="AT87">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU87">
         <v>1.74</v>
@@ -17866,7 +17872,7 @@
         <v>76</v>
       </c>
       <c r="P89" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q89">
         <v>5</v>
@@ -18821,7 +18827,7 @@
         <v>135</v>
       </c>
       <c r="P94" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q94">
         <v>8</v>
@@ -18911,7 +18917,7 @@
         <v>1.5</v>
       </c>
       <c r="AT94">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU94">
         <v>1.8</v>
@@ -19012,7 +19018,7 @@
         <v>136</v>
       </c>
       <c r="P95" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q95">
         <v>5</v>
@@ -19585,7 +19591,7 @@
         <v>76</v>
       </c>
       <c r="P98" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q98">
         <v>1</v>
@@ -19776,7 +19782,7 @@
         <v>137</v>
       </c>
       <c r="P99" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q99">
         <v>7</v>
@@ -19967,7 +19973,7 @@
         <v>76</v>
       </c>
       <c r="P100" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q100">
         <v>4</v>
@@ -20158,7 +20164,7 @@
         <v>76</v>
       </c>
       <c r="P101" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q101">
         <v>3</v>
@@ -20245,7 +20251,7 @@
         <v>1.33</v>
       </c>
       <c r="AS101">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AT101">
         <v>1.64</v>
@@ -20349,7 +20355,7 @@
         <v>138</v>
       </c>
       <c r="P102" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q102">
         <v>4</v>
@@ -20731,7 +20737,7 @@
         <v>140</v>
       </c>
       <c r="P104" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q104">
         <v>6</v>
@@ -20922,7 +20928,7 @@
         <v>76</v>
       </c>
       <c r="P105" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q105">
         <v>2</v>
@@ -21113,7 +21119,7 @@
         <v>76</v>
       </c>
       <c r="P106" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q106">
         <v>10</v>
@@ -21203,7 +21209,7 @@
         <v>1.45</v>
       </c>
       <c r="AT106">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU106">
         <v>1.7</v>
@@ -21304,7 +21310,7 @@
         <v>141</v>
       </c>
       <c r="P107" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q107">
         <v>1</v>
@@ -21686,7 +21692,7 @@
         <v>142</v>
       </c>
       <c r="P109" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q109">
         <v>10</v>
@@ -21877,7 +21883,7 @@
         <v>76</v>
       </c>
       <c r="P110" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -22259,7 +22265,7 @@
         <v>144</v>
       </c>
       <c r="P112" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q112">
         <v>6</v>
@@ -22401,6 +22407,197 @@
       </c>
       <c r="BK112">
         <v>7</v>
+      </c>
+    </row>
+    <row r="113" spans="1:63">
+      <c r="A113" s="1">
+        <v>112</v>
+      </c>
+      <c r="B113">
+        <v>2529680</v>
+      </c>
+      <c r="C113" t="s">
+        <v>63</v>
+      </c>
+      <c r="D113" t="s">
+        <v>64</v>
+      </c>
+      <c r="E113" s="2">
+        <v>44978.5625</v>
+      </c>
+      <c r="F113">
+        <v>23</v>
+      </c>
+      <c r="G113" t="s">
+        <v>73</v>
+      </c>
+      <c r="H113" t="s">
+        <v>71</v>
+      </c>
+      <c r="I113">
+        <v>0</v>
+      </c>
+      <c r="J113">
+        <v>2</v>
+      </c>
+      <c r="K113">
+        <v>2</v>
+      </c>
+      <c r="L113">
+        <v>2</v>
+      </c>
+      <c r="M113">
+        <v>2</v>
+      </c>
+      <c r="N113">
+        <v>4</v>
+      </c>
+      <c r="O113" t="s">
+        <v>145</v>
+      </c>
+      <c r="P113" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q113">
+        <v>5</v>
+      </c>
+      <c r="R113">
+        <v>3</v>
+      </c>
+      <c r="S113">
+        <v>8</v>
+      </c>
+      <c r="T113">
+        <v>2</v>
+      </c>
+      <c r="U113">
+        <v>2.35</v>
+      </c>
+      <c r="V113">
+        <v>5.55</v>
+      </c>
+      <c r="W113">
+        <v>1.3</v>
+      </c>
+      <c r="X113">
+        <v>3.4</v>
+      </c>
+      <c r="Y113">
+        <v>2.45</v>
+      </c>
+      <c r="Z113">
+        <v>1.47</v>
+      </c>
+      <c r="AA113">
+        <v>5</v>
+      </c>
+      <c r="AB113">
+        <v>1.14</v>
+      </c>
+      <c r="AC113">
+        <v>2.11</v>
+      </c>
+      <c r="AD113">
+        <v>2.82</v>
+      </c>
+      <c r="AE113">
+        <v>3.57</v>
+      </c>
+      <c r="AF113">
+        <v>1.04</v>
+      </c>
+      <c r="AG113">
+        <v>10</v>
+      </c>
+      <c r="AH113">
+        <v>1.22</v>
+      </c>
+      <c r="AI113">
+        <v>4</v>
+      </c>
+      <c r="AJ113">
+        <v>1.73</v>
+      </c>
+      <c r="AK113">
+        <v>2</v>
+      </c>
+      <c r="AL113">
+        <v>1.79</v>
+      </c>
+      <c r="AM113">
+        <v>1.92</v>
+      </c>
+      <c r="AN113">
+        <v>1.12</v>
+      </c>
+      <c r="AO113">
+        <v>1.21</v>
+      </c>
+      <c r="AP113">
+        <v>2.52</v>
+      </c>
+      <c r="AQ113">
+        <v>1.9</v>
+      </c>
+      <c r="AR113">
+        <v>0.73</v>
+      </c>
+      <c r="AS113">
+        <v>1.82</v>
+      </c>
+      <c r="AT113">
+        <v>0.75</v>
+      </c>
+      <c r="AU113">
+        <v>2.07</v>
+      </c>
+      <c r="AV113">
+        <v>1.71</v>
+      </c>
+      <c r="AW113">
+        <v>3.78</v>
+      </c>
+      <c r="AX113">
+        <v>1.41</v>
+      </c>
+      <c r="AY113">
+        <v>9.5</v>
+      </c>
+      <c r="AZ113">
+        <v>3.76</v>
+      </c>
+      <c r="BA113">
+        <v>1.26</v>
+      </c>
+      <c r="BB113">
+        <v>1.57</v>
+      </c>
+      <c r="BC113">
+        <v>1.95</v>
+      </c>
+      <c r="BD113">
+        <v>2.42</v>
+      </c>
+      <c r="BE113">
+        <v>3.35</v>
+      </c>
+      <c r="BF113">
+        <v>9</v>
+      </c>
+      <c r="BG113">
+        <v>6</v>
+      </c>
+      <c r="BH113">
+        <v>6</v>
+      </c>
+      <c r="BI113">
+        <v>7</v>
+      </c>
+      <c r="BJ113">
+        <v>15</v>
+      </c>
+      <c r="BK113">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Slovenia PrvaLiga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Slovenia PrvaLiga_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="215">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -454,6 +454,12 @@
     <t>['49', '68']</t>
   </si>
   <si>
+    <t>['16', '82']</t>
+  </si>
+  <si>
+    <t>['12', '17', '50', '58']</t>
+  </si>
+  <si>
     <t>['67']</t>
   </si>
   <si>
@@ -650,6 +656,9 @@
   </si>
   <si>
     <t>['11', '41']</t>
+  </si>
+  <si>
+    <t>['4', '67', '90+2']</t>
   </si>
 </sst>
 </file>
@@ -1011,7 +1020,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK113"/>
+  <dimension ref="A1:BK115"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1255,7 +1264,7 @@
         <v>75</v>
       </c>
       <c r="P2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1637,7 +1646,7 @@
         <v>76</v>
       </c>
       <c r="P4" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q4">
         <v>7</v>
@@ -1915,7 +1924,7 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AT5">
         <v>1.08</v>
@@ -2109,7 +2118,7 @@
         <v>0.83</v>
       </c>
       <c r="AT6">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2210,7 +2219,7 @@
         <v>79</v>
       </c>
       <c r="P7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q7">
         <v>10</v>
@@ -2401,7 +2410,7 @@
         <v>80</v>
       </c>
       <c r="P8" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q8">
         <v>10</v>
@@ -2491,7 +2500,7 @@
         <v>1.67</v>
       </c>
       <c r="AT8">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU8">
         <v>1.17</v>
@@ -2974,7 +2983,7 @@
         <v>82</v>
       </c>
       <c r="P11" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q11">
         <v>9</v>
@@ -3165,7 +3174,7 @@
         <v>76</v>
       </c>
       <c r="P12" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q12">
         <v>10</v>
@@ -3634,10 +3643,10 @@
         <v>0</v>
       </c>
       <c r="AS14">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AT14">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AU14">
         <v>1.29</v>
@@ -3738,7 +3747,7 @@
         <v>85</v>
       </c>
       <c r="P15" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q15">
         <v>4</v>
@@ -3825,7 +3834,7 @@
         <v>0</v>
       </c>
       <c r="AS15">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AT15">
         <v>1.08</v>
@@ -3929,7 +3938,7 @@
         <v>86</v>
       </c>
       <c r="P16" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q16">
         <v>1</v>
@@ -4311,7 +4320,7 @@
         <v>76</v>
       </c>
       <c r="P18" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q18">
         <v>5</v>
@@ -4502,7 +4511,7 @@
         <v>88</v>
       </c>
       <c r="P19" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q19">
         <v>5</v>
@@ -4693,7 +4702,7 @@
         <v>76</v>
       </c>
       <c r="P20" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q20">
         <v>6</v>
@@ -4884,7 +4893,7 @@
         <v>89</v>
       </c>
       <c r="P21" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q21">
         <v>12</v>
@@ -5162,10 +5171,10 @@
         <v>0</v>
       </c>
       <c r="AS22">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AT22">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AU22">
         <v>2.42</v>
@@ -5266,7 +5275,7 @@
         <v>91</v>
       </c>
       <c r="P23" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q23">
         <v>4</v>
@@ -5648,7 +5657,7 @@
         <v>93</v>
       </c>
       <c r="P25" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q25">
         <v>6</v>
@@ -5926,10 +5935,10 @@
         <v>0</v>
       </c>
       <c r="AS26">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AT26">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU26">
         <v>1.28</v>
@@ -6221,7 +6230,7 @@
         <v>76</v>
       </c>
       <c r="P28" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q28">
         <v>6</v>
@@ -6412,7 +6421,7 @@
         <v>76</v>
       </c>
       <c r="P29" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q29">
         <v>6</v>
@@ -6603,7 +6612,7 @@
         <v>95</v>
       </c>
       <c r="P30" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q30">
         <v>4</v>
@@ -6985,7 +6994,7 @@
         <v>76</v>
       </c>
       <c r="P32" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q32">
         <v>5</v>
@@ -7075,7 +7084,7 @@
         <v>0.73</v>
       </c>
       <c r="AT32">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AU32">
         <v>1.31</v>
@@ -7263,10 +7272,10 @@
         <v>0</v>
       </c>
       <c r="AS33">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AT33">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU33">
         <v>2.5</v>
@@ -7454,7 +7463,7 @@
         <v>2</v>
       </c>
       <c r="AS34">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AT34">
         <v>0.92</v>
@@ -7558,7 +7567,7 @@
         <v>76</v>
       </c>
       <c r="P35" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q35">
         <v>6</v>
@@ -7749,7 +7758,7 @@
         <v>76</v>
       </c>
       <c r="P36" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q36">
         <v>9</v>
@@ -8131,7 +8140,7 @@
         <v>76</v>
       </c>
       <c r="P38" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q38">
         <v>3</v>
@@ -8322,7 +8331,7 @@
         <v>98</v>
       </c>
       <c r="P39" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q39">
         <v>4</v>
@@ -8513,7 +8522,7 @@
         <v>99</v>
       </c>
       <c r="P40" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -8600,7 +8609,7 @@
         <v>1.33</v>
       </c>
       <c r="AS40">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AT40">
         <v>1.64</v>
@@ -8704,7 +8713,7 @@
         <v>100</v>
       </c>
       <c r="P41" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q41">
         <v>2</v>
@@ -8794,7 +8803,7 @@
         <v>0.64</v>
       </c>
       <c r="AT41">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AU41">
         <v>1.32</v>
@@ -9086,7 +9095,7 @@
         <v>102</v>
       </c>
       <c r="P43" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q43">
         <v>7</v>
@@ -9176,7 +9185,7 @@
         <v>0.73</v>
       </c>
       <c r="AT43">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU43">
         <v>1.37</v>
@@ -9277,7 +9286,7 @@
         <v>103</v>
       </c>
       <c r="P44" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q44">
         <v>6</v>
@@ -9364,7 +9373,7 @@
         <v>3</v>
       </c>
       <c r="AS44">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AT44">
         <v>2</v>
@@ -9468,7 +9477,7 @@
         <v>76</v>
       </c>
       <c r="P45" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q45">
         <v>4</v>
@@ -9659,7 +9668,7 @@
         <v>104</v>
       </c>
       <c r="P46" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q46">
         <v>5</v>
@@ -9850,7 +9859,7 @@
         <v>76</v>
       </c>
       <c r="P47" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q47">
         <v>4</v>
@@ -10041,7 +10050,7 @@
         <v>105</v>
       </c>
       <c r="P48" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q48">
         <v>1</v>
@@ -10322,7 +10331,7 @@
         <v>1.45</v>
       </c>
       <c r="AT49">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU49">
         <v>1.91</v>
@@ -10423,7 +10432,7 @@
         <v>76</v>
       </c>
       <c r="P50" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q50">
         <v>5</v>
@@ -10614,7 +10623,7 @@
         <v>107</v>
       </c>
       <c r="P51" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q51">
         <v>5</v>
@@ -10701,7 +10710,7 @@
         <v>1</v>
       </c>
       <c r="AS51">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AT51">
         <v>1.64</v>
@@ -10805,7 +10814,7 @@
         <v>108</v>
       </c>
       <c r="P52" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q52">
         <v>4</v>
@@ -11083,7 +11092,7 @@
         <v>0.8</v>
       </c>
       <c r="AS53">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AT53">
         <v>0.75</v>
@@ -11277,7 +11286,7 @@
         <v>1.5</v>
       </c>
       <c r="AT54">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AU54">
         <v>1.84</v>
@@ -11378,7 +11387,7 @@
         <v>111</v>
       </c>
       <c r="P55" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q55">
         <v>5</v>
@@ -11569,7 +11578,7 @@
         <v>112</v>
       </c>
       <c r="P56" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q56">
         <v>1</v>
@@ -11656,7 +11665,7 @@
         <v>1.2</v>
       </c>
       <c r="AS56">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AT56">
         <v>0.92</v>
@@ -11951,7 +11960,7 @@
         <v>76</v>
       </c>
       <c r="P58" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q58">
         <v>3</v>
@@ -12333,7 +12342,7 @@
         <v>115</v>
       </c>
       <c r="P60" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q60">
         <v>5</v>
@@ -12614,7 +12623,7 @@
         <v>0.64</v>
       </c>
       <c r="AT61">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU61">
         <v>1.16</v>
@@ -12802,7 +12811,7 @@
         <v>0.67</v>
       </c>
       <c r="AS62">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AT62">
         <v>0.75</v>
@@ -12996,7 +13005,7 @@
         <v>1.45</v>
       </c>
       <c r="AT63">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AU63">
         <v>1.84</v>
@@ -13097,7 +13106,7 @@
         <v>118</v>
       </c>
       <c r="P64" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q64">
         <v>9</v>
@@ -13187,7 +13196,7 @@
         <v>1.5</v>
       </c>
       <c r="AT64">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU64">
         <v>1.77</v>
@@ -13375,7 +13384,7 @@
         <v>2</v>
       </c>
       <c r="AS65">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AT65">
         <v>1.9</v>
@@ -13670,7 +13679,7 @@
         <v>76</v>
       </c>
       <c r="P67" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q67">
         <v>4</v>
@@ -13861,7 +13870,7 @@
         <v>76</v>
       </c>
       <c r="P68" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q68">
         <v>4</v>
@@ -14434,7 +14443,7 @@
         <v>122</v>
       </c>
       <c r="P71" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q71">
         <v>4</v>
@@ -14715,7 +14724,7 @@
         <v>1.45</v>
       </c>
       <c r="AT72">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU72">
         <v>1.78</v>
@@ -14816,7 +14825,7 @@
         <v>124</v>
       </c>
       <c r="P73" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q73">
         <v>6</v>
@@ -15007,7 +15016,7 @@
         <v>125</v>
       </c>
       <c r="P74" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q74">
         <v>7</v>
@@ -15094,7 +15103,7 @@
         <v>1.71</v>
       </c>
       <c r="AS74">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AT74">
         <v>1.9</v>
@@ -15198,7 +15207,7 @@
         <v>126</v>
       </c>
       <c r="P75" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q75">
         <v>3</v>
@@ -15285,7 +15294,7 @@
         <v>1.86</v>
       </c>
       <c r="AS75">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AT75">
         <v>1.64</v>
@@ -15479,7 +15488,7 @@
         <v>1.82</v>
       </c>
       <c r="AT76">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AU76">
         <v>2.18</v>
@@ -15580,7 +15589,7 @@
         <v>128</v>
       </c>
       <c r="P77" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q77">
         <v>3</v>
@@ -15771,7 +15780,7 @@
         <v>76</v>
       </c>
       <c r="P78" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q78">
         <v>7</v>
@@ -15962,7 +15971,7 @@
         <v>76</v>
       </c>
       <c r="P79" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q79">
         <v>5</v>
@@ -16153,7 +16162,7 @@
         <v>129</v>
       </c>
       <c r="P80" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q80">
         <v>4</v>
@@ -16344,7 +16353,7 @@
         <v>130</v>
       </c>
       <c r="P81" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q81">
         <v>8</v>
@@ -16535,7 +16544,7 @@
         <v>128</v>
       </c>
       <c r="P82" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q82">
         <v>7</v>
@@ -16726,7 +16735,7 @@
         <v>76</v>
       </c>
       <c r="P83" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q83">
         <v>0</v>
@@ -16917,7 +16926,7 @@
         <v>76</v>
       </c>
       <c r="P84" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q84">
         <v>1</v>
@@ -17195,7 +17204,7 @@
         <v>1.63</v>
       </c>
       <c r="AS85">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AT85">
         <v>1.64</v>
@@ -17389,7 +17398,7 @@
         <v>1.82</v>
       </c>
       <c r="AT86">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU86">
         <v>2.05</v>
@@ -17490,7 +17499,7 @@
         <v>89</v>
       </c>
       <c r="P87" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q87">
         <v>6</v>
@@ -17771,7 +17780,7 @@
         <v>1.67</v>
       </c>
       <c r="AT88">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AU88">
         <v>1.86</v>
@@ -17872,7 +17881,7 @@
         <v>76</v>
       </c>
       <c r="P89" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q89">
         <v>5</v>
@@ -18341,7 +18350,7 @@
         <v>1.13</v>
       </c>
       <c r="AS91">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AT91">
         <v>1.17</v>
@@ -18535,7 +18544,7 @@
         <v>0.83</v>
       </c>
       <c r="AT92">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AU92">
         <v>1.76</v>
@@ -18827,7 +18836,7 @@
         <v>135</v>
       </c>
       <c r="P94" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q94">
         <v>8</v>
@@ -19018,7 +19027,7 @@
         <v>136</v>
       </c>
       <c r="P95" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q95">
         <v>5</v>
@@ -19296,7 +19305,7 @@
         <v>1.22</v>
       </c>
       <c r="AS96">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AT96">
         <v>1.08</v>
@@ -19591,7 +19600,7 @@
         <v>76</v>
       </c>
       <c r="P98" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q98">
         <v>1</v>
@@ -19782,7 +19791,7 @@
         <v>137</v>
       </c>
       <c r="P99" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q99">
         <v>7</v>
@@ -19872,7 +19881,7 @@
         <v>1.67</v>
       </c>
       <c r="AT99">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU99">
         <v>1.86</v>
@@ -19973,7 +19982,7 @@
         <v>76</v>
       </c>
       <c r="P100" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q100">
         <v>4</v>
@@ -20164,7 +20173,7 @@
         <v>76</v>
       </c>
       <c r="P101" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q101">
         <v>3</v>
@@ -20355,7 +20364,7 @@
         <v>138</v>
       </c>
       <c r="P102" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q102">
         <v>4</v>
@@ -20442,10 +20451,10 @@
         <v>0.6</v>
       </c>
       <c r="AS102">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AT102">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AU102">
         <v>1.84</v>
@@ -20633,7 +20642,7 @@
         <v>1.2</v>
       </c>
       <c r="AS103">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AT103">
         <v>1.08</v>
@@ -20737,7 +20746,7 @@
         <v>140</v>
       </c>
       <c r="P104" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q104">
         <v>6</v>
@@ -20928,7 +20937,7 @@
         <v>76</v>
       </c>
       <c r="P105" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q105">
         <v>2</v>
@@ -21119,7 +21128,7 @@
         <v>76</v>
       </c>
       <c r="P106" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q106">
         <v>10</v>
@@ -21310,7 +21319,7 @@
         <v>141</v>
       </c>
       <c r="P107" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q107">
         <v>1</v>
@@ -21692,7 +21701,7 @@
         <v>142</v>
       </c>
       <c r="P109" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q109">
         <v>10</v>
@@ -21883,7 +21892,7 @@
         <v>76</v>
       </c>
       <c r="P110" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -22265,7 +22274,7 @@
         <v>144</v>
       </c>
       <c r="P112" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q112">
         <v>6</v>
@@ -22456,7 +22465,7 @@
         <v>145</v>
       </c>
       <c r="P113" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q113">
         <v>5</v>
@@ -22598,6 +22607,388 @@
       </c>
       <c r="BK113">
         <v>13</v>
+      </c>
+    </row>
+    <row r="114" spans="1:63">
+      <c r="A114" s="1">
+        <v>113</v>
+      </c>
+      <c r="B114">
+        <v>2529679</v>
+      </c>
+      <c r="C114" t="s">
+        <v>63</v>
+      </c>
+      <c r="D114" t="s">
+        <v>64</v>
+      </c>
+      <c r="E114" s="2">
+        <v>44979.45833333334</v>
+      </c>
+      <c r="F114">
+        <v>23</v>
+      </c>
+      <c r="G114" t="s">
+        <v>74</v>
+      </c>
+      <c r="H114" t="s">
+        <v>72</v>
+      </c>
+      <c r="I114">
+        <v>1</v>
+      </c>
+      <c r="J114">
+        <v>1</v>
+      </c>
+      <c r="K114">
+        <v>2</v>
+      </c>
+      <c r="L114">
+        <v>2</v>
+      </c>
+      <c r="M114">
+        <v>1</v>
+      </c>
+      <c r="N114">
+        <v>3</v>
+      </c>
+      <c r="O114" t="s">
+        <v>146</v>
+      </c>
+      <c r="P114" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q114">
+        <v>8</v>
+      </c>
+      <c r="R114">
+        <v>3</v>
+      </c>
+      <c r="S114">
+        <v>11</v>
+      </c>
+      <c r="T114">
+        <v>2.38</v>
+      </c>
+      <c r="U114">
+        <v>2.1</v>
+      </c>
+      <c r="V114">
+        <v>4.33</v>
+      </c>
+      <c r="W114">
+        <v>1.4</v>
+      </c>
+      <c r="X114">
+        <v>2.75</v>
+      </c>
+      <c r="Y114">
+        <v>2.75</v>
+      </c>
+      <c r="Z114">
+        <v>1.4</v>
+      </c>
+      <c r="AA114">
+        <v>6.5</v>
+      </c>
+      <c r="AB114">
+        <v>1.1</v>
+      </c>
+      <c r="AC114">
+        <v>1.8</v>
+      </c>
+      <c r="AD114">
+        <v>3.1</v>
+      </c>
+      <c r="AE114">
+        <v>4</v>
+      </c>
+      <c r="AF114">
+        <v>1.06</v>
+      </c>
+      <c r="AG114">
+        <v>8</v>
+      </c>
+      <c r="AH114">
+        <v>1.33</v>
+      </c>
+      <c r="AI114">
+        <v>3.25</v>
+      </c>
+      <c r="AJ114">
+        <v>2.06</v>
+      </c>
+      <c r="AK114">
+        <v>1.7</v>
+      </c>
+      <c r="AL114">
+        <v>1.85</v>
+      </c>
+      <c r="AM114">
+        <v>1.85</v>
+      </c>
+      <c r="AN114">
+        <v>1.2</v>
+      </c>
+      <c r="AO114">
+        <v>1.3</v>
+      </c>
+      <c r="AP114">
+        <v>1.91</v>
+      </c>
+      <c r="AQ114">
+        <v>2.4</v>
+      </c>
+      <c r="AR114">
+        <v>0.55</v>
+      </c>
+      <c r="AS114">
+        <v>2.45</v>
+      </c>
+      <c r="AT114">
+        <v>0.5</v>
+      </c>
+      <c r="AU114">
+        <v>1.91</v>
+      </c>
+      <c r="AV114">
+        <v>1.65</v>
+      </c>
+      <c r="AW114">
+        <v>3.56</v>
+      </c>
+      <c r="AX114">
+        <v>1.35</v>
+      </c>
+      <c r="AY114">
+        <v>6.5</v>
+      </c>
+      <c r="AZ114">
+        <v>3.65</v>
+      </c>
+      <c r="BA114">
+        <v>1.27</v>
+      </c>
+      <c r="BB114">
+        <v>1.53</v>
+      </c>
+      <c r="BC114">
+        <v>1.88</v>
+      </c>
+      <c r="BD114">
+        <v>2.33</v>
+      </c>
+      <c r="BE114">
+        <v>3.2</v>
+      </c>
+      <c r="BF114">
+        <v>6</v>
+      </c>
+      <c r="BG114">
+        <v>4</v>
+      </c>
+      <c r="BH114">
+        <v>8</v>
+      </c>
+      <c r="BI114">
+        <v>3</v>
+      </c>
+      <c r="BJ114">
+        <v>14</v>
+      </c>
+      <c r="BK114">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="115" spans="1:63">
+      <c r="A115" s="1">
+        <v>114</v>
+      </c>
+      <c r="B115">
+        <v>2529677</v>
+      </c>
+      <c r="C115" t="s">
+        <v>63</v>
+      </c>
+      <c r="D115" t="s">
+        <v>64</v>
+      </c>
+      <c r="E115" s="2">
+        <v>44979.5625</v>
+      </c>
+      <c r="F115">
+        <v>23</v>
+      </c>
+      <c r="G115" t="s">
+        <v>68</v>
+      </c>
+      <c r="H115" t="s">
+        <v>69</v>
+      </c>
+      <c r="I115">
+        <v>2</v>
+      </c>
+      <c r="J115">
+        <v>1</v>
+      </c>
+      <c r="K115">
+        <v>3</v>
+      </c>
+      <c r="L115">
+        <v>4</v>
+      </c>
+      <c r="M115">
+        <v>3</v>
+      </c>
+      <c r="N115">
+        <v>7</v>
+      </c>
+      <c r="O115" t="s">
+        <v>147</v>
+      </c>
+      <c r="P115" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q115">
+        <v>9</v>
+      </c>
+      <c r="R115">
+        <v>3</v>
+      </c>
+      <c r="S115">
+        <v>12</v>
+      </c>
+      <c r="T115">
+        <v>1.85</v>
+      </c>
+      <c r="U115">
+        <v>2.3</v>
+      </c>
+      <c r="V115">
+        <v>8</v>
+      </c>
+      <c r="W115">
+        <v>1.36</v>
+      </c>
+      <c r="X115">
+        <v>3</v>
+      </c>
+      <c r="Y115">
+        <v>2.62</v>
+      </c>
+      <c r="Z115">
+        <v>1.44</v>
+      </c>
+      <c r="AA115">
+        <v>6.5</v>
+      </c>
+      <c r="AB115">
+        <v>1.1</v>
+      </c>
+      <c r="AC115">
+        <v>1.31</v>
+      </c>
+      <c r="AD115">
+        <v>3.88</v>
+      </c>
+      <c r="AE115">
+        <v>7.2</v>
+      </c>
+      <c r="AF115">
+        <v>1.06</v>
+      </c>
+      <c r="AG115">
+        <v>8</v>
+      </c>
+      <c r="AH115">
+        <v>1.33</v>
+      </c>
+      <c r="AI115">
+        <v>3.25</v>
+      </c>
+      <c r="AJ115">
+        <v>1.86</v>
+      </c>
+      <c r="AK115">
+        <v>1.69</v>
+      </c>
+      <c r="AL115">
+        <v>2.3</v>
+      </c>
+      <c r="AM115">
+        <v>1.57</v>
+      </c>
+      <c r="AN115">
+        <v>1.07</v>
+      </c>
+      <c r="AO115">
+        <v>1.2</v>
+      </c>
+      <c r="AP115">
+        <v>3</v>
+      </c>
+      <c r="AQ115">
+        <v>2.64</v>
+      </c>
+      <c r="AR115">
+        <v>0.5</v>
+      </c>
+      <c r="AS115">
+        <v>2.67</v>
+      </c>
+      <c r="AT115">
+        <v>0.45</v>
+      </c>
+      <c r="AU115">
+        <v>1.81</v>
+      </c>
+      <c r="AV115">
+        <v>1.29</v>
+      </c>
+      <c r="AW115">
+        <v>3.1</v>
+      </c>
+      <c r="AX115">
+        <v>1.2</v>
+      </c>
+      <c r="AY115">
+        <v>8</v>
+      </c>
+      <c r="AZ115">
+        <v>5.5</v>
+      </c>
+      <c r="BA115">
+        <v>1.25</v>
+      </c>
+      <c r="BB115">
+        <v>1.39</v>
+      </c>
+      <c r="BC115">
+        <v>1.78</v>
+      </c>
+      <c r="BD115">
+        <v>2.2</v>
+      </c>
+      <c r="BE115">
+        <v>2.85</v>
+      </c>
+      <c r="BF115">
+        <v>11</v>
+      </c>
+      <c r="BG115">
+        <v>7</v>
+      </c>
+      <c r="BH115">
+        <v>6</v>
+      </c>
+      <c r="BI115">
+        <v>4</v>
+      </c>
+      <c r="BJ115">
+        <v>17</v>
+      </c>
+      <c r="BK115">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Slovenia PrvaLiga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Slovenia PrvaLiga_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="217">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -460,6 +460,9 @@
     <t>['12', '17', '50', '58']</t>
   </si>
   <si>
+    <t>['45+6']</t>
+  </si>
+  <si>
     <t>['67']</t>
   </si>
   <si>
@@ -659,6 +662,9 @@
   </si>
   <si>
     <t>['4', '67', '90+2']</t>
+  </si>
+  <si>
+    <t>['74']</t>
   </si>
 </sst>
 </file>
@@ -1020,7 +1026,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK115"/>
+  <dimension ref="A1:BK116"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1264,7 +1270,7 @@
         <v>75</v>
       </c>
       <c r="P2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1542,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AT3">
         <v>1.17</v>
@@ -1646,7 +1652,7 @@
         <v>76</v>
       </c>
       <c r="P4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q4">
         <v>7</v>
@@ -2219,7 +2225,7 @@
         <v>79</v>
       </c>
       <c r="P7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q7">
         <v>10</v>
@@ -2410,7 +2416,7 @@
         <v>80</v>
       </c>
       <c r="P8" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q8">
         <v>10</v>
@@ -2983,7 +2989,7 @@
         <v>82</v>
       </c>
       <c r="P11" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q11">
         <v>9</v>
@@ -3174,7 +3180,7 @@
         <v>76</v>
       </c>
       <c r="P12" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q12">
         <v>10</v>
@@ -3452,7 +3458,7 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AT13">
         <v>0.75</v>
@@ -3747,7 +3753,7 @@
         <v>85</v>
       </c>
       <c r="P15" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q15">
         <v>4</v>
@@ -3938,7 +3944,7 @@
         <v>86</v>
       </c>
       <c r="P16" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q16">
         <v>1</v>
@@ -4028,7 +4034,7 @@
         <v>1.5</v>
       </c>
       <c r="AT16">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AU16">
         <v>2.44</v>
@@ -4320,7 +4326,7 @@
         <v>76</v>
       </c>
       <c r="P18" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q18">
         <v>5</v>
@@ -4511,7 +4517,7 @@
         <v>88</v>
       </c>
       <c r="P19" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q19">
         <v>5</v>
@@ -4702,7 +4708,7 @@
         <v>76</v>
       </c>
       <c r="P20" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q20">
         <v>6</v>
@@ -4893,7 +4899,7 @@
         <v>89</v>
       </c>
       <c r="P21" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q21">
         <v>12</v>
@@ -5275,7 +5281,7 @@
         <v>91</v>
       </c>
       <c r="P23" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q23">
         <v>4</v>
@@ -5657,7 +5663,7 @@
         <v>93</v>
       </c>
       <c r="P25" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q25">
         <v>6</v>
@@ -5744,10 +5750,10 @@
         <v>0</v>
       </c>
       <c r="AS25">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AT25">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AU25">
         <v>2.01</v>
@@ -6230,7 +6236,7 @@
         <v>76</v>
       </c>
       <c r="P28" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q28">
         <v>6</v>
@@ -6421,7 +6427,7 @@
         <v>76</v>
       </c>
       <c r="P29" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q29">
         <v>6</v>
@@ -6612,7 +6618,7 @@
         <v>95</v>
       </c>
       <c r="P30" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q30">
         <v>4</v>
@@ -6994,7 +7000,7 @@
         <v>76</v>
       </c>
       <c r="P32" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q32">
         <v>5</v>
@@ -7567,7 +7573,7 @@
         <v>76</v>
       </c>
       <c r="P35" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q35">
         <v>6</v>
@@ -7654,7 +7660,7 @@
         <v>1.5</v>
       </c>
       <c r="AS35">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AT35">
         <v>1.64</v>
@@ -7758,7 +7764,7 @@
         <v>76</v>
       </c>
       <c r="P36" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q36">
         <v>9</v>
@@ -7848,7 +7854,7 @@
         <v>1.82</v>
       </c>
       <c r="AT36">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AU36">
         <v>2.4</v>
@@ -8140,7 +8146,7 @@
         <v>76</v>
       </c>
       <c r="P38" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q38">
         <v>3</v>
@@ -8331,7 +8337,7 @@
         <v>98</v>
       </c>
       <c r="P39" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q39">
         <v>4</v>
@@ -8522,7 +8528,7 @@
         <v>99</v>
       </c>
       <c r="P40" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -8713,7 +8719,7 @@
         <v>100</v>
       </c>
       <c r="P41" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q41">
         <v>2</v>
@@ -8991,7 +8997,7 @@
         <v>1.5</v>
       </c>
       <c r="AS42">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AT42">
         <v>0.92</v>
@@ -9095,7 +9101,7 @@
         <v>102</v>
       </c>
       <c r="P43" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q43">
         <v>7</v>
@@ -9286,7 +9292,7 @@
         <v>103</v>
       </c>
       <c r="P44" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q44">
         <v>6</v>
@@ -9477,7 +9483,7 @@
         <v>76</v>
       </c>
       <c r="P45" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q45">
         <v>4</v>
@@ -9567,7 +9573,7 @@
         <v>1.45</v>
       </c>
       <c r="AT45">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AU45">
         <v>1.94</v>
@@ -9668,7 +9674,7 @@
         <v>104</v>
       </c>
       <c r="P46" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q46">
         <v>5</v>
@@ -9859,7 +9865,7 @@
         <v>76</v>
       </c>
       <c r="P47" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q47">
         <v>4</v>
@@ -10050,7 +10056,7 @@
         <v>105</v>
       </c>
       <c r="P48" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q48">
         <v>1</v>
@@ -10432,7 +10438,7 @@
         <v>76</v>
       </c>
       <c r="P50" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q50">
         <v>5</v>
@@ -10522,7 +10528,7 @@
         <v>0.64</v>
       </c>
       <c r="AT50">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AU50">
         <v>1.33</v>
@@ -10623,7 +10629,7 @@
         <v>107</v>
       </c>
       <c r="P51" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q51">
         <v>5</v>
@@ -10814,7 +10820,7 @@
         <v>108</v>
       </c>
       <c r="P52" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q52">
         <v>4</v>
@@ -10901,7 +10907,7 @@
         <v>1.2</v>
       </c>
       <c r="AS52">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AT52">
         <v>1.08</v>
@@ -11387,7 +11393,7 @@
         <v>111</v>
       </c>
       <c r="P55" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q55">
         <v>5</v>
@@ -11477,7 +11483,7 @@
         <v>0.83</v>
       </c>
       <c r="AT55">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AU55">
         <v>2.09</v>
@@ -11578,7 +11584,7 @@
         <v>112</v>
       </c>
       <c r="P56" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q56">
         <v>1</v>
@@ -11960,7 +11966,7 @@
         <v>76</v>
       </c>
       <c r="P58" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q58">
         <v>3</v>
@@ -12342,7 +12348,7 @@
         <v>115</v>
       </c>
       <c r="P60" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q60">
         <v>5</v>
@@ -13002,7 +13008,7 @@
         <v>0.67</v>
       </c>
       <c r="AS63">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AT63">
         <v>0.5</v>
@@ -13106,7 +13112,7 @@
         <v>118</v>
       </c>
       <c r="P64" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q64">
         <v>9</v>
@@ -13387,7 +13393,7 @@
         <v>2.67</v>
       </c>
       <c r="AT65">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AU65">
         <v>1.79</v>
@@ -13679,7 +13685,7 @@
         <v>76</v>
       </c>
       <c r="P67" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q67">
         <v>4</v>
@@ -13870,7 +13876,7 @@
         <v>76</v>
       </c>
       <c r="P68" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q68">
         <v>4</v>
@@ -14443,7 +14449,7 @@
         <v>122</v>
       </c>
       <c r="P71" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q71">
         <v>4</v>
@@ -14721,7 +14727,7 @@
         <v>0.71</v>
       </c>
       <c r="AS72">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AT72">
         <v>0.45</v>
@@ -14825,7 +14831,7 @@
         <v>124</v>
       </c>
       <c r="P73" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q73">
         <v>6</v>
@@ -15016,7 +15022,7 @@
         <v>125</v>
       </c>
       <c r="P74" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q74">
         <v>7</v>
@@ -15106,7 +15112,7 @@
         <v>2.45</v>
       </c>
       <c r="AT74">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AU74">
         <v>2.12</v>
@@ -15207,7 +15213,7 @@
         <v>126</v>
       </c>
       <c r="P75" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q75">
         <v>3</v>
@@ -15589,7 +15595,7 @@
         <v>128</v>
       </c>
       <c r="P77" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q77">
         <v>3</v>
@@ -15780,7 +15786,7 @@
         <v>76</v>
       </c>
       <c r="P78" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q78">
         <v>7</v>
@@ -15971,7 +15977,7 @@
         <v>76</v>
       </c>
       <c r="P79" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q79">
         <v>5</v>
@@ -16162,7 +16168,7 @@
         <v>129</v>
       </c>
       <c r="P80" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q80">
         <v>4</v>
@@ -16353,7 +16359,7 @@
         <v>130</v>
       </c>
       <c r="P81" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q81">
         <v>8</v>
@@ -16544,7 +16550,7 @@
         <v>128</v>
       </c>
       <c r="P82" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q82">
         <v>7</v>
@@ -16735,7 +16741,7 @@
         <v>76</v>
       </c>
       <c r="P83" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q83">
         <v>0</v>
@@ -16822,7 +16828,7 @@
         <v>2</v>
       </c>
       <c r="AS83">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AT83">
         <v>2</v>
@@ -16926,7 +16932,7 @@
         <v>76</v>
       </c>
       <c r="P84" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q84">
         <v>1</v>
@@ -17016,7 +17022,7 @@
         <v>0.73</v>
       </c>
       <c r="AT84">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AU84">
         <v>1.71</v>
@@ -17499,7 +17505,7 @@
         <v>89</v>
       </c>
       <c r="P87" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q87">
         <v>6</v>
@@ -17881,7 +17887,7 @@
         <v>76</v>
       </c>
       <c r="P89" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q89">
         <v>5</v>
@@ -18836,7 +18842,7 @@
         <v>135</v>
       </c>
       <c r="P94" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q94">
         <v>8</v>
@@ -19027,7 +19033,7 @@
         <v>136</v>
       </c>
       <c r="P95" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q95">
         <v>5</v>
@@ -19114,7 +19120,7 @@
         <v>1.11</v>
       </c>
       <c r="AS95">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AT95">
         <v>1.17</v>
@@ -19600,7 +19606,7 @@
         <v>76</v>
       </c>
       <c r="P98" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q98">
         <v>1</v>
@@ -19791,7 +19797,7 @@
         <v>137</v>
       </c>
       <c r="P99" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q99">
         <v>7</v>
@@ -19982,7 +19988,7 @@
         <v>76</v>
       </c>
       <c r="P100" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q100">
         <v>4</v>
@@ -20173,7 +20179,7 @@
         <v>76</v>
       </c>
       <c r="P101" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q101">
         <v>3</v>
@@ -20364,7 +20370,7 @@
         <v>138</v>
       </c>
       <c r="P102" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q102">
         <v>4</v>
@@ -20746,7 +20752,7 @@
         <v>140</v>
       </c>
       <c r="P104" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q104">
         <v>6</v>
@@ -20937,7 +20943,7 @@
         <v>76</v>
       </c>
       <c r="P105" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q105">
         <v>2</v>
@@ -21027,7 +21033,7 @@
         <v>1.5</v>
       </c>
       <c r="AT105">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AU105">
         <v>1.8</v>
@@ -21128,7 +21134,7 @@
         <v>76</v>
       </c>
       <c r="P106" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q106">
         <v>10</v>
@@ -21215,7 +21221,7 @@
         <v>0.5</v>
       </c>
       <c r="AS106">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AT106">
         <v>0.75</v>
@@ -21319,7 +21325,7 @@
         <v>141</v>
       </c>
       <c r="P107" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q107">
         <v>1</v>
@@ -21701,7 +21707,7 @@
         <v>142</v>
       </c>
       <c r="P109" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q109">
         <v>10</v>
@@ -21892,7 +21898,7 @@
         <v>76</v>
       </c>
       <c r="P110" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -22274,7 +22280,7 @@
         <v>144</v>
       </c>
       <c r="P112" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q112">
         <v>6</v>
@@ -22465,7 +22471,7 @@
         <v>145</v>
       </c>
       <c r="P113" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q113">
         <v>5</v>
@@ -22656,7 +22662,7 @@
         <v>146</v>
       </c>
       <c r="P114" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q114">
         <v>8</v>
@@ -22847,7 +22853,7 @@
         <v>147</v>
       </c>
       <c r="P115" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q115">
         <v>9</v>
@@ -22989,6 +22995,197 @@
       </c>
       <c r="BK115">
         <v>11</v>
+      </c>
+    </row>
+    <row r="116" spans="1:63">
+      <c r="A116" s="1">
+        <v>115</v>
+      </c>
+      <c r="B116">
+        <v>2529678</v>
+      </c>
+      <c r="C116" t="s">
+        <v>63</v>
+      </c>
+      <c r="D116" t="s">
+        <v>64</v>
+      </c>
+      <c r="E116" s="2">
+        <v>44980.5625</v>
+      </c>
+      <c r="F116">
+        <v>23</v>
+      </c>
+      <c r="G116" t="s">
+        <v>66</v>
+      </c>
+      <c r="H116" t="s">
+        <v>67</v>
+      </c>
+      <c r="I116">
+        <v>1</v>
+      </c>
+      <c r="J116">
+        <v>0</v>
+      </c>
+      <c r="K116">
+        <v>1</v>
+      </c>
+      <c r="L116">
+        <v>1</v>
+      </c>
+      <c r="M116">
+        <v>1</v>
+      </c>
+      <c r="N116">
+        <v>2</v>
+      </c>
+      <c r="O116" t="s">
+        <v>148</v>
+      </c>
+      <c r="P116" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q116">
+        <v>2</v>
+      </c>
+      <c r="R116">
+        <v>6</v>
+      </c>
+      <c r="S116">
+        <v>8</v>
+      </c>
+      <c r="T116">
+        <v>3.6</v>
+      </c>
+      <c r="U116">
+        <v>2.25</v>
+      </c>
+      <c r="V116">
+        <v>2.5</v>
+      </c>
+      <c r="W116">
+        <v>1.33</v>
+      </c>
+      <c r="X116">
+        <v>3.25</v>
+      </c>
+      <c r="Y116">
+        <v>2.38</v>
+      </c>
+      <c r="Z116">
+        <v>1.53</v>
+      </c>
+      <c r="AA116">
+        <v>5.5</v>
+      </c>
+      <c r="AB116">
+        <v>1.12</v>
+      </c>
+      <c r="AC116">
+        <v>3.5</v>
+      </c>
+      <c r="AD116">
+        <v>3.55</v>
+      </c>
+      <c r="AE116">
+        <v>1.81</v>
+      </c>
+      <c r="AF116">
+        <v>1.04</v>
+      </c>
+      <c r="AG116">
+        <v>10</v>
+      </c>
+      <c r="AH116">
+        <v>1.22</v>
+      </c>
+      <c r="AI116">
+        <v>4</v>
+      </c>
+      <c r="AJ116">
+        <v>1.7</v>
+      </c>
+      <c r="AK116">
+        <v>2.06</v>
+      </c>
+      <c r="AL116">
+        <v>1.62</v>
+      </c>
+      <c r="AM116">
+        <v>2.2</v>
+      </c>
+      <c r="AN116">
+        <v>1.75</v>
+      </c>
+      <c r="AO116">
+        <v>1.29</v>
+      </c>
+      <c r="AP116">
+        <v>1.25</v>
+      </c>
+      <c r="AQ116">
+        <v>1.45</v>
+      </c>
+      <c r="AR116">
+        <v>1.9</v>
+      </c>
+      <c r="AS116">
+        <v>1.42</v>
+      </c>
+      <c r="AT116">
+        <v>1.82</v>
+      </c>
+      <c r="AU116">
+        <v>1.7</v>
+      </c>
+      <c r="AV116">
+        <v>1.8</v>
+      </c>
+      <c r="AW116">
+        <v>3.5</v>
+      </c>
+      <c r="AX116">
+        <v>3</v>
+      </c>
+      <c r="AY116">
+        <v>6</v>
+      </c>
+      <c r="AZ116">
+        <v>1.5</v>
+      </c>
+      <c r="BA116">
+        <v>1.27</v>
+      </c>
+      <c r="BB116">
+        <v>1.52</v>
+      </c>
+      <c r="BC116">
+        <v>1.85</v>
+      </c>
+      <c r="BD116">
+        <v>2.31</v>
+      </c>
+      <c r="BE116">
+        <v>3</v>
+      </c>
+      <c r="BF116">
+        <v>9</v>
+      </c>
+      <c r="BG116">
+        <v>8</v>
+      </c>
+      <c r="BH116">
+        <v>5</v>
+      </c>
+      <c r="BI116">
+        <v>9</v>
+      </c>
+      <c r="BJ116">
+        <v>14</v>
+      </c>
+      <c r="BK116">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Slovenia PrvaLiga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Slovenia PrvaLiga_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="759" uniqueCount="217">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1026,7 +1026,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK116"/>
+  <dimension ref="A1:BK117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2885,7 +2885,7 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AT10">
         <v>1.64</v>
@@ -4413,7 +4413,7 @@
         <v>0</v>
       </c>
       <c r="AS18">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AT18">
         <v>1.64</v>
@@ -6323,7 +6323,7 @@
         <v>0.67</v>
       </c>
       <c r="AS28">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AT28">
         <v>1.08</v>
@@ -9570,7 +9570,7 @@
         <v>1</v>
       </c>
       <c r="AS45">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AT45">
         <v>1.82</v>
@@ -10334,7 +10334,7 @@
         <v>0.75</v>
       </c>
       <c r="AS49">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AT49">
         <v>0.45</v>
@@ -12244,7 +12244,7 @@
         <v>2.4</v>
       </c>
       <c r="AS59">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AT59">
         <v>2</v>
@@ -14345,7 +14345,7 @@
         <v>1</v>
       </c>
       <c r="AS70">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AT70">
         <v>1.17</v>
@@ -16255,7 +16255,7 @@
         <v>0.57</v>
       </c>
       <c r="AS80">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AT80">
         <v>0.75</v>
@@ -16637,7 +16637,7 @@
         <v>0.75</v>
       </c>
       <c r="AS82">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AT82">
         <v>0.92</v>
@@ -19502,7 +19502,7 @@
         <v>1.56</v>
       </c>
       <c r="AS97">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AT97">
         <v>1.64</v>
@@ -21985,7 +21985,7 @@
         <v>1.5</v>
       </c>
       <c r="AS110">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AT110">
         <v>1.64</v>
@@ -23186,6 +23186,197 @@
       </c>
       <c r="BK116">
         <v>17</v>
+      </c>
+    </row>
+    <row r="117" spans="1:63">
+      <c r="A117" s="1">
+        <v>116</v>
+      </c>
+      <c r="B117">
+        <v>2529682</v>
+      </c>
+      <c r="C117" t="s">
+        <v>63</v>
+      </c>
+      <c r="D117" t="s">
+        <v>64</v>
+      </c>
+      <c r="E117" s="2">
+        <v>44982.375</v>
+      </c>
+      <c r="F117">
+        <v>24</v>
+      </c>
+      <c r="G117" t="s">
+        <v>72</v>
+      </c>
+      <c r="H117" t="s">
+        <v>73</v>
+      </c>
+      <c r="I117">
+        <v>0</v>
+      </c>
+      <c r="J117">
+        <v>0</v>
+      </c>
+      <c r="K117">
+        <v>0</v>
+      </c>
+      <c r="L117">
+        <v>0</v>
+      </c>
+      <c r="M117">
+        <v>0</v>
+      </c>
+      <c r="N117">
+        <v>0</v>
+      </c>
+      <c r="O117" t="s">
+        <v>76</v>
+      </c>
+      <c r="P117" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q117">
+        <v>5</v>
+      </c>
+      <c r="R117">
+        <v>5</v>
+      </c>
+      <c r="S117">
+        <v>10</v>
+      </c>
+      <c r="T117">
+        <v>2.95</v>
+      </c>
+      <c r="U117">
+        <v>2.11</v>
+      </c>
+      <c r="V117">
+        <v>3.52</v>
+      </c>
+      <c r="W117">
+        <v>1.4</v>
+      </c>
+      <c r="X117">
+        <v>2.75</v>
+      </c>
+      <c r="Y117">
+        <v>2.75</v>
+      </c>
+      <c r="Z117">
+        <v>1.4</v>
+      </c>
+      <c r="AA117">
+        <v>7</v>
+      </c>
+      <c r="AB117">
+        <v>1.08</v>
+      </c>
+      <c r="AC117">
+        <v>2.72</v>
+      </c>
+      <c r="AD117">
+        <v>3</v>
+      </c>
+      <c r="AE117">
+        <v>2.37</v>
+      </c>
+      <c r="AF117">
+        <v>1.06</v>
+      </c>
+      <c r="AG117">
+        <v>8</v>
+      </c>
+      <c r="AH117">
+        <v>1.33</v>
+      </c>
+      <c r="AI117">
+        <v>3.25</v>
+      </c>
+      <c r="AJ117">
+        <v>2</v>
+      </c>
+      <c r="AK117">
+        <v>1.76</v>
+      </c>
+      <c r="AL117">
+        <v>1.72</v>
+      </c>
+      <c r="AM117">
+        <v>2.07</v>
+      </c>
+      <c r="AN117">
+        <v>1.42</v>
+      </c>
+      <c r="AO117">
+        <v>1.31</v>
+      </c>
+      <c r="AP117">
+        <v>1.56</v>
+      </c>
+      <c r="AQ117">
+        <v>1.45</v>
+      </c>
+      <c r="AR117">
+        <v>1.08</v>
+      </c>
+      <c r="AS117">
+        <v>1.42</v>
+      </c>
+      <c r="AT117">
+        <v>1.08</v>
+      </c>
+      <c r="AU117">
+        <v>1.83</v>
+      </c>
+      <c r="AV117">
+        <v>1.55</v>
+      </c>
+      <c r="AW117">
+        <v>3.38</v>
+      </c>
+      <c r="AX117">
+        <v>1.85</v>
+      </c>
+      <c r="AY117">
+        <v>7.9</v>
+      </c>
+      <c r="AZ117">
+        <v>2.45</v>
+      </c>
+      <c r="BA117">
+        <v>1.23</v>
+      </c>
+      <c r="BB117">
+        <v>1.4</v>
+      </c>
+      <c r="BC117">
+        <v>1.7</v>
+      </c>
+      <c r="BD117">
+        <v>1.95</v>
+      </c>
+      <c r="BE117">
+        <v>2.85</v>
+      </c>
+      <c r="BF117">
+        <v>6</v>
+      </c>
+      <c r="BG117">
+        <v>6</v>
+      </c>
+      <c r="BH117">
+        <v>6</v>
+      </c>
+      <c r="BI117">
+        <v>5</v>
+      </c>
+      <c r="BJ117">
+        <v>12</v>
+      </c>
+      <c r="BK117">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Slovenia PrvaLiga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Slovenia PrvaLiga_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="759" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="218">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -666,6 +666,9 @@
   <si>
     <t>['74']</t>
   </si>
+  <si>
+    <t>['50']</t>
+  </si>
 </sst>
 </file>
 
@@ -1026,7 +1029,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK117"/>
+  <dimension ref="A1:BK119"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1357,10 +1360,10 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AT2">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -2312,7 +2315,7 @@
         <v>1</v>
       </c>
       <c r="AS7">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AT7">
         <v>1.17</v>
@@ -2697,7 +2700,7 @@
         <v>0.73</v>
       </c>
       <c r="AT9">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -3461,7 +3464,7 @@
         <v>1.42</v>
       </c>
       <c r="AT13">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU13">
         <v>1.49</v>
@@ -4031,7 +4034,7 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AT16">
         <v>1.82</v>
@@ -4604,7 +4607,7 @@
         <v>0.5</v>
       </c>
       <c r="AS19">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AT19">
         <v>1.08</v>
@@ -4798,7 +4801,7 @@
         <v>1.67</v>
       </c>
       <c r="AT20">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AU20">
         <v>2.1</v>
@@ -5371,7 +5374,7 @@
         <v>1.82</v>
       </c>
       <c r="AT23">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU23">
         <v>3.08</v>
@@ -5559,7 +5562,7 @@
         <v>3</v>
       </c>
       <c r="AS24">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AT24">
         <v>0.92</v>
@@ -6132,10 +6135,10 @@
         <v>0.67</v>
       </c>
       <c r="AS27">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AT27">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU27">
         <v>1.35</v>
@@ -6514,10 +6517,10 @@
         <v>3</v>
       </c>
       <c r="AS29">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AT29">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AU29">
         <v>2.15</v>
@@ -8233,7 +8236,7 @@
         <v>0.75</v>
       </c>
       <c r="AS38">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AT38">
         <v>1.17</v>
@@ -8427,7 +8430,7 @@
         <v>1.67</v>
       </c>
       <c r="AT39">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU39">
         <v>1.97</v>
@@ -8806,7 +8809,7 @@
         <v>0.75</v>
       </c>
       <c r="AS41">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AT41">
         <v>0.5</v>
@@ -9382,7 +9385,7 @@
         <v>2.45</v>
       </c>
       <c r="AT44">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AU44">
         <v>2.25</v>
@@ -10146,7 +10149,7 @@
         <v>1.82</v>
       </c>
       <c r="AT48">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AU48">
         <v>2.44</v>
@@ -10525,7 +10528,7 @@
         <v>1.5</v>
       </c>
       <c r="AS50">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AT50">
         <v>1.82</v>
@@ -11101,7 +11104,7 @@
         <v>2.67</v>
       </c>
       <c r="AT53">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU53">
         <v>1.8</v>
@@ -11289,7 +11292,7 @@
         <v>0.8</v>
       </c>
       <c r="AS54">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AT54">
         <v>0.5</v>
@@ -12247,7 +12250,7 @@
         <v>1.42</v>
       </c>
       <c r="AT59">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AU59">
         <v>1.9</v>
@@ -12626,7 +12629,7 @@
         <v>0.6</v>
       </c>
       <c r="AS61">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AT61">
         <v>0.45</v>
@@ -12820,7 +12823,7 @@
         <v>2.45</v>
       </c>
       <c r="AT62">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU62">
         <v>2.13</v>
@@ -13199,7 +13202,7 @@
         <v>0.67</v>
       </c>
       <c r="AS64">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AT64">
         <v>0.45</v>
@@ -14157,7 +14160,7 @@
         <v>0.83</v>
       </c>
       <c r="AT69">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AU69">
         <v>1.94</v>
@@ -14536,7 +14539,7 @@
         <v>2</v>
       </c>
       <c r="AS71">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AT71">
         <v>1.64</v>
@@ -15682,7 +15685,7 @@
         <v>1.14</v>
       </c>
       <c r="AS77">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AT77">
         <v>1.64</v>
@@ -16064,10 +16067,10 @@
         <v>1.86</v>
       </c>
       <c r="AS79">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AT79">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AU79">
         <v>1.39</v>
@@ -16258,7 +16261,7 @@
         <v>1.42</v>
       </c>
       <c r="AT80">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU80">
         <v>1.82</v>
@@ -16831,7 +16834,7 @@
         <v>1.42</v>
       </c>
       <c r="AT83">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AU83">
         <v>1.8</v>
@@ -17595,7 +17598,7 @@
         <v>0.83</v>
       </c>
       <c r="AT87">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU87">
         <v>1.74</v>
@@ -17974,7 +17977,7 @@
         <v>1.13</v>
       </c>
       <c r="AS89">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AT89">
         <v>1.64</v>
@@ -18165,7 +18168,7 @@
         <v>1.25</v>
       </c>
       <c r="AS90">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AT90">
         <v>1.08</v>
@@ -18929,10 +18932,10 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS94">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AT94">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU94">
         <v>1.8</v>
@@ -19696,7 +19699,7 @@
         <v>0.73</v>
       </c>
       <c r="AT98">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AU98">
         <v>1.63</v>
@@ -20075,7 +20078,7 @@
         <v>1</v>
       </c>
       <c r="AS100">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AT100">
         <v>1.17</v>
@@ -21030,7 +21033,7 @@
         <v>1.78</v>
       </c>
       <c r="AS105">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AT105">
         <v>1.82</v>
@@ -21224,7 +21227,7 @@
         <v>1.42</v>
       </c>
       <c r="AT106">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU106">
         <v>1.7</v>
@@ -21603,7 +21606,7 @@
         <v>1.09</v>
       </c>
       <c r="AS108">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AT108">
         <v>1.08</v>
@@ -22179,7 +22182,7 @@
         <v>1.67</v>
       </c>
       <c r="AT111">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AU111">
         <v>1.87</v>
@@ -22367,7 +22370,7 @@
         <v>0.73</v>
       </c>
       <c r="AS112">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AT112">
         <v>0.92</v>
@@ -22561,7 +22564,7 @@
         <v>1.82</v>
       </c>
       <c r="AT113">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU113">
         <v>2.07</v>
@@ -23377,6 +23380,388 @@
       </c>
       <c r="BK117">
         <v>11</v>
+      </c>
+    </row>
+    <row r="118" spans="1:63">
+      <c r="A118" s="1">
+        <v>117</v>
+      </c>
+      <c r="B118">
+        <v>2529681</v>
+      </c>
+      <c r="C118" t="s">
+        <v>63</v>
+      </c>
+      <c r="D118" t="s">
+        <v>64</v>
+      </c>
+      <c r="E118" s="2">
+        <v>44982.45833333334</v>
+      </c>
+      <c r="F118">
+        <v>24</v>
+      </c>
+      <c r="G118" t="s">
+        <v>70</v>
+      </c>
+      <c r="H118" t="s">
+        <v>71</v>
+      </c>
+      <c r="I118">
+        <v>0</v>
+      </c>
+      <c r="J118">
+        <v>0</v>
+      </c>
+      <c r="K118">
+        <v>0</v>
+      </c>
+      <c r="L118">
+        <v>0</v>
+      </c>
+      <c r="M118">
+        <v>0</v>
+      </c>
+      <c r="N118">
+        <v>0</v>
+      </c>
+      <c r="O118" t="s">
+        <v>76</v>
+      </c>
+      <c r="P118" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q118">
+        <v>2</v>
+      </c>
+      <c r="R118">
+        <v>4</v>
+      </c>
+      <c r="S118">
+        <v>6</v>
+      </c>
+      <c r="T118">
+        <v>2.99</v>
+      </c>
+      <c r="U118">
+        <v>2.17</v>
+      </c>
+      <c r="V118">
+        <v>3.24</v>
+      </c>
+      <c r="W118">
+        <v>1.36</v>
+      </c>
+      <c r="X118">
+        <v>2.99</v>
+      </c>
+      <c r="Y118">
+        <v>2.65</v>
+      </c>
+      <c r="Z118">
+        <v>1.45</v>
+      </c>
+      <c r="AA118">
+        <v>6.4</v>
+      </c>
+      <c r="AB118">
+        <v>1.1</v>
+      </c>
+      <c r="AC118">
+        <v>2.46</v>
+      </c>
+      <c r="AD118">
+        <v>3</v>
+      </c>
+      <c r="AE118">
+        <v>2.62</v>
+      </c>
+      <c r="AF118">
+        <v>1.04</v>
+      </c>
+      <c r="AG118">
+        <v>12.75</v>
+      </c>
+      <c r="AH118">
+        <v>1.23</v>
+      </c>
+      <c r="AI118">
+        <v>3.75</v>
+      </c>
+      <c r="AJ118">
+        <v>1.85</v>
+      </c>
+      <c r="AK118">
+        <v>1.95</v>
+      </c>
+      <c r="AL118">
+        <v>1.64</v>
+      </c>
+      <c r="AM118">
+        <v>2.2</v>
+      </c>
+      <c r="AN118">
+        <v>1.47</v>
+      </c>
+      <c r="AO118">
+        <v>1.3</v>
+      </c>
+      <c r="AP118">
+        <v>1.52</v>
+      </c>
+      <c r="AQ118">
+        <v>0.64</v>
+      </c>
+      <c r="AR118">
+        <v>0.75</v>
+      </c>
+      <c r="AS118">
+        <v>0.67</v>
+      </c>
+      <c r="AT118">
+        <v>0.77</v>
+      </c>
+      <c r="AU118">
+        <v>1.44</v>
+      </c>
+      <c r="AV118">
+        <v>1.7</v>
+      </c>
+      <c r="AW118">
+        <v>3.14</v>
+      </c>
+      <c r="AX118">
+        <v>1.71</v>
+      </c>
+      <c r="AY118">
+        <v>5.75</v>
+      </c>
+      <c r="AZ118">
+        <v>2.4</v>
+      </c>
+      <c r="BA118">
+        <v>1.25</v>
+      </c>
+      <c r="BB118">
+        <v>1.49</v>
+      </c>
+      <c r="BC118">
+        <v>1.8</v>
+      </c>
+      <c r="BD118">
+        <v>2.24</v>
+      </c>
+      <c r="BE118">
+        <v>3.1</v>
+      </c>
+      <c r="BF118">
+        <v>4</v>
+      </c>
+      <c r="BG118">
+        <v>5</v>
+      </c>
+      <c r="BH118">
+        <v>7</v>
+      </c>
+      <c r="BI118">
+        <v>9</v>
+      </c>
+      <c r="BJ118">
+        <v>11</v>
+      </c>
+      <c r="BK118">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="119" spans="1:63">
+      <c r="A119" s="1">
+        <v>118</v>
+      </c>
+      <c r="B119">
+        <v>2529685</v>
+      </c>
+      <c r="C119" t="s">
+        <v>63</v>
+      </c>
+      <c r="D119" t="s">
+        <v>64</v>
+      </c>
+      <c r="E119" s="2">
+        <v>44982.67708333334</v>
+      </c>
+      <c r="F119">
+        <v>24</v>
+      </c>
+      <c r="G119" t="s">
+        <v>65</v>
+      </c>
+      <c r="H119" t="s">
+        <v>68</v>
+      </c>
+      <c r="I119">
+        <v>0</v>
+      </c>
+      <c r="J119">
+        <v>0</v>
+      </c>
+      <c r="K119">
+        <v>0</v>
+      </c>
+      <c r="L119">
+        <v>0</v>
+      </c>
+      <c r="M119">
+        <v>1</v>
+      </c>
+      <c r="N119">
+        <v>1</v>
+      </c>
+      <c r="O119" t="s">
+        <v>76</v>
+      </c>
+      <c r="P119" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q119">
+        <v>4</v>
+      </c>
+      <c r="R119">
+        <v>6</v>
+      </c>
+      <c r="S119">
+        <v>10</v>
+      </c>
+      <c r="T119">
+        <v>3.42</v>
+      </c>
+      <c r="U119">
+        <v>2.23</v>
+      </c>
+      <c r="V119">
+        <v>2.82</v>
+      </c>
+      <c r="W119">
+        <v>1.33</v>
+      </c>
+      <c r="X119">
+        <v>3.25</v>
+      </c>
+      <c r="Y119">
+        <v>2.5</v>
+      </c>
+      <c r="Z119">
+        <v>1.5</v>
+      </c>
+      <c r="AA119">
+        <v>5.5</v>
+      </c>
+      <c r="AB119">
+        <v>1.12</v>
+      </c>
+      <c r="AC119">
+        <v>2.55</v>
+      </c>
+      <c r="AD119">
+        <v>3.25</v>
+      </c>
+      <c r="AE119">
+        <v>2.5</v>
+      </c>
+      <c r="AF119">
+        <v>1.04</v>
+      </c>
+      <c r="AG119">
+        <v>10</v>
+      </c>
+      <c r="AH119">
+        <v>1.22</v>
+      </c>
+      <c r="AI119">
+        <v>4</v>
+      </c>
+      <c r="AJ119">
+        <v>1.63</v>
+      </c>
+      <c r="AK119">
+        <v>2.01</v>
+      </c>
+      <c r="AL119">
+        <v>1.57</v>
+      </c>
+      <c r="AM119">
+        <v>2.34</v>
+      </c>
+      <c r="AN119">
+        <v>1.59</v>
+      </c>
+      <c r="AO119">
+        <v>1.28</v>
+      </c>
+      <c r="AP119">
+        <v>1.42</v>
+      </c>
+      <c r="AQ119">
+        <v>1.5</v>
+      </c>
+      <c r="AR119">
+        <v>2</v>
+      </c>
+      <c r="AS119">
+        <v>1.38</v>
+      </c>
+      <c r="AT119">
+        <v>2.08</v>
+      </c>
+      <c r="AU119">
+        <v>1.77</v>
+      </c>
+      <c r="AV119">
+        <v>1.8</v>
+      </c>
+      <c r="AW119">
+        <v>3.57</v>
+      </c>
+      <c r="AX119">
+        <v>2.05</v>
+      </c>
+      <c r="AY119">
+        <v>5.75</v>
+      </c>
+      <c r="AZ119">
+        <v>1.95</v>
+      </c>
+      <c r="BA119">
+        <v>1.27</v>
+      </c>
+      <c r="BB119">
+        <v>1.5</v>
+      </c>
+      <c r="BC119">
+        <v>1.74</v>
+      </c>
+      <c r="BD119">
+        <v>2.25</v>
+      </c>
+      <c r="BE119">
+        <v>3</v>
+      </c>
+      <c r="BF119">
+        <v>5</v>
+      </c>
+      <c r="BG119">
+        <v>13</v>
+      </c>
+      <c r="BH119">
+        <v>7</v>
+      </c>
+      <c r="BI119">
+        <v>9</v>
+      </c>
+      <c r="BJ119">
+        <v>12</v>
+      </c>
+      <c r="BK119">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Slovenia PrvaLiga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Slovenia PrvaLiga_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="220">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -463,6 +463,9 @@
     <t>['45+6']</t>
   </si>
   <si>
+    <t>['4', '35']</t>
+  </si>
+  <si>
     <t>['67']</t>
   </si>
   <si>
@@ -668,6 +671,9 @@
   </si>
   <si>
     <t>['50']</t>
+  </si>
+  <si>
+    <t>['37', '68']</t>
   </si>
 </sst>
 </file>
@@ -1029,7 +1035,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK119"/>
+  <dimension ref="A1:BK121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1273,7 +1279,7 @@
         <v>75</v>
       </c>
       <c r="P2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1554,7 +1560,7 @@
         <v>1.42</v>
       </c>
       <c r="AT3">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -1655,7 +1661,7 @@
         <v>76</v>
       </c>
       <c r="P4" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q4">
         <v>7</v>
@@ -1742,7 +1748,7 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AT4">
         <v>0.92</v>
@@ -2124,7 +2130,7 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AT6">
         <v>0.5</v>
@@ -2228,7 +2234,7 @@
         <v>79</v>
       </c>
       <c r="P7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q7">
         <v>10</v>
@@ -2318,7 +2324,7 @@
         <v>0.67</v>
       </c>
       <c r="AT7">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -2419,7 +2425,7 @@
         <v>80</v>
       </c>
       <c r="P8" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q8">
         <v>10</v>
@@ -2506,7 +2512,7 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AT8">
         <v>0.45</v>
@@ -2992,7 +2998,7 @@
         <v>82</v>
       </c>
       <c r="P11" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q11">
         <v>9</v>
@@ -3082,7 +3088,7 @@
         <v>1.82</v>
       </c>
       <c r="AT11">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -3183,7 +3189,7 @@
         <v>76</v>
       </c>
       <c r="P12" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q12">
         <v>10</v>
@@ -3270,7 +3276,7 @@
         <v>3</v>
       </c>
       <c r="AS12">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AT12">
         <v>0.92</v>
@@ -3756,7 +3762,7 @@
         <v>85</v>
       </c>
       <c r="P15" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q15">
         <v>4</v>
@@ -3947,7 +3953,7 @@
         <v>86</v>
       </c>
       <c r="P16" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q16">
         <v>1</v>
@@ -4228,7 +4234,7 @@
         <v>0.73</v>
       </c>
       <c r="AT17">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU17">
         <v>1.43</v>
@@ -4329,7 +4335,7 @@
         <v>76</v>
       </c>
       <c r="P18" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q18">
         <v>5</v>
@@ -4419,7 +4425,7 @@
         <v>1.42</v>
       </c>
       <c r="AT18">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AU18">
         <v>2.35</v>
@@ -4520,7 +4526,7 @@
         <v>88</v>
       </c>
       <c r="P19" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q19">
         <v>5</v>
@@ -4711,7 +4717,7 @@
         <v>76</v>
       </c>
       <c r="P20" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q20">
         <v>6</v>
@@ -4798,7 +4804,7 @@
         <v>3</v>
       </c>
       <c r="AS20">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AT20">
         <v>2.08</v>
@@ -4902,7 +4908,7 @@
         <v>89</v>
       </c>
       <c r="P21" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q21">
         <v>12</v>
@@ -4989,7 +4995,7 @@
         <v>0</v>
       </c>
       <c r="AS21">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AT21">
         <v>1.64</v>
@@ -5284,7 +5290,7 @@
         <v>91</v>
       </c>
       <c r="P23" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q23">
         <v>4</v>
@@ -5666,7 +5672,7 @@
         <v>93</v>
       </c>
       <c r="P25" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q25">
         <v>6</v>
@@ -6239,7 +6245,7 @@
         <v>76</v>
       </c>
       <c r="P28" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q28">
         <v>6</v>
@@ -6430,7 +6436,7 @@
         <v>76</v>
       </c>
       <c r="P29" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q29">
         <v>6</v>
@@ -6621,7 +6627,7 @@
         <v>95</v>
       </c>
       <c r="P30" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q30">
         <v>4</v>
@@ -6708,10 +6714,10 @@
         <v>0.67</v>
       </c>
       <c r="AS30">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AT30">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU30">
         <v>1.86</v>
@@ -6899,10 +6905,10 @@
         <v>1.5</v>
       </c>
       <c r="AS31">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AT31">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AU31">
         <v>2.14</v>
@@ -7003,7 +7009,7 @@
         <v>76</v>
       </c>
       <c r="P32" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q32">
         <v>5</v>
@@ -7576,7 +7582,7 @@
         <v>76</v>
       </c>
       <c r="P35" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q35">
         <v>6</v>
@@ -7767,7 +7773,7 @@
         <v>76</v>
       </c>
       <c r="P36" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q36">
         <v>9</v>
@@ -8045,7 +8051,7 @@
         <v>1.25</v>
       </c>
       <c r="AS37">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AT37">
         <v>1.08</v>
@@ -8149,7 +8155,7 @@
         <v>76</v>
       </c>
       <c r="P38" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q38">
         <v>3</v>
@@ -8239,7 +8245,7 @@
         <v>1.38</v>
       </c>
       <c r="AT38">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU38">
         <v>2.06</v>
@@ -8340,7 +8346,7 @@
         <v>98</v>
       </c>
       <c r="P39" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q39">
         <v>4</v>
@@ -8427,7 +8433,7 @@
         <v>0.75</v>
       </c>
       <c r="AS39">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AT39">
         <v>0.77</v>
@@ -8531,7 +8537,7 @@
         <v>99</v>
       </c>
       <c r="P40" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -8621,7 +8627,7 @@
         <v>2.67</v>
       </c>
       <c r="AT40">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AU40">
         <v>1.7</v>
@@ -8722,7 +8728,7 @@
         <v>100</v>
       </c>
       <c r="P41" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q41">
         <v>2</v>
@@ -9104,7 +9110,7 @@
         <v>102</v>
       </c>
       <c r="P43" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q43">
         <v>7</v>
@@ -9295,7 +9301,7 @@
         <v>103</v>
       </c>
       <c r="P44" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q44">
         <v>6</v>
@@ -9486,7 +9492,7 @@
         <v>76</v>
       </c>
       <c r="P45" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q45">
         <v>4</v>
@@ -9677,7 +9683,7 @@
         <v>104</v>
       </c>
       <c r="P46" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q46">
         <v>5</v>
@@ -9868,7 +9874,7 @@
         <v>76</v>
       </c>
       <c r="P47" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q47">
         <v>4</v>
@@ -10059,7 +10065,7 @@
         <v>105</v>
       </c>
       <c r="P48" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q48">
         <v>1</v>
@@ -10441,7 +10447,7 @@
         <v>76</v>
       </c>
       <c r="P50" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q50">
         <v>5</v>
@@ -10632,7 +10638,7 @@
         <v>107</v>
       </c>
       <c r="P51" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q51">
         <v>5</v>
@@ -10722,7 +10728,7 @@
         <v>2.45</v>
       </c>
       <c r="AT51">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AU51">
         <v>2.33</v>
@@ -10823,7 +10829,7 @@
         <v>108</v>
       </c>
       <c r="P52" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q52">
         <v>4</v>
@@ -11396,7 +11402,7 @@
         <v>111</v>
       </c>
       <c r="P55" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q55">
         <v>5</v>
@@ -11483,7 +11489,7 @@
         <v>1.8</v>
       </c>
       <c r="AS55">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AT55">
         <v>1.82</v>
@@ -11587,7 +11593,7 @@
         <v>112</v>
       </c>
       <c r="P56" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q56">
         <v>1</v>
@@ -11868,7 +11874,7 @@
         <v>0.73</v>
       </c>
       <c r="AT57">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AU57">
         <v>1.62</v>
@@ -11969,7 +11975,7 @@
         <v>76</v>
       </c>
       <c r="P58" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q58">
         <v>3</v>
@@ -12056,7 +12062,7 @@
         <v>1.8</v>
       </c>
       <c r="AS58">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AT58">
         <v>1.64</v>
@@ -12351,7 +12357,7 @@
         <v>115</v>
       </c>
       <c r="P60" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q60">
         <v>5</v>
@@ -12441,7 +12447,7 @@
         <v>1.82</v>
       </c>
       <c r="AT60">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU60">
         <v>2.17</v>
@@ -13115,7 +13121,7 @@
         <v>118</v>
       </c>
       <c r="P64" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q64">
         <v>9</v>
@@ -13688,7 +13694,7 @@
         <v>76</v>
       </c>
       <c r="P67" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q67">
         <v>4</v>
@@ -13775,10 +13781,10 @@
         <v>0.83</v>
       </c>
       <c r="AS67">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AT67">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AU67">
         <v>1.89</v>
@@ -13879,7 +13885,7 @@
         <v>76</v>
       </c>
       <c r="P68" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q68">
         <v>4</v>
@@ -14157,7 +14163,7 @@
         <v>2</v>
       </c>
       <c r="AS69">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AT69">
         <v>2.08</v>
@@ -14351,7 +14357,7 @@
         <v>1.42</v>
       </c>
       <c r="AT70">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU70">
         <v>1.97</v>
@@ -14452,7 +14458,7 @@
         <v>122</v>
       </c>
       <c r="P71" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q71">
         <v>4</v>
@@ -14834,7 +14840,7 @@
         <v>124</v>
       </c>
       <c r="P73" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q73">
         <v>6</v>
@@ -15025,7 +15031,7 @@
         <v>125</v>
       </c>
       <c r="P74" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q74">
         <v>7</v>
@@ -15216,7 +15222,7 @@
         <v>126</v>
       </c>
       <c r="P75" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q75">
         <v>3</v>
@@ -15598,7 +15604,7 @@
         <v>128</v>
       </c>
       <c r="P77" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q77">
         <v>3</v>
@@ -15688,7 +15694,7 @@
         <v>1.38</v>
       </c>
       <c r="AT77">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AU77">
         <v>1.81</v>
@@ -15789,7 +15795,7 @@
         <v>76</v>
       </c>
       <c r="P78" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q78">
         <v>7</v>
@@ -15876,10 +15882,10 @@
         <v>0.86</v>
       </c>
       <c r="AS78">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AT78">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU78">
         <v>1.86</v>
@@ -15980,7 +15986,7 @@
         <v>76</v>
       </c>
       <c r="P79" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q79">
         <v>5</v>
@@ -16171,7 +16177,7 @@
         <v>129</v>
       </c>
       <c r="P80" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q80">
         <v>4</v>
@@ -16362,7 +16368,7 @@
         <v>130</v>
       </c>
       <c r="P81" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q81">
         <v>8</v>
@@ -16449,7 +16455,7 @@
         <v>1.43</v>
       </c>
       <c r="AS81">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AT81">
         <v>1.08</v>
@@ -16553,7 +16559,7 @@
         <v>128</v>
       </c>
       <c r="P82" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q82">
         <v>7</v>
@@ -16744,7 +16750,7 @@
         <v>76</v>
       </c>
       <c r="P83" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q83">
         <v>0</v>
@@ -16935,7 +16941,7 @@
         <v>76</v>
       </c>
       <c r="P84" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q84">
         <v>1</v>
@@ -17508,7 +17514,7 @@
         <v>89</v>
       </c>
       <c r="P87" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q87">
         <v>6</v>
@@ -17595,7 +17601,7 @@
         <v>0.5</v>
       </c>
       <c r="AS87">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AT87">
         <v>0.77</v>
@@ -17786,7 +17792,7 @@
         <v>0.63</v>
       </c>
       <c r="AS88">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AT88">
         <v>0.5</v>
@@ -17890,7 +17896,7 @@
         <v>76</v>
       </c>
       <c r="P89" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q89">
         <v>5</v>
@@ -17980,7 +17986,7 @@
         <v>0.67</v>
       </c>
       <c r="AT89">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AU89">
         <v>1.48</v>
@@ -18362,7 +18368,7 @@
         <v>2.67</v>
       </c>
       <c r="AT91">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU91">
         <v>1.85</v>
@@ -18550,7 +18556,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS92">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AT92">
         <v>0.5</v>
@@ -18741,7 +18747,7 @@
         <v>0.78</v>
       </c>
       <c r="AS93">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AT93">
         <v>0.92</v>
@@ -18845,7 +18851,7 @@
         <v>135</v>
       </c>
       <c r="P94" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q94">
         <v>8</v>
@@ -19036,7 +19042,7 @@
         <v>136</v>
       </c>
       <c r="P95" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q95">
         <v>5</v>
@@ -19126,7 +19132,7 @@
         <v>1.42</v>
       </c>
       <c r="AT95">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU95">
         <v>1.7</v>
@@ -19609,7 +19615,7 @@
         <v>76</v>
       </c>
       <c r="P98" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q98">
         <v>1</v>
@@ -19800,7 +19806,7 @@
         <v>137</v>
       </c>
       <c r="P99" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q99">
         <v>7</v>
@@ -19887,7 +19893,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS99">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AT99">
         <v>0.45</v>
@@ -19991,7 +19997,7 @@
         <v>76</v>
       </c>
       <c r="P100" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q100">
         <v>4</v>
@@ -20081,7 +20087,7 @@
         <v>0.67</v>
       </c>
       <c r="AT100">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU100">
         <v>1.54</v>
@@ -20182,7 +20188,7 @@
         <v>76</v>
       </c>
       <c r="P101" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q101">
         <v>3</v>
@@ -20272,7 +20278,7 @@
         <v>1.82</v>
       </c>
       <c r="AT101">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AU101">
         <v>2.05</v>
@@ -20373,7 +20379,7 @@
         <v>138</v>
       </c>
       <c r="P102" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q102">
         <v>4</v>
@@ -20755,7 +20761,7 @@
         <v>140</v>
       </c>
       <c r="P104" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q104">
         <v>6</v>
@@ -20842,7 +20848,7 @@
         <v>0.7</v>
       </c>
       <c r="AS104">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AT104">
         <v>0.92</v>
@@ -20946,7 +20952,7 @@
         <v>76</v>
       </c>
       <c r="P105" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q105">
         <v>2</v>
@@ -21137,7 +21143,7 @@
         <v>76</v>
       </c>
       <c r="P106" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q106">
         <v>10</v>
@@ -21328,7 +21334,7 @@
         <v>141</v>
       </c>
       <c r="P107" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q107">
         <v>1</v>
@@ -21418,7 +21424,7 @@
         <v>0.73</v>
       </c>
       <c r="AT107">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU107">
         <v>1.53</v>
@@ -21710,7 +21716,7 @@
         <v>142</v>
       </c>
       <c r="P109" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q109">
         <v>10</v>
@@ -21797,7 +21803,7 @@
         <v>1.7</v>
       </c>
       <c r="AS109">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AT109">
         <v>1.64</v>
@@ -21901,7 +21907,7 @@
         <v>76</v>
       </c>
       <c r="P110" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -21991,7 +21997,7 @@
         <v>1.42</v>
       </c>
       <c r="AT110">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AU110">
         <v>1.86</v>
@@ -22179,7 +22185,7 @@
         <v>2.2</v>
       </c>
       <c r="AS111">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AT111">
         <v>2.08</v>
@@ -22283,7 +22289,7 @@
         <v>144</v>
       </c>
       <c r="P112" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q112">
         <v>6</v>
@@ -22474,7 +22480,7 @@
         <v>145</v>
       </c>
       <c r="P113" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q113">
         <v>5</v>
@@ -22665,7 +22671,7 @@
         <v>146</v>
       </c>
       <c r="P114" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q114">
         <v>8</v>
@@ -22856,7 +22862,7 @@
         <v>147</v>
       </c>
       <c r="P115" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q115">
         <v>9</v>
@@ -23047,7 +23053,7 @@
         <v>148</v>
       </c>
       <c r="P116" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q116">
         <v>2</v>
@@ -23620,7 +23626,7 @@
         <v>76</v>
       </c>
       <c r="P119" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q119">
         <v>4</v>
@@ -23762,6 +23768,388 @@
       </c>
       <c r="BK119">
         <v>22</v>
+      </c>
+    </row>
+    <row r="120" spans="1:63">
+      <c r="A120" s="1">
+        <v>119</v>
+      </c>
+      <c r="B120">
+        <v>2529683</v>
+      </c>
+      <c r="C120" t="s">
+        <v>63</v>
+      </c>
+      <c r="D120" t="s">
+        <v>64</v>
+      </c>
+      <c r="E120" s="2">
+        <v>44983.45833333334</v>
+      </c>
+      <c r="F120">
+        <v>24</v>
+      </c>
+      <c r="G120" t="s">
+        <v>67</v>
+      </c>
+      <c r="H120" t="s">
+        <v>74</v>
+      </c>
+      <c r="I120">
+        <v>2</v>
+      </c>
+      <c r="J120">
+        <v>0</v>
+      </c>
+      <c r="K120">
+        <v>2</v>
+      </c>
+      <c r="L120">
+        <v>2</v>
+      </c>
+      <c r="M120">
+        <v>0</v>
+      </c>
+      <c r="N120">
+        <v>2</v>
+      </c>
+      <c r="O120" t="s">
+        <v>149</v>
+      </c>
+      <c r="P120" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q120">
+        <v>4</v>
+      </c>
+      <c r="R120">
+        <v>5</v>
+      </c>
+      <c r="S120">
+        <v>9</v>
+      </c>
+      <c r="T120">
+        <v>2.75</v>
+      </c>
+      <c r="U120">
+        <v>2.15</v>
+      </c>
+      <c r="V120">
+        <v>3.4</v>
+      </c>
+      <c r="W120">
+        <v>1.33</v>
+      </c>
+      <c r="X120">
+        <v>3.25</v>
+      </c>
+      <c r="Y120">
+        <v>2.5</v>
+      </c>
+      <c r="Z120">
+        <v>1.48</v>
+      </c>
+      <c r="AA120">
+        <v>5.5</v>
+      </c>
+      <c r="AB120">
+        <v>1.12</v>
+      </c>
+      <c r="AC120">
+        <v>2.1</v>
+      </c>
+      <c r="AD120">
+        <v>3.4</v>
+      </c>
+      <c r="AE120">
+        <v>2.9</v>
+      </c>
+      <c r="AF120">
+        <v>1.04</v>
+      </c>
+      <c r="AG120">
+        <v>10</v>
+      </c>
+      <c r="AH120">
+        <v>1.22</v>
+      </c>
+      <c r="AI120">
+        <v>4</v>
+      </c>
+      <c r="AJ120">
+        <v>1.79</v>
+      </c>
+      <c r="AK120">
+        <v>1.95</v>
+      </c>
+      <c r="AL120">
+        <v>1.57</v>
+      </c>
+      <c r="AM120">
+        <v>2.3</v>
+      </c>
+      <c r="AN120">
+        <v>1.3</v>
+      </c>
+      <c r="AO120">
+        <v>1.25</v>
+      </c>
+      <c r="AP120">
+        <v>1.55</v>
+      </c>
+      <c r="AQ120">
+        <v>1.67</v>
+      </c>
+      <c r="AR120">
+        <v>1.17</v>
+      </c>
+      <c r="AS120">
+        <v>1.77</v>
+      </c>
+      <c r="AT120">
+        <v>1.08</v>
+      </c>
+      <c r="AU120">
+        <v>1.76</v>
+      </c>
+      <c r="AV120">
+        <v>1.72</v>
+      </c>
+      <c r="AW120">
+        <v>3.48</v>
+      </c>
+      <c r="AX120">
+        <v>1.7</v>
+      </c>
+      <c r="AY120">
+        <v>7.2</v>
+      </c>
+      <c r="AZ120">
+        <v>2.72</v>
+      </c>
+      <c r="BA120">
+        <v>1.25</v>
+      </c>
+      <c r="BB120">
+        <v>1.4</v>
+      </c>
+      <c r="BC120">
+        <v>1.73</v>
+      </c>
+      <c r="BD120">
+        <v>2.17</v>
+      </c>
+      <c r="BE120">
+        <v>2.9</v>
+      </c>
+      <c r="BF120">
+        <v>8</v>
+      </c>
+      <c r="BG120">
+        <v>2</v>
+      </c>
+      <c r="BH120">
+        <v>6</v>
+      </c>
+      <c r="BI120">
+        <v>10</v>
+      </c>
+      <c r="BJ120">
+        <v>14</v>
+      </c>
+      <c r="BK120">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="121" spans="1:63">
+      <c r="A121" s="1">
+        <v>120</v>
+      </c>
+      <c r="B121">
+        <v>2529684</v>
+      </c>
+      <c r="C121" t="s">
+        <v>63</v>
+      </c>
+      <c r="D121" t="s">
+        <v>64</v>
+      </c>
+      <c r="E121" s="2">
+        <v>44983.5625</v>
+      </c>
+      <c r="F121">
+        <v>24</v>
+      </c>
+      <c r="G121" t="s">
+        <v>69</v>
+      </c>
+      <c r="H121" t="s">
+        <v>66</v>
+      </c>
+      <c r="I121">
+        <v>0</v>
+      </c>
+      <c r="J121">
+        <v>1</v>
+      </c>
+      <c r="K121">
+        <v>1</v>
+      </c>
+      <c r="L121">
+        <v>0</v>
+      </c>
+      <c r="M121">
+        <v>2</v>
+      </c>
+      <c r="N121">
+        <v>2</v>
+      </c>
+      <c r="O121" t="s">
+        <v>76</v>
+      </c>
+      <c r="P121" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q121">
+        <v>3</v>
+      </c>
+      <c r="R121">
+        <v>1</v>
+      </c>
+      <c r="S121">
+        <v>4</v>
+      </c>
+      <c r="T121">
+        <v>3.46</v>
+      </c>
+      <c r="U121">
+        <v>2.28</v>
+      </c>
+      <c r="V121">
+        <v>2.77</v>
+      </c>
+      <c r="W121">
+        <v>1.36</v>
+      </c>
+      <c r="X121">
+        <v>3</v>
+      </c>
+      <c r="Y121">
+        <v>2.63</v>
+      </c>
+      <c r="Z121">
+        <v>1.45</v>
+      </c>
+      <c r="AA121">
+        <v>7</v>
+      </c>
+      <c r="AB121">
+        <v>1.1</v>
+      </c>
+      <c r="AC121">
+        <v>3</v>
+      </c>
+      <c r="AD121">
+        <v>3.25</v>
+      </c>
+      <c r="AE121">
+        <v>2.15</v>
+      </c>
+      <c r="AF121">
+        <v>1.04</v>
+      </c>
+      <c r="AG121">
+        <v>13</v>
+      </c>
+      <c r="AH121">
+        <v>1.23</v>
+      </c>
+      <c r="AI121">
+        <v>3.73</v>
+      </c>
+      <c r="AJ121">
+        <v>2.02</v>
+      </c>
+      <c r="AK121">
+        <v>1.72</v>
+      </c>
+      <c r="AL121">
+        <v>1.66</v>
+      </c>
+      <c r="AM121">
+        <v>2.16</v>
+      </c>
+      <c r="AN121">
+        <v>1.64</v>
+      </c>
+      <c r="AO121">
+        <v>1.29</v>
+      </c>
+      <c r="AP121">
+        <v>1.39</v>
+      </c>
+      <c r="AQ121">
+        <v>0.83</v>
+      </c>
+      <c r="AR121">
+        <v>1.64</v>
+      </c>
+      <c r="AS121">
+        <v>0.77</v>
+      </c>
+      <c r="AT121">
+        <v>1.75</v>
+      </c>
+      <c r="AU121">
+        <v>1.74</v>
+      </c>
+      <c r="AV121">
+        <v>1.4</v>
+      </c>
+      <c r="AW121">
+        <v>3.14</v>
+      </c>
+      <c r="AX121">
+        <v>2</v>
+      </c>
+      <c r="AY121">
+        <v>5.75</v>
+      </c>
+      <c r="AZ121">
+        <v>2</v>
+      </c>
+      <c r="BA121">
+        <v>1.25</v>
+      </c>
+      <c r="BB121">
+        <v>1.4</v>
+      </c>
+      <c r="BC121">
+        <v>1.74</v>
+      </c>
+      <c r="BD121">
+        <v>2.17</v>
+      </c>
+      <c r="BE121">
+        <v>2.9</v>
+      </c>
+      <c r="BF121">
+        <v>5</v>
+      </c>
+      <c r="BG121">
+        <v>5</v>
+      </c>
+      <c r="BH121">
+        <v>4</v>
+      </c>
+      <c r="BI121">
+        <v>1</v>
+      </c>
+      <c r="BJ121">
+        <v>9</v>
+      </c>
+      <c r="BK121">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Slovenia PrvaLiga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Slovenia PrvaLiga_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="224">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -466,6 +466,15 @@
     <t>['4', '35']</t>
   </si>
   <si>
+    <t>['48']</t>
+  </si>
+  <si>
+    <t>['34']</t>
+  </si>
+  <si>
+    <t>['20', '43']</t>
+  </si>
+  <si>
     <t>['67']</t>
   </si>
   <si>
@@ -674,6 +683,9 @@
   </si>
   <si>
     <t>['37', '68']</t>
+  </si>
+  <si>
+    <t>['49']</t>
   </si>
 </sst>
 </file>
@@ -1035,7 +1047,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK121"/>
+  <dimension ref="A1:BK126"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1279,7 +1291,7 @@
         <v>75</v>
       </c>
       <c r="P2" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1557,7 +1569,7 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AT3">
         <v>1.08</v>
@@ -1661,7 +1673,7 @@
         <v>76</v>
       </c>
       <c r="P4" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="Q4">
         <v>7</v>
@@ -1751,7 +1763,7 @@
         <v>1.77</v>
       </c>
       <c r="AT4">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -1939,7 +1951,7 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="AT5">
         <v>1.08</v>
@@ -2133,7 +2145,7 @@
         <v>0.77</v>
       </c>
       <c r="AT6">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2234,7 +2246,7 @@
         <v>79</v>
       </c>
       <c r="P7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="Q7">
         <v>10</v>
@@ -2425,7 +2437,7 @@
         <v>80</v>
       </c>
       <c r="P8" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="Q8">
         <v>10</v>
@@ -2515,7 +2527,7 @@
         <v>1.77</v>
       </c>
       <c r="AT8">
-        <v>0.45</v>
+        <v>0.67</v>
       </c>
       <c r="AU8">
         <v>1.17</v>
@@ -2703,7 +2715,7 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AT9">
         <v>2.08</v>
@@ -2897,7 +2909,7 @@
         <v>1.42</v>
       </c>
       <c r="AT10">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -2998,7 +3010,7 @@
         <v>82</v>
       </c>
       <c r="P11" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="Q11">
         <v>9</v>
@@ -3085,7 +3097,7 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AT11">
         <v>1.75</v>
@@ -3189,7 +3201,7 @@
         <v>76</v>
       </c>
       <c r="P12" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="Q12">
         <v>10</v>
@@ -3279,7 +3291,7 @@
         <v>0.77</v>
       </c>
       <c r="AT12">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU12">
         <v>2.09</v>
@@ -3467,7 +3479,7 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AT13">
         <v>0.77</v>
@@ -3658,10 +3670,10 @@
         <v>0</v>
       </c>
       <c r="AS14">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="AT14">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="AU14">
         <v>1.29</v>
@@ -3762,7 +3774,7 @@
         <v>85</v>
       </c>
       <c r="P15" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="Q15">
         <v>4</v>
@@ -3849,7 +3861,7 @@
         <v>0</v>
       </c>
       <c r="AS15">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="AT15">
         <v>1.08</v>
@@ -3953,7 +3965,7 @@
         <v>86</v>
       </c>
       <c r="P16" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="Q16">
         <v>1</v>
@@ -4043,7 +4055,7 @@
         <v>1.38</v>
       </c>
       <c r="AT16">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AU16">
         <v>2.44</v>
@@ -4231,7 +4243,7 @@
         <v>1</v>
       </c>
       <c r="AS17">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AT17">
         <v>1.08</v>
@@ -4335,7 +4347,7 @@
         <v>76</v>
       </c>
       <c r="P18" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="Q18">
         <v>5</v>
@@ -4526,7 +4538,7 @@
         <v>88</v>
       </c>
       <c r="P19" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="Q19">
         <v>5</v>
@@ -4717,7 +4729,7 @@
         <v>76</v>
       </c>
       <c r="P20" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="Q20">
         <v>6</v>
@@ -4908,7 +4920,7 @@
         <v>89</v>
       </c>
       <c r="P21" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="Q21">
         <v>12</v>
@@ -4998,7 +5010,7 @@
         <v>0.77</v>
       </c>
       <c r="AT21">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AU21">
         <v>1.98</v>
@@ -5186,10 +5198,10 @@
         <v>0</v>
       </c>
       <c r="AS22">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="AT22">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="AU22">
         <v>2.42</v>
@@ -5290,7 +5302,7 @@
         <v>91</v>
       </c>
       <c r="P23" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="Q23">
         <v>4</v>
@@ -5377,7 +5389,7 @@
         <v>0.5</v>
       </c>
       <c r="AS23">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AT23">
         <v>0.77</v>
@@ -5571,7 +5583,7 @@
         <v>1.38</v>
       </c>
       <c r="AT24">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU24">
         <v>2.1</v>
@@ -5672,7 +5684,7 @@
         <v>93</v>
       </c>
       <c r="P25" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="Q25">
         <v>6</v>
@@ -5759,10 +5771,10 @@
         <v>0</v>
       </c>
       <c r="AS25">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AT25">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AU25">
         <v>2.01</v>
@@ -5950,10 +5962,10 @@
         <v>0</v>
       </c>
       <c r="AS26">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="AT26">
-        <v>0.45</v>
+        <v>0.67</v>
       </c>
       <c r="AU26">
         <v>1.28</v>
@@ -6245,7 +6257,7 @@
         <v>76</v>
       </c>
       <c r="P28" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="Q28">
         <v>6</v>
@@ -6436,7 +6448,7 @@
         <v>76</v>
       </c>
       <c r="P29" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="Q29">
         <v>6</v>
@@ -6627,7 +6639,7 @@
         <v>95</v>
       </c>
       <c r="P30" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="Q30">
         <v>4</v>
@@ -7009,7 +7021,7 @@
         <v>76</v>
       </c>
       <c r="P32" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q32">
         <v>5</v>
@@ -7096,10 +7108,10 @@
         <v>0</v>
       </c>
       <c r="AS32">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AT32">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="AU32">
         <v>1.31</v>
@@ -7287,10 +7299,10 @@
         <v>0</v>
       </c>
       <c r="AS33">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="AT33">
-        <v>0.45</v>
+        <v>0.67</v>
       </c>
       <c r="AU33">
         <v>2.5</v>
@@ -7478,10 +7490,10 @@
         <v>2</v>
       </c>
       <c r="AS34">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="AT34">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU34">
         <v>1.62</v>
@@ -7582,7 +7594,7 @@
         <v>76</v>
       </c>
       <c r="P35" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="Q35">
         <v>6</v>
@@ -7669,10 +7681,10 @@
         <v>1.5</v>
       </c>
       <c r="AS35">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AT35">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AU35">
         <v>2.15</v>
@@ -7773,7 +7785,7 @@
         <v>76</v>
       </c>
       <c r="P36" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="Q36">
         <v>9</v>
@@ -7860,10 +7872,10 @@
         <v>0</v>
       </c>
       <c r="AS36">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AT36">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AU36">
         <v>2.4</v>
@@ -8155,7 +8167,7 @@
         <v>76</v>
       </c>
       <c r="P38" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="Q38">
         <v>3</v>
@@ -8346,7 +8358,7 @@
         <v>98</v>
       </c>
       <c r="P39" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="Q39">
         <v>4</v>
@@ -8537,7 +8549,7 @@
         <v>99</v>
       </c>
       <c r="P40" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -8624,7 +8636,7 @@
         <v>1.33</v>
       </c>
       <c r="AS40">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="AT40">
         <v>1.75</v>
@@ -8728,7 +8740,7 @@
         <v>100</v>
       </c>
       <c r="P41" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="Q41">
         <v>2</v>
@@ -8818,7 +8830,7 @@
         <v>0.67</v>
       </c>
       <c r="AT41">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="AU41">
         <v>1.32</v>
@@ -9006,10 +9018,10 @@
         <v>1.5</v>
       </c>
       <c r="AS42">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AT42">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU42">
         <v>1.93</v>
@@ -9110,7 +9122,7 @@
         <v>102</v>
       </c>
       <c r="P43" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="Q43">
         <v>7</v>
@@ -9197,10 +9209,10 @@
         <v>0</v>
       </c>
       <c r="AS43">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AT43">
-        <v>0.45</v>
+        <v>0.67</v>
       </c>
       <c r="AU43">
         <v>1.37</v>
@@ -9301,7 +9313,7 @@
         <v>103</v>
       </c>
       <c r="P44" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="Q44">
         <v>6</v>
@@ -9388,7 +9400,7 @@
         <v>3</v>
       </c>
       <c r="AS44">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="AT44">
         <v>2.08</v>
@@ -9492,7 +9504,7 @@
         <v>76</v>
       </c>
       <c r="P45" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q45">
         <v>4</v>
@@ -9582,7 +9594,7 @@
         <v>1.42</v>
       </c>
       <c r="AT45">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AU45">
         <v>1.94</v>
@@ -9683,7 +9695,7 @@
         <v>104</v>
       </c>
       <c r="P46" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="Q46">
         <v>5</v>
@@ -9770,10 +9782,10 @@
         <v>2</v>
       </c>
       <c r="AS46">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AT46">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AU46">
         <v>2.35</v>
@@ -9874,7 +9886,7 @@
         <v>76</v>
       </c>
       <c r="P47" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="Q47">
         <v>4</v>
@@ -9961,10 +9973,10 @@
         <v>1.5</v>
       </c>
       <c r="AS47">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AT47">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AU47">
         <v>1.48</v>
@@ -10065,7 +10077,7 @@
         <v>105</v>
       </c>
       <c r="P48" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="Q48">
         <v>1</v>
@@ -10152,7 +10164,7 @@
         <v>2.25</v>
       </c>
       <c r="AS48">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AT48">
         <v>2.08</v>
@@ -10346,7 +10358,7 @@
         <v>1.42</v>
       </c>
       <c r="AT49">
-        <v>0.45</v>
+        <v>0.67</v>
       </c>
       <c r="AU49">
         <v>1.91</v>
@@ -10447,7 +10459,7 @@
         <v>76</v>
       </c>
       <c r="P50" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="Q50">
         <v>5</v>
@@ -10537,7 +10549,7 @@
         <v>0.67</v>
       </c>
       <c r="AT50">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AU50">
         <v>1.33</v>
@@ -10638,7 +10650,7 @@
         <v>107</v>
       </c>
       <c r="P51" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Q51">
         <v>5</v>
@@ -10725,7 +10737,7 @@
         <v>1</v>
       </c>
       <c r="AS51">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="AT51">
         <v>1.75</v>
@@ -10829,7 +10841,7 @@
         <v>108</v>
       </c>
       <c r="P52" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="Q52">
         <v>4</v>
@@ -10916,7 +10928,7 @@
         <v>1.2</v>
       </c>
       <c r="AS52">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AT52">
         <v>1.08</v>
@@ -11107,7 +11119,7 @@
         <v>0.8</v>
       </c>
       <c r="AS53">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="AT53">
         <v>0.77</v>
@@ -11301,7 +11313,7 @@
         <v>1.38</v>
       </c>
       <c r="AT54">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="AU54">
         <v>1.84</v>
@@ -11402,7 +11414,7 @@
         <v>111</v>
       </c>
       <c r="P55" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q55">
         <v>5</v>
@@ -11492,7 +11504,7 @@
         <v>0.77</v>
       </c>
       <c r="AT55">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AU55">
         <v>2.09</v>
@@ -11593,7 +11605,7 @@
         <v>112</v>
       </c>
       <c r="P56" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q56">
         <v>1</v>
@@ -11680,10 +11692,10 @@
         <v>1.2</v>
       </c>
       <c r="AS56">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="AT56">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU56">
         <v>2.25</v>
@@ -11871,7 +11883,7 @@
         <v>0.8</v>
       </c>
       <c r="AS57">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AT57">
         <v>1.75</v>
@@ -11975,7 +11987,7 @@
         <v>76</v>
       </c>
       <c r="P58" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="Q58">
         <v>3</v>
@@ -12065,7 +12077,7 @@
         <v>1.77</v>
       </c>
       <c r="AT58">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AU58">
         <v>1.99</v>
@@ -12357,7 +12369,7 @@
         <v>115</v>
       </c>
       <c r="P60" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Q60">
         <v>5</v>
@@ -12444,7 +12456,7 @@
         <v>1.2</v>
       </c>
       <c r="AS60">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AT60">
         <v>1.08</v>
@@ -12638,7 +12650,7 @@
         <v>0.67</v>
       </c>
       <c r="AT61">
-        <v>0.45</v>
+        <v>0.67</v>
       </c>
       <c r="AU61">
         <v>1.16</v>
@@ -12826,7 +12838,7 @@
         <v>0.67</v>
       </c>
       <c r="AS62">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="AT62">
         <v>0.77</v>
@@ -13017,10 +13029,10 @@
         <v>0.67</v>
       </c>
       <c r="AS63">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AT63">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="AU63">
         <v>1.84</v>
@@ -13121,7 +13133,7 @@
         <v>118</v>
       </c>
       <c r="P64" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q64">
         <v>9</v>
@@ -13211,7 +13223,7 @@
         <v>1.38</v>
       </c>
       <c r="AT64">
-        <v>0.45</v>
+        <v>0.67</v>
       </c>
       <c r="AU64">
         <v>1.77</v>
@@ -13399,10 +13411,10 @@
         <v>2</v>
       </c>
       <c r="AS65">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="AT65">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AU65">
         <v>1.79</v>
@@ -13590,10 +13602,10 @@
         <v>1</v>
       </c>
       <c r="AS66">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AT66">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU66">
         <v>2.22</v>
@@ -13694,7 +13706,7 @@
         <v>76</v>
       </c>
       <c r="P67" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Q67">
         <v>4</v>
@@ -13885,7 +13897,7 @@
         <v>76</v>
       </c>
       <c r="P68" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q68">
         <v>4</v>
@@ -13972,7 +13984,7 @@
         <v>1.17</v>
       </c>
       <c r="AS68">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AT68">
         <v>1.08</v>
@@ -14458,7 +14470,7 @@
         <v>122</v>
       </c>
       <c r="P71" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q71">
         <v>4</v>
@@ -14548,7 +14560,7 @@
         <v>0.67</v>
       </c>
       <c r="AT71">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AU71">
         <v>1.35</v>
@@ -14736,10 +14748,10 @@
         <v>0.71</v>
       </c>
       <c r="AS72">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AT72">
-        <v>0.45</v>
+        <v>0.67</v>
       </c>
       <c r="AU72">
         <v>1.78</v>
@@ -14840,7 +14852,7 @@
         <v>124</v>
       </c>
       <c r="P73" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Q73">
         <v>6</v>
@@ -14927,10 +14939,10 @@
         <v>0.86</v>
       </c>
       <c r="AS73">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AT73">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU73">
         <v>1.65</v>
@@ -15031,7 +15043,7 @@
         <v>125</v>
       </c>
       <c r="P74" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q74">
         <v>7</v>
@@ -15118,10 +15130,10 @@
         <v>1.71</v>
       </c>
       <c r="AS74">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="AT74">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AU74">
         <v>2.12</v>
@@ -15222,7 +15234,7 @@
         <v>126</v>
       </c>
       <c r="P75" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q75">
         <v>3</v>
@@ -15309,10 +15321,10 @@
         <v>1.86</v>
       </c>
       <c r="AS75">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="AT75">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AU75">
         <v>1.89</v>
@@ -15500,10 +15512,10 @@
         <v>0.71</v>
       </c>
       <c r="AS76">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AT76">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="AU76">
         <v>2.18</v>
@@ -15604,7 +15616,7 @@
         <v>128</v>
       </c>
       <c r="P77" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q77">
         <v>3</v>
@@ -15795,7 +15807,7 @@
         <v>76</v>
       </c>
       <c r="P78" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q78">
         <v>7</v>
@@ -15986,7 +15998,7 @@
         <v>76</v>
       </c>
       <c r="P79" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q79">
         <v>5</v>
@@ -16177,7 +16189,7 @@
         <v>129</v>
       </c>
       <c r="P80" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q80">
         <v>4</v>
@@ -16368,7 +16380,7 @@
         <v>130</v>
       </c>
       <c r="P81" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q81">
         <v>8</v>
@@ -16559,7 +16571,7 @@
         <v>128</v>
       </c>
       <c r="P82" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q82">
         <v>7</v>
@@ -16649,7 +16661,7 @@
         <v>1.42</v>
       </c>
       <c r="AT82">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU82">
         <v>1.85</v>
@@ -16750,7 +16762,7 @@
         <v>76</v>
       </c>
       <c r="P83" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q83">
         <v>0</v>
@@ -16837,7 +16849,7 @@
         <v>2</v>
       </c>
       <c r="AS83">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AT83">
         <v>2.08</v>
@@ -16941,7 +16953,7 @@
         <v>76</v>
       </c>
       <c r="P84" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q84">
         <v>1</v>
@@ -17028,10 +17040,10 @@
         <v>1.63</v>
       </c>
       <c r="AS84">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AT84">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AU84">
         <v>1.71</v>
@@ -17219,10 +17231,10 @@
         <v>1.63</v>
       </c>
       <c r="AS85">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="AT85">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AU85">
         <v>2.03</v>
@@ -17410,10 +17422,10 @@
         <v>0.63</v>
       </c>
       <c r="AS86">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AT86">
-        <v>0.45</v>
+        <v>0.67</v>
       </c>
       <c r="AU86">
         <v>2.05</v>
@@ -17514,7 +17526,7 @@
         <v>89</v>
       </c>
       <c r="P87" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q87">
         <v>6</v>
@@ -17795,7 +17807,7 @@
         <v>1.77</v>
       </c>
       <c r="AT88">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="AU88">
         <v>1.86</v>
@@ -17896,7 +17908,7 @@
         <v>76</v>
       </c>
       <c r="P89" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q89">
         <v>5</v>
@@ -18365,7 +18377,7 @@
         <v>1.13</v>
       </c>
       <c r="AS91">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="AT91">
         <v>1.08</v>
@@ -18559,7 +18571,7 @@
         <v>0.77</v>
       </c>
       <c r="AT92">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="AU92">
         <v>1.76</v>
@@ -18750,7 +18762,7 @@
         <v>1.77</v>
       </c>
       <c r="AT93">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU93">
         <v>1.86</v>
@@ -18851,7 +18863,7 @@
         <v>135</v>
       </c>
       <c r="P94" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q94">
         <v>8</v>
@@ -19042,7 +19054,7 @@
         <v>136</v>
       </c>
       <c r="P95" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="Q95">
         <v>5</v>
@@ -19129,7 +19141,7 @@
         <v>1.11</v>
       </c>
       <c r="AS95">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AT95">
         <v>1.08</v>
@@ -19320,7 +19332,7 @@
         <v>1.22</v>
       </c>
       <c r="AS96">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="AT96">
         <v>1.08</v>
@@ -19514,7 +19526,7 @@
         <v>1.42</v>
       </c>
       <c r="AT97">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AU97">
         <v>1.85</v>
@@ -19615,7 +19627,7 @@
         <v>76</v>
       </c>
       <c r="P98" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q98">
         <v>1</v>
@@ -19702,7 +19714,7 @@
         <v>2.11</v>
       </c>
       <c r="AS98">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AT98">
         <v>2.08</v>
@@ -19806,7 +19818,7 @@
         <v>137</v>
       </c>
       <c r="P99" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q99">
         <v>7</v>
@@ -19896,7 +19908,7 @@
         <v>1.77</v>
       </c>
       <c r="AT99">
-        <v>0.45</v>
+        <v>0.67</v>
       </c>
       <c r="AU99">
         <v>1.86</v>
@@ -19997,7 +20009,7 @@
         <v>76</v>
       </c>
       <c r="P100" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q100">
         <v>4</v>
@@ -20188,7 +20200,7 @@
         <v>76</v>
       </c>
       <c r="P101" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q101">
         <v>3</v>
@@ -20275,7 +20287,7 @@
         <v>1.33</v>
       </c>
       <c r="AS101">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AT101">
         <v>1.75</v>
@@ -20379,7 +20391,7 @@
         <v>138</v>
       </c>
       <c r="P102" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q102">
         <v>4</v>
@@ -20466,10 +20478,10 @@
         <v>0.6</v>
       </c>
       <c r="AS102">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="AT102">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="AU102">
         <v>1.84</v>
@@ -20657,7 +20669,7 @@
         <v>1.2</v>
       </c>
       <c r="AS103">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="AT103">
         <v>1.08</v>
@@ -20761,7 +20773,7 @@
         <v>140</v>
       </c>
       <c r="P104" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q104">
         <v>6</v>
@@ -20851,7 +20863,7 @@
         <v>0.77</v>
       </c>
       <c r="AT104">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU104">
         <v>1.76</v>
@@ -20952,7 +20964,7 @@
         <v>76</v>
       </c>
       <c r="P105" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q105">
         <v>2</v>
@@ -21042,7 +21054,7 @@
         <v>1.38</v>
       </c>
       <c r="AT105">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AU105">
         <v>1.8</v>
@@ -21143,7 +21155,7 @@
         <v>76</v>
       </c>
       <c r="P106" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q106">
         <v>10</v>
@@ -21230,7 +21242,7 @@
         <v>0.5</v>
       </c>
       <c r="AS106">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AT106">
         <v>0.77</v>
@@ -21334,7 +21346,7 @@
         <v>141</v>
       </c>
       <c r="P107" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q107">
         <v>1</v>
@@ -21421,7 +21433,7 @@
         <v>1.18</v>
       </c>
       <c r="AS107">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AT107">
         <v>1.08</v>
@@ -21716,7 +21728,7 @@
         <v>142</v>
       </c>
       <c r="P109" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q109">
         <v>10</v>
@@ -21806,7 +21818,7 @@
         <v>0.77</v>
       </c>
       <c r="AT109">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AU109">
         <v>1.7</v>
@@ -21907,7 +21919,7 @@
         <v>76</v>
       </c>
       <c r="P110" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -22289,7 +22301,7 @@
         <v>144</v>
       </c>
       <c r="P112" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q112">
         <v>6</v>
@@ -22379,7 +22391,7 @@
         <v>1.38</v>
       </c>
       <c r="AT112">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU112">
         <v>1.79</v>
@@ -22480,7 +22492,7 @@
         <v>145</v>
       </c>
       <c r="P113" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q113">
         <v>5</v>
@@ -22567,7 +22579,7 @@
         <v>0.73</v>
       </c>
       <c r="AS113">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AT113">
         <v>0.77</v>
@@ -22671,7 +22683,7 @@
         <v>146</v>
       </c>
       <c r="P114" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="Q114">
         <v>8</v>
@@ -22758,10 +22770,10 @@
         <v>0.55</v>
       </c>
       <c r="AS114">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="AT114">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="AU114">
         <v>1.91</v>
@@ -22862,7 +22874,7 @@
         <v>147</v>
       </c>
       <c r="P115" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q115">
         <v>9</v>
@@ -22949,10 +22961,10 @@
         <v>0.5</v>
       </c>
       <c r="AS115">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="AT115">
-        <v>0.45</v>
+        <v>0.67</v>
       </c>
       <c r="AU115">
         <v>1.81</v>
@@ -23053,7 +23065,7 @@
         <v>148</v>
       </c>
       <c r="P116" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q116">
         <v>2</v>
@@ -23140,10 +23152,10 @@
         <v>1.9</v>
       </c>
       <c r="AS116">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AT116">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AU116">
         <v>1.7</v>
@@ -23626,7 +23638,7 @@
         <v>76</v>
       </c>
       <c r="P119" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q119">
         <v>4</v>
@@ -24008,7 +24020,7 @@
         <v>76</v>
       </c>
       <c r="P121" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q121">
         <v>3</v>
@@ -24150,6 +24162,961 @@
       </c>
       <c r="BK121">
         <v>6</v>
+      </c>
+    </row>
+    <row r="122" spans="1:63">
+      <c r="A122" s="1">
+        <v>121</v>
+      </c>
+      <c r="B122">
+        <v>2529688</v>
+      </c>
+      <c r="C122" t="s">
+        <v>63</v>
+      </c>
+      <c r="D122" t="s">
+        <v>64</v>
+      </c>
+      <c r="E122" s="2">
+        <v>44989.45833333334</v>
+      </c>
+      <c r="F122">
+        <v>25</v>
+      </c>
+      <c r="G122" t="s">
+        <v>74</v>
+      </c>
+      <c r="H122" t="s">
+        <v>69</v>
+      </c>
+      <c r="I122">
+        <v>0</v>
+      </c>
+      <c r="J122">
+        <v>0</v>
+      </c>
+      <c r="K122">
+        <v>0</v>
+      </c>
+      <c r="L122">
+        <v>0</v>
+      </c>
+      <c r="M122">
+        <v>1</v>
+      </c>
+      <c r="N122">
+        <v>1</v>
+      </c>
+      <c r="O122" t="s">
+        <v>76</v>
+      </c>
+      <c r="P122" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q122">
+        <v>5</v>
+      </c>
+      <c r="R122">
+        <v>6</v>
+      </c>
+      <c r="S122">
+        <v>11</v>
+      </c>
+      <c r="T122">
+        <v>2.09</v>
+      </c>
+      <c r="U122">
+        <v>2.34</v>
+      </c>
+      <c r="V122">
+        <v>6.3</v>
+      </c>
+      <c r="W122">
+        <v>1.36</v>
+      </c>
+      <c r="X122">
+        <v>3</v>
+      </c>
+      <c r="Y122">
+        <v>2.65</v>
+      </c>
+      <c r="Z122">
+        <v>1.43</v>
+      </c>
+      <c r="AA122">
+        <v>6.5</v>
+      </c>
+      <c r="AB122">
+        <v>1.1</v>
+      </c>
+      <c r="AC122">
+        <v>1.45</v>
+      </c>
+      <c r="AD122">
+        <v>4.1</v>
+      </c>
+      <c r="AE122">
+        <v>6</v>
+      </c>
+      <c r="AF122">
+        <v>1.05</v>
+      </c>
+      <c r="AG122">
+        <v>9</v>
+      </c>
+      <c r="AH122">
+        <v>1.25</v>
+      </c>
+      <c r="AI122">
+        <v>3.75</v>
+      </c>
+      <c r="AJ122">
+        <v>1.76</v>
+      </c>
+      <c r="AK122">
+        <v>1.85</v>
+      </c>
+      <c r="AL122">
+        <v>1.93</v>
+      </c>
+      <c r="AM122">
+        <v>1.83</v>
+      </c>
+      <c r="AN122">
+        <v>1.1</v>
+      </c>
+      <c r="AO122">
+        <v>1.21</v>
+      </c>
+      <c r="AP122">
+        <v>2.64</v>
+      </c>
+      <c r="AQ122">
+        <v>2.45</v>
+      </c>
+      <c r="AR122">
+        <v>0.45</v>
+      </c>
+      <c r="AS122">
+        <v>2.25</v>
+      </c>
+      <c r="AT122">
+        <v>0.67</v>
+      </c>
+      <c r="AU122">
+        <v>1.92</v>
+      </c>
+      <c r="AV122">
+        <v>1.31</v>
+      </c>
+      <c r="AW122">
+        <v>3.23</v>
+      </c>
+      <c r="AX122">
+        <v>1.17</v>
+      </c>
+      <c r="AY122">
+        <v>8.5</v>
+      </c>
+      <c r="AZ122">
+        <v>6</v>
+      </c>
+      <c r="BA122">
+        <v>1.22</v>
+      </c>
+      <c r="BB122">
+        <v>1.36</v>
+      </c>
+      <c r="BC122">
+        <v>1.71</v>
+      </c>
+      <c r="BD122">
+        <v>2.11</v>
+      </c>
+      <c r="BE122">
+        <v>2.75</v>
+      </c>
+      <c r="BF122">
+        <v>-1</v>
+      </c>
+      <c r="BG122">
+        <v>-1</v>
+      </c>
+      <c r="BH122">
+        <v>-1</v>
+      </c>
+      <c r="BI122">
+        <v>-1</v>
+      </c>
+      <c r="BJ122">
+        <v>-1</v>
+      </c>
+      <c r="BK122">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:63">
+      <c r="A123" s="1">
+        <v>122</v>
+      </c>
+      <c r="B123">
+        <v>2529687</v>
+      </c>
+      <c r="C123" t="s">
+        <v>63</v>
+      </c>
+      <c r="D123" t="s">
+        <v>64</v>
+      </c>
+      <c r="E123" s="2">
+        <v>44989.5625</v>
+      </c>
+      <c r="F123">
+        <v>25</v>
+      </c>
+      <c r="G123" t="s">
+        <v>66</v>
+      </c>
+      <c r="H123" t="s">
+        <v>65</v>
+      </c>
+      <c r="I123">
+        <v>0</v>
+      </c>
+      <c r="J123">
+        <v>0</v>
+      </c>
+      <c r="K123">
+        <v>0</v>
+      </c>
+      <c r="L123">
+        <v>0</v>
+      </c>
+      <c r="M123">
+        <v>0</v>
+      </c>
+      <c r="N123">
+        <v>0</v>
+      </c>
+      <c r="O123" t="s">
+        <v>76</v>
+      </c>
+      <c r="P123" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q123">
+        <v>4</v>
+      </c>
+      <c r="R123">
+        <v>1</v>
+      </c>
+      <c r="S123">
+        <v>5</v>
+      </c>
+      <c r="T123">
+        <v>3.61</v>
+      </c>
+      <c r="U123">
+        <v>2.18</v>
+      </c>
+      <c r="V123">
+        <v>3.07</v>
+      </c>
+      <c r="W123">
+        <v>1.4</v>
+      </c>
+      <c r="X123">
+        <v>2.75</v>
+      </c>
+      <c r="Y123">
+        <v>2.75</v>
+      </c>
+      <c r="Z123">
+        <v>1.4</v>
+      </c>
+      <c r="AA123">
+        <v>7</v>
+      </c>
+      <c r="AB123">
+        <v>1.08</v>
+      </c>
+      <c r="AC123">
+        <v>2.55</v>
+      </c>
+      <c r="AD123">
+        <v>3.1</v>
+      </c>
+      <c r="AE123">
+        <v>2.5</v>
+      </c>
+      <c r="AF123">
+        <v>1.06</v>
+      </c>
+      <c r="AG123">
+        <v>8</v>
+      </c>
+      <c r="AH123">
+        <v>1.3</v>
+      </c>
+      <c r="AI123">
+        <v>3.3</v>
+      </c>
+      <c r="AJ123">
+        <v>1.84</v>
+      </c>
+      <c r="AK123">
+        <v>1.77</v>
+      </c>
+      <c r="AL123">
+        <v>1.77</v>
+      </c>
+      <c r="AM123">
+        <v>2.01</v>
+      </c>
+      <c r="AN123">
+        <v>1.57</v>
+      </c>
+      <c r="AO123">
+        <v>1.32</v>
+      </c>
+      <c r="AP123">
+        <v>1.39</v>
+      </c>
+      <c r="AQ123">
+        <v>1.42</v>
+      </c>
+      <c r="AR123">
+        <v>1.64</v>
+      </c>
+      <c r="AS123">
+        <v>1.38</v>
+      </c>
+      <c r="AT123">
+        <v>1.58</v>
+      </c>
+      <c r="AU123">
+        <v>1.71</v>
+      </c>
+      <c r="AV123">
+        <v>1.82</v>
+      </c>
+      <c r="AW123">
+        <v>3.53</v>
+      </c>
+      <c r="AX123">
+        <v>2.05</v>
+      </c>
+      <c r="AY123">
+        <v>5.75</v>
+      </c>
+      <c r="AZ123">
+        <v>1.95</v>
+      </c>
+      <c r="BA123">
+        <v>1.23</v>
+      </c>
+      <c r="BB123">
+        <v>1.38</v>
+      </c>
+      <c r="BC123">
+        <v>1.76</v>
+      </c>
+      <c r="BD123">
+        <v>2.18</v>
+      </c>
+      <c r="BE123">
+        <v>2.8</v>
+      </c>
+      <c r="BF123">
+        <v>6</v>
+      </c>
+      <c r="BG123">
+        <v>2</v>
+      </c>
+      <c r="BH123">
+        <v>5</v>
+      </c>
+      <c r="BI123">
+        <v>3</v>
+      </c>
+      <c r="BJ123">
+        <v>11</v>
+      </c>
+      <c r="BK123">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="124" spans="1:63">
+      <c r="A124" s="1">
+        <v>123</v>
+      </c>
+      <c r="B124">
+        <v>2529686</v>
+      </c>
+      <c r="C124" t="s">
+        <v>63</v>
+      </c>
+      <c r="D124" t="s">
+        <v>64</v>
+      </c>
+      <c r="E124" s="2">
+        <v>44989.67708333334</v>
+      </c>
+      <c r="F124">
+        <v>25</v>
+      </c>
+      <c r="G124" t="s">
+        <v>68</v>
+      </c>
+      <c r="H124" t="s">
+        <v>70</v>
+      </c>
+      <c r="I124">
+        <v>0</v>
+      </c>
+      <c r="J124">
+        <v>0</v>
+      </c>
+      <c r="K124">
+        <v>0</v>
+      </c>
+      <c r="L124">
+        <v>1</v>
+      </c>
+      <c r="M124">
+        <v>0</v>
+      </c>
+      <c r="N124">
+        <v>1</v>
+      </c>
+      <c r="O124" t="s">
+        <v>150</v>
+      </c>
+      <c r="P124" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q124">
+        <v>8</v>
+      </c>
+      <c r="R124">
+        <v>1</v>
+      </c>
+      <c r="S124">
+        <v>9</v>
+      </c>
+      <c r="T124">
+        <v>1.83</v>
+      </c>
+      <c r="U124">
+        <v>2.5</v>
+      </c>
+      <c r="V124">
+        <v>6.5</v>
+      </c>
+      <c r="W124">
+        <v>1.29</v>
+      </c>
+      <c r="X124">
+        <v>3.3</v>
+      </c>
+      <c r="Y124">
+        <v>2.3</v>
+      </c>
+      <c r="Z124">
+        <v>1.55</v>
+      </c>
+      <c r="AA124">
+        <v>5.25</v>
+      </c>
+      <c r="AB124">
+        <v>1.12</v>
+      </c>
+      <c r="AC124">
+        <v>1.35</v>
+      </c>
+      <c r="AD124">
+        <v>4.7</v>
+      </c>
+      <c r="AE124">
+        <v>7</v>
+      </c>
+      <c r="AF124">
+        <v>1.03</v>
+      </c>
+      <c r="AG124">
+        <v>16.5</v>
+      </c>
+      <c r="AH124">
+        <v>1.2</v>
+      </c>
+      <c r="AI124">
+        <v>4</v>
+      </c>
+      <c r="AJ124">
+        <v>1.59</v>
+      </c>
+      <c r="AK124">
+        <v>2.09</v>
+      </c>
+      <c r="AL124">
+        <v>1.91</v>
+      </c>
+      <c r="AM124">
+        <v>1.8</v>
+      </c>
+      <c r="AN124">
+        <v>1.09</v>
+      </c>
+      <c r="AO124">
+        <v>1.18</v>
+      </c>
+      <c r="AP124">
+        <v>3</v>
+      </c>
+      <c r="AQ124">
+        <v>2.67</v>
+      </c>
+      <c r="AR124">
+        <v>0.92</v>
+      </c>
+      <c r="AS124">
+        <v>2.69</v>
+      </c>
+      <c r="AT124">
+        <v>0.85</v>
+      </c>
+      <c r="AU124">
+        <v>1.86</v>
+      </c>
+      <c r="AV124">
+        <v>1.37</v>
+      </c>
+      <c r="AW124">
+        <v>3.23</v>
+      </c>
+      <c r="AX124">
+        <v>1.14</v>
+      </c>
+      <c r="AY124">
+        <v>9.5</v>
+      </c>
+      <c r="AZ124">
+        <v>6.5</v>
+      </c>
+      <c r="BA124">
+        <v>1.2</v>
+      </c>
+      <c r="BB124">
+        <v>1.39</v>
+      </c>
+      <c r="BC124">
+        <v>1.69</v>
+      </c>
+      <c r="BD124">
+        <v>2.08</v>
+      </c>
+      <c r="BE124">
+        <v>2.71</v>
+      </c>
+      <c r="BF124">
+        <v>13</v>
+      </c>
+      <c r="BG124">
+        <v>2</v>
+      </c>
+      <c r="BH124">
+        <v>11</v>
+      </c>
+      <c r="BI124">
+        <v>7</v>
+      </c>
+      <c r="BJ124">
+        <v>24</v>
+      </c>
+      <c r="BK124">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="125" spans="1:63">
+      <c r="A125" s="1">
+        <v>124</v>
+      </c>
+      <c r="B125">
+        <v>2529690</v>
+      </c>
+      <c r="C125" t="s">
+        <v>63</v>
+      </c>
+      <c r="D125" t="s">
+        <v>64</v>
+      </c>
+      <c r="E125" s="2">
+        <v>44990.375</v>
+      </c>
+      <c r="F125">
+        <v>25</v>
+      </c>
+      <c r="G125" t="s">
+        <v>71</v>
+      </c>
+      <c r="H125" t="s">
+        <v>72</v>
+      </c>
+      <c r="I125">
+        <v>1</v>
+      </c>
+      <c r="J125">
+        <v>0</v>
+      </c>
+      <c r="K125">
+        <v>1</v>
+      </c>
+      <c r="L125">
+        <v>1</v>
+      </c>
+      <c r="M125">
+        <v>1</v>
+      </c>
+      <c r="N125">
+        <v>2</v>
+      </c>
+      <c r="O125" t="s">
+        <v>151</v>
+      </c>
+      <c r="P125" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q125">
+        <v>4</v>
+      </c>
+      <c r="R125">
+        <v>3</v>
+      </c>
+      <c r="S125">
+        <v>7</v>
+      </c>
+      <c r="T125">
+        <v>3.6</v>
+      </c>
+      <c r="U125">
+        <v>2</v>
+      </c>
+      <c r="V125">
+        <v>3</v>
+      </c>
+      <c r="W125">
+        <v>1.44</v>
+      </c>
+      <c r="X125">
+        <v>2.63</v>
+      </c>
+      <c r="Y125">
+        <v>3.25</v>
+      </c>
+      <c r="Z125">
+        <v>1.33</v>
+      </c>
+      <c r="AA125">
+        <v>10</v>
+      </c>
+      <c r="AB125">
+        <v>1.06</v>
+      </c>
+      <c r="AC125">
+        <v>2.96</v>
+      </c>
+      <c r="AD125">
+        <v>3.16</v>
+      </c>
+      <c r="AE125">
+        <v>2.17</v>
+      </c>
+      <c r="AF125">
+        <v>1.04</v>
+      </c>
+      <c r="AG125">
+        <v>8</v>
+      </c>
+      <c r="AH125">
+        <v>1.35</v>
+      </c>
+      <c r="AI125">
+        <v>2.9</v>
+      </c>
+      <c r="AJ125">
+        <v>2.09</v>
+      </c>
+      <c r="AK125">
+        <v>1.58</v>
+      </c>
+      <c r="AL125">
+        <v>1.91</v>
+      </c>
+      <c r="AM125">
+        <v>1.8</v>
+      </c>
+      <c r="AN125">
+        <v>1.58</v>
+      </c>
+      <c r="AO125">
+        <v>1.34</v>
+      </c>
+      <c r="AP125">
+        <v>1.36</v>
+      </c>
+      <c r="AQ125">
+        <v>0.73</v>
+      </c>
+      <c r="AR125">
+        <v>0.5</v>
+      </c>
+      <c r="AS125">
+        <v>0.75</v>
+      </c>
+      <c r="AT125">
+        <v>0.54</v>
+      </c>
+      <c r="AU125">
+        <v>1.55</v>
+      </c>
+      <c r="AV125">
+        <v>1.6</v>
+      </c>
+      <c r="AW125">
+        <v>3.15</v>
+      </c>
+      <c r="AX125">
+        <v>2.3</v>
+      </c>
+      <c r="AY125">
+        <v>5.75</v>
+      </c>
+      <c r="AZ125">
+        <v>1.76</v>
+      </c>
+      <c r="BA125">
+        <v>1.35</v>
+      </c>
+      <c r="BB125">
+        <v>1.68</v>
+      </c>
+      <c r="BC125">
+        <v>2.08</v>
+      </c>
+      <c r="BD125">
+        <v>2.67</v>
+      </c>
+      <c r="BE125">
+        <v>3.5</v>
+      </c>
+      <c r="BF125">
+        <v>5</v>
+      </c>
+      <c r="BG125">
+        <v>5</v>
+      </c>
+      <c r="BH125">
+        <v>4</v>
+      </c>
+      <c r="BI125">
+        <v>3</v>
+      </c>
+      <c r="BJ125">
+        <v>9</v>
+      </c>
+      <c r="BK125">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="126" spans="1:63">
+      <c r="A126" s="1">
+        <v>125</v>
+      </c>
+      <c r="B126">
+        <v>2529689</v>
+      </c>
+      <c r="C126" t="s">
+        <v>63</v>
+      </c>
+      <c r="D126" t="s">
+        <v>64</v>
+      </c>
+      <c r="E126" s="2">
+        <v>44990.45833333334</v>
+      </c>
+      <c r="F126">
+        <v>25</v>
+      </c>
+      <c r="G126" t="s">
+        <v>73</v>
+      </c>
+      <c r="H126" t="s">
+        <v>67</v>
+      </c>
+      <c r="I126">
+        <v>2</v>
+      </c>
+      <c r="J126">
+        <v>1</v>
+      </c>
+      <c r="K126">
+        <v>3</v>
+      </c>
+      <c r="L126">
+        <v>2</v>
+      </c>
+      <c r="M126">
+        <v>1</v>
+      </c>
+      <c r="N126">
+        <v>3</v>
+      </c>
+      <c r="O126" t="s">
+        <v>152</v>
+      </c>
+      <c r="P126" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q126">
+        <v>9</v>
+      </c>
+      <c r="R126">
+        <v>7</v>
+      </c>
+      <c r="S126">
+        <v>16</v>
+      </c>
+      <c r="T126">
+        <v>4.5</v>
+      </c>
+      <c r="U126">
+        <v>2.05</v>
+      </c>
+      <c r="V126">
+        <v>2.5</v>
+      </c>
+      <c r="W126">
+        <v>1.44</v>
+      </c>
+      <c r="X126">
+        <v>2.63</v>
+      </c>
+      <c r="Y126">
+        <v>3.25</v>
+      </c>
+      <c r="Z126">
+        <v>1.33</v>
+      </c>
+      <c r="AA126">
+        <v>9</v>
+      </c>
+      <c r="AB126">
+        <v>1.07</v>
+      </c>
+      <c r="AC126">
+        <v>2.22</v>
+      </c>
+      <c r="AD126">
+        <v>3.16</v>
+      </c>
+      <c r="AE126">
+        <v>2.87</v>
+      </c>
+      <c r="AF126">
+        <v>1.07</v>
+      </c>
+      <c r="AG126">
+        <v>7.5</v>
+      </c>
+      <c r="AH126">
+        <v>1.36</v>
+      </c>
+      <c r="AI126">
+        <v>3</v>
+      </c>
+      <c r="AJ126">
+        <v>2.17</v>
+      </c>
+      <c r="AK126">
+        <v>1.64</v>
+      </c>
+      <c r="AL126">
+        <v>2</v>
+      </c>
+      <c r="AM126">
+        <v>1.73</v>
+      </c>
+      <c r="AN126">
+        <v>1.85</v>
+      </c>
+      <c r="AO126">
+        <v>1.31</v>
+      </c>
+      <c r="AP126">
+        <v>1.24</v>
+      </c>
+      <c r="AQ126">
+        <v>1.82</v>
+      </c>
+      <c r="AR126">
+        <v>1.82</v>
+      </c>
+      <c r="AS126">
+        <v>1.92</v>
+      </c>
+      <c r="AT126">
+        <v>1.67</v>
+      </c>
+      <c r="AU126">
+        <v>2.08</v>
+      </c>
+      <c r="AV126">
+        <v>1.84</v>
+      </c>
+      <c r="AW126">
+        <v>3.92</v>
+      </c>
+      <c r="AX126">
+        <v>0</v>
+      </c>
+      <c r="AY126">
+        <v>0</v>
+      </c>
+      <c r="AZ126">
+        <v>0</v>
+      </c>
+      <c r="BA126">
+        <v>1.26</v>
+      </c>
+      <c r="BB126">
+        <v>1.49</v>
+      </c>
+      <c r="BC126">
+        <v>1.86</v>
+      </c>
+      <c r="BD126">
+        <v>2.45</v>
+      </c>
+      <c r="BE126">
+        <v>3.35</v>
+      </c>
+      <c r="BF126">
+        <v>5</v>
+      </c>
+      <c r="BG126">
+        <v>4</v>
+      </c>
+      <c r="BH126">
+        <v>5</v>
+      </c>
+      <c r="BI126">
+        <v>4</v>
+      </c>
+      <c r="BJ126">
+        <v>10</v>
+      </c>
+      <c r="BK126">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Slovenia PrvaLiga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Slovenia PrvaLiga_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="225">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -475,13 +475,13 @@
     <t>['20', '43']</t>
   </si>
   <si>
+    <t>['53']</t>
+  </si>
+  <si>
     <t>['67']</t>
   </si>
   <si>
     <t>['11', '35', '74']</t>
-  </si>
-  <si>
-    <t>['53']</t>
   </si>
   <si>
     <t>['17', '61']</t>
@@ -686,6 +686,9 @@
   </si>
   <si>
     <t>['49']</t>
+  </si>
+  <si>
+    <t>['80']</t>
   </si>
 </sst>
 </file>
@@ -1047,7 +1050,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK126"/>
+  <dimension ref="A1:BK127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1291,7 +1294,7 @@
         <v>75</v>
       </c>
       <c r="P2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1673,7 +1676,7 @@
         <v>76</v>
       </c>
       <c r="P4" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q4">
         <v>7</v>
@@ -1954,7 +1957,7 @@
         <v>2.69</v>
       </c>
       <c r="AT5">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -2142,7 +2145,7 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AT6">
         <v>0.54</v>
@@ -2246,7 +2249,7 @@
         <v>79</v>
       </c>
       <c r="P7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="Q7">
         <v>10</v>
@@ -3288,7 +3291,7 @@
         <v>3</v>
       </c>
       <c r="AS12">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AT12">
         <v>0.85</v>
@@ -3864,7 +3867,7 @@
         <v>2.25</v>
       </c>
       <c r="AT15">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AU15">
         <v>0</v>
@@ -4628,7 +4631,7 @@
         <v>0.67</v>
       </c>
       <c r="AT19">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AU19">
         <v>1.47</v>
@@ -5007,7 +5010,7 @@
         <v>0</v>
       </c>
       <c r="AS21">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AT21">
         <v>1.58</v>
@@ -6347,7 +6350,7 @@
         <v>1.42</v>
       </c>
       <c r="AT28">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AU28">
         <v>2.01</v>
@@ -6917,7 +6920,7 @@
         <v>1.5</v>
       </c>
       <c r="AS31">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AT31">
         <v>1.75</v>
@@ -8063,10 +8066,10 @@
         <v>1.25</v>
       </c>
       <c r="AS37">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AT37">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AU37">
         <v>2.15</v>
@@ -10931,7 +10934,7 @@
         <v>1.38</v>
       </c>
       <c r="AT52">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AU52">
         <v>1.91</v>
@@ -11501,7 +11504,7 @@
         <v>1.8</v>
       </c>
       <c r="AS55">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AT55">
         <v>1.67</v>
@@ -13987,7 +13990,7 @@
         <v>0.75</v>
       </c>
       <c r="AT68">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AU68">
         <v>1.66</v>
@@ -14175,7 +14178,7 @@
         <v>2</v>
       </c>
       <c r="AS69">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AT69">
         <v>2.08</v>
@@ -15894,7 +15897,7 @@
         <v>0.86</v>
       </c>
       <c r="AS78">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AT78">
         <v>1.08</v>
@@ -16470,7 +16473,7 @@
         <v>1.77</v>
       </c>
       <c r="AT81">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AU81">
         <v>1.75</v>
@@ -17613,7 +17616,7 @@
         <v>0.5</v>
       </c>
       <c r="AS87">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AT87">
         <v>0.77</v>
@@ -18189,7 +18192,7 @@
         <v>1.38</v>
       </c>
       <c r="AT90">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AU90">
         <v>1.79</v>
@@ -18568,7 +18571,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS92">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AT92">
         <v>0.54</v>
@@ -19335,7 +19338,7 @@
         <v>2.69</v>
       </c>
       <c r="AT96">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AU96">
         <v>1.81</v>
@@ -20672,7 +20675,7 @@
         <v>2.25</v>
       </c>
       <c r="AT103">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AU103">
         <v>1.98</v>
@@ -20860,7 +20863,7 @@
         <v>0.7</v>
       </c>
       <c r="AS104">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AT104">
         <v>0.85</v>
@@ -21627,7 +21630,7 @@
         <v>0.67</v>
       </c>
       <c r="AT108">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AU108">
         <v>1.47</v>
@@ -21815,7 +21818,7 @@
         <v>1.7</v>
       </c>
       <c r="AS109">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AT109">
         <v>1.58</v>
@@ -23346,7 +23349,7 @@
         <v>1.42</v>
       </c>
       <c r="AT117">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AU117">
         <v>1.83</v>
@@ -24107,7 +24110,7 @@
         <v>1.64</v>
       </c>
       <c r="AS121">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AT121">
         <v>1.75</v>
@@ -25117,6 +25120,197 @@
       </c>
       <c r="BK126">
         <v>8</v>
+      </c>
+    </row>
+    <row r="127" spans="1:63">
+      <c r="A127" s="1">
+        <v>126</v>
+      </c>
+      <c r="B127">
+        <v>2529693</v>
+      </c>
+      <c r="C127" t="s">
+        <v>63</v>
+      </c>
+      <c r="D127" t="s">
+        <v>64</v>
+      </c>
+      <c r="E127" s="2">
+        <v>44995.5625</v>
+      </c>
+      <c r="F127">
+        <v>26</v>
+      </c>
+      <c r="G127" t="s">
+        <v>69</v>
+      </c>
+      <c r="H127" t="s">
+        <v>73</v>
+      </c>
+      <c r="I127">
+        <v>0</v>
+      </c>
+      <c r="J127">
+        <v>0</v>
+      </c>
+      <c r="K127">
+        <v>0</v>
+      </c>
+      <c r="L127">
+        <v>1</v>
+      </c>
+      <c r="M127">
+        <v>1</v>
+      </c>
+      <c r="N127">
+        <v>2</v>
+      </c>
+      <c r="O127" t="s">
+        <v>153</v>
+      </c>
+      <c r="P127" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q127">
+        <v>7</v>
+      </c>
+      <c r="R127">
+        <v>8</v>
+      </c>
+      <c r="S127">
+        <v>15</v>
+      </c>
+      <c r="T127">
+        <v>3.9</v>
+      </c>
+      <c r="U127">
+        <v>2.15</v>
+      </c>
+      <c r="V127">
+        <v>2.5</v>
+      </c>
+      <c r="W127">
+        <v>1.36</v>
+      </c>
+      <c r="X127">
+        <v>3</v>
+      </c>
+      <c r="Y127">
+        <v>2.62</v>
+      </c>
+      <c r="Z127">
+        <v>1.44</v>
+      </c>
+      <c r="AA127">
+        <v>6</v>
+      </c>
+      <c r="AB127">
+        <v>1.11</v>
+      </c>
+      <c r="AC127">
+        <v>3.3</v>
+      </c>
+      <c r="AD127">
+        <v>3.4</v>
+      </c>
+      <c r="AE127">
+        <v>1.92</v>
+      </c>
+      <c r="AF127">
+        <v>1.05</v>
+      </c>
+      <c r="AG127">
+        <v>9</v>
+      </c>
+      <c r="AH127">
+        <v>1.3</v>
+      </c>
+      <c r="AI127">
+        <v>3.4</v>
+      </c>
+      <c r="AJ127">
+        <v>1.88</v>
+      </c>
+      <c r="AK127">
+        <v>1.88</v>
+      </c>
+      <c r="AL127">
+        <v>1.73</v>
+      </c>
+      <c r="AM127">
+        <v>2</v>
+      </c>
+      <c r="AN127">
+        <v>1.8</v>
+      </c>
+      <c r="AO127">
+        <v>1.29</v>
+      </c>
+      <c r="AP127">
+        <v>1.25</v>
+      </c>
+      <c r="AQ127">
+        <v>0.77</v>
+      </c>
+      <c r="AR127">
+        <v>1.08</v>
+      </c>
+      <c r="AS127">
+        <v>0.79</v>
+      </c>
+      <c r="AT127">
+        <v>1.07</v>
+      </c>
+      <c r="AU127">
+        <v>1.71</v>
+      </c>
+      <c r="AV127">
+        <v>1.55</v>
+      </c>
+      <c r="AW127">
+        <v>3.26</v>
+      </c>
+      <c r="AX127">
+        <v>0</v>
+      </c>
+      <c r="AY127">
+        <v>0</v>
+      </c>
+      <c r="AZ127">
+        <v>0</v>
+      </c>
+      <c r="BA127">
+        <v>1.22</v>
+      </c>
+      <c r="BB127">
+        <v>1.41</v>
+      </c>
+      <c r="BC127">
+        <v>1.73</v>
+      </c>
+      <c r="BD127">
+        <v>2.23</v>
+      </c>
+      <c r="BE127">
+        <v>3</v>
+      </c>
+      <c r="BF127">
+        <v>7</v>
+      </c>
+      <c r="BG127">
+        <v>4</v>
+      </c>
+      <c r="BH127">
+        <v>5</v>
+      </c>
+      <c r="BI127">
+        <v>5</v>
+      </c>
+      <c r="BJ127">
+        <v>12</v>
+      </c>
+      <c r="BK127">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Slovenia PrvaLiga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Slovenia PrvaLiga_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="843" uniqueCount="232">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -478,6 +478,15 @@
     <t>['53']</t>
   </si>
   <si>
+    <t>['66']</t>
+  </si>
+  <si>
+    <t>['63']</t>
+  </si>
+  <si>
+    <t>['45', '78', '84']</t>
+  </si>
+  <si>
     <t>['67']</t>
   </si>
   <si>
@@ -689,6 +698,18 @@
   </si>
   <si>
     <t>['80']</t>
+  </si>
+  <si>
+    <t>['59']</t>
+  </si>
+  <si>
+    <t>['86']</t>
+  </si>
+  <si>
+    <t>['25', '36', '45+2', '66']</t>
+  </si>
+  <si>
+    <t>['26']</t>
   </si>
 </sst>
 </file>
@@ -1050,7 +1071,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK127"/>
+  <dimension ref="A1:BK131"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1294,7 +1315,7 @@
         <v>75</v>
       </c>
       <c r="P2" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1381,10 +1402,10 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT2">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1575,7 +1596,7 @@
         <v>1.38</v>
       </c>
       <c r="AT3">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -1676,7 +1697,7 @@
         <v>76</v>
       </c>
       <c r="P4" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="Q4">
         <v>7</v>
@@ -1763,7 +1784,7 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AT4">
         <v>0.85</v>
@@ -1954,7 +1975,7 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>2.69</v>
+        <v>2.5</v>
       </c>
       <c r="AT5">
         <v>1.07</v>
@@ -2148,7 +2169,7 @@
         <v>0.79</v>
       </c>
       <c r="AT6">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2336,10 +2357,10 @@
         <v>1</v>
       </c>
       <c r="AS7">
-        <v>0.67</v>
+        <v>0.85</v>
       </c>
       <c r="AT7">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -2440,7 +2461,7 @@
         <v>80</v>
       </c>
       <c r="P8" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="Q8">
         <v>10</v>
@@ -2527,7 +2548,7 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AT8">
         <v>0.67</v>
@@ -3013,7 +3034,7 @@
         <v>82</v>
       </c>
       <c r="P11" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="Q11">
         <v>9</v>
@@ -3103,7 +3124,7 @@
         <v>1.92</v>
       </c>
       <c r="AT11">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -3204,7 +3225,7 @@
         <v>76</v>
       </c>
       <c r="P12" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="Q12">
         <v>10</v>
@@ -3485,7 +3506,7 @@
         <v>1.38</v>
       </c>
       <c r="AT13">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AU13">
         <v>1.49</v>
@@ -3673,10 +3694,10 @@
         <v>0</v>
       </c>
       <c r="AS14">
-        <v>2.69</v>
+        <v>2.5</v>
       </c>
       <c r="AT14">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AU14">
         <v>1.29</v>
@@ -3777,7 +3798,7 @@
         <v>85</v>
       </c>
       <c r="P15" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="Q15">
         <v>4</v>
@@ -3968,7 +3989,7 @@
         <v>86</v>
       </c>
       <c r="P16" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="Q16">
         <v>1</v>
@@ -4055,7 +4076,7 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT16">
         <v>1.67</v>
@@ -4249,7 +4270,7 @@
         <v>0.75</v>
       </c>
       <c r="AT17">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AU17">
         <v>1.43</v>
@@ -4350,7 +4371,7 @@
         <v>76</v>
       </c>
       <c r="P18" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="Q18">
         <v>5</v>
@@ -4440,7 +4461,7 @@
         <v>1.42</v>
       </c>
       <c r="AT18">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AU18">
         <v>2.35</v>
@@ -4541,7 +4562,7 @@
         <v>88</v>
       </c>
       <c r="P19" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="Q19">
         <v>5</v>
@@ -4628,7 +4649,7 @@
         <v>0.5</v>
       </c>
       <c r="AS19">
-        <v>0.67</v>
+        <v>0.85</v>
       </c>
       <c r="AT19">
         <v>1.07</v>
@@ -4732,7 +4753,7 @@
         <v>76</v>
       </c>
       <c r="P20" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="Q20">
         <v>6</v>
@@ -4819,7 +4840,7 @@
         <v>3</v>
       </c>
       <c r="AS20">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AT20">
         <v>2.08</v>
@@ -4923,7 +4944,7 @@
         <v>89</v>
       </c>
       <c r="P21" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="Q21">
         <v>12</v>
@@ -5204,7 +5225,7 @@
         <v>2.25</v>
       </c>
       <c r="AT22">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AU22">
         <v>2.42</v>
@@ -5305,7 +5326,7 @@
         <v>91</v>
       </c>
       <c r="P23" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="Q23">
         <v>4</v>
@@ -5395,7 +5416,7 @@
         <v>1.92</v>
       </c>
       <c r="AT23">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AU23">
         <v>3.08</v>
@@ -5583,7 +5604,7 @@
         <v>3</v>
       </c>
       <c r="AS24">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT24">
         <v>0.85</v>
@@ -5687,7 +5708,7 @@
         <v>93</v>
       </c>
       <c r="P25" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="Q25">
         <v>6</v>
@@ -5965,7 +5986,7 @@
         <v>0</v>
       </c>
       <c r="AS26">
-        <v>2.69</v>
+        <v>2.5</v>
       </c>
       <c r="AT26">
         <v>0.67</v>
@@ -6156,10 +6177,10 @@
         <v>0.67</v>
       </c>
       <c r="AS27">
-        <v>0.67</v>
+        <v>0.85</v>
       </c>
       <c r="AT27">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AU27">
         <v>1.35</v>
@@ -6260,7 +6281,7 @@
         <v>76</v>
       </c>
       <c r="P28" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q28">
         <v>6</v>
@@ -6451,7 +6472,7 @@
         <v>76</v>
       </c>
       <c r="P29" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="Q29">
         <v>6</v>
@@ -6538,7 +6559,7 @@
         <v>3</v>
       </c>
       <c r="AS29">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT29">
         <v>2.08</v>
@@ -6642,7 +6663,7 @@
         <v>95</v>
       </c>
       <c r="P30" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="Q30">
         <v>4</v>
@@ -6729,10 +6750,10 @@
         <v>0.67</v>
       </c>
       <c r="AS30">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AT30">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AU30">
         <v>1.86</v>
@@ -6923,7 +6944,7 @@
         <v>0.79</v>
       </c>
       <c r="AT31">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AU31">
         <v>2.14</v>
@@ -7024,7 +7045,7 @@
         <v>76</v>
       </c>
       <c r="P32" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="Q32">
         <v>5</v>
@@ -7114,7 +7135,7 @@
         <v>0.75</v>
       </c>
       <c r="AT32">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AU32">
         <v>1.31</v>
@@ -7493,7 +7514,7 @@
         <v>2</v>
       </c>
       <c r="AS34">
-        <v>2.69</v>
+        <v>2.5</v>
       </c>
       <c r="AT34">
         <v>0.85</v>
@@ -7597,7 +7618,7 @@
         <v>76</v>
       </c>
       <c r="P35" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="Q35">
         <v>6</v>
@@ -7788,7 +7809,7 @@
         <v>76</v>
       </c>
       <c r="P36" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="Q36">
         <v>9</v>
@@ -8170,7 +8191,7 @@
         <v>76</v>
       </c>
       <c r="P38" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="Q38">
         <v>3</v>
@@ -8257,10 +8278,10 @@
         <v>0.75</v>
       </c>
       <c r="AS38">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT38">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AU38">
         <v>2.06</v>
@@ -8361,7 +8382,7 @@
         <v>98</v>
       </c>
       <c r="P39" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="Q39">
         <v>4</v>
@@ -8448,10 +8469,10 @@
         <v>0.75</v>
       </c>
       <c r="AS39">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AT39">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AU39">
         <v>1.97</v>
@@ -8552,7 +8573,7 @@
         <v>99</v>
       </c>
       <c r="P40" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -8639,10 +8660,10 @@
         <v>1.33</v>
       </c>
       <c r="AS40">
-        <v>2.69</v>
+        <v>2.5</v>
       </c>
       <c r="AT40">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AU40">
         <v>1.7</v>
@@ -8743,7 +8764,7 @@
         <v>100</v>
       </c>
       <c r="P41" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q41">
         <v>2</v>
@@ -8830,10 +8851,10 @@
         <v>0.75</v>
       </c>
       <c r="AS41">
-        <v>0.67</v>
+        <v>0.85</v>
       </c>
       <c r="AT41">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AU41">
         <v>1.32</v>
@@ -9125,7 +9146,7 @@
         <v>102</v>
       </c>
       <c r="P43" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="Q43">
         <v>7</v>
@@ -9316,7 +9337,7 @@
         <v>103</v>
       </c>
       <c r="P44" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="Q44">
         <v>6</v>
@@ -9507,7 +9528,7 @@
         <v>76</v>
       </c>
       <c r="P45" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="Q45">
         <v>4</v>
@@ -9698,7 +9719,7 @@
         <v>104</v>
       </c>
       <c r="P46" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="Q46">
         <v>5</v>
@@ -9889,7 +9910,7 @@
         <v>76</v>
       </c>
       <c r="P47" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Q47">
         <v>4</v>
@@ -10080,7 +10101,7 @@
         <v>105</v>
       </c>
       <c r="P48" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="Q48">
         <v>1</v>
@@ -10462,7 +10483,7 @@
         <v>76</v>
       </c>
       <c r="P50" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q50">
         <v>5</v>
@@ -10549,7 +10570,7 @@
         <v>1.5</v>
       </c>
       <c r="AS50">
-        <v>0.67</v>
+        <v>0.85</v>
       </c>
       <c r="AT50">
         <v>1.67</v>
@@ -10653,7 +10674,7 @@
         <v>107</v>
       </c>
       <c r="P51" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q51">
         <v>5</v>
@@ -10743,7 +10764,7 @@
         <v>2.25</v>
       </c>
       <c r="AT51">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AU51">
         <v>2.33</v>
@@ -10844,7 +10865,7 @@
         <v>108</v>
       </c>
       <c r="P52" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="Q52">
         <v>4</v>
@@ -11122,10 +11143,10 @@
         <v>0.8</v>
       </c>
       <c r="AS53">
-        <v>2.69</v>
+        <v>2.5</v>
       </c>
       <c r="AT53">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AU53">
         <v>1.8</v>
@@ -11313,10 +11334,10 @@
         <v>0.8</v>
       </c>
       <c r="AS54">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT54">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AU54">
         <v>1.84</v>
@@ -11417,7 +11438,7 @@
         <v>111</v>
       </c>
       <c r="P55" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Q55">
         <v>5</v>
@@ -11608,7 +11629,7 @@
         <v>112</v>
       </c>
       <c r="P56" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q56">
         <v>1</v>
@@ -11889,7 +11910,7 @@
         <v>0.75</v>
       </c>
       <c r="AT57">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AU57">
         <v>1.62</v>
@@ -11990,7 +12011,7 @@
         <v>76</v>
       </c>
       <c r="P58" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Q58">
         <v>3</v>
@@ -12077,7 +12098,7 @@
         <v>1.8</v>
       </c>
       <c r="AS58">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AT58">
         <v>1.58</v>
@@ -12372,7 +12393,7 @@
         <v>115</v>
       </c>
       <c r="P60" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q60">
         <v>5</v>
@@ -12462,7 +12483,7 @@
         <v>1.92</v>
       </c>
       <c r="AT60">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AU60">
         <v>2.17</v>
@@ -12650,7 +12671,7 @@
         <v>0.6</v>
       </c>
       <c r="AS61">
-        <v>0.67</v>
+        <v>0.85</v>
       </c>
       <c r="AT61">
         <v>0.67</v>
@@ -12844,7 +12865,7 @@
         <v>2.25</v>
       </c>
       <c r="AT62">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AU62">
         <v>2.13</v>
@@ -13035,7 +13056,7 @@
         <v>1.38</v>
       </c>
       <c r="AT63">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AU63">
         <v>1.84</v>
@@ -13136,7 +13157,7 @@
         <v>118</v>
       </c>
       <c r="P64" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q64">
         <v>9</v>
@@ -13223,7 +13244,7 @@
         <v>0.67</v>
       </c>
       <c r="AS64">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT64">
         <v>0.67</v>
@@ -13414,7 +13435,7 @@
         <v>2</v>
       </c>
       <c r="AS65">
-        <v>2.69</v>
+        <v>2.5</v>
       </c>
       <c r="AT65">
         <v>1.67</v>
@@ -13709,7 +13730,7 @@
         <v>76</v>
       </c>
       <c r="P67" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q67">
         <v>4</v>
@@ -13796,10 +13817,10 @@
         <v>0.83</v>
       </c>
       <c r="AS67">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AT67">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AU67">
         <v>1.89</v>
@@ -13900,7 +13921,7 @@
         <v>76</v>
       </c>
       <c r="P68" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q68">
         <v>4</v>
@@ -14372,7 +14393,7 @@
         <v>1.42</v>
       </c>
       <c r="AT70">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AU70">
         <v>1.97</v>
@@ -14473,7 +14494,7 @@
         <v>122</v>
       </c>
       <c r="P71" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q71">
         <v>4</v>
@@ -14560,7 +14581,7 @@
         <v>2</v>
       </c>
       <c r="AS71">
-        <v>0.67</v>
+        <v>0.85</v>
       </c>
       <c r="AT71">
         <v>1.58</v>
@@ -14855,7 +14876,7 @@
         <v>124</v>
       </c>
       <c r="P73" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q73">
         <v>6</v>
@@ -15046,7 +15067,7 @@
         <v>125</v>
       </c>
       <c r="P74" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q74">
         <v>7</v>
@@ -15237,7 +15258,7 @@
         <v>126</v>
       </c>
       <c r="P75" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q75">
         <v>3</v>
@@ -15324,7 +15345,7 @@
         <v>1.86</v>
       </c>
       <c r="AS75">
-        <v>2.69</v>
+        <v>2.5</v>
       </c>
       <c r="AT75">
         <v>1.58</v>
@@ -15518,7 +15539,7 @@
         <v>1.92</v>
       </c>
       <c r="AT76">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AU76">
         <v>2.18</v>
@@ -15619,7 +15640,7 @@
         <v>128</v>
       </c>
       <c r="P77" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q77">
         <v>3</v>
@@ -15706,10 +15727,10 @@
         <v>1.14</v>
       </c>
       <c r="AS77">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT77">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AU77">
         <v>1.81</v>
@@ -15810,7 +15831,7 @@
         <v>76</v>
       </c>
       <c r="P78" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q78">
         <v>7</v>
@@ -15900,7 +15921,7 @@
         <v>0.79</v>
       </c>
       <c r="AT78">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AU78">
         <v>1.86</v>
@@ -16001,7 +16022,7 @@
         <v>76</v>
       </c>
       <c r="P79" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q79">
         <v>5</v>
@@ -16088,7 +16109,7 @@
         <v>1.86</v>
       </c>
       <c r="AS79">
-        <v>0.67</v>
+        <v>0.85</v>
       </c>
       <c r="AT79">
         <v>2.08</v>
@@ -16192,7 +16213,7 @@
         <v>129</v>
       </c>
       <c r="P80" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q80">
         <v>4</v>
@@ -16282,7 +16303,7 @@
         <v>1.42</v>
       </c>
       <c r="AT80">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AU80">
         <v>1.82</v>
@@ -16383,7 +16404,7 @@
         <v>130</v>
       </c>
       <c r="P81" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q81">
         <v>8</v>
@@ -16470,7 +16491,7 @@
         <v>1.43</v>
       </c>
       <c r="AS81">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AT81">
         <v>1.07</v>
@@ -16574,7 +16595,7 @@
         <v>128</v>
       </c>
       <c r="P82" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q82">
         <v>7</v>
@@ -16765,7 +16786,7 @@
         <v>76</v>
       </c>
       <c r="P83" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q83">
         <v>0</v>
@@ -16956,7 +16977,7 @@
         <v>76</v>
       </c>
       <c r="P84" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q84">
         <v>1</v>
@@ -17529,7 +17550,7 @@
         <v>89</v>
       </c>
       <c r="P87" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q87">
         <v>6</v>
@@ -17619,7 +17640,7 @@
         <v>0.79</v>
       </c>
       <c r="AT87">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AU87">
         <v>1.74</v>
@@ -17807,10 +17828,10 @@
         <v>0.63</v>
       </c>
       <c r="AS88">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AT88">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AU88">
         <v>1.86</v>
@@ -17911,7 +17932,7 @@
         <v>76</v>
       </c>
       <c r="P89" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q89">
         <v>5</v>
@@ -17998,10 +18019,10 @@
         <v>1.13</v>
       </c>
       <c r="AS89">
-        <v>0.67</v>
+        <v>0.85</v>
       </c>
       <c r="AT89">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AU89">
         <v>1.48</v>
@@ -18189,7 +18210,7 @@
         <v>1.25</v>
       </c>
       <c r="AS90">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT90">
         <v>1.07</v>
@@ -18380,10 +18401,10 @@
         <v>1.13</v>
       </c>
       <c r="AS91">
-        <v>2.69</v>
+        <v>2.5</v>
       </c>
       <c r="AT91">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AU91">
         <v>1.85</v>
@@ -18574,7 +18595,7 @@
         <v>0.79</v>
       </c>
       <c r="AT92">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AU92">
         <v>1.76</v>
@@ -18762,7 +18783,7 @@
         <v>0.78</v>
       </c>
       <c r="AS93">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AT93">
         <v>0.85</v>
@@ -18866,7 +18887,7 @@
         <v>135</v>
       </c>
       <c r="P94" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q94">
         <v>8</v>
@@ -18953,10 +18974,10 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS94">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT94">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AU94">
         <v>1.8</v>
@@ -19057,7 +19078,7 @@
         <v>136</v>
       </c>
       <c r="P95" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q95">
         <v>5</v>
@@ -19147,7 +19168,7 @@
         <v>1.38</v>
       </c>
       <c r="AT95">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AU95">
         <v>1.7</v>
@@ -19335,7 +19356,7 @@
         <v>1.22</v>
       </c>
       <c r="AS96">
-        <v>2.69</v>
+        <v>2.5</v>
       </c>
       <c r="AT96">
         <v>1.07</v>
@@ -19630,7 +19651,7 @@
         <v>76</v>
       </c>
       <c r="P98" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q98">
         <v>1</v>
@@ -19821,7 +19842,7 @@
         <v>137</v>
       </c>
       <c r="P99" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q99">
         <v>7</v>
@@ -19908,7 +19929,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS99">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AT99">
         <v>0.67</v>
@@ -20012,7 +20033,7 @@
         <v>76</v>
       </c>
       <c r="P100" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q100">
         <v>4</v>
@@ -20099,10 +20120,10 @@
         <v>1</v>
       </c>
       <c r="AS100">
-        <v>0.67</v>
+        <v>0.85</v>
       </c>
       <c r="AT100">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AU100">
         <v>1.54</v>
@@ -20203,7 +20224,7 @@
         <v>76</v>
       </c>
       <c r="P101" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q101">
         <v>3</v>
@@ -20293,7 +20314,7 @@
         <v>1.92</v>
       </c>
       <c r="AT101">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AU101">
         <v>2.05</v>
@@ -20394,7 +20415,7 @@
         <v>138</v>
       </c>
       <c r="P102" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q102">
         <v>4</v>
@@ -20481,10 +20502,10 @@
         <v>0.6</v>
       </c>
       <c r="AS102">
-        <v>2.69</v>
+        <v>2.5</v>
       </c>
       <c r="AT102">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AU102">
         <v>1.84</v>
@@ -20776,7 +20797,7 @@
         <v>140</v>
       </c>
       <c r="P104" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q104">
         <v>6</v>
@@ -20967,7 +20988,7 @@
         <v>76</v>
       </c>
       <c r="P105" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q105">
         <v>2</v>
@@ -21054,7 +21075,7 @@
         <v>1.78</v>
       </c>
       <c r="AS105">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT105">
         <v>1.67</v>
@@ -21158,7 +21179,7 @@
         <v>76</v>
       </c>
       <c r="P106" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q106">
         <v>10</v>
@@ -21248,7 +21269,7 @@
         <v>1.38</v>
       </c>
       <c r="AT106">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AU106">
         <v>1.7</v>
@@ -21349,7 +21370,7 @@
         <v>141</v>
       </c>
       <c r="P107" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q107">
         <v>1</v>
@@ -21439,7 +21460,7 @@
         <v>0.75</v>
       </c>
       <c r="AT107">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AU107">
         <v>1.53</v>
@@ -21627,7 +21648,7 @@
         <v>1.09</v>
       </c>
       <c r="AS108">
-        <v>0.67</v>
+        <v>0.85</v>
       </c>
       <c r="AT108">
         <v>1.07</v>
@@ -21731,7 +21752,7 @@
         <v>142</v>
       </c>
       <c r="P109" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q109">
         <v>10</v>
@@ -21922,7 +21943,7 @@
         <v>76</v>
       </c>
       <c r="P110" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -22012,7 +22033,7 @@
         <v>1.42</v>
       </c>
       <c r="AT110">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AU110">
         <v>1.86</v>
@@ -22200,7 +22221,7 @@
         <v>2.2</v>
       </c>
       <c r="AS111">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AT111">
         <v>2.08</v>
@@ -22304,7 +22325,7 @@
         <v>144</v>
       </c>
       <c r="P112" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q112">
         <v>6</v>
@@ -22391,7 +22412,7 @@
         <v>0.73</v>
       </c>
       <c r="AS112">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT112">
         <v>0.85</v>
@@ -22495,7 +22516,7 @@
         <v>145</v>
       </c>
       <c r="P113" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q113">
         <v>5</v>
@@ -22585,7 +22606,7 @@
         <v>1.92</v>
       </c>
       <c r="AT113">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AU113">
         <v>2.07</v>
@@ -22686,7 +22707,7 @@
         <v>146</v>
       </c>
       <c r="P114" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="Q114">
         <v>8</v>
@@ -22776,7 +22797,7 @@
         <v>2.25</v>
       </c>
       <c r="AT114">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AU114">
         <v>1.91</v>
@@ -22877,7 +22898,7 @@
         <v>147</v>
       </c>
       <c r="P115" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q115">
         <v>9</v>
@@ -22964,7 +22985,7 @@
         <v>0.5</v>
       </c>
       <c r="AS115">
-        <v>2.69</v>
+        <v>2.5</v>
       </c>
       <c r="AT115">
         <v>0.67</v>
@@ -23068,7 +23089,7 @@
         <v>148</v>
       </c>
       <c r="P116" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q116">
         <v>2</v>
@@ -23537,10 +23558,10 @@
         <v>0.75</v>
       </c>
       <c r="AS118">
-        <v>0.67</v>
+        <v>0.85</v>
       </c>
       <c r="AT118">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AU118">
         <v>1.44</v>
@@ -23641,7 +23662,7 @@
         <v>76</v>
       </c>
       <c r="P119" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q119">
         <v>4</v>
@@ -23728,7 +23749,7 @@
         <v>2</v>
       </c>
       <c r="AS119">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT119">
         <v>2.08</v>
@@ -23919,10 +23940,10 @@
         <v>1.17</v>
       </c>
       <c r="AS120">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AT120">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AU120">
         <v>1.76</v>
@@ -24023,7 +24044,7 @@
         <v>76</v>
       </c>
       <c r="P121" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q121">
         <v>3</v>
@@ -24113,7 +24134,7 @@
         <v>0.79</v>
       </c>
       <c r="AT121">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AU121">
         <v>1.74</v>
@@ -24214,7 +24235,7 @@
         <v>76</v>
       </c>
       <c r="P122" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q122">
         <v>5</v>
@@ -24683,7 +24704,7 @@
         <v>0.92</v>
       </c>
       <c r="AS124">
-        <v>2.69</v>
+        <v>2.5</v>
       </c>
       <c r="AT124">
         <v>0.85</v>
@@ -24877,7 +24898,7 @@
         <v>0.75</v>
       </c>
       <c r="AT125">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AU125">
         <v>1.55</v>
@@ -24978,7 +24999,7 @@
         <v>152</v>
       </c>
       <c r="P126" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q126">
         <v>9</v>
@@ -25169,7 +25190,7 @@
         <v>153</v>
       </c>
       <c r="P127" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q127">
         <v>7</v>
@@ -25311,6 +25332,770 @@
       </c>
       <c r="BK127">
         <v>9</v>
+      </c>
+    </row>
+    <row r="128" spans="1:63">
+      <c r="A128" s="1">
+        <v>127</v>
+      </c>
+      <c r="B128">
+        <v>2529692</v>
+      </c>
+      <c r="C128" t="s">
+        <v>63</v>
+      </c>
+      <c r="D128" t="s">
+        <v>64</v>
+      </c>
+      <c r="E128" s="2">
+        <v>44996.5625</v>
+      </c>
+      <c r="F128">
+        <v>26</v>
+      </c>
+      <c r="G128" t="s">
+        <v>67</v>
+      </c>
+      <c r="H128" t="s">
+        <v>71</v>
+      </c>
+      <c r="I128">
+        <v>0</v>
+      </c>
+      <c r="J128">
+        <v>0</v>
+      </c>
+      <c r="K128">
+        <v>0</v>
+      </c>
+      <c r="L128">
+        <v>1</v>
+      </c>
+      <c r="M128">
+        <v>1</v>
+      </c>
+      <c r="N128">
+        <v>2</v>
+      </c>
+      <c r="O128" t="s">
+        <v>154</v>
+      </c>
+      <c r="P128" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q128">
+        <v>11</v>
+      </c>
+      <c r="R128">
+        <v>3</v>
+      </c>
+      <c r="S128">
+        <v>14</v>
+      </c>
+      <c r="T128">
+        <v>1.83</v>
+      </c>
+      <c r="U128">
+        <v>2.4</v>
+      </c>
+      <c r="V128">
+        <v>6.5</v>
+      </c>
+      <c r="W128">
+        <v>1.33</v>
+      </c>
+      <c r="X128">
+        <v>3.25</v>
+      </c>
+      <c r="Y128">
+        <v>2.5</v>
+      </c>
+      <c r="Z128">
+        <v>1.5</v>
+      </c>
+      <c r="AA128">
+        <v>6</v>
+      </c>
+      <c r="AB128">
+        <v>1.13</v>
+      </c>
+      <c r="AC128">
+        <v>1.35</v>
+      </c>
+      <c r="AD128">
+        <v>4.6</v>
+      </c>
+      <c r="AE128">
+        <v>7</v>
+      </c>
+      <c r="AF128">
+        <v>1.04</v>
+      </c>
+      <c r="AG128">
+        <v>10</v>
+      </c>
+      <c r="AH128">
+        <v>1.22</v>
+      </c>
+      <c r="AI128">
+        <v>4</v>
+      </c>
+      <c r="AJ128">
+        <v>1.65</v>
+      </c>
+      <c r="AK128">
+        <v>2.1</v>
+      </c>
+      <c r="AL128">
+        <v>2</v>
+      </c>
+      <c r="AM128">
+        <v>1.73</v>
+      </c>
+      <c r="AN128">
+        <v>1.04</v>
+      </c>
+      <c r="AO128">
+        <v>1.17</v>
+      </c>
+      <c r="AP128">
+        <v>3.25</v>
+      </c>
+      <c r="AQ128">
+        <v>1.77</v>
+      </c>
+      <c r="AR128">
+        <v>0.77</v>
+      </c>
+      <c r="AS128">
+        <v>1.71</v>
+      </c>
+      <c r="AT128">
+        <v>0.79</v>
+      </c>
+      <c r="AU128">
+        <v>1.78</v>
+      </c>
+      <c r="AV128">
+        <v>1.71</v>
+      </c>
+      <c r="AW128">
+        <v>3.49</v>
+      </c>
+      <c r="AX128">
+        <v>1.18</v>
+      </c>
+      <c r="AY128">
+        <v>8.25</v>
+      </c>
+      <c r="AZ128">
+        <v>6</v>
+      </c>
+      <c r="BA128">
+        <v>1.29</v>
+      </c>
+      <c r="BB128">
+        <v>1.56</v>
+      </c>
+      <c r="BC128">
+        <v>1.93</v>
+      </c>
+      <c r="BD128">
+        <v>2.41</v>
+      </c>
+      <c r="BE128">
+        <v>3.2</v>
+      </c>
+      <c r="BF128">
+        <v>8</v>
+      </c>
+      <c r="BG128">
+        <v>4</v>
+      </c>
+      <c r="BH128">
+        <v>4</v>
+      </c>
+      <c r="BI128">
+        <v>5</v>
+      </c>
+      <c r="BJ128">
+        <v>12</v>
+      </c>
+      <c r="BK128">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="129" spans="1:63">
+      <c r="A129" s="1">
+        <v>128</v>
+      </c>
+      <c r="B129">
+        <v>2529694</v>
+      </c>
+      <c r="C129" t="s">
+        <v>63</v>
+      </c>
+      <c r="D129" t="s">
+        <v>64</v>
+      </c>
+      <c r="E129" s="2">
+        <v>44996.67708333334</v>
+      </c>
+      <c r="F129">
+        <v>26</v>
+      </c>
+      <c r="G129" t="s">
+        <v>65</v>
+      </c>
+      <c r="H129" t="s">
+        <v>74</v>
+      </c>
+      <c r="I129">
+        <v>0</v>
+      </c>
+      <c r="J129">
+        <v>0</v>
+      </c>
+      <c r="K129">
+        <v>0</v>
+      </c>
+      <c r="L129">
+        <v>0</v>
+      </c>
+      <c r="M129">
+        <v>1</v>
+      </c>
+      <c r="N129">
+        <v>1</v>
+      </c>
+      <c r="O129" t="s">
+        <v>76</v>
+      </c>
+      <c r="P129" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q129">
+        <v>4</v>
+      </c>
+      <c r="R129">
+        <v>4</v>
+      </c>
+      <c r="S129">
+        <v>8</v>
+      </c>
+      <c r="T129">
+        <v>3</v>
+      </c>
+      <c r="U129">
+        <v>2.05</v>
+      </c>
+      <c r="V129">
+        <v>3.3</v>
+      </c>
+      <c r="W129">
+        <v>1.4</v>
+      </c>
+      <c r="X129">
+        <v>2.75</v>
+      </c>
+      <c r="Y129">
+        <v>3</v>
+      </c>
+      <c r="Z129">
+        <v>1.36</v>
+      </c>
+      <c r="AA129">
+        <v>7</v>
+      </c>
+      <c r="AB129">
+        <v>1.08</v>
+      </c>
+      <c r="AC129">
+        <v>2.51</v>
+      </c>
+      <c r="AD129">
+        <v>3.05</v>
+      </c>
+      <c r="AE129">
+        <v>2.61</v>
+      </c>
+      <c r="AF129">
+        <v>1.08</v>
+      </c>
+      <c r="AG129">
+        <v>7</v>
+      </c>
+      <c r="AH129">
+        <v>1.36</v>
+      </c>
+      <c r="AI129">
+        <v>3</v>
+      </c>
+      <c r="AJ129">
+        <v>2</v>
+      </c>
+      <c r="AK129">
+        <v>1.64</v>
+      </c>
+      <c r="AL129">
+        <v>1.8</v>
+      </c>
+      <c r="AM129">
+        <v>1.91</v>
+      </c>
+      <c r="AN129">
+        <v>1.44</v>
+      </c>
+      <c r="AO129">
+        <v>1.35</v>
+      </c>
+      <c r="AP129">
+        <v>1.44</v>
+      </c>
+      <c r="AQ129">
+        <v>1.38</v>
+      </c>
+      <c r="AR129">
+        <v>1.08</v>
+      </c>
+      <c r="AS129">
+        <v>1.29</v>
+      </c>
+      <c r="AT129">
+        <v>1.21</v>
+      </c>
+      <c r="AU129">
+        <v>1.76</v>
+      </c>
+      <c r="AV129">
+        <v>1.69</v>
+      </c>
+      <c r="AW129">
+        <v>3.45</v>
+      </c>
+      <c r="AX129">
+        <v>2.4</v>
+      </c>
+      <c r="AY129">
+        <v>5.75</v>
+      </c>
+      <c r="AZ129">
+        <v>1.71</v>
+      </c>
+      <c r="BA129">
+        <v>1.23</v>
+      </c>
+      <c r="BB129">
+        <v>1.38</v>
+      </c>
+      <c r="BC129">
+        <v>1.76</v>
+      </c>
+      <c r="BD129">
+        <v>2.19</v>
+      </c>
+      <c r="BE129">
+        <v>2.8</v>
+      </c>
+      <c r="BF129">
+        <v>3</v>
+      </c>
+      <c r="BG129">
+        <v>5</v>
+      </c>
+      <c r="BH129">
+        <v>1</v>
+      </c>
+      <c r="BI129">
+        <v>5</v>
+      </c>
+      <c r="BJ129">
+        <v>4</v>
+      </c>
+      <c r="BK129">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="130" spans="1:63">
+      <c r="A130" s="1">
+        <v>129</v>
+      </c>
+      <c r="B130">
+        <v>2529695</v>
+      </c>
+      <c r="C130" t="s">
+        <v>63</v>
+      </c>
+      <c r="D130" t="s">
+        <v>64</v>
+      </c>
+      <c r="E130" s="2">
+        <v>44997.45833333334</v>
+      </c>
+      <c r="F130">
+        <v>26</v>
+      </c>
+      <c r="G130" t="s">
+        <v>68</v>
+      </c>
+      <c r="H130" t="s">
+        <v>66</v>
+      </c>
+      <c r="I130">
+        <v>0</v>
+      </c>
+      <c r="J130">
+        <v>3</v>
+      </c>
+      <c r="K130">
+        <v>3</v>
+      </c>
+      <c r="L130">
+        <v>1</v>
+      </c>
+      <c r="M130">
+        <v>4</v>
+      </c>
+      <c r="N130">
+        <v>5</v>
+      </c>
+      <c r="O130" t="s">
+        <v>155</v>
+      </c>
+      <c r="P130" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q130">
+        <v>9</v>
+      </c>
+      <c r="R130">
+        <v>2</v>
+      </c>
+      <c r="S130">
+        <v>11</v>
+      </c>
+      <c r="T130">
+        <v>2.2</v>
+      </c>
+      <c r="U130">
+        <v>2.2</v>
+      </c>
+      <c r="V130">
+        <v>5</v>
+      </c>
+      <c r="W130">
+        <v>1.36</v>
+      </c>
+      <c r="X130">
+        <v>3</v>
+      </c>
+      <c r="Y130">
+        <v>2.75</v>
+      </c>
+      <c r="Z130">
+        <v>1.4</v>
+      </c>
+      <c r="AA130">
+        <v>7</v>
+      </c>
+      <c r="AB130">
+        <v>1.1</v>
+      </c>
+      <c r="AC130">
+        <v>1.55</v>
+      </c>
+      <c r="AD130">
+        <v>3.8</v>
+      </c>
+      <c r="AE130">
+        <v>4.7</v>
+      </c>
+      <c r="AF130">
+        <v>1.06</v>
+      </c>
+      <c r="AG130">
+        <v>8</v>
+      </c>
+      <c r="AH130">
+        <v>1.28</v>
+      </c>
+      <c r="AI130">
+        <v>3.5</v>
+      </c>
+      <c r="AJ130">
+        <v>1.87</v>
+      </c>
+      <c r="AK130">
+        <v>1.89</v>
+      </c>
+      <c r="AL130">
+        <v>1.83</v>
+      </c>
+      <c r="AM130">
+        <v>1.83</v>
+      </c>
+      <c r="AN130">
+        <v>1.12</v>
+      </c>
+      <c r="AO130">
+        <v>1.18</v>
+      </c>
+      <c r="AP130">
+        <v>2.25</v>
+      </c>
+      <c r="AQ130">
+        <v>2.69</v>
+      </c>
+      <c r="AR130">
+        <v>1.75</v>
+      </c>
+      <c r="AS130">
+        <v>2.5</v>
+      </c>
+      <c r="AT130">
+        <v>1.85</v>
+      </c>
+      <c r="AU130">
+        <v>1.99</v>
+      </c>
+      <c r="AV130">
+        <v>1.38</v>
+      </c>
+      <c r="AW130">
+        <v>3.37</v>
+      </c>
+      <c r="AX130">
+        <v>1.31</v>
+      </c>
+      <c r="AY130">
+        <v>6.75</v>
+      </c>
+      <c r="AZ130">
+        <v>3.95</v>
+      </c>
+      <c r="BA130">
+        <v>0</v>
+      </c>
+      <c r="BB130">
+        <v>1.56</v>
+      </c>
+      <c r="BC130">
+        <v>1.92</v>
+      </c>
+      <c r="BD130">
+        <v>2.39</v>
+      </c>
+      <c r="BE130">
+        <v>0</v>
+      </c>
+      <c r="BF130">
+        <v>11</v>
+      </c>
+      <c r="BG130">
+        <v>11</v>
+      </c>
+      <c r="BH130">
+        <v>12</v>
+      </c>
+      <c r="BI130">
+        <v>5</v>
+      </c>
+      <c r="BJ130">
+        <v>23</v>
+      </c>
+      <c r="BK130">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="131" spans="1:63">
+      <c r="A131" s="1">
+        <v>130</v>
+      </c>
+      <c r="B131">
+        <v>2529691</v>
+      </c>
+      <c r="C131" t="s">
+        <v>63</v>
+      </c>
+      <c r="D131" t="s">
+        <v>64</v>
+      </c>
+      <c r="E131" s="2">
+        <v>44997.5625</v>
+      </c>
+      <c r="F131">
+        <v>26</v>
+      </c>
+      <c r="G131" t="s">
+        <v>70</v>
+      </c>
+      <c r="H131" t="s">
+        <v>72</v>
+      </c>
+      <c r="I131">
+        <v>1</v>
+      </c>
+      <c r="J131">
+        <v>1</v>
+      </c>
+      <c r="K131">
+        <v>2</v>
+      </c>
+      <c r="L131">
+        <v>3</v>
+      </c>
+      <c r="M131">
+        <v>1</v>
+      </c>
+      <c r="N131">
+        <v>4</v>
+      </c>
+      <c r="O131" t="s">
+        <v>156</v>
+      </c>
+      <c r="P131" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q131">
+        <v>4</v>
+      </c>
+      <c r="R131">
+        <v>5</v>
+      </c>
+      <c r="S131">
+        <v>9</v>
+      </c>
+      <c r="T131">
+        <v>3.4</v>
+      </c>
+      <c r="U131">
+        <v>1.95</v>
+      </c>
+      <c r="V131">
+        <v>3.25</v>
+      </c>
+      <c r="W131">
+        <v>1.5</v>
+      </c>
+      <c r="X131">
+        <v>2.5</v>
+      </c>
+      <c r="Y131">
+        <v>3.4</v>
+      </c>
+      <c r="Z131">
+        <v>1.3</v>
+      </c>
+      <c r="AA131">
+        <v>10</v>
+      </c>
+      <c r="AB131">
+        <v>1.06</v>
+      </c>
+      <c r="AC131">
+        <v>3.3</v>
+      </c>
+      <c r="AD131">
+        <v>3.1</v>
+      </c>
+      <c r="AE131">
+        <v>2.2</v>
+      </c>
+      <c r="AF131">
+        <v>1.07</v>
+      </c>
+      <c r="AG131">
+        <v>7.5</v>
+      </c>
+      <c r="AH131">
+        <v>1.36</v>
+      </c>
+      <c r="AI131">
+        <v>2.95</v>
+      </c>
+      <c r="AJ131">
+        <v>2.25</v>
+      </c>
+      <c r="AK131">
+        <v>1.6</v>
+      </c>
+      <c r="AL131">
+        <v>1.91</v>
+      </c>
+      <c r="AM131">
+        <v>1.8</v>
+      </c>
+      <c r="AN131">
+        <v>1.4</v>
+      </c>
+      <c r="AO131">
+        <v>1.28</v>
+      </c>
+      <c r="AP131">
+        <v>1.42</v>
+      </c>
+      <c r="AQ131">
+        <v>0.67</v>
+      </c>
+      <c r="AR131">
+        <v>0.54</v>
+      </c>
+      <c r="AS131">
+        <v>0.85</v>
+      </c>
+      <c r="AT131">
+        <v>0.5</v>
+      </c>
+      <c r="AU131">
+        <v>1.43</v>
+      </c>
+      <c r="AV131">
+        <v>1.58</v>
+      </c>
+      <c r="AW131">
+        <v>3.01</v>
+      </c>
+      <c r="AX131">
+        <v>2.3</v>
+      </c>
+      <c r="AY131">
+        <v>5.75</v>
+      </c>
+      <c r="AZ131">
+        <v>1.76</v>
+      </c>
+      <c r="BA131">
+        <v>1.35</v>
+      </c>
+      <c r="BB131">
+        <v>1.57</v>
+      </c>
+      <c r="BC131">
+        <v>1.93</v>
+      </c>
+      <c r="BD131">
+        <v>2.43</v>
+      </c>
+      <c r="BE131">
+        <v>3.5</v>
+      </c>
+      <c r="BF131">
+        <v>6</v>
+      </c>
+      <c r="BG131">
+        <v>4</v>
+      </c>
+      <c r="BH131">
+        <v>2</v>
+      </c>
+      <c r="BI131">
+        <v>7</v>
+      </c>
+      <c r="BJ131">
+        <v>8</v>
+      </c>
+      <c r="BK131">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Slovenia PrvaLiga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Slovenia PrvaLiga_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK136"/>
+  <dimension ref="A1:BK138"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1915,7 +1915,7 @@
         <v>1</v>
       </c>
       <c r="AS7" t="n">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AT7" t="n">
         <v>1.21</v>
@@ -2730,7 +2730,7 @@
         <v>1.77</v>
       </c>
       <c r="AT11" t="n">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -3539,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AT15" t="n">
         <v>1.07</v>
@@ -3745,7 +3745,7 @@
         <v>1.29</v>
       </c>
       <c r="AT16" t="n">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AU16" t="n">
         <v>2.44</v>
@@ -4151,7 +4151,7 @@
         <v>1.31</v>
       </c>
       <c r="AT18" t="n">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AU18" t="n">
         <v>2.35</v>
@@ -4351,7 +4351,7 @@
         <v>0.5</v>
       </c>
       <c r="AS19" t="n">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AT19" t="n">
         <v>1.07</v>
@@ -4960,7 +4960,7 @@
         <v>0</v>
       </c>
       <c r="AS22" t="n">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AT22" t="n">
         <v>0.5</v>
@@ -5572,7 +5572,7 @@
         <v>1.29</v>
       </c>
       <c r="AT25" t="n">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AU25" t="n">
         <v>2.01</v>
@@ -5975,7 +5975,7 @@
         <v>0.67</v>
       </c>
       <c r="AS27" t="n">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AT27" t="n">
         <v>0.79</v>
@@ -6790,7 +6790,7 @@
         <v>0.79</v>
       </c>
       <c r="AT31" t="n">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AU31" t="n">
         <v>2.14</v>
@@ -7193,7 +7193,7 @@
         <v>0</v>
       </c>
       <c r="AS33" t="n">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AT33" t="n">
         <v>0.85</v>
@@ -7805,7 +7805,7 @@
         <v>1.77</v>
       </c>
       <c r="AT36" t="n">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AU36" t="n">
         <v>2.4</v>
@@ -8617,7 +8617,7 @@
         <v>2.5</v>
       </c>
       <c r="AT40" t="n">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AU40" t="n">
         <v>1.7</v>
@@ -8817,7 +8817,7 @@
         <v>0.75</v>
       </c>
       <c r="AS41" t="n">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AT41" t="n">
         <v>0.5</v>
@@ -9426,7 +9426,7 @@
         <v>3</v>
       </c>
       <c r="AS44" t="n">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AT44" t="n">
         <v>2.15</v>
@@ -9632,7 +9632,7 @@
         <v>1.31</v>
       </c>
       <c r="AT45" t="n">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AU45" t="n">
         <v>1.94</v>
@@ -10644,10 +10644,10 @@
         <v>1.5</v>
       </c>
       <c r="AS50" t="n">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AT50" t="n">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AU50" t="n">
         <v>1.33</v>
@@ -10847,10 +10847,10 @@
         <v>1</v>
       </c>
       <c r="AS51" t="n">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AT51" t="n">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AU51" t="n">
         <v>2.33</v>
@@ -11662,7 +11662,7 @@
         <v>0.79</v>
       </c>
       <c r="AT55" t="n">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AU55" t="n">
         <v>2.09</v>
@@ -11862,7 +11862,7 @@
         <v>1.2</v>
       </c>
       <c r="AS56" t="n">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AT56" t="n">
         <v>1</v>
@@ -12068,7 +12068,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AT57" t="n">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AU57" t="n">
         <v>1.62</v>
@@ -12877,7 +12877,7 @@
         <v>0.6</v>
       </c>
       <c r="AS61" t="n">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AT61" t="n">
         <v>0.85</v>
@@ -13080,7 +13080,7 @@
         <v>0.67</v>
       </c>
       <c r="AS62" t="n">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AT62" t="n">
         <v>0.79</v>
@@ -13692,7 +13692,7 @@
         <v>2.5</v>
       </c>
       <c r="AT65" t="n">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AU65" t="n">
         <v>1.79</v>
@@ -14098,7 +14098,7 @@
         <v>1.71</v>
       </c>
       <c r="AT67" t="n">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AU67" t="n">
         <v>1.89</v>
@@ -14907,7 +14907,7 @@
         <v>2</v>
       </c>
       <c r="AS71" t="n">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AT71" t="n">
         <v>1.69</v>
@@ -15516,10 +15516,10 @@
         <v>1.71</v>
       </c>
       <c r="AS74" t="n">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AT74" t="n">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AU74" t="n">
         <v>2.12</v>
@@ -16128,7 +16128,7 @@
         <v>1.29</v>
       </c>
       <c r="AT77" t="n">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AU77" t="n">
         <v>1.81</v>
@@ -16531,7 +16531,7 @@
         <v>1.86</v>
       </c>
       <c r="AS79" t="n">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AT79" t="n">
         <v>2.15</v>
@@ -17549,7 +17549,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AT84" t="n">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AU84" t="n">
         <v>1.71</v>
@@ -17749,7 +17749,7 @@
         <v>1.63</v>
       </c>
       <c r="AS85" t="n">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AT85" t="n">
         <v>1.69</v>
@@ -18561,10 +18561,10 @@
         <v>1.13</v>
       </c>
       <c r="AS89" t="n">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AT89" t="n">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AU89" t="n">
         <v>1.48</v>
@@ -20794,7 +20794,7 @@
         <v>1</v>
       </c>
       <c r="AS100" t="n">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AT100" t="n">
         <v>1.21</v>
@@ -21000,7 +21000,7 @@
         <v>1.77</v>
       </c>
       <c r="AT101" t="n">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AU101" t="n">
         <v>2.05</v>
@@ -21403,7 +21403,7 @@
         <v>1.2</v>
       </c>
       <c r="AS103" t="n">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AT103" t="n">
         <v>1.07</v>
@@ -21812,7 +21812,7 @@
         <v>1.29</v>
       </c>
       <c r="AT105" t="n">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AU105" t="n">
         <v>1.8</v>
@@ -22418,7 +22418,7 @@
         <v>1.09</v>
       </c>
       <c r="AS108" t="n">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AT108" t="n">
         <v>1.07</v>
@@ -22827,7 +22827,7 @@
         <v>1.31</v>
       </c>
       <c r="AT110" t="n">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AU110" t="n">
         <v>1.86</v>
@@ -23636,7 +23636,7 @@
         <v>0.55</v>
       </c>
       <c r="AS114" t="n">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AT114" t="n">
         <v>0.5</v>
@@ -24045,7 +24045,7 @@
         <v>1.29</v>
       </c>
       <c r="AT116" t="n">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AU116" t="n">
         <v>1.7</v>
@@ -24448,7 +24448,7 @@
         <v>0.75</v>
       </c>
       <c r="AS118" t="n">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AT118" t="n">
         <v>0.79</v>
@@ -25060,7 +25060,7 @@
         <v>0.79</v>
       </c>
       <c r="AT121" t="n">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AU121" t="n">
         <v>1.74</v>
@@ -25260,7 +25260,7 @@
         <v>0.45</v>
       </c>
       <c r="AS122" t="n">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AT122" t="n">
         <v>0.85</v>
@@ -26075,7 +26075,7 @@
         <v>1.77</v>
       </c>
       <c r="AT126" t="n">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AU126" t="n">
         <v>2.08</v>
@@ -26887,7 +26887,7 @@
         <v>2.5</v>
       </c>
       <c r="AT130" t="n">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AU130" t="n">
         <v>1.99</v>
@@ -27087,7 +27087,7 @@
         <v>0.54</v>
       </c>
       <c r="AS131" t="n">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AT131" t="n">
         <v>0.5</v>
@@ -27293,7 +27293,7 @@
         <v>1.31</v>
       </c>
       <c r="AT132" t="n">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AU132" t="n">
         <v>1.8</v>
@@ -27696,7 +27696,7 @@
         <v>2.08</v>
       </c>
       <c r="AS134" t="n">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AT134" t="n">
         <v>2.15</v>
@@ -28157,6 +28157,412 @@
       </c>
       <c r="BK136" t="n">
         <v>15</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B137" t="n">
+        <v>2529701</v>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>Slovenia PrvaLiga</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E137" s="2" t="n">
+        <v>45003.45833333334</v>
+      </c>
+      <c r="F137" t="n">
+        <v>28</v>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>Radomlje</t>
+        </is>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>Maribor</t>
+        </is>
+      </c>
+      <c r="I137" t="n">
+        <v>1</v>
+      </c>
+      <c r="J137" t="n">
+        <v>1</v>
+      </c>
+      <c r="K137" t="n">
+        <v>2</v>
+      </c>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+      <c r="N137" t="n">
+        <v>2</v>
+      </c>
+      <c r="O137" t="inlineStr">
+        <is>
+          <t>['10']</t>
+        </is>
+      </c>
+      <c r="P137" t="inlineStr">
+        <is>
+          <t>['38']</t>
+        </is>
+      </c>
+      <c r="Q137" t="n">
+        <v>5</v>
+      </c>
+      <c r="R137" t="n">
+        <v>6</v>
+      </c>
+      <c r="S137" t="n">
+        <v>11</v>
+      </c>
+      <c r="T137" t="n">
+        <v>4.68</v>
+      </c>
+      <c r="U137" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V137" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="W137" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X137" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y137" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Z137" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AA137" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AB137" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC137" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AD137" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AE137" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AF137" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG137" t="n">
+        <v>13.75</v>
+      </c>
+      <c r="AH137" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AI137" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="AJ137" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AK137" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AL137" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AM137" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN137" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AO137" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP137" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AQ137" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="AR137" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AS137" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AT137" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AU137" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AV137" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AW137" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AX137" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="AY137" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AZ137" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BA137" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BB137" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BC137" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BD137" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BE137" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF137" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG137" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH137" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI137" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ137" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK137" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B138" t="n">
+        <v>2529705</v>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>Slovenia PrvaLiga</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E138" s="2" t="n">
+        <v>45003.5625</v>
+      </c>
+      <c r="F138" t="n">
+        <v>28</v>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>Celje</t>
+        </is>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>Domžale</t>
+        </is>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
+      <c r="K138" t="n">
+        <v>0</v>
+      </c>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="n">
+        <v>0</v>
+      </c>
+      <c r="N138" t="n">
+        <v>1</v>
+      </c>
+      <c r="O138" t="inlineStr">
+        <is>
+          <t>['78']</t>
+        </is>
+      </c>
+      <c r="P138" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q138" t="n">
+        <v>6</v>
+      </c>
+      <c r="R138" t="n">
+        <v>2</v>
+      </c>
+      <c r="S138" t="n">
+        <v>8</v>
+      </c>
+      <c r="T138" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="U138" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V138" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="W138" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X138" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="Y138" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Z138" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AA138" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB138" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC138" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AD138" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AE138" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="AF138" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG138" t="n">
+        <v>12.25</v>
+      </c>
+      <c r="AH138" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AI138" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="AJ138" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AK138" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AL138" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM138" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN138" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AO138" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AP138" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AQ138" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AR138" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AS138" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AT138" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AU138" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AV138" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AW138" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="AX138" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AY138" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ138" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="BA138" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BB138" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BC138" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="BD138" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="BE138" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BF138" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG138" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH138" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI138" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ138" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK138" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Slovenia PrvaLiga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Slovenia PrvaLiga_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK141"/>
+  <dimension ref="A1:BK146"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,10 +900,10 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AT3" t="n">
         <v>1.21</v>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AT5" t="n">
         <v>1.07</v>
@@ -1712,10 +1712,10 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AT6" t="n">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -2930,7 +2930,7 @@
         <v>3</v>
       </c>
       <c r="AS12" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AT12" t="n">
         <v>1</v>
@@ -3133,10 +3133,10 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AT13" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AU13" t="n">
         <v>1.49</v>
@@ -3336,10 +3336,10 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AT14" t="n">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AU14" t="n">
         <v>1.29</v>
@@ -3539,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>2.14</v>
+        <v>2.07</v>
       </c>
       <c r="AT15" t="n">
         <v>1.07</v>
@@ -3742,10 +3742,10 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AT16" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AU16" t="n">
         <v>2.44</v>
@@ -4757,7 +4757,7 @@
         <v>0</v>
       </c>
       <c r="AS21" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AT21" t="n">
         <v>1.79</v>
@@ -4960,10 +4960,10 @@
         <v>0</v>
       </c>
       <c r="AS22" t="n">
-        <v>2.14</v>
+        <v>2.07</v>
       </c>
       <c r="AT22" t="n">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AU22" t="n">
         <v>2.42</v>
@@ -5166,7 +5166,7 @@
         <v>1.86</v>
       </c>
       <c r="AT23" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AU23" t="n">
         <v>3.08</v>
@@ -5366,7 +5366,7 @@
         <v>3</v>
       </c>
       <c r="AS24" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AT24" t="n">
         <v>1</v>
@@ -5569,10 +5569,10 @@
         <v>0</v>
       </c>
       <c r="AS25" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AT25" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AU25" t="n">
         <v>2.01</v>
@@ -5772,7 +5772,7 @@
         <v>0</v>
       </c>
       <c r="AS26" t="n">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AT26" t="n">
         <v>0.79</v>
@@ -5978,7 +5978,7 @@
         <v>0.86</v>
       </c>
       <c r="AT27" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AU27" t="n">
         <v>1.35</v>
@@ -6381,7 +6381,7 @@
         <v>3</v>
       </c>
       <c r="AS29" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AT29" t="n">
         <v>2</v>
@@ -6787,7 +6787,7 @@
         <v>1.5</v>
       </c>
       <c r="AS31" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AT31" t="n">
         <v>1.71</v>
@@ -6993,7 +6993,7 @@
         <v>0.64</v>
       </c>
       <c r="AT32" t="n">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AU32" t="n">
         <v>1.31</v>
@@ -7193,7 +7193,7 @@
         <v>0</v>
       </c>
       <c r="AS33" t="n">
-        <v>2.14</v>
+        <v>2.07</v>
       </c>
       <c r="AT33" t="n">
         <v>0.79</v>
@@ -7396,7 +7396,7 @@
         <v>2</v>
       </c>
       <c r="AS34" t="n">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AT34" t="n">
         <v>1</v>
@@ -7599,7 +7599,7 @@
         <v>1.5</v>
       </c>
       <c r="AS35" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AT35" t="n">
         <v>1.79</v>
@@ -7805,7 +7805,7 @@
         <v>1.86</v>
       </c>
       <c r="AT36" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AU36" t="n">
         <v>2.4</v>
@@ -8005,7 +8005,7 @@
         <v>1.25</v>
       </c>
       <c r="AS37" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AT37" t="n">
         <v>1.07</v>
@@ -8208,7 +8208,7 @@
         <v>0.75</v>
       </c>
       <c r="AS38" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AT38" t="n">
         <v>1.21</v>
@@ -8414,7 +8414,7 @@
         <v>1.71</v>
       </c>
       <c r="AT39" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AU39" t="n">
         <v>1.97</v>
@@ -8614,7 +8614,7 @@
         <v>1.33</v>
       </c>
       <c r="AS40" t="n">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AT40" t="n">
         <v>1.71</v>
@@ -8820,7 +8820,7 @@
         <v>0.86</v>
       </c>
       <c r="AT41" t="n">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AU41" t="n">
         <v>1.32</v>
@@ -9020,7 +9020,7 @@
         <v>1.5</v>
       </c>
       <c r="AS42" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AT42" t="n">
         <v>1</v>
@@ -9426,7 +9426,7 @@
         <v>3</v>
       </c>
       <c r="AS44" t="n">
-        <v>2.14</v>
+        <v>2.07</v>
       </c>
       <c r="AT44" t="n">
         <v>2</v>
@@ -9632,7 +9632,7 @@
         <v>1.43</v>
       </c>
       <c r="AT45" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AU45" t="n">
         <v>1.94</v>
@@ -10647,7 +10647,7 @@
         <v>0.86</v>
       </c>
       <c r="AT50" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AU50" t="n">
         <v>1.33</v>
@@ -10847,7 +10847,7 @@
         <v>1</v>
       </c>
       <c r="AS51" t="n">
-        <v>2.14</v>
+        <v>2.07</v>
       </c>
       <c r="AT51" t="n">
         <v>1.71</v>
@@ -11050,7 +11050,7 @@
         <v>1.2</v>
       </c>
       <c r="AS52" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AT52" t="n">
         <v>1.07</v>
@@ -11253,10 +11253,10 @@
         <v>0.8</v>
       </c>
       <c r="AS53" t="n">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AT53" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AU53" t="n">
         <v>1.8</v>
@@ -11456,10 +11456,10 @@
         <v>0.8</v>
       </c>
       <c r="AS54" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AT54" t="n">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AU54" t="n">
         <v>1.84</v>
@@ -11659,10 +11659,10 @@
         <v>1.8</v>
       </c>
       <c r="AS55" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AT55" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AU55" t="n">
         <v>2.09</v>
@@ -11862,7 +11862,7 @@
         <v>1.2</v>
       </c>
       <c r="AS56" t="n">
-        <v>2.14</v>
+        <v>2.07</v>
       </c>
       <c r="AT56" t="n">
         <v>1</v>
@@ -13080,10 +13080,10 @@
         <v>0.67</v>
       </c>
       <c r="AS62" t="n">
-        <v>2.14</v>
+        <v>2.07</v>
       </c>
       <c r="AT62" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AU62" t="n">
         <v>2.13</v>
@@ -13283,10 +13283,10 @@
         <v>0.67</v>
       </c>
       <c r="AS63" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AT63" t="n">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AU63" t="n">
         <v>1.84</v>
@@ -13486,7 +13486,7 @@
         <v>0.67</v>
       </c>
       <c r="AS64" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AT64" t="n">
         <v>0.79</v>
@@ -13689,10 +13689,10 @@
         <v>2</v>
       </c>
       <c r="AS65" t="n">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AT65" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AU65" t="n">
         <v>1.79</v>
@@ -14501,7 +14501,7 @@
         <v>2</v>
       </c>
       <c r="AS69" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AT69" t="n">
         <v>2</v>
@@ -15110,7 +15110,7 @@
         <v>0.71</v>
       </c>
       <c r="AS72" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AT72" t="n">
         <v>0.79</v>
@@ -15516,10 +15516,10 @@
         <v>1.71</v>
       </c>
       <c r="AS74" t="n">
-        <v>2.14</v>
+        <v>2.07</v>
       </c>
       <c r="AT74" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AU74" t="n">
         <v>2.12</v>
@@ -15719,7 +15719,7 @@
         <v>1.86</v>
       </c>
       <c r="AS75" t="n">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AT75" t="n">
         <v>1.79</v>
@@ -15925,7 +15925,7 @@
         <v>1.86</v>
       </c>
       <c r="AT76" t="n">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AU76" t="n">
         <v>2.18</v>
@@ -16125,7 +16125,7 @@
         <v>1.14</v>
       </c>
       <c r="AS77" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AT77" t="n">
         <v>1.71</v>
@@ -16328,7 +16328,7 @@
         <v>0.86</v>
       </c>
       <c r="AS78" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AT78" t="n">
         <v>1.21</v>
@@ -16737,7 +16737,7 @@
         <v>1.43</v>
       </c>
       <c r="AT80" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AU80" t="n">
         <v>1.82</v>
@@ -17343,7 +17343,7 @@
         <v>2</v>
       </c>
       <c r="AS83" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AT83" t="n">
         <v>2</v>
@@ -17549,7 +17549,7 @@
         <v>0.64</v>
       </c>
       <c r="AT84" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AU84" t="n">
         <v>1.71</v>
@@ -17749,7 +17749,7 @@
         <v>1.63</v>
       </c>
       <c r="AS85" t="n">
-        <v>2.14</v>
+        <v>2.07</v>
       </c>
       <c r="AT85" t="n">
         <v>1.79</v>
@@ -18155,10 +18155,10 @@
         <v>0.5</v>
       </c>
       <c r="AS87" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AT87" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AU87" t="n">
         <v>1.74</v>
@@ -18361,7 +18361,7 @@
         <v>1.71</v>
       </c>
       <c r="AT88" t="n">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AU88" t="n">
         <v>1.86</v>
@@ -18764,7 +18764,7 @@
         <v>1.25</v>
       </c>
       <c r="AS90" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AT90" t="n">
         <v>1.07</v>
@@ -18967,7 +18967,7 @@
         <v>1.13</v>
       </c>
       <c r="AS91" t="n">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AT91" t="n">
         <v>1.21</v>
@@ -19170,10 +19170,10 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS92" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AT92" t="n">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AU92" t="n">
         <v>1.76</v>
@@ -19576,10 +19576,10 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS94" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AT94" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AU94" t="n">
         <v>1.8</v>
@@ -19779,7 +19779,7 @@
         <v>1.11</v>
       </c>
       <c r="AS95" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AT95" t="n">
         <v>1.21</v>
@@ -19982,7 +19982,7 @@
         <v>1.22</v>
       </c>
       <c r="AS96" t="n">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AT96" t="n">
         <v>1.07</v>
@@ -21200,10 +21200,10 @@
         <v>0.6</v>
       </c>
       <c r="AS102" t="n">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AT102" t="n">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AU102" t="n">
         <v>1.84</v>
@@ -21403,7 +21403,7 @@
         <v>1.2</v>
       </c>
       <c r="AS103" t="n">
-        <v>2.14</v>
+        <v>2.07</v>
       </c>
       <c r="AT103" t="n">
         <v>1.07</v>
@@ -21606,7 +21606,7 @@
         <v>0.7</v>
       </c>
       <c r="AS104" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AT104" t="n">
         <v>1</v>
@@ -21809,10 +21809,10 @@
         <v>1.78</v>
       </c>
       <c r="AS105" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AT105" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AU105" t="n">
         <v>1.8</v>
@@ -22012,10 +22012,10 @@
         <v>0.5</v>
       </c>
       <c r="AS106" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AT106" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AU106" t="n">
         <v>1.7</v>
@@ -22621,7 +22621,7 @@
         <v>1.7</v>
       </c>
       <c r="AS109" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AT109" t="n">
         <v>1.79</v>
@@ -23230,7 +23230,7 @@
         <v>0.73</v>
       </c>
       <c r="AS112" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AT112" t="n">
         <v>1</v>
@@ -23436,7 +23436,7 @@
         <v>1.86</v>
       </c>
       <c r="AT113" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AU113" t="n">
         <v>2.07</v>
@@ -23636,10 +23636,10 @@
         <v>0.55</v>
       </c>
       <c r="AS114" t="n">
-        <v>2.14</v>
+        <v>2.07</v>
       </c>
       <c r="AT114" t="n">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AU114" t="n">
         <v>1.91</v>
@@ -23839,7 +23839,7 @@
         <v>0.5</v>
       </c>
       <c r="AS115" t="n">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AT115" t="n">
         <v>0.79</v>
@@ -24042,10 +24042,10 @@
         <v>1.9</v>
       </c>
       <c r="AS116" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AT116" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AU116" t="n">
         <v>1.7</v>
@@ -24451,7 +24451,7 @@
         <v>0.86</v>
       </c>
       <c r="AT118" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AU118" t="n">
         <v>1.44</v>
@@ -24651,7 +24651,7 @@
         <v>2</v>
       </c>
       <c r="AS119" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AT119" t="n">
         <v>2</v>
@@ -25057,7 +25057,7 @@
         <v>1.64</v>
       </c>
       <c r="AS121" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AT121" t="n">
         <v>1.71</v>
@@ -25260,7 +25260,7 @@
         <v>0.45</v>
       </c>
       <c r="AS122" t="n">
-        <v>2.14</v>
+        <v>2.07</v>
       </c>
       <c r="AT122" t="n">
         <v>0.79</v>
@@ -25463,7 +25463,7 @@
         <v>1.64</v>
       </c>
       <c r="AS123" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AT123" t="n">
         <v>1.79</v>
@@ -25666,7 +25666,7 @@
         <v>0.92</v>
       </c>
       <c r="AS124" t="n">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AT124" t="n">
         <v>1</v>
@@ -25872,7 +25872,7 @@
         <v>0.64</v>
       </c>
       <c r="AT125" t="n">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AU125" t="n">
         <v>1.55</v>
@@ -26075,7 +26075,7 @@
         <v>1.86</v>
       </c>
       <c r="AT126" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AU126" t="n">
         <v>2.08</v>
@@ -26275,7 +26275,7 @@
         <v>1.08</v>
       </c>
       <c r="AS127" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AT127" t="n">
         <v>1.07</v>
@@ -26481,7 +26481,7 @@
         <v>1.71</v>
       </c>
       <c r="AT128" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AU128" t="n">
         <v>1.78</v>
@@ -26681,7 +26681,7 @@
         <v>1.08</v>
       </c>
       <c r="AS129" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AT129" t="n">
         <v>1.21</v>
@@ -26884,7 +26884,7 @@
         <v>1.75</v>
       </c>
       <c r="AS130" t="n">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AT130" t="n">
         <v>1.71</v>
@@ -27090,7 +27090,7 @@
         <v>0.86</v>
       </c>
       <c r="AT131" t="n">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AU131" t="n">
         <v>1.43</v>
@@ -27293,7 +27293,7 @@
         <v>1.43</v>
       </c>
       <c r="AT132" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AU132" t="n">
         <v>1.8</v>
@@ -27493,7 +27493,7 @@
         <v>0.85</v>
       </c>
       <c r="AS133" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AT133" t="n">
         <v>1</v>
@@ -27696,7 +27696,7 @@
         <v>2.08</v>
       </c>
       <c r="AS134" t="n">
-        <v>2.14</v>
+        <v>2.07</v>
       </c>
       <c r="AT134" t="n">
         <v>2</v>
@@ -28308,7 +28308,7 @@
         <v>0.86</v>
       </c>
       <c r="AT137" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AU137" t="n">
         <v>1.43</v>
@@ -28508,7 +28508,7 @@
         <v>1.85</v>
       </c>
       <c r="AS138" t="n">
-        <v>2.14</v>
+        <v>2.07</v>
       </c>
       <c r="AT138" t="n">
         <v>1.71</v>
@@ -29172,6 +29172,1021 @@
       </c>
       <c r="BK141" t="n">
         <v>13</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B142" t="n">
+        <v>2529706</v>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>Slovenia PrvaLiga</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E142" s="2" t="n">
+        <v>45017.41666666666</v>
+      </c>
+      <c r="F142" t="n">
+        <v>29</v>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>Celje</t>
+        </is>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>Radomlje</t>
+        </is>
+      </c>
+      <c r="I142" t="n">
+        <v>1</v>
+      </c>
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+      <c r="N142" t="n">
+        <v>2</v>
+      </c>
+      <c r="O142" t="inlineStr">
+        <is>
+          <t>['15']</t>
+        </is>
+      </c>
+      <c r="P142" t="inlineStr">
+        <is>
+          <t>['50']</t>
+        </is>
+      </c>
+      <c r="Q142" t="n">
+        <v>9</v>
+      </c>
+      <c r="R142" t="n">
+        <v>2</v>
+      </c>
+      <c r="S142" t="n">
+        <v>11</v>
+      </c>
+      <c r="T142" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="U142" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="V142" t="n">
+        <v>6.07</v>
+      </c>
+      <c r="W142" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="X142" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="Y142" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z142" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AA142" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB142" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC142" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AD142" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AE142" t="n">
+        <v>6</v>
+      </c>
+      <c r="AF142" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG142" t="n">
+        <v>14.75</v>
+      </c>
+      <c r="AH142" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI142" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AJ142" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AK142" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AL142" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AM142" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AN142" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AO142" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AP142" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AQ142" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AR142" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS142" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AT142" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU142" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AV142" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AW142" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="AX142" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AY142" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ142" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA142" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB142" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC142" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BD142" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="BE142" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="BF142" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG142" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH142" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI142" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ142" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK142" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B143" t="n">
+        <v>2529710</v>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>Slovenia PrvaLiga</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E143" s="2" t="n">
+        <v>45017.52083333334</v>
+      </c>
+      <c r="F143" t="n">
+        <v>29</v>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>Gorica</t>
+        </is>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>Maribor</t>
+        </is>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="n">
+        <v>1</v>
+      </c>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="n">
+        <v>0</v>
+      </c>
+      <c r="M143" t="n">
+        <v>3</v>
+      </c>
+      <c r="N143" t="n">
+        <v>3</v>
+      </c>
+      <c r="O143" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P143" t="inlineStr">
+        <is>
+          <t>['14', '59', '62']</t>
+        </is>
+      </c>
+      <c r="Q143" t="n">
+        <v>2</v>
+      </c>
+      <c r="R143" t="n">
+        <v>4</v>
+      </c>
+      <c r="S143" t="n">
+        <v>6</v>
+      </c>
+      <c r="T143" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="U143" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V143" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="W143" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X143" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="Y143" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Z143" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA143" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="AB143" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC143" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AD143" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE143" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AF143" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG143" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="AH143" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AI143" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ143" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AK143" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AL143" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AM143" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN143" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AO143" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP143" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AQ143" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="AR143" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AS143" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="AT143" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AU143" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AV143" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AW143" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AX143" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY143" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ143" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA143" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB143" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC143" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD143" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE143" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF143" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG143" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH143" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI143" t="n">
+        <v>10</v>
+      </c>
+      <c r="BJ143" t="n">
+        <v>4</v>
+      </c>
+      <c r="BK143" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B144" t="n">
+        <v>2529709</v>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>Slovenia PrvaLiga</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E144" s="2" t="n">
+        <v>45017.63541666666</v>
+      </c>
+      <c r="F144" t="n">
+        <v>29</v>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>Koper</t>
+        </is>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>Bravo</t>
+        </is>
+      </c>
+      <c r="I144" t="n">
+        <v>1</v>
+      </c>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="n">
+        <v>0</v>
+      </c>
+      <c r="N144" t="n">
+        <v>1</v>
+      </c>
+      <c r="O144" t="inlineStr">
+        <is>
+          <t>['26']</t>
+        </is>
+      </c>
+      <c r="P144" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q144" t="n">
+        <v>4</v>
+      </c>
+      <c r="R144" t="n">
+        <v>0</v>
+      </c>
+      <c r="S144" t="n">
+        <v>4</v>
+      </c>
+      <c r="T144" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="U144" t="n">
+        <v>2</v>
+      </c>
+      <c r="V144" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W144" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="X144" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Y144" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="Z144" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AA144" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB144" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AC144" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD144" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE144" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AF144" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG144" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH144" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AI144" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AJ144" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AK144" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AL144" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AM144" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN144" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO144" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP144" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AQ144" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AR144" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AS144" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AT144" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="AU144" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AV144" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AW144" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="AX144" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AY144" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AZ144" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="BA144" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB144" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BC144" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="BD144" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="BE144" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF144" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG144" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH144" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI144" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ144" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK144" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B145" t="n">
+        <v>2529708</v>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>Slovenia PrvaLiga</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E145" s="2" t="n">
+        <v>45018.52083333334</v>
+      </c>
+      <c r="F145" t="n">
+        <v>29</v>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>Olimpija</t>
+        </is>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>Tabor Sežana</t>
+        </is>
+      </c>
+      <c r="I145" t="n">
+        <v>1</v>
+      </c>
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="n">
+        <v>0</v>
+      </c>
+      <c r="N145" t="n">
+        <v>1</v>
+      </c>
+      <c r="O145" t="inlineStr">
+        <is>
+          <t>['5']</t>
+        </is>
+      </c>
+      <c r="P145" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q145" t="n">
+        <v>4</v>
+      </c>
+      <c r="R145" t="n">
+        <v>4</v>
+      </c>
+      <c r="S145" t="n">
+        <v>8</v>
+      </c>
+      <c r="T145" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="U145" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V145" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="W145" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X145" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Y145" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Z145" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA145" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB145" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC145" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AD145" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AE145" t="n">
+        <v>9</v>
+      </c>
+      <c r="AF145" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG145" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH145" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AI145" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="AJ145" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AK145" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AL145" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AM145" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN145" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AO145" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AP145" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="AQ145" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AR145" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="AS145" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="AT145" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="AU145" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AV145" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AW145" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="AX145" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AY145" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AZ145" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="BA145" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB145" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC145" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BD145" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="BE145" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF145" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG145" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH145" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI145" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ145" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK145" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B146" t="n">
+        <v>2529707</v>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>Slovenia PrvaLiga</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E146" s="2" t="n">
+        <v>45018.63541666666</v>
+      </c>
+      <c r="F146" t="n">
+        <v>29</v>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>Domžale</t>
+        </is>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>Mura</t>
+        </is>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
+      <c r="K146" t="n">
+        <v>0</v>
+      </c>
+      <c r="L146" t="n">
+        <v>0</v>
+      </c>
+      <c r="M146" t="n">
+        <v>0</v>
+      </c>
+      <c r="N146" t="n">
+        <v>0</v>
+      </c>
+      <c r="O146" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P146" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q146" t="n">
+        <v>3</v>
+      </c>
+      <c r="R146" t="n">
+        <v>2</v>
+      </c>
+      <c r="S146" t="n">
+        <v>5</v>
+      </c>
+      <c r="T146" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="U146" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="V146" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="W146" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="X146" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="Y146" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Z146" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AA146" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB146" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC146" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="AD146" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE146" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AF146" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG146" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AH146" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI146" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="AJ146" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AK146" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AL146" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AM146" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN146" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AO146" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP146" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AQ146" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AR146" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AS146" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AT146" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AU146" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AV146" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AW146" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="AX146" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AY146" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AZ146" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="BA146" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB146" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BC146" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="BD146" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="BE146" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BF146" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG146" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH146" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI146" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ146" t="n">
+        <v>5</v>
+      </c>
+      <c r="BK146" t="n">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Slovenia PrvaLiga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Slovenia PrvaLiga_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK146"/>
+  <dimension ref="A1:BK148"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1915,7 +1915,7 @@
         <v>1</v>
       </c>
       <c r="AS7" t="n">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AT7" t="n">
         <v>1.21</v>
@@ -2121,7 +2121,7 @@
         <v>1.71</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AU8" t="n">
         <v>1.17</v>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AT9" t="n">
         <v>2</v>
@@ -2730,7 +2730,7 @@
         <v>1.86</v>
       </c>
       <c r="AT11" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>1</v>
       </c>
       <c r="AS17" t="n">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AT17" t="n">
         <v>1.21</v>
@@ -4151,7 +4151,7 @@
         <v>1.43</v>
       </c>
       <c r="AT18" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AU18" t="n">
         <v>2.35</v>
@@ -4351,7 +4351,7 @@
         <v>0.5</v>
       </c>
       <c r="AS19" t="n">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AT19" t="n">
         <v>1.07</v>
@@ -5775,7 +5775,7 @@
         <v>2.53</v>
       </c>
       <c r="AT26" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AU26" t="n">
         <v>1.28</v>
@@ -5975,7 +5975,7 @@
         <v>0.67</v>
       </c>
       <c r="AS27" t="n">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AT27" t="n">
         <v>0.73</v>
@@ -6790,7 +6790,7 @@
         <v>0.73</v>
       </c>
       <c r="AT31" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AU31" t="n">
         <v>2.14</v>
@@ -6990,7 +6990,7 @@
         <v>0</v>
       </c>
       <c r="AS32" t="n">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AT32" t="n">
         <v>0.47</v>
@@ -7196,7 +7196,7 @@
         <v>2.07</v>
       </c>
       <c r="AT33" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AU33" t="n">
         <v>2.5</v>
@@ -8617,7 +8617,7 @@
         <v>2.53</v>
       </c>
       <c r="AT40" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AU40" t="n">
         <v>1.7</v>
@@ -8817,7 +8817,7 @@
         <v>0.75</v>
       </c>
       <c r="AS41" t="n">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AT41" t="n">
         <v>0.47</v>
@@ -9223,10 +9223,10 @@
         <v>0</v>
       </c>
       <c r="AS43" t="n">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AT43" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AU43" t="n">
         <v>1.37</v>
@@ -10035,7 +10035,7 @@
         <v>1.5</v>
       </c>
       <c r="AS47" t="n">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AT47" t="n">
         <v>1.79</v>
@@ -10444,7 +10444,7 @@
         <v>1.43</v>
       </c>
       <c r="AT49" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AU49" t="n">
         <v>1.91</v>
@@ -10644,7 +10644,7 @@
         <v>1.5</v>
       </c>
       <c r="AS50" t="n">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AT50" t="n">
         <v>1.8</v>
@@ -10850,7 +10850,7 @@
         <v>2.07</v>
       </c>
       <c r="AT51" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AU51" t="n">
         <v>2.33</v>
@@ -12065,10 +12065,10 @@
         <v>0.8</v>
       </c>
       <c r="AS57" t="n">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AT57" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AU57" t="n">
         <v>1.62</v>
@@ -12877,10 +12877,10 @@
         <v>0.6</v>
       </c>
       <c r="AS61" t="n">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AT61" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AU61" t="n">
         <v>1.16</v>
@@ -13489,7 +13489,7 @@
         <v>1.4</v>
       </c>
       <c r="AT64" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AU64" t="n">
         <v>1.77</v>
@@ -14098,7 +14098,7 @@
         <v>1.71</v>
       </c>
       <c r="AT67" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AU67" t="n">
         <v>1.89</v>
@@ -14298,7 +14298,7 @@
         <v>1.17</v>
       </c>
       <c r="AS68" t="n">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AT68" t="n">
         <v>1.07</v>
@@ -14907,7 +14907,7 @@
         <v>2</v>
       </c>
       <c r="AS71" t="n">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AT71" t="n">
         <v>1.79</v>
@@ -15113,7 +15113,7 @@
         <v>1.27</v>
       </c>
       <c r="AT72" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AU72" t="n">
         <v>1.78</v>
@@ -15313,7 +15313,7 @@
         <v>0.86</v>
       </c>
       <c r="AS73" t="n">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AT73" t="n">
         <v>1</v>
@@ -16128,7 +16128,7 @@
         <v>1.4</v>
       </c>
       <c r="AT77" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AU77" t="n">
         <v>1.81</v>
@@ -16531,7 +16531,7 @@
         <v>1.86</v>
       </c>
       <c r="AS79" t="n">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AT79" t="n">
         <v>2</v>
@@ -17546,7 +17546,7 @@
         <v>1.63</v>
       </c>
       <c r="AS84" t="n">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AT84" t="n">
         <v>1.8</v>
@@ -17955,7 +17955,7 @@
         <v>1.86</v>
       </c>
       <c r="AT86" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AU86" t="n">
         <v>2.05</v>
@@ -18561,10 +18561,10 @@
         <v>1.13</v>
       </c>
       <c r="AS89" t="n">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AT89" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AU89" t="n">
         <v>1.48</v>
@@ -20388,7 +20388,7 @@
         <v>2.11</v>
       </c>
       <c r="AS98" t="n">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AT98" t="n">
         <v>2</v>
@@ -20594,7 +20594,7 @@
         <v>1.71</v>
       </c>
       <c r="AT99" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AU99" t="n">
         <v>1.86</v>
@@ -20794,7 +20794,7 @@
         <v>1</v>
       </c>
       <c r="AS100" t="n">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AT100" t="n">
         <v>1.21</v>
@@ -21000,7 +21000,7 @@
         <v>1.86</v>
       </c>
       <c r="AT101" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AU101" t="n">
         <v>2.05</v>
@@ -22215,7 +22215,7 @@
         <v>1.18</v>
       </c>
       <c r="AS107" t="n">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AT107" t="n">
         <v>1.21</v>
@@ -22418,7 +22418,7 @@
         <v>1.09</v>
       </c>
       <c r="AS108" t="n">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AT108" t="n">
         <v>1.07</v>
@@ -22827,7 +22827,7 @@
         <v>1.43</v>
       </c>
       <c r="AT110" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AU110" t="n">
         <v>1.86</v>
@@ -23842,7 +23842,7 @@
         <v>2.53</v>
       </c>
       <c r="AT115" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AU115" t="n">
         <v>1.81</v>
@@ -24448,7 +24448,7 @@
         <v>0.75</v>
       </c>
       <c r="AS118" t="n">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AT118" t="n">
         <v>0.73</v>
@@ -25060,7 +25060,7 @@
         <v>0.73</v>
       </c>
       <c r="AT121" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AU121" t="n">
         <v>1.74</v>
@@ -25263,7 +25263,7 @@
         <v>2.07</v>
       </c>
       <c r="AT122" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AU122" t="n">
         <v>1.92</v>
@@ -25869,7 +25869,7 @@
         <v>0.5</v>
       </c>
       <c r="AS125" t="n">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AT125" t="n">
         <v>0.47</v>
@@ -26887,7 +26887,7 @@
         <v>2.53</v>
       </c>
       <c r="AT130" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AU130" t="n">
         <v>1.99</v>
@@ -27087,7 +27087,7 @@
         <v>0.54</v>
       </c>
       <c r="AS131" t="n">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AT131" t="n">
         <v>0.47</v>
@@ -27899,10 +27899,10 @@
         <v>0.67</v>
       </c>
       <c r="AS135" t="n">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AT135" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AU135" t="n">
         <v>1.53</v>
@@ -28305,7 +28305,7 @@
         <v>1.77</v>
       </c>
       <c r="AS137" t="n">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AT137" t="n">
         <v>1.8</v>
@@ -28511,7 +28511,7 @@
         <v>2.07</v>
       </c>
       <c r="AT138" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AU138" t="n">
         <v>1.9</v>
@@ -28714,7 +28714,7 @@
         <v>1.43</v>
       </c>
       <c r="AT139" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AU139" t="n">
         <v>1.81</v>
@@ -28914,7 +28914,7 @@
         <v>1.69</v>
       </c>
       <c r="AS140" t="n">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AT140" t="n">
         <v>1.79</v>
@@ -30187,6 +30187,412 @@
       </c>
       <c r="BK146" t="n">
         <v>11</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B147" t="n">
+        <v>2529714</v>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>Slovenia PrvaLiga</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E147" s="2" t="n">
+        <v>45024.41666666666</v>
+      </c>
+      <c r="F147" t="n">
+        <v>30</v>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>Tabor Sežana</t>
+        </is>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>Domžale</t>
+        </is>
+      </c>
+      <c r="I147" t="n">
+        <v>1</v>
+      </c>
+      <c r="J147" t="n">
+        <v>1</v>
+      </c>
+      <c r="K147" t="n">
+        <v>2</v>
+      </c>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+      <c r="N147" t="n">
+        <v>2</v>
+      </c>
+      <c r="O147" t="inlineStr">
+        <is>
+          <t>['17']</t>
+        </is>
+      </c>
+      <c r="P147" t="inlineStr">
+        <is>
+          <t>['44']</t>
+        </is>
+      </c>
+      <c r="Q147" t="n">
+        <v>2</v>
+      </c>
+      <c r="R147" t="n">
+        <v>3</v>
+      </c>
+      <c r="S147" t="n">
+        <v>5</v>
+      </c>
+      <c r="T147" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="U147" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V147" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="W147" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="X147" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Y147" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="Z147" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AA147" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB147" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC147" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AD147" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE147" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AF147" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG147" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH147" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI147" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AJ147" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK147" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AL147" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM147" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN147" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AO147" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP147" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AQ147" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="AR147" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AS147" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AT147" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AU147" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AV147" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AW147" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AX147" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AY147" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AZ147" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BA147" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB147" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BC147" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="BD147" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BE147" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF147" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG147" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH147" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI147" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ147" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK147" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B148" t="n">
+        <v>2529711</v>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>Slovenia PrvaLiga</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E148" s="2" t="n">
+        <v>45024.52083333334</v>
+      </c>
+      <c r="F148" t="n">
+        <v>30</v>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>Radomlje</t>
+        </is>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>Gorica</t>
+        </is>
+      </c>
+      <c r="I148" t="n">
+        <v>1</v>
+      </c>
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="n">
+        <v>2</v>
+      </c>
+      <c r="M148" t="n">
+        <v>0</v>
+      </c>
+      <c r="N148" t="n">
+        <v>2</v>
+      </c>
+      <c r="O148" t="inlineStr">
+        <is>
+          <t>['35', '72']</t>
+        </is>
+      </c>
+      <c r="P148" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q148" t="n">
+        <v>3</v>
+      </c>
+      <c r="R148" t="n">
+        <v>8</v>
+      </c>
+      <c r="S148" t="n">
+        <v>11</v>
+      </c>
+      <c r="T148" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="U148" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="V148" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="W148" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X148" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y148" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="Z148" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AA148" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB148" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC148" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AD148" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="AE148" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="AF148" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG148" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH148" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AI148" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="AJ148" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AK148" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AL148" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AM148" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN148" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AO148" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP148" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AQ148" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AR148" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="AS148" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT148" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="AU148" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AV148" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AW148" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AX148" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AY148" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="AZ148" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BA148" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BB148" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BC148" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="BD148" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="BE148" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BF148" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG148" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH148" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI148" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ148" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK148" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Slovenia PrvaLiga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Slovenia PrvaLiga_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK148"/>
+  <dimension ref="A1:BK149"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AT4" t="n">
         <v>1</v>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AT8" t="n">
         <v>0.73</v>
@@ -2527,7 +2527,7 @@
         <v>1.43</v>
       </c>
       <c r="AT10" t="n">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -4554,7 +4554,7 @@
         <v>3</v>
       </c>
       <c r="AS20" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AT20" t="n">
         <v>2</v>
@@ -4760,7 +4760,7 @@
         <v>0.73</v>
       </c>
       <c r="AT21" t="n">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AU21" t="n">
         <v>1.98</v>
@@ -6584,7 +6584,7 @@
         <v>0.67</v>
       </c>
       <c r="AS30" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AT30" t="n">
         <v>1.21</v>
@@ -7602,7 +7602,7 @@
         <v>1.27</v>
       </c>
       <c r="AT35" t="n">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AU35" t="n">
         <v>2.15</v>
@@ -8411,7 +8411,7 @@
         <v>0.75</v>
       </c>
       <c r="AS39" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AT39" t="n">
         <v>0.73</v>
@@ -9835,7 +9835,7 @@
         <v>1.86</v>
       </c>
       <c r="AT46" t="n">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AU46" t="n">
         <v>2.35</v>
@@ -10038,7 +10038,7 @@
         <v>0.67</v>
       </c>
       <c r="AT47" t="n">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AU47" t="n">
         <v>1.48</v>
@@ -12268,10 +12268,10 @@
         <v>1.8</v>
       </c>
       <c r="AS58" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AT58" t="n">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AU58" t="n">
         <v>1.99</v>
@@ -14095,7 +14095,7 @@
         <v>0.83</v>
       </c>
       <c r="AS67" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AT67" t="n">
         <v>1.67</v>
@@ -14910,7 +14910,7 @@
         <v>1</v>
       </c>
       <c r="AT71" t="n">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AU71" t="n">
         <v>1.35</v>
@@ -15722,7 +15722,7 @@
         <v>2.53</v>
       </c>
       <c r="AT75" t="n">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AU75" t="n">
         <v>1.89</v>
@@ -16937,7 +16937,7 @@
         <v>1.43</v>
       </c>
       <c r="AS81" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AT81" t="n">
         <v>1.07</v>
@@ -17752,7 +17752,7 @@
         <v>2.07</v>
       </c>
       <c r="AT85" t="n">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AU85" t="n">
         <v>2.03</v>
@@ -18358,7 +18358,7 @@
         <v>0.63</v>
       </c>
       <c r="AS88" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AT88" t="n">
         <v>0.47</v>
@@ -19373,7 +19373,7 @@
         <v>0.78</v>
       </c>
       <c r="AS93" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AT93" t="n">
         <v>1</v>
@@ -20188,7 +20188,7 @@
         <v>1.43</v>
       </c>
       <c r="AT97" t="n">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AU97" t="n">
         <v>1.85</v>
@@ -20591,7 +20591,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS99" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AT99" t="n">
         <v>0.73</v>
@@ -22624,7 +22624,7 @@
         <v>0.73</v>
       </c>
       <c r="AT109" t="n">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AU109" t="n">
         <v>1.7</v>
@@ -23027,7 +23027,7 @@
         <v>2.2</v>
       </c>
       <c r="AS111" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AT111" t="n">
         <v>2</v>
@@ -24854,7 +24854,7 @@
         <v>1.17</v>
       </c>
       <c r="AS120" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AT120" t="n">
         <v>1.21</v>
@@ -25466,7 +25466,7 @@
         <v>1.27</v>
       </c>
       <c r="AT123" t="n">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AU123" t="n">
         <v>1.71</v>
@@ -26478,7 +26478,7 @@
         <v>0.77</v>
       </c>
       <c r="AS128" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AT128" t="n">
         <v>0.73</v>
@@ -28105,7 +28105,7 @@
         <v>1.86</v>
       </c>
       <c r="AT136" t="n">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AU136" t="n">
         <v>2.02</v>
@@ -28917,7 +28917,7 @@
         <v>0.67</v>
       </c>
       <c r="AT140" t="n">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AU140" t="n">
         <v>1.49</v>
@@ -30593,6 +30593,209 @@
       </c>
       <c r="BK148" t="n">
         <v>9</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B149" t="n">
+        <v>2529712</v>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>Slovenia PrvaLiga</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E149" s="2" t="n">
+        <v>45024.63541666666</v>
+      </c>
+      <c r="F149" t="n">
+        <v>30</v>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>Maribor</t>
+        </is>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>Koper</t>
+        </is>
+      </c>
+      <c r="I149" t="n">
+        <v>1</v>
+      </c>
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="n">
+        <v>3</v>
+      </c>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+      <c r="N149" t="n">
+        <v>4</v>
+      </c>
+      <c r="O149" t="inlineStr">
+        <is>
+          <t>['43', '54', '72']</t>
+        </is>
+      </c>
+      <c r="P149" t="inlineStr">
+        <is>
+          <t>['90+6']</t>
+        </is>
+      </c>
+      <c r="Q149" t="n">
+        <v>4</v>
+      </c>
+      <c r="R149" t="n">
+        <v>4</v>
+      </c>
+      <c r="S149" t="n">
+        <v>8</v>
+      </c>
+      <c r="T149" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="U149" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V149" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="W149" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="X149" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Y149" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Z149" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AA149" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AB149" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC149" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AD149" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE149" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AF149" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG149" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="AH149" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI149" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AJ149" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK149" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AL149" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM149" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AN149" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO149" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP149" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AQ149" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AR149" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AS149" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AT149" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AU149" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AV149" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AW149" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="AX149" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AY149" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AZ149" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BA149" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB149" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BC149" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BD149" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BE149" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BF149" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG149" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH149" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI149" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ149" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK149" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Slovenia PrvaLiga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Slovenia PrvaLiga_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK149"/>
+  <dimension ref="A1:BK151"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1106,7 +1106,7 @@
         <v>1.27</v>
       </c>
       <c r="AT3" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1918,7 +1918,7 @@
         <v>1</v>
       </c>
       <c r="AT7" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2324,7 +2324,7 @@
         <v>0.67</v>
       </c>
       <c r="AT9" t="n">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT10" t="n">
         <v>1.67</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AT11" t="n">
         <v>1.67</v>
@@ -3948,7 +3948,7 @@
         <v>0.67</v>
       </c>
       <c r="AT17" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU17" t="n">
         <v>1.43</v>
@@ -4148,7 +4148,7 @@
         <v>0</v>
       </c>
       <c r="AS18" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT18" t="n">
         <v>1.67</v>
@@ -4557,7 +4557,7 @@
         <v>1.8</v>
       </c>
       <c r="AT20" t="n">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="AU20" t="n">
         <v>2.1</v>
@@ -5163,7 +5163,7 @@
         <v>0.5</v>
       </c>
       <c r="AS23" t="n">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AT23" t="n">
         <v>0.73</v>
@@ -6178,7 +6178,7 @@
         <v>0.67</v>
       </c>
       <c r="AS28" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT28" t="n">
         <v>1.07</v>
@@ -6384,7 +6384,7 @@
         <v>1.4</v>
       </c>
       <c r="AT29" t="n">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="AU29" t="n">
         <v>2.15</v>
@@ -6587,7 +6587,7 @@
         <v>1.8</v>
       </c>
       <c r="AT30" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU30" t="n">
         <v>1.86</v>
@@ -7802,7 +7802,7 @@
         <v>0</v>
       </c>
       <c r="AS36" t="n">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AT36" t="n">
         <v>1.8</v>
@@ -8211,7 +8211,7 @@
         <v>1.4</v>
       </c>
       <c r="AT38" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU38" t="n">
         <v>2.06</v>
@@ -9429,7 +9429,7 @@
         <v>2.07</v>
       </c>
       <c r="AT44" t="n">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="AU44" t="n">
         <v>2.25</v>
@@ -9629,7 +9629,7 @@
         <v>1</v>
       </c>
       <c r="AS45" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT45" t="n">
         <v>1.8</v>
@@ -9832,7 +9832,7 @@
         <v>2</v>
       </c>
       <c r="AS46" t="n">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AT46" t="n">
         <v>1.67</v>
@@ -10238,10 +10238,10 @@
         <v>2.25</v>
       </c>
       <c r="AS48" t="n">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AT48" t="n">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="AU48" t="n">
         <v>2.44</v>
@@ -10441,7 +10441,7 @@
         <v>0.75</v>
       </c>
       <c r="AS49" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT49" t="n">
         <v>0.73</v>
@@ -12471,10 +12471,10 @@
         <v>2.4</v>
       </c>
       <c r="AS59" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT59" t="n">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="AU59" t="n">
         <v>1.9</v>
@@ -12674,10 +12674,10 @@
         <v>1.2</v>
       </c>
       <c r="AS60" t="n">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AT60" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU60" t="n">
         <v>2.17</v>
@@ -13892,7 +13892,7 @@
         <v>1</v>
       </c>
       <c r="AS66" t="n">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AT66" t="n">
         <v>1</v>
@@ -14504,7 +14504,7 @@
         <v>0.73</v>
       </c>
       <c r="AT69" t="n">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="AU69" t="n">
         <v>1.94</v>
@@ -14704,10 +14704,10 @@
         <v>1</v>
       </c>
       <c r="AS70" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT70" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU70" t="n">
         <v>1.97</v>
@@ -15922,7 +15922,7 @@
         <v>0.71</v>
       </c>
       <c r="AS76" t="n">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AT76" t="n">
         <v>0.47</v>
@@ -16331,7 +16331,7 @@
         <v>0.73</v>
       </c>
       <c r="AT78" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU78" t="n">
         <v>1.86</v>
@@ -16534,7 +16534,7 @@
         <v>1</v>
       </c>
       <c r="AT79" t="n">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="AU79" t="n">
         <v>1.39</v>
@@ -16734,7 +16734,7 @@
         <v>0.57</v>
       </c>
       <c r="AS80" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT80" t="n">
         <v>0.73</v>
@@ -17140,7 +17140,7 @@
         <v>0.75</v>
       </c>
       <c r="AS82" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT82" t="n">
         <v>1</v>
@@ -17346,7 +17346,7 @@
         <v>1.27</v>
       </c>
       <c r="AT83" t="n">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="AU83" t="n">
         <v>1.8</v>
@@ -17952,7 +17952,7 @@
         <v>0.63</v>
       </c>
       <c r="AS86" t="n">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AT86" t="n">
         <v>0.73</v>
@@ -18970,7 +18970,7 @@
         <v>2.53</v>
       </c>
       <c r="AT91" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU91" t="n">
         <v>1.85</v>
@@ -19782,7 +19782,7 @@
         <v>1.27</v>
       </c>
       <c r="AT95" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU95" t="n">
         <v>1.7</v>
@@ -20185,7 +20185,7 @@
         <v>1.56</v>
       </c>
       <c r="AS97" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT97" t="n">
         <v>1.67</v>
@@ -20391,7 +20391,7 @@
         <v>0.67</v>
       </c>
       <c r="AT98" t="n">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="AU98" t="n">
         <v>1.63</v>
@@ -20797,7 +20797,7 @@
         <v>1</v>
       </c>
       <c r="AT100" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU100" t="n">
         <v>1.54</v>
@@ -20997,7 +20997,7 @@
         <v>1.33</v>
       </c>
       <c r="AS101" t="n">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AT101" t="n">
         <v>1.67</v>
@@ -22218,7 +22218,7 @@
         <v>0.67</v>
       </c>
       <c r="AT107" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU107" t="n">
         <v>1.53</v>
@@ -22824,7 +22824,7 @@
         <v>1.5</v>
       </c>
       <c r="AS110" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT110" t="n">
         <v>1.67</v>
@@ -23030,7 +23030,7 @@
         <v>1.8</v>
       </c>
       <c r="AT111" t="n">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="AU111" t="n">
         <v>1.87</v>
@@ -23433,7 +23433,7 @@
         <v>0.73</v>
       </c>
       <c r="AS113" t="n">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AT113" t="n">
         <v>0.73</v>
@@ -24245,7 +24245,7 @@
         <v>1.08</v>
       </c>
       <c r="AS117" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT117" t="n">
         <v>1.07</v>
@@ -24654,7 +24654,7 @@
         <v>1.4</v>
       </c>
       <c r="AT119" t="n">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="AU119" t="n">
         <v>1.77</v>
@@ -24857,7 +24857,7 @@
         <v>1.8</v>
       </c>
       <c r="AT120" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU120" t="n">
         <v>1.76</v>
@@ -26072,7 +26072,7 @@
         <v>1.82</v>
       </c>
       <c r="AS126" t="n">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AT126" t="n">
         <v>1.8</v>
@@ -26684,7 +26684,7 @@
         <v>1.4</v>
       </c>
       <c r="AT129" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU129" t="n">
         <v>1.76</v>
@@ -27290,7 +27290,7 @@
         <v>1.67</v>
       </c>
       <c r="AS132" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT132" t="n">
         <v>1.8</v>
@@ -27699,7 +27699,7 @@
         <v>2.07</v>
       </c>
       <c r="AT134" t="n">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="AU134" t="n">
         <v>1.92</v>
@@ -28102,7 +28102,7 @@
         <v>1.58</v>
       </c>
       <c r="AS136" t="n">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AT136" t="n">
         <v>1.67</v>
@@ -28711,7 +28711,7 @@
         <v>0.85</v>
       </c>
       <c r="AS139" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT139" t="n">
         <v>0.73</v>
@@ -29117,10 +29117,10 @@
         <v>2.15</v>
       </c>
       <c r="AS141" t="n">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AT141" t="n">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="AU141" t="n">
         <v>2</v>
@@ -30796,6 +30796,412 @@
       </c>
       <c r="BK149" t="n">
         <v>10</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B150" t="n">
+        <v>2529713</v>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>Slovenia PrvaLiga</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E150" s="2" t="n">
+        <v>45026.41666666666</v>
+      </c>
+      <c r="F150" t="n">
+        <v>30</v>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>Bravo</t>
+        </is>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>Olimpija</t>
+        </is>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
+      <c r="K150" t="n">
+        <v>0</v>
+      </c>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="n">
+        <v>0</v>
+      </c>
+      <c r="N150" t="n">
+        <v>1</v>
+      </c>
+      <c r="O150" t="inlineStr">
+        <is>
+          <t>['55']</t>
+        </is>
+      </c>
+      <c r="P150" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q150" t="n">
+        <v>1</v>
+      </c>
+      <c r="R150" t="n">
+        <v>5</v>
+      </c>
+      <c r="S150" t="n">
+        <v>6</v>
+      </c>
+      <c r="T150" t="n">
+        <v>4</v>
+      </c>
+      <c r="U150" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V150" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="W150" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="X150" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Y150" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z150" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA150" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB150" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC150" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AD150" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE150" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AF150" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG150" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AH150" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AI150" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="AJ150" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AK150" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AL150" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM150" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AN150" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AO150" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP150" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AQ150" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AR150" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS150" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AT150" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AU150" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AV150" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AW150" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="AX150" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AY150" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AZ150" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BA150" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB150" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BC150" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BD150" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="BE150" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF150" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG150" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH150" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI150" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ150" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK150" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B151" t="n">
+        <v>2529715</v>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>Slovenia PrvaLiga</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E151" s="2" t="n">
+        <v>45026.52083333334</v>
+      </c>
+      <c r="F151" t="n">
+        <v>30</v>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>Mura</t>
+        </is>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>Celje</t>
+        </is>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="n">
+        <v>1</v>
+      </c>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="n">
+        <v>0</v>
+      </c>
+      <c r="M151" t="n">
+        <v>2</v>
+      </c>
+      <c r="N151" t="n">
+        <v>2</v>
+      </c>
+      <c r="O151" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P151" t="inlineStr">
+        <is>
+          <t>['42', '57']</t>
+        </is>
+      </c>
+      <c r="Q151" t="n">
+        <v>6</v>
+      </c>
+      <c r="R151" t="n">
+        <v>3</v>
+      </c>
+      <c r="S151" t="n">
+        <v>9</v>
+      </c>
+      <c r="T151" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="U151" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="V151" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="W151" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="X151" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Y151" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="Z151" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA151" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AB151" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC151" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AD151" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE151" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AF151" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG151" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="AH151" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI151" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AJ151" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK151" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL151" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM151" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AN151" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AO151" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP151" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AQ151" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AR151" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AS151" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AT151" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AU151" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AV151" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AW151" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AX151" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AY151" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ151" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BA151" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB151" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BC151" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BD151" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE151" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BF151" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG151" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH151" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI151" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ151" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK151" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Slovenia PrvaLiga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Slovenia PrvaLiga_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK151"/>
+  <dimension ref="A1:BK152"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AT2" t="n">
         <v>0.73</v>
@@ -2121,7 +2121,7 @@
         <v>1.8</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU8" t="n">
         <v>1.17</v>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AT16" t="n">
         <v>1.8</v>
@@ -5366,7 +5366,7 @@
         <v>3</v>
       </c>
       <c r="AS24" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AT24" t="n">
         <v>1</v>
@@ -5775,7 +5775,7 @@
         <v>2.53</v>
       </c>
       <c r="AT26" t="n">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU26" t="n">
         <v>1.28</v>
@@ -6381,7 +6381,7 @@
         <v>3</v>
       </c>
       <c r="AS29" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AT29" t="n">
         <v>1.87</v>
@@ -7196,7 +7196,7 @@
         <v>2.07</v>
       </c>
       <c r="AT33" t="n">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU33" t="n">
         <v>2.5</v>
@@ -8208,7 +8208,7 @@
         <v>0.75</v>
       </c>
       <c r="AS38" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AT38" t="n">
         <v>1.33</v>
@@ -9226,7 +9226,7 @@
         <v>0.67</v>
       </c>
       <c r="AT43" t="n">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU43" t="n">
         <v>1.37</v>
@@ -10444,7 +10444,7 @@
         <v>1.53</v>
       </c>
       <c r="AT49" t="n">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU49" t="n">
         <v>1.91</v>
@@ -11456,7 +11456,7 @@
         <v>0.8</v>
       </c>
       <c r="AS54" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AT54" t="n">
         <v>0.47</v>
@@ -12880,7 +12880,7 @@
         <v>1</v>
       </c>
       <c r="AT61" t="n">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU61" t="n">
         <v>1.16</v>
@@ -13486,10 +13486,10 @@
         <v>0.67</v>
       </c>
       <c r="AS64" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AT64" t="n">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU64" t="n">
         <v>1.77</v>
@@ -15113,7 +15113,7 @@
         <v>1.27</v>
       </c>
       <c r="AT72" t="n">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU72" t="n">
         <v>1.78</v>
@@ -16125,7 +16125,7 @@
         <v>1.14</v>
       </c>
       <c r="AS77" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AT77" t="n">
         <v>1.67</v>
@@ -17955,7 +17955,7 @@
         <v>1.73</v>
       </c>
       <c r="AT86" t="n">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU86" t="n">
         <v>2.05</v>
@@ -18764,7 +18764,7 @@
         <v>1.25</v>
       </c>
       <c r="AS90" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AT90" t="n">
         <v>1.07</v>
@@ -19576,7 +19576,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS94" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AT94" t="n">
         <v>0.73</v>
@@ -20594,7 +20594,7 @@
         <v>1.8</v>
       </c>
       <c r="AT99" t="n">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU99" t="n">
         <v>1.86</v>
@@ -21809,7 +21809,7 @@
         <v>1.78</v>
       </c>
       <c r="AS105" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AT105" t="n">
         <v>1.8</v>
@@ -23230,7 +23230,7 @@
         <v>0.73</v>
       </c>
       <c r="AS112" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AT112" t="n">
         <v>1</v>
@@ -23842,7 +23842,7 @@
         <v>2.53</v>
       </c>
       <c r="AT115" t="n">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU115" t="n">
         <v>1.81</v>
@@ -24651,7 +24651,7 @@
         <v>2</v>
       </c>
       <c r="AS119" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AT119" t="n">
         <v>1.87</v>
@@ -25263,7 +25263,7 @@
         <v>2.07</v>
       </c>
       <c r="AT122" t="n">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU122" t="n">
         <v>1.92</v>
@@ -26681,7 +26681,7 @@
         <v>1.08</v>
       </c>
       <c r="AS129" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AT129" t="n">
         <v>1.33</v>
@@ -27902,7 +27902,7 @@
         <v>0.67</v>
       </c>
       <c r="AT135" t="n">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU135" t="n">
         <v>1.53</v>
@@ -28714,7 +28714,7 @@
         <v>1.53</v>
       </c>
       <c r="AT139" t="n">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU139" t="n">
         <v>1.81</v>
@@ -29726,7 +29726,7 @@
         <v>0.5</v>
       </c>
       <c r="AS144" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AT144" t="n">
         <v>0.47</v>
@@ -30541,7 +30541,7 @@
         <v>1</v>
       </c>
       <c r="AT148" t="n">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU148" t="n">
         <v>1.4</v>
@@ -31201,6 +31201,209 @@
         <v>12</v>
       </c>
       <c r="BK151" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B152" t="n">
+        <v>2529720</v>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>Slovenia PrvaLiga</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E152" s="2" t="n">
+        <v>45030.63541666666</v>
+      </c>
+      <c r="F152" t="n">
+        <v>31</v>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>Koper</t>
+        </is>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>Gorica</t>
+        </is>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
+      <c r="K152" t="n">
+        <v>0</v>
+      </c>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="n">
+        <v>0</v>
+      </c>
+      <c r="N152" t="n">
+        <v>1</v>
+      </c>
+      <c r="O152" t="inlineStr">
+        <is>
+          <t>['61']</t>
+        </is>
+      </c>
+      <c r="P152" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q152" t="n">
+        <v>7</v>
+      </c>
+      <c r="R152" t="n">
+        <v>4</v>
+      </c>
+      <c r="S152" t="n">
+        <v>11</v>
+      </c>
+      <c r="T152" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="U152" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V152" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="W152" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="X152" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Y152" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="Z152" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AA152" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="AB152" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC152" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AD152" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="AE152" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="AF152" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG152" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH152" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AI152" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="AJ152" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AK152" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AL152" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM152" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AN152" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AO152" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP152" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AQ152" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AR152" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="AS152" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT152" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AU152" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AV152" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AW152" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="AX152" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AY152" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ152" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="BA152" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB152" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BC152" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BD152" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BE152" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BF152" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG152" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH152" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI152" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ152" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK152" t="n">
         <v>7</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2023)/Slovenia PrvaLiga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Slovenia PrvaLiga_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK152"/>
+  <dimension ref="A1:BK156"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>1.5</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT3" t="n">
         <v>1.33</v>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>2.53</v>
+        <v>2.56</v>
       </c>
       <c r="AT5" t="n">
         <v>1.07</v>
@@ -1715,7 +1715,7 @@
         <v>0.73</v>
       </c>
       <c r="AT6" t="n">
-        <v>0.47</v>
+        <v>0.5</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AT11" t="n">
         <v>1.67</v>
@@ -3133,10 +3133,10 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT13" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU13" t="n">
         <v>1.49</v>
@@ -3336,10 +3336,10 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>2.53</v>
+        <v>2.56</v>
       </c>
       <c r="AT14" t="n">
-        <v>0.47</v>
+        <v>0.5</v>
       </c>
       <c r="AU14" t="n">
         <v>1.29</v>
@@ -3539,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AT15" t="n">
         <v>1.07</v>
@@ -3745,7 +3745,7 @@
         <v>1.5</v>
       </c>
       <c r="AT16" t="n">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AU16" t="n">
         <v>2.44</v>
@@ -4960,10 +4960,10 @@
         <v>0</v>
       </c>
       <c r="AS22" t="n">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AT22" t="n">
-        <v>0.47</v>
+        <v>0.5</v>
       </c>
       <c r="AU22" t="n">
         <v>2.42</v>
@@ -5163,10 +5163,10 @@
         <v>0.5</v>
       </c>
       <c r="AS23" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AT23" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU23" t="n">
         <v>3.08</v>
@@ -5569,10 +5569,10 @@
         <v>0</v>
       </c>
       <c r="AS25" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT25" t="n">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AU25" t="n">
         <v>2.01</v>
@@ -5772,7 +5772,7 @@
         <v>0</v>
       </c>
       <c r="AS26" t="n">
-        <v>2.53</v>
+        <v>2.56</v>
       </c>
       <c r="AT26" t="n">
         <v>0.6899999999999999</v>
@@ -5978,7 +5978,7 @@
         <v>1</v>
       </c>
       <c r="AT27" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU27" t="n">
         <v>1.35</v>
@@ -6993,7 +6993,7 @@
         <v>0.67</v>
       </c>
       <c r="AT32" t="n">
-        <v>0.47</v>
+        <v>0.5</v>
       </c>
       <c r="AU32" t="n">
         <v>1.31</v>
@@ -7193,7 +7193,7 @@
         <v>0</v>
       </c>
       <c r="AS33" t="n">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AT33" t="n">
         <v>0.6899999999999999</v>
@@ -7396,7 +7396,7 @@
         <v>2</v>
       </c>
       <c r="AS34" t="n">
-        <v>2.53</v>
+        <v>2.56</v>
       </c>
       <c r="AT34" t="n">
         <v>1</v>
@@ -7599,7 +7599,7 @@
         <v>1.5</v>
       </c>
       <c r="AS35" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT35" t="n">
         <v>1.67</v>
@@ -7802,10 +7802,10 @@
         <v>0</v>
       </c>
       <c r="AS36" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AT36" t="n">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AU36" t="n">
         <v>2.4</v>
@@ -8414,7 +8414,7 @@
         <v>1.8</v>
       </c>
       <c r="AT39" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU39" t="n">
         <v>1.97</v>
@@ -8614,7 +8614,7 @@
         <v>1.33</v>
       </c>
       <c r="AS40" t="n">
-        <v>2.53</v>
+        <v>2.56</v>
       </c>
       <c r="AT40" t="n">
         <v>1.67</v>
@@ -8820,7 +8820,7 @@
         <v>1</v>
       </c>
       <c r="AT41" t="n">
-        <v>0.47</v>
+        <v>0.5</v>
       </c>
       <c r="AU41" t="n">
         <v>1.32</v>
@@ -9020,7 +9020,7 @@
         <v>1.5</v>
       </c>
       <c r="AS42" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT42" t="n">
         <v>1</v>
@@ -9426,7 +9426,7 @@
         <v>3</v>
       </c>
       <c r="AS44" t="n">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AT44" t="n">
         <v>1.87</v>
@@ -9632,7 +9632,7 @@
         <v>1.53</v>
       </c>
       <c r="AT45" t="n">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AU45" t="n">
         <v>1.94</v>
@@ -9832,7 +9832,7 @@
         <v>2</v>
       </c>
       <c r="AS46" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AT46" t="n">
         <v>1.67</v>
@@ -10238,7 +10238,7 @@
         <v>2.25</v>
       </c>
       <c r="AS48" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AT48" t="n">
         <v>1.87</v>
@@ -10647,7 +10647,7 @@
         <v>1</v>
       </c>
       <c r="AT50" t="n">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AU50" t="n">
         <v>1.33</v>
@@ -10847,7 +10847,7 @@
         <v>1</v>
       </c>
       <c r="AS51" t="n">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AT51" t="n">
         <v>1.67</v>
@@ -11050,7 +11050,7 @@
         <v>1.2</v>
       </c>
       <c r="AS52" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT52" t="n">
         <v>1.07</v>
@@ -11253,10 +11253,10 @@
         <v>0.8</v>
       </c>
       <c r="AS53" t="n">
-        <v>2.53</v>
+        <v>2.56</v>
       </c>
       <c r="AT53" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU53" t="n">
         <v>1.8</v>
@@ -11459,7 +11459,7 @@
         <v>1.5</v>
       </c>
       <c r="AT54" t="n">
-        <v>0.47</v>
+        <v>0.5</v>
       </c>
       <c r="AU54" t="n">
         <v>1.84</v>
@@ -11662,7 +11662,7 @@
         <v>0.73</v>
       </c>
       <c r="AT55" t="n">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AU55" t="n">
         <v>2.09</v>
@@ -11862,7 +11862,7 @@
         <v>1.2</v>
       </c>
       <c r="AS56" t="n">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AT56" t="n">
         <v>1</v>
@@ -12674,7 +12674,7 @@
         <v>1.2</v>
       </c>
       <c r="AS60" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AT60" t="n">
         <v>1.33</v>
@@ -13080,10 +13080,10 @@
         <v>0.67</v>
       </c>
       <c r="AS62" t="n">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AT62" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU62" t="n">
         <v>2.13</v>
@@ -13283,10 +13283,10 @@
         <v>0.67</v>
       </c>
       <c r="AS63" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT63" t="n">
-        <v>0.47</v>
+        <v>0.5</v>
       </c>
       <c r="AU63" t="n">
         <v>1.84</v>
@@ -13689,10 +13689,10 @@
         <v>2</v>
       </c>
       <c r="AS65" t="n">
-        <v>2.53</v>
+        <v>2.56</v>
       </c>
       <c r="AT65" t="n">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AU65" t="n">
         <v>1.79</v>
@@ -13892,7 +13892,7 @@
         <v>1</v>
       </c>
       <c r="AS66" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AT66" t="n">
         <v>1</v>
@@ -15110,7 +15110,7 @@
         <v>0.71</v>
       </c>
       <c r="AS72" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT72" t="n">
         <v>0.6899999999999999</v>
@@ -15516,10 +15516,10 @@
         <v>1.71</v>
       </c>
       <c r="AS74" t="n">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AT74" t="n">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AU74" t="n">
         <v>2.12</v>
@@ -15719,7 +15719,7 @@
         <v>1.86</v>
       </c>
       <c r="AS75" t="n">
-        <v>2.53</v>
+        <v>2.56</v>
       </c>
       <c r="AT75" t="n">
         <v>1.67</v>
@@ -15922,10 +15922,10 @@
         <v>0.71</v>
       </c>
       <c r="AS76" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AT76" t="n">
-        <v>0.47</v>
+        <v>0.5</v>
       </c>
       <c r="AU76" t="n">
         <v>2.18</v>
@@ -16737,7 +16737,7 @@
         <v>1.53</v>
       </c>
       <c r="AT80" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU80" t="n">
         <v>1.82</v>
@@ -17343,7 +17343,7 @@
         <v>2</v>
       </c>
       <c r="AS83" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT83" t="n">
         <v>1.87</v>
@@ -17549,7 +17549,7 @@
         <v>0.67</v>
       </c>
       <c r="AT84" t="n">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AU84" t="n">
         <v>1.71</v>
@@ -17749,7 +17749,7 @@
         <v>1.63</v>
       </c>
       <c r="AS85" t="n">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AT85" t="n">
         <v>1.67</v>
@@ -17952,7 +17952,7 @@
         <v>0.63</v>
       </c>
       <c r="AS86" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AT86" t="n">
         <v>0.6899999999999999</v>
@@ -18158,7 +18158,7 @@
         <v>0.73</v>
       </c>
       <c r="AT87" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU87" t="n">
         <v>1.74</v>
@@ -18361,7 +18361,7 @@
         <v>1.8</v>
       </c>
       <c r="AT88" t="n">
-        <v>0.47</v>
+        <v>0.5</v>
       </c>
       <c r="AU88" t="n">
         <v>1.86</v>
@@ -18967,7 +18967,7 @@
         <v>1.13</v>
       </c>
       <c r="AS91" t="n">
-        <v>2.53</v>
+        <v>2.56</v>
       </c>
       <c r="AT91" t="n">
         <v>1.33</v>
@@ -19173,7 +19173,7 @@
         <v>0.73</v>
       </c>
       <c r="AT92" t="n">
-        <v>0.47</v>
+        <v>0.5</v>
       </c>
       <c r="AU92" t="n">
         <v>1.76</v>
@@ -19579,7 +19579,7 @@
         <v>1.5</v>
       </c>
       <c r="AT94" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU94" t="n">
         <v>1.8</v>
@@ -19779,7 +19779,7 @@
         <v>1.11</v>
       </c>
       <c r="AS95" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT95" t="n">
         <v>1.33</v>
@@ -19982,7 +19982,7 @@
         <v>1.22</v>
       </c>
       <c r="AS96" t="n">
-        <v>2.53</v>
+        <v>2.56</v>
       </c>
       <c r="AT96" t="n">
         <v>1.07</v>
@@ -20997,7 +20997,7 @@
         <v>1.33</v>
       </c>
       <c r="AS101" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AT101" t="n">
         <v>1.67</v>
@@ -21200,10 +21200,10 @@
         <v>0.6</v>
       </c>
       <c r="AS102" t="n">
-        <v>2.53</v>
+        <v>2.56</v>
       </c>
       <c r="AT102" t="n">
-        <v>0.47</v>
+        <v>0.5</v>
       </c>
       <c r="AU102" t="n">
         <v>1.84</v>
@@ -21403,7 +21403,7 @@
         <v>1.2</v>
       </c>
       <c r="AS103" t="n">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AT103" t="n">
         <v>1.07</v>
@@ -21812,7 +21812,7 @@
         <v>1.5</v>
       </c>
       <c r="AT105" t="n">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AU105" t="n">
         <v>1.8</v>
@@ -22012,10 +22012,10 @@
         <v>0.5</v>
       </c>
       <c r="AS106" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT106" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU106" t="n">
         <v>1.7</v>
@@ -23433,10 +23433,10 @@
         <v>0.73</v>
       </c>
       <c r="AS113" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AT113" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU113" t="n">
         <v>2.07</v>
@@ -23636,10 +23636,10 @@
         <v>0.55</v>
       </c>
       <c r="AS114" t="n">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AT114" t="n">
-        <v>0.47</v>
+        <v>0.5</v>
       </c>
       <c r="AU114" t="n">
         <v>1.91</v>
@@ -23839,7 +23839,7 @@
         <v>0.5</v>
       </c>
       <c r="AS115" t="n">
-        <v>2.53</v>
+        <v>2.56</v>
       </c>
       <c r="AT115" t="n">
         <v>0.6899999999999999</v>
@@ -24042,10 +24042,10 @@
         <v>1.9</v>
       </c>
       <c r="AS116" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT116" t="n">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AU116" t="n">
         <v>1.7</v>
@@ -24451,7 +24451,7 @@
         <v>1</v>
       </c>
       <c r="AT118" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU118" t="n">
         <v>1.44</v>
@@ -25260,7 +25260,7 @@
         <v>0.45</v>
       </c>
       <c r="AS122" t="n">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AT122" t="n">
         <v>0.6899999999999999</v>
@@ -25463,7 +25463,7 @@
         <v>1.64</v>
       </c>
       <c r="AS123" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT123" t="n">
         <v>1.67</v>
@@ -25666,7 +25666,7 @@
         <v>0.92</v>
       </c>
       <c r="AS124" t="n">
-        <v>2.53</v>
+        <v>2.56</v>
       </c>
       <c r="AT124" t="n">
         <v>1</v>
@@ -25872,7 +25872,7 @@
         <v>0.67</v>
       </c>
       <c r="AT125" t="n">
-        <v>0.47</v>
+        <v>0.5</v>
       </c>
       <c r="AU125" t="n">
         <v>1.55</v>
@@ -26072,10 +26072,10 @@
         <v>1.82</v>
       </c>
       <c r="AS126" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AT126" t="n">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AU126" t="n">
         <v>2.08</v>
@@ -26481,7 +26481,7 @@
         <v>1.8</v>
       </c>
       <c r="AT128" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU128" t="n">
         <v>1.78</v>
@@ -26884,7 +26884,7 @@
         <v>1.75</v>
       </c>
       <c r="AS130" t="n">
-        <v>2.53</v>
+        <v>2.56</v>
       </c>
       <c r="AT130" t="n">
         <v>1.67</v>
@@ -27090,7 +27090,7 @@
         <v>1</v>
       </c>
       <c r="AT131" t="n">
-        <v>0.47</v>
+        <v>0.5</v>
       </c>
       <c r="AU131" t="n">
         <v>1.43</v>
@@ -27293,7 +27293,7 @@
         <v>1.53</v>
       </c>
       <c r="AT132" t="n">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AU132" t="n">
         <v>1.8</v>
@@ -27493,7 +27493,7 @@
         <v>0.85</v>
       </c>
       <c r="AS133" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT133" t="n">
         <v>1</v>
@@ -27696,7 +27696,7 @@
         <v>2.08</v>
       </c>
       <c r="AS134" t="n">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AT134" t="n">
         <v>1.87</v>
@@ -28102,7 +28102,7 @@
         <v>1.58</v>
       </c>
       <c r="AS136" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AT136" t="n">
         <v>1.67</v>
@@ -28308,7 +28308,7 @@
         <v>1</v>
       </c>
       <c r="AT137" t="n">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AU137" t="n">
         <v>1.43</v>
@@ -28508,7 +28508,7 @@
         <v>1.85</v>
       </c>
       <c r="AS138" t="n">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AT138" t="n">
         <v>1.67</v>
@@ -29117,7 +29117,7 @@
         <v>2.15</v>
       </c>
       <c r="AS141" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AT141" t="n">
         <v>1.87</v>
@@ -29320,7 +29320,7 @@
         <v>1</v>
       </c>
       <c r="AS142" t="n">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AT142" t="n">
         <v>1</v>
@@ -29526,7 +29526,7 @@
         <v>0.73</v>
       </c>
       <c r="AT143" t="n">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AU143" t="n">
         <v>1.72</v>
@@ -29729,7 +29729,7 @@
         <v>1.5</v>
       </c>
       <c r="AT144" t="n">
-        <v>0.47</v>
+        <v>0.5</v>
       </c>
       <c r="AU144" t="n">
         <v>1.69</v>
@@ -29929,10 +29929,10 @@
         <v>0.79</v>
       </c>
       <c r="AS145" t="n">
-        <v>2.53</v>
+        <v>2.56</v>
       </c>
       <c r="AT145" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU145" t="n">
         <v>2.05</v>
@@ -30132,7 +30132,7 @@
         <v>1.07</v>
       </c>
       <c r="AS146" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT146" t="n">
         <v>1.07</v>
@@ -31147,7 +31147,7 @@
         <v>1.21</v>
       </c>
       <c r="AS151" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AT151" t="n">
         <v>1.33</v>
@@ -31405,6 +31405,818 @@
       </c>
       <c r="BK152" t="n">
         <v>7</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B153" t="n">
+        <v>2529716</v>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>Slovenia PrvaLiga</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E153" s="2" t="n">
+        <v>45031.41666666666</v>
+      </c>
+      <c r="F153" t="n">
+        <v>31</v>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>Mura</t>
+        </is>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>Radomlje</t>
+        </is>
+      </c>
+      <c r="I153" t="n">
+        <v>1</v>
+      </c>
+      <c r="J153" t="n">
+        <v>1</v>
+      </c>
+      <c r="K153" t="n">
+        <v>2</v>
+      </c>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+      <c r="N153" t="n">
+        <v>2</v>
+      </c>
+      <c r="O153" t="inlineStr">
+        <is>
+          <t>['20']</t>
+        </is>
+      </c>
+      <c r="P153" t="inlineStr">
+        <is>
+          <t>['37']</t>
+        </is>
+      </c>
+      <c r="Q153" t="n">
+        <v>8</v>
+      </c>
+      <c r="R153" t="n">
+        <v>4</v>
+      </c>
+      <c r="S153" t="n">
+        <v>12</v>
+      </c>
+      <c r="T153" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U153" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="V153" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="W153" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="X153" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="Y153" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Z153" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AA153" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="AB153" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AC153" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AD153" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AE153" t="n">
+        <v>4.31</v>
+      </c>
+      <c r="AF153" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG153" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH153" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI153" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AJ153" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AK153" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AL153" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM153" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AN153" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AO153" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP153" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AQ153" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AR153" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS153" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AT153" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU153" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AV153" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AW153" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="AX153" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AY153" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AZ153" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="BA153" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB153" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BC153" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BD153" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="BE153" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="BF153" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG153" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH153" t="n">
+        <v>12</v>
+      </c>
+      <c r="BI153" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ153" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK153" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B154" t="n">
+        <v>2529718</v>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>Slovenia PrvaLiga</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E154" s="2" t="n">
+        <v>45031.52083333334</v>
+      </c>
+      <c r="F154" t="n">
+        <v>31</v>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>Domžale</t>
+        </is>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>Bravo</t>
+        </is>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="n">
+        <v>1</v>
+      </c>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="n">
+        <v>2</v>
+      </c>
+      <c r="M154" t="n">
+        <v>2</v>
+      </c>
+      <c r="N154" t="n">
+        <v>4</v>
+      </c>
+      <c r="O154" t="inlineStr">
+        <is>
+          <t>['53', '68']</t>
+        </is>
+      </c>
+      <c r="P154" t="inlineStr">
+        <is>
+          <t>['35', '85']</t>
+        </is>
+      </c>
+      <c r="Q154" t="n">
+        <v>4</v>
+      </c>
+      <c r="R154" t="n">
+        <v>6</v>
+      </c>
+      <c r="S154" t="n">
+        <v>10</v>
+      </c>
+      <c r="T154" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="U154" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V154" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="W154" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X154" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Y154" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z154" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA154" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB154" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC154" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AD154" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AE154" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="AF154" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG154" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH154" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AI154" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AJ154" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="AK154" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AL154" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AM154" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AN154" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AO154" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP154" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AQ154" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AR154" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="AS154" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AT154" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AU154" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AV154" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AW154" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="AX154" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AY154" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AZ154" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BA154" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BB154" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BC154" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BD154" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="BE154" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF154" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG154" t="n">
+        <v>10</v>
+      </c>
+      <c r="BH154" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI154" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ154" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK154" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B155" t="n">
+        <v>2529717</v>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>Slovenia PrvaLiga</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E155" s="2" t="n">
+        <v>45031.63541666666</v>
+      </c>
+      <c r="F155" t="n">
+        <v>31</v>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>Celje</t>
+        </is>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>Tabor Sežana</t>
+        </is>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
+      <c r="K155" t="n">
+        <v>0</v>
+      </c>
+      <c r="L155" t="n">
+        <v>0</v>
+      </c>
+      <c r="M155" t="n">
+        <v>0</v>
+      </c>
+      <c r="N155" t="n">
+        <v>0</v>
+      </c>
+      <c r="O155" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P155" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q155" t="n">
+        <v>12</v>
+      </c>
+      <c r="R155" t="n">
+        <v>3</v>
+      </c>
+      <c r="S155" t="n">
+        <v>15</v>
+      </c>
+      <c r="T155" t="n">
+        <v>2</v>
+      </c>
+      <c r="U155" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V155" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="W155" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X155" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="Y155" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Z155" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AA155" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB155" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC155" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AD155" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="AE155" t="n">
+        <v>5.31</v>
+      </c>
+      <c r="AF155" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG155" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="AH155" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI155" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AJ155" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK155" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AL155" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM155" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN155" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AO155" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AP155" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AQ155" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AR155" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="AS155" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT155" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AU155" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AV155" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AW155" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AX155" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AY155" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AZ155" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="BA155" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB155" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BC155" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="BD155" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BE155" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF155" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG155" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH155" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI155" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ155" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK155" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B156" t="n">
+        <v>2529719</v>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>Slovenia PrvaLiga</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E156" s="2" t="n">
+        <v>45032.52083333334</v>
+      </c>
+      <c r="F156" t="n">
+        <v>31</v>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>Olimpija</t>
+        </is>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>Maribor</t>
+        </is>
+      </c>
+      <c r="I156" t="n">
+        <v>1</v>
+      </c>
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="n">
+        <v>2</v>
+      </c>
+      <c r="M156" t="n">
+        <v>0</v>
+      </c>
+      <c r="N156" t="n">
+        <v>2</v>
+      </c>
+      <c r="O156" t="inlineStr">
+        <is>
+          <t>['44', '76']</t>
+        </is>
+      </c>
+      <c r="P156" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q156" t="n">
+        <v>4</v>
+      </c>
+      <c r="R156" t="n">
+        <v>4</v>
+      </c>
+      <c r="S156" t="n">
+        <v>8</v>
+      </c>
+      <c r="T156" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="U156" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="V156" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="W156" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X156" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Y156" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="Z156" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AA156" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AB156" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC156" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AD156" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE156" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AF156" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG156" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AH156" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI156" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AJ156" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AK156" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AL156" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AM156" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AN156" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AO156" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP156" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AQ156" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="AR156" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AS156" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="AT156" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AU156" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AV156" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AW156" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="AX156" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AY156" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AZ156" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BA156" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB156" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC156" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BD156" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="BE156" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF156" t="n">
+        <v>11</v>
+      </c>
+      <c r="BG156" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH156" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI156" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ156" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK156" t="n">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
